--- a/earlywarning-pom/Document/test/SME RETAIL/test_Ind_High_Priority_SMERetail_round3.xlsx
+++ b/earlywarning-pom/Document/test/SME RETAIL/test_Ind_High_Priority_SMERetail_round3.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="High_Priority" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="156">
   <si>
     <t>valore atteso</t>
   </si>
@@ -465,9 +465,6 @@
     <t>BILA011;</t>
   </si>
   <si>
-    <t>sono invertiti i valori dei campi</t>
-  </si>
-  <si>
     <t>BILA010;</t>
   </si>
   <si>
@@ -479,11 +476,23 @@
   <si>
     <t>RATG003;</t>
   </si>
+  <si>
+    <t>BILA011</t>
+  </si>
+  <si>
+    <t>0'</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>(Z63+AA63+AB63+AC63)/(AD63+AE63/3,5-AF63+AC63)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -513,7 +522,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -562,6 +571,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3399"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -591,7 +606,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -669,21 +684,51 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="60% - Accent6 2" xfId="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF3399"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -992,51 +1037,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CR79"/>
+  <dimension ref="A1:CR89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="AR31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AU71" sqref="AU71"/>
+      <selection pane="bottomRight" activeCell="AV5" sqref="AV5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.140625" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.109375" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="20.28515625" style="1" customWidth="1"/>
-    <col min="8" max="9" width="20.28515625" style="16" customWidth="1"/>
-    <col min="10" max="10" width="24.140625" style="16" customWidth="1"/>
-    <col min="11" max="21" width="20.28515625" style="17" customWidth="1"/>
-    <col min="22" max="22" width="31" style="17" customWidth="1"/>
-    <col min="23" max="23" width="27.5703125" style="17" customWidth="1"/>
-    <col min="24" max="25" width="20.28515625" style="17" customWidth="1"/>
-    <col min="26" max="28" width="19.7109375" style="22" customWidth="1"/>
-    <col min="29" max="29" width="24" style="22" customWidth="1"/>
-    <col min="30" max="30" width="12.140625" style="17" customWidth="1"/>
-    <col min="31" max="31" width="20.7109375" style="17" customWidth="1"/>
-    <col min="32" max="32" width="12.140625" style="17" customWidth="1"/>
-    <col min="33" max="33" width="7.85546875" style="17" customWidth="1"/>
-    <col min="34" max="34" width="12.28515625" style="17" customWidth="1"/>
-    <col min="35" max="37" width="12.140625" style="17" customWidth="1"/>
-    <col min="38" max="38" width="32.85546875" style="17" customWidth="1"/>
-    <col min="39" max="39" width="31.28515625" style="17" customWidth="1"/>
-    <col min="40" max="40" width="27.85546875" style="17" customWidth="1"/>
-    <col min="41" max="41" width="22.140625" style="17" customWidth="1"/>
-    <col min="42" max="42" width="13.42578125" style="17" customWidth="1"/>
-    <col min="43" max="44" width="12.140625" style="17" customWidth="1"/>
-    <col min="45" max="45" width="15.140625" style="17" customWidth="1"/>
-    <col min="46" max="46" width="15.7109375" customWidth="1"/>
-    <col min="47" max="47" width="21.42578125" style="12" customWidth="1"/>
-    <col min="48" max="48" width="39.85546875" customWidth="1"/>
-    <col min="73" max="73" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.33203125" style="1" customWidth="1"/>
+    <col min="8" max="9" width="20.33203125" style="16" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="30.33203125" style="16" hidden="1" customWidth="1"/>
+    <col min="11" max="18" width="30.33203125" style="17" hidden="1" customWidth="1"/>
+    <col min="19" max="21" width="20.33203125" style="17" hidden="1" customWidth="1"/>
+    <col min="22" max="25" width="33.77734375" style="17" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="33.77734375" style="22" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="19.6640625" style="22" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="22.77734375" style="22" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="30.109375" style="22" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="33" style="17" hidden="1" customWidth="1"/>
+    <col min="31" max="38" width="39.33203125" style="17" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="31.33203125" style="17" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="27.88671875" style="17" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="22.109375" style="17" hidden="1" customWidth="1"/>
+    <col min="42" max="42" width="13.44140625" style="17" hidden="1" customWidth="1"/>
+    <col min="43" max="44" width="12.109375" style="17" hidden="1" customWidth="1"/>
+    <col min="45" max="45" width="15.109375" style="17" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="15.6640625" customWidth="1"/>
+    <col min="47" max="47" width="21.44140625" style="12" customWidth="1"/>
+    <col min="48" max="48" width="39.88671875" style="12" customWidth="1"/>
+    <col min="73" max="73" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:96" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:96" x14ac:dyDescent="0.3">
       <c r="F1" s="1" t="str">
         <f>B2&amp;","&amp;F2</f>
         <v>COD_SNDG,COD_RATING</v>
@@ -1198,7 +1239,7 @@
         <v>COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT</v>
       </c>
     </row>
-    <row r="2" spans="2:96" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:96" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
@@ -1341,7 +1382,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:96" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B3" s="11" t="s">
         <v>7</v>
       </c>
@@ -1404,7 +1445,9 @@
       <c r="AU3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AV3" s="3"/>
+      <c r="AV3" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="AW3" s="10" t="str">
         <f>"INSERT INTO TEWSA0W.CT_SME_TMP ("&amp;AS$1&amp;") VALUES ( " &amp;B3&amp;","&amp;(IF(OR(LEN(F3)=0,F3="missing"),"NULL",F3))&amp;","</f>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000114','20',</v>
@@ -1422,7 +1465,7 @@
         <v>'1',NULL,NULL</v>
       </c>
       <c r="BA3" t="str">
-        <f t="shared" ref="AZ3:CJ3" si="2">AZ3&amp;","&amp;(IF(OR(LEN(J3)=0,J3="?"),"NULL",J3))</f>
+        <f t="shared" ref="BA3:CJ3" si="2">AZ3&amp;","&amp;(IF(OR(LEN(J3)=0,J3="?"),"NULL",J3))</f>
         <v>'1',NULL,NULL,NULL</v>
       </c>
       <c r="BB3" t="str">
@@ -1577,7 +1620,7 @@
       <c r="CQ3" s="16"/>
       <c r="CR3" s="16"/>
     </row>
-    <row r="4" spans="2:96" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
         <v>8</v>
       </c>
@@ -1640,7 +1683,9 @@
       <c r="AU4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AV4" s="3"/>
+      <c r="AV4" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="AW4" s="10" t="str">
         <f t="shared" ref="AW4:AW67" si="3">"INSERT INTO TEWSA0W.CT_SME_TMP ("&amp;AS$1&amp;") VALUES ( " &amp;B4&amp;","&amp;(IF(OR(LEN(F4)=0,F4="missing"),"NULL",F4))&amp;","</f>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000115','05',</v>
@@ -1806,23 +1851,23 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000115','05','1',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="5" spans="2:96" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B5" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="2">
         <v>23</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="34" t="s">
         <v>97</v>
       </c>
       <c r="H5" s="14"/>
@@ -1866,8 +1911,8 @@
       <c r="AT5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AU5" s="4"/>
-      <c r="AV5" s="3"/>
+      <c r="AU5" s="31"/>
+      <c r="AV5" s="4"/>
       <c r="AW5" s="10" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000116',NULL,</v>
@@ -2033,7 +2078,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000116',NULL,'1',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="6" spans="2:96" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B6" s="11" t="s">
         <v>10</v>
       </c>
@@ -2043,7 +2088,7 @@
       <c r="D6" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="31" t="s">
         <v>48</v>
       </c>
       <c r="F6" s="13" t="s">
@@ -2091,10 +2136,10 @@
       <c r="AR6" s="6"/>
       <c r="AS6" s="6"/>
       <c r="AT6" s="3"/>
-      <c r="AU6" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="AV6" s="3"/>
+      <c r="AU6" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="AV6" s="4"/>
       <c r="AW6" s="10" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000117','20',</v>
@@ -2260,7 +2305,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000117','20','0',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="7" spans="2:96" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
         <v>11</v>
       </c>
@@ -2270,7 +2315,7 @@
       <c r="D7" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="31" t="s">
         <v>48</v>
       </c>
       <c r="F7" s="13" t="s">
@@ -2318,10 +2363,10 @@
       <c r="AR7" s="6"/>
       <c r="AS7" s="6"/>
       <c r="AT7" s="3"/>
-      <c r="AU7" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="AV7" s="3"/>
+      <c r="AU7" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="AV7" s="4"/>
       <c r="AW7" s="10" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000118','05',</v>
@@ -2487,7 +2532,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000118','05','0',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="8" spans="2:96" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B8" s="11" t="s">
         <v>12</v>
       </c>
@@ -2545,10 +2590,10 @@
       <c r="AR8" s="6"/>
       <c r="AS8" s="6"/>
       <c r="AT8" s="3"/>
-      <c r="AU8" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="AV8" s="3"/>
+      <c r="AU8" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="AV8" s="4"/>
       <c r="AW8" s="10" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000119',NULL,</v>
@@ -2714,7 +2759,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000119',NULL,'0',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="9" spans="2:96" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B9" s="11" t="s">
         <v>13</v>
       </c>
@@ -2774,8 +2819,8 @@
       <c r="AT9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AU9" s="4"/>
-      <c r="AV9" s="3"/>
+      <c r="AU9" s="31"/>
+      <c r="AV9" s="4"/>
       <c r="AW9" s="10" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000120','20',</v>
@@ -2941,7 +2986,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000120','20',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="10" spans="2:96" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
         <v>14</v>
       </c>
@@ -3001,8 +3046,8 @@
       <c r="AT10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AU10" s="4"/>
-      <c r="AV10" s="3"/>
+      <c r="AU10" s="31"/>
+      <c r="AV10" s="4"/>
       <c r="AW10" s="10" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000121','05',</v>
@@ -3168,7 +3213,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000121','05',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="11" spans="2:96" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B11" s="11" t="s">
         <v>15</v>
       </c>
@@ -3228,10 +3273,10 @@
       <c r="AT11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AU11" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="AV11" s="3"/>
+      <c r="AU11" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="AV11" s="4"/>
       <c r="AW11" s="10" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000122',NULL,</v>
@@ -3397,7 +3442,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000122',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="12" spans="2:96" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B12" s="11" t="s">
         <v>16</v>
       </c>
@@ -3485,7 +3530,9 @@
       <c r="AU12" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AV12" s="3"/>
+      <c r="AV12" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="AW12" s="10" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000123',NULL,</v>
@@ -3651,7 +3698,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000123',NULL,NULL,500,300,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="13" spans="2:96" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B13" s="11" t="s">
         <v>17</v>
       </c>
@@ -3738,7 +3785,9 @@
       <c r="AU13" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="AV13" s="3"/>
+      <c r="AV13" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="AW13" s="10" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000124',NULL,</v>
@@ -3904,7 +3953,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000124',NULL,NULL,0,0,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="14" spans="2:96" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B14" s="11" t="s">
         <v>18</v>
       </c>
@@ -3992,7 +4041,9 @@
       <c r="AU14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AV14" s="3"/>
+      <c r="AV14" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="AW14" s="10" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000125',NULL,</v>
@@ -4158,7 +4209,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000125',NULL,NULL,300,300,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="15" spans="2:96" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B15" s="11" t="s">
         <v>19</v>
       </c>
@@ -4246,7 +4297,9 @@
       <c r="AU15" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AV15" s="3"/>
+      <c r="AV15" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="AW15" s="10" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000126',NULL,</v>
@@ -4412,7 +4465,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000126',NULL,NULL,200,400,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="16" spans="2:96" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B16" s="11" t="s">
         <v>20</v>
       </c>
@@ -4499,7 +4552,9 @@
       <c r="AU16" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="AV16" s="3"/>
+      <c r="AV16" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="AW16" s="10" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000127',NULL,</v>
@@ -4665,7 +4720,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000127',NULL,NULL,300,0,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="17" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:89" x14ac:dyDescent="0.3">
       <c r="B17" s="11" t="s">
         <v>21</v>
       </c>
@@ -4753,7 +4808,9 @@
       <c r="AU17" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AV17" s="3"/>
+      <c r="AV17" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="AW17" s="10" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000128',NULL,</v>
@@ -4919,7 +4976,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000128',NULL,NULL,300,-200,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="18" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:89" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
         <v>22</v>
       </c>
@@ -5006,7 +5063,9 @@
       <c r="AU18" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AV18" s="3"/>
+      <c r="AV18" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="AW18" s="10" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000129',NULL,</v>
@@ -5172,7 +5231,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000129',NULL,NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="19" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:89" x14ac:dyDescent="0.3">
       <c r="B19" s="11" t="s">
         <v>23</v>
       </c>
@@ -5259,7 +5318,9 @@
       <c r="AU19" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="AV19" s="3"/>
+      <c r="AV19" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="AW19" s="10" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000130',NULL,</v>
@@ -5425,7 +5486,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000130',NULL,NULL,-300,0,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="20" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:89" x14ac:dyDescent="0.3">
       <c r="B20" s="11" t="s">
         <v>24</v>
       </c>
@@ -5512,7 +5573,9 @@
       <c r="AU20" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="AV20" s="3"/>
+      <c r="AV20" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="AW20" s="10" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000131',NULL,</v>
@@ -5678,7 +5741,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000131',NULL,NULL,500,300,'0','0','0','0','0','0','0','0','0','CEBI','02/05/2017','02/06/2016',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="21" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:89" x14ac:dyDescent="0.3">
       <c r="B21" s="11" t="s">
         <v>25</v>
       </c>
@@ -5765,7 +5828,9 @@
       <c r="AU21" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="AV21" s="3"/>
+      <c r="AV21" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="AW21" s="10" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000132',NULL,</v>
@@ -5931,7 +5996,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000132',NULL,NULL,0,0,'0','0','0','0','0','0','0','0','0','CEBI','02/05/2017','02/06/2016',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="22" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:89" x14ac:dyDescent="0.3">
       <c r="B22" s="11" t="s">
         <v>26</v>
       </c>
@@ -6018,7 +6083,9 @@
       <c r="AU22" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="AV22" s="3"/>
+      <c r="AV22" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="AW22" s="10" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000133',NULL,</v>
@@ -6184,7 +6251,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000133',NULL,NULL,NULL,NULL,'0','0','0','0','0','0','0','0','0','CEBI','02/05/2017','02/06/2016',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="23" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:89" x14ac:dyDescent="0.3">
       <c r="B23" s="11" t="s">
         <v>27</v>
       </c>
@@ -6271,7 +6338,9 @@
       <c r="AU23" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AV23" s="3"/>
+      <c r="AV23" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="AW23" s="10" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000134',NULL,</v>
@@ -6437,7 +6506,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000134',NULL,NULL,500,300,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'CEBI',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="24" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:89" x14ac:dyDescent="0.3">
       <c r="B24" s="11" t="s">
         <v>28</v>
       </c>
@@ -6524,7 +6593,9 @@
       <c r="AU24" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AV24" s="3"/>
+      <c r="AV24" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="AW24" s="10" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000135',NULL,</v>
@@ -6690,7 +6761,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000135',NULL,NULL,0,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'CEBI',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="25" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:89" x14ac:dyDescent="0.3">
       <c r="B25" s="11" t="s">
         <v>29</v>
       </c>
@@ -6777,7 +6848,9 @@
       <c r="AU25" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AV25" s="3"/>
+      <c r="AV25" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="AW25" s="10" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000136',NULL,</v>
@@ -6943,7 +7016,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000136',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'CEBI',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="26" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:89" x14ac:dyDescent="0.3">
       <c r="B26" s="11" t="s">
         <v>30</v>
       </c>
@@ -7030,7 +7103,9 @@
       <c r="AU26" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="AV26" s="3"/>
+      <c r="AV26" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="AW26" s="10" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000137',NULL,</v>
@@ -7196,7 +7271,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000137',NULL,NULL,500,300,'1','0','0','0','0','0','0','0','0','CEBI','02/05/2017','02/06/2016',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="27" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:89" x14ac:dyDescent="0.3">
       <c r="B27" s="11" t="s">
         <v>31</v>
       </c>
@@ -7283,7 +7358,9 @@
       <c r="AU27" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="AV27" s="3"/>
+      <c r="AV27" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="AW27" s="10" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000138',NULL,</v>
@@ -7449,7 +7526,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000138',NULL,NULL,0,0,'1','0','0','0','0','0','0','0','0','CEBI','02/05/2017','02/06/2016',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="28" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:89" x14ac:dyDescent="0.3">
       <c r="B28" s="11" t="s">
         <v>32</v>
       </c>
@@ -7536,7 +7613,9 @@
       <c r="AU28" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="AV28" s="3"/>
+      <c r="AV28" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="AW28" s="10" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000139',NULL,</v>
@@ -7702,7 +7781,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000139',NULL,NULL,NULL,NULL,'1','0','0','0','0','0','0','0','0','CEBI','02/05/2017','02/06/2016',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="29" spans="1:89" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:89" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29"/>
       <c r="B29" s="11" t="s">
         <v>33</v>
@@ -7790,7 +7869,9 @@
       <c r="AU29" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="AV29" s="3"/>
+      <c r="AV29" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="AW29" s="10" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000140',NULL,</v>
@@ -7956,7 +8037,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000140',NULL,NULL,500,300,'1','1','0','0','0','0','0','0','0','CEBI','02/05/2017','02/06/2016',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="30" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:89" x14ac:dyDescent="0.3">
       <c r="B30" s="11" t="s">
         <v>34</v>
       </c>
@@ -8043,7 +8124,9 @@
       <c r="AU30" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="AV30" s="3"/>
+      <c r="AV30" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="AW30" s="10" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000141',NULL,</v>
@@ -8209,7 +8292,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000141',NULL,NULL,0,0,'1','1','0','0','0','0','0','0','0','CEBI','02/05/2017','02/06/2016',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="31" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:89" x14ac:dyDescent="0.3">
       <c r="B31" s="11" t="s">
         <v>35</v>
       </c>
@@ -8296,7 +8379,9 @@
       <c r="AU31" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="AV31" s="3"/>
+      <c r="AV31" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="AW31" s="10" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000142',NULL,</v>
@@ -8462,7 +8547,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000142',NULL,NULL,NULL,NULL,'1','1','0','0','0','0','0','0','0','CEBI','02/05/2017','02/06/2016',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="32" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:89" x14ac:dyDescent="0.3">
       <c r="B32" s="11" t="s">
         <v>36</v>
       </c>
@@ -8553,7 +8638,9 @@
       <c r="AU32" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="AV32" s="3"/>
+      <c r="AV32" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="AW32" s="10" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000143',NULL,</v>
@@ -8719,7 +8806,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000143',NULL,NULL,NULL,NULL,'0','0','0','0','0','0','0','0','0','CEBI','02/05/2017','02/06/2016',300,200,100,50,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="33" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B33" s="11" t="s">
         <v>37</v>
       </c>
@@ -8810,7 +8897,9 @@
       <c r="AU33" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="AV33" s="3"/>
+      <c r="AV33" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="AW33" s="10" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000144',NULL,</v>
@@ -8976,7 +9065,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000144',NULL,NULL,NULL,NULL,'0','0','0','0','0','0','0','0','0','CEBI','02/05/2017','02/06/2016',0,0,0,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="34" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B34" s="11" t="s">
         <v>38</v>
       </c>
@@ -9067,7 +9156,9 @@
       <c r="AU34" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="AV34" s="3"/>
+      <c r="AV34" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="AW34" s="10" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000145',NULL,</v>
@@ -9233,7 +9324,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000145',NULL,NULL,NULL,NULL,'0','0','0','0','0','0','0','0','0','CEBI','02/05/2017','02/06/2016',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="35" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B35" s="11" t="s">
         <v>39</v>
       </c>
@@ -9324,7 +9415,9 @@
       <c r="AU35" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AV35" s="3"/>
+      <c r="AV35" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="AW35" s="10" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000146',NULL,</v>
@@ -9490,7 +9583,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000146',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'CEBI',NULL,NULL,300,200,100,50,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="36" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B36" s="11" t="s">
         <v>40</v>
       </c>
@@ -9581,7 +9674,9 @@
       <c r="AU36" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AV36" s="3"/>
+      <c r="AV36" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="AW36" s="10" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000147',NULL,</v>
@@ -9747,7 +9842,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000147',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'CEBI',NULL,NULL,0,0,0,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="37" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B37" s="11" t="s">
         <v>41</v>
       </c>
@@ -9838,7 +9933,9 @@
       <c r="AU37" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AV37" s="3"/>
+      <c r="AV37" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="AW37" s="10" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000148',NULL,</v>
@@ -10004,7 +10101,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000148',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'CEBI',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="38" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B38" s="11" t="s">
         <v>42</v>
       </c>
@@ -10095,7 +10192,9 @@
       <c r="AU38" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="AV38" s="3"/>
+      <c r="AV38" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="AW38" s="10" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000149',NULL,</v>
@@ -10261,7 +10360,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000149',NULL,NULL,NULL,NULL,'1','0','0','0','0','0','0','0','0','CEBI','02/05/2017','02/06/2016',300,200,100,50,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="39" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B39" s="11" t="s">
         <v>43</v>
       </c>
@@ -10352,7 +10451,9 @@
       <c r="AU39" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="AV39" s="3"/>
+      <c r="AV39" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="AW39" s="10" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000150',NULL,</v>
@@ -10518,7 +10619,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000150',NULL,NULL,NULL,NULL,'1','0','0','0','0','0','0','0','0','CEBI','02/05/2017','02/06/2016',0,0,0,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="40" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B40" s="11" t="s">
         <v>44</v>
       </c>
@@ -10609,7 +10710,9 @@
       <c r="AU40" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="AV40" s="3"/>
+      <c r="AV40" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="AW40" s="10" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000151',NULL,</v>
@@ -10775,7 +10878,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000151',NULL,NULL,NULL,NULL,'1','0','0','0','0','0','0','0','0','CEBI','02/05/2017','02/06/2016',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="41" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B41" s="23" t="s">
         <v>103</v>
       </c>
@@ -10866,7 +10969,9 @@
       <c r="AU41" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="AV41" s="3"/>
+      <c r="AV41" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="AW41" s="10" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000152',NULL,</v>
@@ -11032,7 +11137,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000152',NULL,NULL,NULL,NULL,'1','1','0','0','0','0','0','0','0','CEBI','02/05/2017','02/06/2016',300,200,100,50,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="42" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B42" s="23" t="s">
         <v>104</v>
       </c>
@@ -11123,7 +11228,9 @@
       <c r="AU42" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="AV42" s="3"/>
+      <c r="AV42" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="AW42" s="10" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000153',NULL,</v>
@@ -11289,7 +11396,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000153',NULL,NULL,NULL,NULL,'1','1','0','0','0','0','0','0','0','CEBI','02/05/2017','02/06/2016',0,0,0,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="43" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B43" s="23" t="s">
         <v>105</v>
       </c>
@@ -11380,7 +11487,9 @@
       <c r="AU43" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="AV43" s="3"/>
+      <c r="AV43" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="AW43" s="10" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000154',NULL,</v>
@@ -11546,18 +11655,18 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000154',NULL,NULL,NULL,NULL,'1','1','0','0','0','0','0','0','0','CEBI','02/05/2017','02/06/2016',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="44" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B44" s="23" t="s">
         <v>106</v>
       </c>
       <c r="C44" s="2">
         <v>4</v>
       </c>
-      <c r="D44" s="29">
-        <f>(MAX(V44,W44)-MAX(X44,Y44))/MAX(X44,Y44)</f>
-        <v>2</v>
-      </c>
-      <c r="E44" s="29" t="s">
+      <c r="D44" s="30">
+        <f>(MAX(V44,X44)-MAX(W44,Y44))/MAX(W44,Y44)</f>
+        <v>0.5</v>
+      </c>
+      <c r="E44" s="30" t="s">
         <v>1</v>
       </c>
       <c r="F44" s="2"/>
@@ -11600,16 +11709,16 @@
       <c r="U44" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="V44" s="31">
+      <c r="V44" s="6">
         <v>300</v>
       </c>
-      <c r="W44" s="31">
+      <c r="W44" s="6">
         <v>200</v>
       </c>
-      <c r="X44" s="31">
+      <c r="X44" s="6">
         <v>100</v>
       </c>
-      <c r="Y44" s="31">
+      <c r="Y44" s="6">
         <v>50</v>
       </c>
       <c r="Z44" s="20"/>
@@ -11632,12 +11741,12 @@
       <c r="AQ44" s="6"/>
       <c r="AR44" s="6"/>
       <c r="AS44" s="6"/>
-      <c r="AT44" s="32">
+      <c r="AT44" s="14">
         <v>0.5</v>
       </c>
-      <c r="AU44" s="31"/>
-      <c r="AV44" s="3" t="s">
-        <v>148</v>
+      <c r="AU44" s="7"/>
+      <c r="AV44" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="AW44" s="10" t="str">
         <f t="shared" si="3"/>
@@ -11804,69 +11913,69 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000155',NULL,NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',300,200,100,50,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="45" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B45" s="23" t="s">
         <v>107</v>
       </c>
       <c r="C45" s="2">
         <v>4</v>
       </c>
-      <c r="D45" s="29">
+      <c r="D45" s="33">
         <v>1000000</v>
       </c>
-      <c r="E45" s="29" t="s">
-        <v>1</v>
+      <c r="E45" s="37" t="s">
+        <v>147</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="14"/>
       <c r="I45" s="14"/>
-      <c r="J45" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="K45" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="L45" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="M45" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="N45" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="O45" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="P45" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q45" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="R45" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="S45" s="26" t="s">
+      <c r="J45" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="K45" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="L45" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="M45" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="N45" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="O45" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="P45" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q45" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="R45" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="S45" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="T45" s="28" t="s">
+      <c r="T45" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="U45" s="28" t="s">
+      <c r="U45" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="V45" s="31">
+      <c r="V45" s="37">
         <v>300</v>
       </c>
-      <c r="W45" s="31">
-        <v>200</v>
-      </c>
-      <c r="X45" s="31">
+      <c r="W45" s="37">
         <v>0</v>
       </c>
-      <c r="Y45" s="31">
+      <c r="X45" s="37">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="37">
         <v>-100</v>
       </c>
       <c r="Z45" s="20"/>
@@ -11889,13 +11998,9 @@
       <c r="AQ45" s="6"/>
       <c r="AR45" s="6"/>
       <c r="AS45" s="6"/>
-      <c r="AT45" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="AU45" s="31"/>
-      <c r="AV45" s="3" t="s">
-        <v>148</v>
-      </c>
+      <c r="AT45" s="39"/>
+      <c r="AU45" s="37"/>
+      <c r="AV45" s="4"/>
       <c r="AW45" s="10" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000156',NULL,</v>
@@ -11966,165 +12071,165 @@
       </c>
       <c r="BN45" t="str">
         <f t="shared" si="19"/>
-        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',300,200</v>
+        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',300,0</v>
       </c>
       <c r="BO45" t="str">
         <f t="shared" si="20"/>
-        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',300,200,0</v>
+        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',300,0,0</v>
       </c>
       <c r="BP45" t="str">
         <f t="shared" si="21"/>
-        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',300,200,0,-100</v>
+        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',300,0,0,-100</v>
       </c>
       <c r="BQ45" t="str">
         <f t="shared" si="22"/>
-        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',300,200,0,-100,NULL</v>
+        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',300,0,0,-100,NULL</v>
       </c>
       <c r="BR45" t="str">
         <f t="shared" si="23"/>
-        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',300,200,0,-100,NULL,NULL</v>
+        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',300,0,0,-100,NULL,NULL</v>
       </c>
       <c r="BS45" t="str">
         <f t="shared" si="24"/>
-        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',300,200,0,-100,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',300,0,0,-100,NULL,NULL,NULL</v>
       </c>
       <c r="BT45" t="str">
         <f t="shared" si="25"/>
-        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',300,200,0,-100,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',300,0,0,-100,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BU45" t="str">
         <f t="shared" si="26"/>
-        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',300,200,0,-100,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',300,0,0,-100,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BV45" t="str">
         <f t="shared" si="27"/>
-        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',300,200,0,-100,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',300,0,0,-100,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BW45" t="str">
         <f t="shared" si="28"/>
-        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',300,200,0,-100,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',300,0,0,-100,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BX45" t="str">
         <f t="shared" si="29"/>
-        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',300,200,0,-100,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',300,0,0,-100,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BY45" t="str">
         <f t="shared" si="30"/>
-        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',300,200,0,-100,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',300,0,0,-100,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BZ45" t="str">
         <f t="shared" si="31"/>
-        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',300,200,0,-100,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',300,0,0,-100,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="CA45" t="str">
         <f t="shared" si="32"/>
-        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',300,200,0,-100,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',300,0,0,-100,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="CB45" t="str">
         <f t="shared" si="33"/>
-        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',300,200,0,-100,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',300,0,0,-100,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="CC45" t="str">
         <f t="shared" si="34"/>
-        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',300,200,0,-100,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',300,0,0,-100,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="CD45" t="str">
         <f t="shared" si="35"/>
-        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',300,200,0,-100,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',300,0,0,-100,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="CE45" t="str">
         <f t="shared" si="36"/>
-        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',300,200,0,-100,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',300,0,0,-100,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="CF45" t="str">
         <f t="shared" si="37"/>
-        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',300,200,0,-100,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',300,0,0,-100,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="CG45" t="str">
         <f t="shared" si="38"/>
-        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',300,200,0,-100,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',300,0,0,-100,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="CH45" t="str">
         <f t="shared" si="39"/>
-        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',300,200,0,-100,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',300,0,0,-100,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="CI45" t="str">
         <f t="shared" si="40"/>
-        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',300,200,0,-100,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',300,0,0,-100,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="CJ45" s="25" t="str">
         <f t="shared" si="41"/>
-        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',300,200,0,-100,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',300,0,0,-100,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="CK45" s="24" t="str">
         <f t="shared" si="42"/>
-        <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000156',NULL,NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',300,200,0,-100,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
+        <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000156',NULL,NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',300,0,0,-100,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="46" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B46" s="23" t="s">
         <v>108</v>
       </c>
       <c r="C46" s="2">
         <v>4</v>
       </c>
-      <c r="D46" s="29">
-        <v>0</v>
-      </c>
-      <c r="E46" s="29" t="s">
-        <v>1</v>
+      <c r="D46" s="33">
+        <v>-1000000</v>
+      </c>
+      <c r="E46" s="37" t="s">
+        <v>147</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="14"/>
       <c r="I46" s="14"/>
-      <c r="J46" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="K46" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="L46" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="M46" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="N46" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="O46" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="P46" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q46" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="R46" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="S46" s="26" t="s">
+      <c r="J46" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="K46" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="L46" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="M46" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="N46" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="O46" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="P46" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q46" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="R46" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="S46" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="T46" s="28" t="s">
+      <c r="T46" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="U46" s="28" t="s">
+      <c r="U46" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="V46" s="31">
+      <c r="V46" s="37">
+        <v>-100</v>
+      </c>
+      <c r="W46" s="37">
+        <v>-100</v>
+      </c>
+      <c r="X46" s="37">
+        <v>-200</v>
+      </c>
+      <c r="Y46" s="37">
         <v>0</v>
-      </c>
-      <c r="W46" s="31">
-        <v>-100</v>
-      </c>
-      <c r="X46" s="31">
-        <v>0</v>
-      </c>
-      <c r="Y46" s="31">
-        <v>-100</v>
       </c>
       <c r="Z46" s="20"/>
       <c r="AA46" s="20"/>
@@ -12146,15 +12251,9 @@
       <c r="AQ46" s="6"/>
       <c r="AR46" s="6"/>
       <c r="AS46" s="6"/>
-      <c r="AT46" s="33">
-        <v>-1000000</v>
-      </c>
-      <c r="AU46" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="AV46" s="3" t="s">
-        <v>148</v>
-      </c>
+      <c r="AT46" s="40"/>
+      <c r="AU46" s="37"/>
+      <c r="AV46" s="4"/>
       <c r="AW46" s="10" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000157',NULL,</v>
@@ -12221,117 +12320,117 @@
       </c>
       <c r="BM46" t="str">
         <f t="shared" si="18"/>
-        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',0</v>
+        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',-100</v>
       </c>
       <c r="BN46" t="str">
         <f t="shared" si="19"/>
-        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',0,-100</v>
+        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',-100,-100</v>
       </c>
       <c r="BO46" t="str">
         <f t="shared" si="20"/>
-        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',0,-100,0</v>
+        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',-100,-100,-200</v>
       </c>
       <c r="BP46" t="str">
         <f t="shared" si="21"/>
-        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',0,-100,0,-100</v>
+        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',-100,-100,-200,0</v>
       </c>
       <c r="BQ46" t="str">
         <f t="shared" si="22"/>
-        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',0,-100,0,-100,NULL</v>
+        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',-100,-100,-200,0,NULL</v>
       </c>
       <c r="BR46" t="str">
         <f t="shared" si="23"/>
-        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',0,-100,0,-100,NULL,NULL</v>
+        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',-100,-100,-200,0,NULL,NULL</v>
       </c>
       <c r="BS46" t="str">
         <f t="shared" si="24"/>
-        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',0,-100,0,-100,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',-100,-100,-200,0,NULL,NULL,NULL</v>
       </c>
       <c r="BT46" t="str">
         <f t="shared" si="25"/>
-        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',0,-100,0,-100,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',-100,-100,-200,0,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BU46" t="str">
         <f t="shared" si="26"/>
-        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',0,-100,0,-100,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',-100,-100,-200,0,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BV46" t="str">
         <f t="shared" si="27"/>
-        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',0,-100,0,-100,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',-100,-100,-200,0,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BW46" t="str">
         <f t="shared" si="28"/>
-        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',0,-100,0,-100,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',-100,-100,-200,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BX46" t="str">
         <f t="shared" si="29"/>
-        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',0,-100,0,-100,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',-100,-100,-200,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BY46" t="str">
         <f t="shared" si="30"/>
-        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',0,-100,0,-100,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',-100,-100,-200,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BZ46" t="str">
         <f t="shared" si="31"/>
-        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',0,-100,0,-100,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',-100,-100,-200,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="CA46" t="str">
         <f t="shared" si="32"/>
-        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',0,-100,0,-100,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',-100,-100,-200,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="CB46" t="str">
         <f t="shared" si="33"/>
-        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',0,-100,0,-100,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',-100,-100,-200,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="CC46" t="str">
         <f t="shared" si="34"/>
-        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',0,-100,0,-100,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',-100,-100,-200,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="CD46" t="str">
         <f t="shared" si="35"/>
-        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',0,-100,0,-100,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',-100,-100,-200,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="CE46" t="str">
         <f t="shared" si="36"/>
-        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',0,-100,0,-100,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',-100,-100,-200,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="CF46" t="str">
         <f t="shared" si="37"/>
-        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',0,-100,0,-100,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',-100,-100,-200,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="CG46" t="str">
         <f t="shared" si="38"/>
-        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',0,-100,0,-100,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',-100,-100,-200,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="CH46" t="str">
         <f t="shared" si="39"/>
-        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',0,-100,0,-100,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',-100,-100,-200,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="CI46" t="str">
         <f t="shared" si="40"/>
-        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',0,-100,0,-100,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',-100,-100,-200,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="CJ46" s="25" t="str">
         <f t="shared" si="41"/>
-        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',0,-100,0,-100,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',-100,-100,-200,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="CK46" s="24" t="str">
         <f t="shared" si="42"/>
-        <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000157',NULL,NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',0,-100,0,-100,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
+        <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000157',NULL,NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',-100,-100,-200,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="47" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B47" s="23" t="s">
         <v>109</v>
       </c>
       <c r="C47" s="2">
         <v>4</v>
       </c>
-      <c r="D47" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E47" s="29" t="s">
-        <v>56</v>
+      <c r="D47" s="32">
+        <v>-1000000</v>
+      </c>
+      <c r="E47" s="30" t="s">
+        <v>152</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -12373,16 +12472,16 @@
       <c r="U47" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="V47" s="31">
+      <c r="V47" s="7">
         <v>-50</v>
       </c>
-      <c r="W47" s="31">
+      <c r="W47" s="7">
         <v>-150</v>
       </c>
-      <c r="X47" s="31">
+      <c r="X47" s="7">
         <v>0</v>
       </c>
-      <c r="Y47" s="31">
+      <c r="Y47" s="7">
         <v>-100</v>
       </c>
       <c r="Z47" s="20"/>
@@ -12405,14 +12504,14 @@
       <c r="AQ47" s="6"/>
       <c r="AR47" s="6"/>
       <c r="AS47" s="6"/>
-      <c r="AT47" s="33">
+      <c r="AT47" s="38">
         <v>-1000000</v>
       </c>
-      <c r="AU47" s="31" t="s">
+      <c r="AU47" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="AV47" s="3" t="s">
-        <v>148</v>
+      <c r="AV47" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="AW47" s="10" t="str">
         <f t="shared" si="3"/>
@@ -12579,69 +12678,69 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000158',NULL,NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',-50,-150,0,-100,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="48" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B48" s="23" t="s">
         <v>110</v>
       </c>
       <c r="C48" s="2">
         <v>4</v>
       </c>
-      <c r="D48" s="29" t="s">
+      <c r="D48" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="E48" s="29" t="s">
+      <c r="E48" s="37" t="s">
         <v>56</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="14"/>
       <c r="I48" s="14"/>
-      <c r="J48" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="K48" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="L48" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="M48" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="N48" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="O48" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="P48" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q48" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="R48" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="S48" s="26" t="s">
+      <c r="J48" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="K48" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="L48" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="M48" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="N48" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="O48" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="P48" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q48" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="R48" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="S48" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="T48" s="28" t="s">
+      <c r="T48" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="U48" s="28" t="s">
+      <c r="U48" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="V48" s="31">
-        <v>300</v>
-      </c>
-      <c r="W48" s="31">
+      <c r="V48" s="37">
+        <v>-300</v>
+      </c>
+      <c r="W48" s="37">
         <v>200</v>
       </c>
-      <c r="X48" s="31">
+      <c r="X48" s="37">
         <v>-50</v>
       </c>
-      <c r="Y48" s="31">
+      <c r="Y48" s="37">
         <v>-150</v>
       </c>
       <c r="Z48" s="20"/>
@@ -12664,13 +12763,9 @@
       <c r="AQ48" s="6"/>
       <c r="AR48" s="6"/>
       <c r="AS48" s="6"/>
-      <c r="AT48" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="AU48" s="31"/>
-      <c r="AV48" s="3" t="s">
-        <v>148</v>
-      </c>
+      <c r="AT48" s="39"/>
+      <c r="AU48" s="37"/>
+      <c r="AV48" s="4"/>
       <c r="AW48" s="10" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000159',NULL,</v>
@@ -12709,145 +12804,145 @@
       </c>
       <c r="BF48" t="str">
         <f t="shared" si="11"/>
-        <v>NULL,NULL,NULL,'1','1','1','1','1','1'</v>
+        <v>NULL,NULL,NULL,'1','1','1','1','1',0'</v>
       </c>
       <c r="BG48" t="str">
         <f t="shared" si="12"/>
-        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1'</v>
+        <v>NULL,NULL,NULL,'1','1','1','1','1',0','1'</v>
       </c>
       <c r="BH48" t="str">
         <f t="shared" si="13"/>
-        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1'</v>
+        <v>NULL,NULL,NULL,'1','1','1','1','1',0','1','1'</v>
       </c>
       <c r="BI48" t="str">
         <f t="shared" si="14"/>
-        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1'</v>
+        <v>NULL,NULL,NULL,'1','1','1','1','1',0','1','1','1'</v>
       </c>
       <c r="BJ48" t="str">
         <f t="shared" si="15"/>
-        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI'</v>
+        <v>NULL,NULL,NULL,'1','1','1','1','1',0','1','1','1','CEBI'</v>
       </c>
       <c r="BK48" t="str">
         <f t="shared" si="16"/>
-        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017'</v>
+        <v>NULL,NULL,NULL,'1','1','1','1','1',0','1','1','1','CEBI','02/05/2017'</v>
       </c>
       <c r="BL48" t="str">
         <f t="shared" si="17"/>
-        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016'</v>
+        <v>NULL,NULL,NULL,'1','1','1','1','1',0','1','1','1','CEBI','02/05/2017','02/06/2016'</v>
       </c>
       <c r="BM48" t="str">
         <f t="shared" si="18"/>
-        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',300</v>
+        <v>NULL,NULL,NULL,'1','1','1','1','1',0','1','1','1','CEBI','02/05/2017','02/06/2016',-300</v>
       </c>
       <c r="BN48" t="str">
         <f t="shared" si="19"/>
-        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',300,200</v>
+        <v>NULL,NULL,NULL,'1','1','1','1','1',0','1','1','1','CEBI','02/05/2017','02/06/2016',-300,200</v>
       </c>
       <c r="BO48" t="str">
         <f t="shared" si="20"/>
-        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',300,200,-50</v>
+        <v>NULL,NULL,NULL,'1','1','1','1','1',0','1','1','1','CEBI','02/05/2017','02/06/2016',-300,200,-50</v>
       </c>
       <c r="BP48" t="str">
         <f t="shared" si="21"/>
-        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',300,200,-50,-150</v>
+        <v>NULL,NULL,NULL,'1','1','1','1','1',0','1','1','1','CEBI','02/05/2017','02/06/2016',-300,200,-50,-150</v>
       </c>
       <c r="BQ48" t="str">
         <f t="shared" si="22"/>
-        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',300,200,-50,-150,NULL</v>
+        <v>NULL,NULL,NULL,'1','1','1','1','1',0','1','1','1','CEBI','02/05/2017','02/06/2016',-300,200,-50,-150,NULL</v>
       </c>
       <c r="BR48" t="str">
         <f t="shared" si="23"/>
-        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',300,200,-50,-150,NULL,NULL</v>
+        <v>NULL,NULL,NULL,'1','1','1','1','1',0','1','1','1','CEBI','02/05/2017','02/06/2016',-300,200,-50,-150,NULL,NULL</v>
       </c>
       <c r="BS48" t="str">
         <f t="shared" si="24"/>
-        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',300,200,-50,-150,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,'1','1','1','1','1',0','1','1','1','CEBI','02/05/2017','02/06/2016',-300,200,-50,-150,NULL,NULL,NULL</v>
       </c>
       <c r="BT48" t="str">
         <f t="shared" si="25"/>
-        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',300,200,-50,-150,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,'1','1','1','1','1',0','1','1','1','CEBI','02/05/2017','02/06/2016',-300,200,-50,-150,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BU48" t="str">
         <f t="shared" si="26"/>
-        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',300,200,-50,-150,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,'1','1','1','1','1',0','1','1','1','CEBI','02/05/2017','02/06/2016',-300,200,-50,-150,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BV48" t="str">
         <f t="shared" si="27"/>
-        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',300,200,-50,-150,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,'1','1','1','1','1',0','1','1','1','CEBI','02/05/2017','02/06/2016',-300,200,-50,-150,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BW48" t="str">
         <f t="shared" si="28"/>
-        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',300,200,-50,-150,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,'1','1','1','1','1',0','1','1','1','CEBI','02/05/2017','02/06/2016',-300,200,-50,-150,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BX48" t="str">
         <f t="shared" si="29"/>
-        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',300,200,-50,-150,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,'1','1','1','1','1',0','1','1','1','CEBI','02/05/2017','02/06/2016',-300,200,-50,-150,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BY48" t="str">
         <f t="shared" si="30"/>
-        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',300,200,-50,-150,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,'1','1','1','1','1',0','1','1','1','CEBI','02/05/2017','02/06/2016',-300,200,-50,-150,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BZ48" t="str">
         <f t="shared" si="31"/>
-        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',300,200,-50,-150,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,'1','1','1','1','1',0','1','1','1','CEBI','02/05/2017','02/06/2016',-300,200,-50,-150,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="CA48" t="str">
         <f t="shared" si="32"/>
-        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',300,200,-50,-150,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,'1','1','1','1','1',0','1','1','1','CEBI','02/05/2017','02/06/2016',-300,200,-50,-150,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="CB48" t="str">
         <f t="shared" si="33"/>
-        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',300,200,-50,-150,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,'1','1','1','1','1',0','1','1','1','CEBI','02/05/2017','02/06/2016',-300,200,-50,-150,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="CC48" t="str">
         <f t="shared" si="34"/>
-        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',300,200,-50,-150,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,'1','1','1','1','1',0','1','1','1','CEBI','02/05/2017','02/06/2016',-300,200,-50,-150,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="CD48" t="str">
         <f t="shared" si="35"/>
-        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',300,200,-50,-150,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,'1','1','1','1','1',0','1','1','1','CEBI','02/05/2017','02/06/2016',-300,200,-50,-150,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="CE48" t="str">
         <f t="shared" si="36"/>
-        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',300,200,-50,-150,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,'1','1','1','1','1',0','1','1','1','CEBI','02/05/2017','02/06/2016',-300,200,-50,-150,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="CF48" t="str">
         <f t="shared" si="37"/>
-        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',300,200,-50,-150,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,'1','1','1','1','1',0','1','1','1','CEBI','02/05/2017','02/06/2016',-300,200,-50,-150,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="CG48" t="str">
         <f t="shared" si="38"/>
-        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',300,200,-50,-150,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,'1','1','1','1','1',0','1','1','1','CEBI','02/05/2017','02/06/2016',-300,200,-50,-150,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="CH48" t="str">
         <f t="shared" si="39"/>
-        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',300,200,-50,-150,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,'1','1','1','1','1',0','1','1','1','CEBI','02/05/2017','02/06/2016',-300,200,-50,-150,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="CI48" t="str">
         <f t="shared" si="40"/>
-        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',300,200,-50,-150,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,'1','1','1','1','1',0','1','1','1','CEBI','02/05/2017','02/06/2016',-300,200,-50,-150,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="CJ48" s="25" t="str">
         <f t="shared" si="41"/>
-        <v>NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',300,200,-50,-150,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,'1','1','1','1','1',0','1','1','1','CEBI','02/05/2017','02/06/2016',-300,200,-50,-150,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="CK48" s="24" t="str">
         <f t="shared" si="42"/>
-        <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000159',NULL,NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',300,200,-50,-150,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
+        <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000159',NULL,NULL,NULL,NULL,'1','1','1','1','1',0','1','1','1','CEBI','02/05/2017','02/06/2016',-300,200,-50,-150,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="49" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B49" s="23" t="s">
         <v>111</v>
       </c>
       <c r="C49" s="2">
         <v>4</v>
       </c>
-      <c r="D49" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E49" s="29" t="s">
-        <v>56</v>
+      <c r="D49" s="32">
+        <v>-1000000</v>
+      </c>
+      <c r="E49" s="30" t="s">
+        <v>152</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -12889,16 +12984,16 @@
       <c r="U49" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="V49" s="31">
+      <c r="V49" s="7">
         <v>-50</v>
       </c>
-      <c r="W49" s="31">
+      <c r="W49" s="7">
         <v>-150</v>
       </c>
-      <c r="X49" s="31">
+      <c r="X49" s="7">
         <v>-50</v>
       </c>
-      <c r="Y49" s="31">
+      <c r="Y49" s="7">
         <v>-150</v>
       </c>
       <c r="Z49" s="20"/>
@@ -12921,14 +13016,14 @@
       <c r="AQ49" s="6"/>
       <c r="AR49" s="6"/>
       <c r="AS49" s="6"/>
-      <c r="AT49" s="33">
+      <c r="AT49" s="38">
         <v>-1000000</v>
       </c>
-      <c r="AU49" s="31" t="s">
+      <c r="AU49" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="AV49" s="3" t="s">
-        <v>148</v>
+      <c r="AV49" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="AW49" s="10" t="str">
         <f t="shared" si="3"/>
@@ -13095,18 +13190,18 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000160',NULL,NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',-50,-150,-50,-150,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="50" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B50" s="23" t="s">
         <v>112</v>
       </c>
       <c r="C50" s="2">
         <v>4</v>
       </c>
-      <c r="D50" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E50" s="29" t="s">
-        <v>56</v>
+      <c r="D50" s="32">
+        <v>-1000000</v>
+      </c>
+      <c r="E50" s="30" t="s">
+        <v>152</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -13148,16 +13243,16 @@
       <c r="U50" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="V50" s="31">
+      <c r="V50" s="7">
         <v>-10</v>
       </c>
-      <c r="W50" s="31">
+      <c r="W50" s="7">
         <v>-10</v>
       </c>
-      <c r="X50" s="31">
+      <c r="X50" s="7">
         <v>-50</v>
       </c>
-      <c r="Y50" s="31">
+      <c r="Y50" s="7">
         <v>-150</v>
       </c>
       <c r="Z50" s="20"/>
@@ -13180,14 +13275,14 @@
       <c r="AQ50" s="6"/>
       <c r="AR50" s="6"/>
       <c r="AS50" s="6"/>
-      <c r="AT50" s="33">
+      <c r="AT50" s="38">
         <v>-1000000</v>
       </c>
-      <c r="AU50" s="31" t="s">
+      <c r="AU50" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="AV50" s="3" t="s">
-        <v>148</v>
+      <c r="AV50" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="AW50" s="10" t="str">
         <f t="shared" si="3"/>
@@ -13354,17 +13449,17 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000161',NULL,NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',-10,-10,-50,-150,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="51" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B51" s="23" t="s">
         <v>113</v>
       </c>
       <c r="C51" s="2">
         <v>5</v>
       </c>
-      <c r="D51" s="30" t="s">
+      <c r="D51" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E51" s="30" t="s">
+      <c r="E51" s="32" t="s">
         <v>68</v>
       </c>
       <c r="F51" s="2"/>
@@ -13443,7 +13538,9 @@
       <c r="AU51" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="AV51" s="3"/>
+      <c r="AV51" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="AW51" s="10" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000162',NULL,</v>
@@ -13609,7 +13706,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000162',NULL,NULL,NULL,NULL,'0','0','0','0','0','0',NULL,NULL,NULL,'CEBI','02/05/2017',NULL,NULL,NULL,NULL,NULL,100,50,200,150,20,100,1000,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="52" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B52" s="23" t="s">
         <v>114</v>
       </c>
@@ -13698,7 +13795,9 @@
       <c r="AU52" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="AV52" s="3"/>
+      <c r="AV52" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="AW52" s="10" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000163',NULL,</v>
@@ -13864,7 +13963,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000163',NULL,NULL,NULL,NULL,'0','0','0','0','0','0',NULL,NULL,NULL,'CEBI','02/05/2017',NULL,NULL,NULL,NULL,NULL,0,0,0,0,0,0,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="53" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B53" s="23" t="s">
         <v>115</v>
       </c>
@@ -13953,7 +14052,9 @@
       <c r="AU53" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="AV53" s="3"/>
+      <c r="AV53" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="AW53" s="10" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000164',NULL,</v>
@@ -14119,7 +14220,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000164',NULL,NULL,NULL,NULL,'0','0','0','0','0','0',NULL,NULL,NULL,'CEBI','02/05/2017',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="54" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B54" s="23" t="s">
         <v>116</v>
       </c>
@@ -14208,7 +14309,9 @@
       <c r="AU54" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AV54" s="3"/>
+      <c r="AV54" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="AW54" s="10" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000165',NULL,</v>
@@ -14374,7 +14477,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000165',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'CEBI',NULL,NULL,NULL,NULL,NULL,NULL,100,50,200,150,20,100,1000,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="55" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B55" s="23" t="s">
         <v>117</v>
       </c>
@@ -14463,7 +14566,9 @@
       <c r="AU55" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AV55" s="3"/>
+      <c r="AV55" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="AW55" s="10" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000166',NULL,</v>
@@ -14629,7 +14734,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000166',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'CEBI',NULL,NULL,NULL,NULL,NULL,NULL,0,0,0,0,0,0,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="56" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B56" s="23" t="s">
         <v>118</v>
       </c>
@@ -14718,7 +14823,9 @@
       <c r="AU56" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AV56" s="3"/>
+      <c r="AV56" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="AW56" s="10" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000167',NULL,</v>
@@ -14884,7 +14991,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000167',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'CEBI',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="57" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B57" s="23" t="s">
         <v>119</v>
       </c>
@@ -14973,7 +15080,9 @@
       <c r="AU57" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="AV57" s="3"/>
+      <c r="AV57" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="AW57" s="10" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000168',NULL,</v>
@@ -15139,7 +15248,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000168',NULL,NULL,NULL,NULL,'1','0','0','0','0','0',NULL,NULL,NULL,'CEBI','02/05/2017',NULL,NULL,NULL,NULL,NULL,100,50,200,150,20,100,1000,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="58" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B58" s="23" t="s">
         <v>120</v>
       </c>
@@ -15228,7 +15337,9 @@
       <c r="AU58" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="AV58" s="3"/>
+      <c r="AV58" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="AW58" s="10" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000169',NULL,</v>
@@ -15394,7 +15505,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000169',NULL,NULL,NULL,NULL,'1','0','0','0','0','0',NULL,NULL,NULL,'CEBI','02/05/2017',NULL,NULL,NULL,NULL,NULL,0,0,0,0,0,0,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="59" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B59" s="23" t="s">
         <v>121</v>
       </c>
@@ -15483,7 +15594,9 @@
       <c r="AU59" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="AV59" s="3"/>
+      <c r="AV59" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="AW59" s="10" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000170',NULL,</v>
@@ -15649,7 +15762,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000170',NULL,NULL,NULL,NULL,'1','0','0','0','0','0',NULL,NULL,NULL,'CEBI','02/05/2017',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="60" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B60" s="23" t="s">
         <v>122</v>
       </c>
@@ -15738,7 +15851,9 @@
       <c r="AU60" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="AV60" s="3"/>
+      <c r="AV60" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="AW60" s="10" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000171',NULL,</v>
@@ -15904,7 +16019,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000171',NULL,NULL,NULL,NULL,'1','1','0','0','0','0',NULL,NULL,NULL,'CEBI','02/05/2017',NULL,NULL,NULL,NULL,NULL,100,50,200,150,20,100,1000,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="61" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B61" s="23" t="s">
         <v>123</v>
       </c>
@@ -15993,7 +16108,9 @@
       <c r="AU61" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="AV61" s="3"/>
+      <c r="AV61" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="AW61" s="10" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000172',NULL,</v>
@@ -16159,7 +16276,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000172',NULL,NULL,NULL,NULL,'1','1','0','0','0','0',NULL,NULL,NULL,'CEBI','02/05/2017',NULL,NULL,NULL,NULL,NULL,0,0,0,0,0,0,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="62" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B62" s="23" t="s">
         <v>124</v>
       </c>
@@ -16248,7 +16365,9 @@
       <c r="AU62" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="AV62" s="3"/>
+      <c r="AV62" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="AW62" s="10" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000173',NULL,</v>
@@ -16414,19 +16533,18 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000173',NULL,NULL,NULL,NULL,'1','1','0','0','0','0',NULL,NULL,NULL,'CEBI','02/05/2017',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="63" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B63" s="23" t="s">
         <v>125</v>
       </c>
       <c r="C63" s="2">
         <v>5</v>
       </c>
-      <c r="D63" s="29">
-        <f>(Z63+AA63+AB63+AC63)/(AD63+AE63/3.5-AF63+AC63)</f>
-        <v>-0.62388591800356508</v>
-      </c>
-      <c r="E63" s="29" t="s">
-        <v>1</v>
+      <c r="D63" s="30">
+        <v>1000000</v>
+      </c>
+      <c r="E63" s="30" t="s">
+        <v>148</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
@@ -16498,13 +16616,15 @@
       <c r="AQ63" s="6"/>
       <c r="AR63" s="6"/>
       <c r="AS63" s="6"/>
-      <c r="AT63" s="33">
+      <c r="AT63" s="38">
         <v>1000000</v>
       </c>
-      <c r="AU63" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="AV63" s="3"/>
+      <c r="AU63" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="AV63" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="AW63" s="10" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000174',NULL,</v>
@@ -16670,74 +16790,74 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000174',NULL,NULL,NULL,NULL,'1','1','1','1','1','1',NULL,NULL,NULL,'CEBI','02/05/2017',NULL,NULL,NULL,NULL,NULL,100,50,200,150,20,100,1000,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="64" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B64" s="23" t="s">
         <v>126</v>
       </c>
       <c r="C64" s="2">
         <v>5</v>
       </c>
-      <c r="D64" s="30">
+      <c r="D64" s="34">
         <v>0.16392999999999999</v>
       </c>
-      <c r="E64" s="29" t="s">
+      <c r="E64" s="34" t="s">
         <v>1</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="14"/>
       <c r="I64" s="14"/>
-      <c r="J64" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="K64" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="L64" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="M64" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="N64" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="O64" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="P64" s="6"/>
-      <c r="Q64" s="6"/>
-      <c r="R64" s="6"/>
-      <c r="S64" s="26" t="s">
+      <c r="J64" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="K64" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="L64" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="M64" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="N64" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="O64" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="P64" s="34"/>
+      <c r="Q64" s="34"/>
+      <c r="R64" s="34"/>
+      <c r="S64" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="T64" s="28" t="s">
+      <c r="T64" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="U64" s="15"/>
-      <c r="V64" s="7"/>
-      <c r="W64" s="7"/>
-      <c r="X64" s="7"/>
-      <c r="Y64" s="7"/>
-      <c r="Z64" s="20">
+      <c r="U64" s="41"/>
+      <c r="V64" s="37"/>
+      <c r="W64" s="37"/>
+      <c r="X64" s="37"/>
+      <c r="Y64" s="37"/>
+      <c r="Z64" s="42">
         <v>0</v>
       </c>
-      <c r="AA64" s="20">
+      <c r="AA64" s="42">
         <v>0</v>
       </c>
-      <c r="AB64" s="20">
+      <c r="AB64" s="42">
         <v>0</v>
       </c>
-      <c r="AC64" s="20">
+      <c r="AC64" s="42">
         <v>0</v>
       </c>
-      <c r="AD64" s="6">
+      <c r="AD64" s="34">
         <v>0</v>
       </c>
-      <c r="AE64" s="6">
+      <c r="AE64" s="34">
         <v>0</v>
       </c>
-      <c r="AF64" s="6">
+      <c r="AF64" s="34">
         <v>0</v>
       </c>
       <c r="AG64" s="6"/>
@@ -16753,13 +16873,9 @@
       <c r="AQ64" s="6"/>
       <c r="AR64" s="6"/>
       <c r="AS64" s="6"/>
-      <c r="AT64" s="32">
-        <v>0.16400000000000001</v>
-      </c>
-      <c r="AU64" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="AV64" s="3"/>
+      <c r="AT64" s="39"/>
+      <c r="AU64" s="37"/>
+      <c r="AV64" s="4"/>
       <c r="AW64" s="10" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000175',NULL,</v>
@@ -16925,7 +17041,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000175',NULL,NULL,NULL,NULL,'1','1','1','1','1','1',NULL,NULL,NULL,'CEBI','02/05/2017',NULL,NULL,NULL,NULL,NULL,0,0,0,0,0,0,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="65" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B65" s="23" t="s">
         <v>127</v>
       </c>
@@ -16935,8 +17051,8 @@
       <c r="D65" s="30">
         <v>1000000</v>
       </c>
-      <c r="E65" s="29" t="s">
-        <v>1</v>
+      <c r="E65" s="30" t="s">
+        <v>148</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
@@ -17008,13 +17124,15 @@
       <c r="AQ65" s="6"/>
       <c r="AR65" s="6"/>
       <c r="AS65" s="6"/>
-      <c r="AT65" s="33">
+      <c r="AT65" s="38">
         <v>1000000</v>
       </c>
-      <c r="AU65" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="AV65" s="3"/>
+      <c r="AU65" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="AV65" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="AW65" s="10" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000176',NULL,</v>
@@ -17180,7 +17298,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000176',NULL,NULL,NULL,NULL,'1','1','1','1','1','1',NULL,NULL,NULL,'CEBI','02/05/2017',NULL,NULL,NULL,NULL,NULL,100,50,200,0,0,0,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="66" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B66" s="23" t="s">
         <v>128</v>
       </c>
@@ -17190,8 +17308,8 @@
       <c r="D66" s="30">
         <v>0.16392999999999999</v>
       </c>
-      <c r="E66" s="29" t="s">
-        <v>1</v>
+      <c r="E66" s="30" t="s">
+        <v>148</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
@@ -17263,13 +17381,15 @@
       <c r="AQ66" s="6"/>
       <c r="AR66" s="6"/>
       <c r="AS66" s="6"/>
-      <c r="AT66" s="32">
+      <c r="AT66" s="14">
         <v>0.16400000000000001</v>
       </c>
-      <c r="AU66" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="AV66" s="3"/>
+      <c r="AU66" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="AV66" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="AW66" s="10" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000177',NULL,</v>
@@ -17435,18 +17555,18 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000177',NULL,NULL,NULL,NULL,'1','1','1','1','1','1',NULL,NULL,NULL,'CEBI','02/05/2017',NULL,NULL,NULL,NULL,NULL,0,0,-200,0,0,0,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="67" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B67" s="23" t="s">
         <v>129</v>
       </c>
       <c r="C67" s="2">
         <v>5</v>
       </c>
-      <c r="D67" s="29">
-        <v>1000000</v>
-      </c>
-      <c r="E67" s="29" t="s">
-        <v>1</v>
+      <c r="D67" s="30">
+        <v>0.16392999999999999</v>
+      </c>
+      <c r="E67" s="30" t="s">
+        <v>148</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
@@ -17518,13 +17638,15 @@
       <c r="AQ67" s="6"/>
       <c r="AR67" s="6"/>
       <c r="AS67" s="6"/>
-      <c r="AT67" s="32">
+      <c r="AT67" s="14">
         <v>0.16400000000000001</v>
       </c>
-      <c r="AU67" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="AV67" s="3"/>
+      <c r="AU67" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="AV67" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="AW67" s="10" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000178',NULL,</v>
@@ -17690,18 +17812,18 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000178',NULL,NULL,NULL,NULL,'1','1','1','1','1','1',NULL,NULL,NULL,'CEBI','02/05/2017',NULL,NULL,NULL,NULL,NULL,0,0,0,0,0,-100,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="68" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B68" s="23" t="s">
         <v>130</v>
       </c>
       <c r="C68" s="2">
         <v>5</v>
       </c>
-      <c r="D68" s="29">
-        <v>0.16392999999999999</v>
-      </c>
-      <c r="E68" s="29" t="s">
-        <v>1</v>
+      <c r="D68" s="30">
+        <v>1000000</v>
+      </c>
+      <c r="E68" s="30" t="s">
+        <v>148</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
@@ -17773,13 +17895,15 @@
       <c r="AQ68" s="6"/>
       <c r="AR68" s="6"/>
       <c r="AS68" s="6"/>
-      <c r="AT68" s="33">
+      <c r="AT68" s="38">
         <v>1000000</v>
       </c>
-      <c r="AU68" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="AV68" s="3"/>
+      <c r="AU68" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="AV68" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="AW68" s="10" t="str">
         <f t="shared" ref="AW68:AW79" si="106">"INSERT INTO TEWSA0W.CT_SME_TMP ("&amp;AS$1&amp;") VALUES ( " &amp;B68&amp;","&amp;(IF(OR(LEN(F68)=0,F68="missing"),"NULL",F68))&amp;","</f>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000179',NULL,</v>
@@ -17945,7 +18069,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000179',NULL,NULL,NULL,NULL,'1','1','1','1','1','1',NULL,NULL,NULL,'CEBI','02/05/2017',NULL,NULL,NULL,NULL,NULL,100,50,200,0,0,-100,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="69" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B69" s="23" t="s">
         <v>131</v>
       </c>
@@ -17956,7 +18080,7 @@
         <v>0.16392999999999999</v>
       </c>
       <c r="E69" s="30" t="s">
-        <v>1</v>
+        <v>148</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
@@ -18028,13 +18152,15 @@
       <c r="AQ69" s="6"/>
       <c r="AR69" s="6"/>
       <c r="AS69" s="6"/>
-      <c r="AT69" s="32">
+      <c r="AT69" s="14">
         <v>0.16400000000000001</v>
       </c>
-      <c r="AU69" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="AV69" s="3"/>
+      <c r="AU69" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="AV69" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="AW69" s="10" t="str">
         <f t="shared" si="106"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000180',NULL,</v>
@@ -18200,7 +18326,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000180',NULL,NULL,NULL,NULL,'1','1','1','1','1','1',NULL,NULL,NULL,'CEBI','02/05/2017',NULL,NULL,NULL,NULL,NULL,0,0,-200,0,0,-100,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="70" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B70" s="23" t="s">
         <v>132</v>
       </c>
@@ -18271,7 +18397,9 @@
       <c r="AU70" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AV70" s="3"/>
+      <c r="AV70" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="AW70" s="10" t="str">
         <f t="shared" si="106"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000183',NULL,</v>
@@ -18437,7 +18565,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000183',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'1',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="71" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B71" s="23" t="s">
         <v>133</v>
       </c>
@@ -18508,7 +18636,9 @@
       <c r="AU71" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AV71" s="3"/>
+      <c r="AV71" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="AW71" s="10" t="str">
         <f t="shared" si="106"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000184',NULL,</v>
@@ -18674,7 +18804,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000184',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'1','02/06/2017','02/06/2017','02/06/2017','02/06/2017','02/06/2017',NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="72" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B72" s="23" t="s">
         <v>134</v>
       </c>
@@ -18745,7 +18875,9 @@
       <c r="AU72" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AV72" s="3"/>
+      <c r="AV72" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="AW72" s="10" t="str">
         <f t="shared" si="106"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000185',NULL,</v>
@@ -18911,7 +19043,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000185',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'0',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="73" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B73" s="23" t="s">
         <v>135</v>
       </c>
@@ -18982,7 +19114,9 @@
       <c r="AU73" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="AV73" s="3"/>
+      <c r="AV73" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="AW73" s="10" t="str">
         <f t="shared" si="106"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000186',NULL,</v>
@@ -19148,7 +19282,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000186',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'0','02/06/2017','02/06/2017','02/06/2017','02/06/2017','02/06/2017',NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="74" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B74" s="23" t="s">
         <v>136</v>
       </c>
@@ -19221,7 +19355,9 @@
       <c r="AU74" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AV74" s="3"/>
+      <c r="AV74" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="AW74" s="10" t="str">
         <f t="shared" si="106"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000187',NULL,</v>
@@ -19387,7 +19523,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000187',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'1','0',NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="75" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B75" s="23" t="s">
         <v>137</v>
       </c>
@@ -19460,7 +19596,9 @@
       <c r="AU75" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AV75" s="3"/>
+      <c r="AV75" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="AW75" s="10" t="str">
         <f t="shared" si="106"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000188',NULL,</v>
@@ -19626,7 +19764,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000188',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'0','0',NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="76" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B76" s="23" t="s">
         <v>138</v>
       </c>
@@ -19699,7 +19837,9 @@
       <c r="AU76" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AV76" s="3"/>
+      <c r="AV76" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="AW76" s="10" t="str">
         <f t="shared" si="106"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000191',NULL,</v>
@@ -19865,7 +20005,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000191',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="77" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B77" s="23" t="s">
         <v>139</v>
       </c>
@@ -19938,7 +20078,9 @@
       <c r="AU77" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AV77" s="3"/>
+      <c r="AV77" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="AW77" s="10" t="str">
         <f t="shared" si="106"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000192',NULL,</v>
@@ -20104,7 +20246,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000192',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'0','1',NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="78" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B78" s="23" t="s">
         <v>140</v>
       </c>
@@ -20177,7 +20319,9 @@
       <c r="AU78" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="AV78" s="3"/>
+      <c r="AV78" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="AW78" s="10" t="str">
         <f t="shared" si="106"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000193',NULL,</v>
@@ -20343,7 +20487,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000193',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'0','0','02/06/2017','02/06/2017','02/06/2017','02/06/2017','02/06/2017') ;</v>
       </c>
     </row>
-    <row r="79" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B79" s="23" t="s">
         <v>141</v>
       </c>
@@ -20416,7 +20560,9 @@
       <c r="AU79" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="AV79" s="3"/>
+      <c r="AV79" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="AW79" s="10" t="str">
         <f t="shared" si="106"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000194',NULL,</v>
@@ -20580,6 +20726,61 @@
       <c r="CK79" s="24" t="str">
         <f t="shared" si="145"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000194',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'0','1','02/06/2017','02/06/2017','02/06/2017','02/06/2017','02/06/2017') ;</v>
+      </c>
+    </row>
+    <row r="81" spans="28:29" x14ac:dyDescent="0.3">
+      <c r="AB81" s="17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="85" spans="28:29" x14ac:dyDescent="0.3">
+      <c r="AB85" s="22">
+        <f>Z65+AA65+AB65+AC65</f>
+        <v>350</v>
+      </c>
+      <c r="AC85" s="22">
+        <f>(AD65+(AE65/3.5)-AF65+AC65)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="28:29" x14ac:dyDescent="0.3">
+      <c r="AB86" s="22">
+        <f>Z66+AA66+AB66+AC66</f>
+        <v>-200</v>
+      </c>
+      <c r="AC86" s="22">
+        <f>(AD66+(AE66/3.5)-AF66+AC66)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="28:29" x14ac:dyDescent="0.3">
+      <c r="AB87" s="22">
+        <f>Z67+AA67+AB67+AC67</f>
+        <v>0</v>
+      </c>
+      <c r="AC87" s="22">
+        <f>(AD67+(AE67/3.5)-AF67+AC67)</f>
+        <v>-28.571428571428573</v>
+      </c>
+    </row>
+    <row r="88" spans="28:29" x14ac:dyDescent="0.3">
+      <c r="AB88" s="22">
+        <f>Z68+AA68+AB68+AC68</f>
+        <v>350</v>
+      </c>
+      <c r="AC88" s="22">
+        <f>(AD68+(AE68/3.5)-AF68+AC68)</f>
+        <v>-28.571428571428573</v>
+      </c>
+    </row>
+    <row r="89" spans="28:29" x14ac:dyDescent="0.3">
+      <c r="AB89" s="22">
+        <f>Z69+AA69+AB69+AC69</f>
+        <v>-200</v>
+      </c>
+      <c r="AC89" s="22">
+        <f>(AD69+(AE69/3.5)-AF69+AC69)</f>
+        <v>-28.571428571428573</v>
       </c>
     </row>
   </sheetData>

--- a/earlywarning-pom/Document/test/SME RETAIL/test_Ind_High_Priority_SMERetail_round3.xlsx
+++ b/earlywarning-pom/Document/test/SME RETAIL/test_Ind_High_Priority_SMERetail_round3.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="156">
   <si>
     <t>valore atteso</t>
   </si>
@@ -606,7 +606,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -690,31 +690,14 @@
     <xf numFmtId="3" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1040,10 +1023,10 @@
   <dimension ref="A1:CR89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="V60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AV5" sqref="AV5"/>
+      <selection pane="bottomRight" activeCell="V78" sqref="V78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1054,23 +1037,23 @@
     <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="20.33203125" style="1" customWidth="1"/>
-    <col min="8" max="9" width="20.33203125" style="16" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="30.33203125" style="16" hidden="1" customWidth="1"/>
-    <col min="11" max="18" width="30.33203125" style="17" hidden="1" customWidth="1"/>
-    <col min="19" max="21" width="20.33203125" style="17" hidden="1" customWidth="1"/>
-    <col min="22" max="25" width="33.77734375" style="17" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="33.77734375" style="22" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="19.6640625" style="22" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="22.77734375" style="22" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="30.109375" style="22" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="33" style="17" hidden="1" customWidth="1"/>
-    <col min="31" max="38" width="39.33203125" style="17" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="31.33203125" style="17" hidden="1" customWidth="1"/>
-    <col min="40" max="40" width="27.88671875" style="17" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="22.109375" style="17" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="13.44140625" style="17" hidden="1" customWidth="1"/>
-    <col min="43" max="44" width="12.109375" style="17" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="15.109375" style="17" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="20.33203125" style="16" customWidth="1"/>
+    <col min="10" max="10" width="30.33203125" style="16" customWidth="1"/>
+    <col min="11" max="18" width="30.33203125" style="17" customWidth="1"/>
+    <col min="19" max="21" width="20.33203125" style="17" customWidth="1"/>
+    <col min="22" max="25" width="33.77734375" style="17" customWidth="1"/>
+    <col min="26" max="26" width="33.77734375" style="22" customWidth="1"/>
+    <col min="27" max="27" width="19.6640625" style="22" customWidth="1"/>
+    <col min="28" max="28" width="22.77734375" style="22" customWidth="1"/>
+    <col min="29" max="29" width="30.109375" style="22" customWidth="1"/>
+    <col min="30" max="30" width="33" style="17" customWidth="1"/>
+    <col min="31" max="38" width="39.33203125" style="17" customWidth="1"/>
+    <col min="39" max="39" width="31.33203125" style="17" customWidth="1"/>
+    <col min="40" max="40" width="27.88671875" style="17" customWidth="1"/>
+    <col min="41" max="41" width="22.109375" style="17" customWidth="1"/>
+    <col min="42" max="42" width="13.44140625" style="17" customWidth="1"/>
+    <col min="43" max="44" width="12.109375" style="17" customWidth="1"/>
+    <col min="45" max="45" width="15.109375" style="17" customWidth="1"/>
     <col min="46" max="46" width="15.6640625" customWidth="1"/>
     <col min="47" max="47" width="21.44140625" style="12" customWidth="1"/>
     <col min="48" max="48" width="39.88671875" style="12" customWidth="1"/>
@@ -1858,16 +1841,16 @@
       <c r="C5" s="2">
         <v>23</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="43" t="s">
+      <c r="E5" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="33" t="s">
         <v>97</v>
       </c>
       <c r="H5" s="14"/>
@@ -11920,62 +11903,62 @@
       <c r="C45" s="2">
         <v>4</v>
       </c>
-      <c r="D45" s="33">
+      <c r="D45" s="30">
         <v>1000000</v>
       </c>
-      <c r="E45" s="37" t="s">
-        <v>147</v>
+      <c r="E45" s="30" t="s">
+        <v>148</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="14"/>
       <c r="I45" s="14"/>
-      <c r="J45" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="K45" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="L45" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="M45" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="N45" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="O45" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="P45" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q45" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="R45" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="S45" s="35" t="s">
+      <c r="J45" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="K45" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="L45" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M45" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N45" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="O45" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="P45" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q45" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="R45" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="S45" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="T45" s="36" t="s">
+      <c r="T45" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="U45" s="36" t="s">
+      <c r="U45" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="V45" s="37">
+      <c r="V45" s="7">
         <v>300</v>
       </c>
-      <c r="W45" s="37">
+      <c r="W45" s="7">
         <v>0</v>
       </c>
-      <c r="X45" s="37">
+      <c r="X45" s="7">
         <v>0</v>
       </c>
-      <c r="Y45" s="37">
+      <c r="Y45" s="7">
         <v>-100</v>
       </c>
       <c r="Z45" s="20"/>
@@ -11998,9 +11981,15 @@
       <c r="AQ45" s="6"/>
       <c r="AR45" s="6"/>
       <c r="AS45" s="6"/>
-      <c r="AT45" s="39"/>
-      <c r="AU45" s="37"/>
-      <c r="AV45" s="4"/>
+      <c r="AT45" s="36">
+        <v>1000000</v>
+      </c>
+      <c r="AU45" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="AV45" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="AW45" s="10" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000156',NULL,</v>
@@ -12173,62 +12162,62 @@
       <c r="C46" s="2">
         <v>4</v>
       </c>
-      <c r="D46" s="33">
+      <c r="D46" s="30">
         <v>-1000000</v>
       </c>
-      <c r="E46" s="37" t="s">
+      <c r="E46" s="30" t="s">
         <v>147</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="14"/>
       <c r="I46" s="14"/>
-      <c r="J46" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="K46" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="L46" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="M46" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="N46" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="O46" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="P46" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q46" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="R46" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="S46" s="35" t="s">
+      <c r="J46" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="K46" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="L46" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M46" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N46" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="O46" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="P46" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q46" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="R46" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="S46" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="T46" s="36" t="s">
+      <c r="T46" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="U46" s="36" t="s">
+      <c r="U46" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="V46" s="37">
+      <c r="V46" s="7">
         <v>-100</v>
       </c>
-      <c r="W46" s="37">
+      <c r="W46" s="7">
         <v>-100</v>
       </c>
-      <c r="X46" s="37">
+      <c r="X46" s="7">
         <v>-200</v>
       </c>
-      <c r="Y46" s="37">
+      <c r="Y46" s="7">
         <v>0</v>
       </c>
       <c r="Z46" s="20"/>
@@ -12251,9 +12240,15 @@
       <c r="AQ46" s="6"/>
       <c r="AR46" s="6"/>
       <c r="AS46" s="6"/>
-      <c r="AT46" s="40"/>
-      <c r="AU46" s="37"/>
-      <c r="AV46" s="4"/>
+      <c r="AT46" s="36">
+        <v>-1000000</v>
+      </c>
+      <c r="AU46" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="AV46" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="AW46" s="10" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000157',NULL,</v>
@@ -12426,7 +12421,7 @@
       <c r="C47" s="2">
         <v>4</v>
       </c>
-      <c r="D47" s="32">
+      <c r="D47" s="30">
         <v>-1000000</v>
       </c>
       <c r="E47" s="30" t="s">
@@ -12504,7 +12499,7 @@
       <c r="AQ47" s="6"/>
       <c r="AR47" s="6"/>
       <c r="AS47" s="6"/>
-      <c r="AT47" s="38">
+      <c r="AT47" s="34">
         <v>-1000000</v>
       </c>
       <c r="AU47" s="7" t="s">
@@ -12685,62 +12680,62 @@
       <c r="C48" s="2">
         <v>4</v>
       </c>
-      <c r="D48" s="37" t="s">
+      <c r="D48" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="E48" s="37" t="s">
+      <c r="E48" s="30" t="s">
         <v>56</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="14"/>
       <c r="I48" s="14"/>
-      <c r="J48" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="K48" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="L48" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="M48" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="N48" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="O48" s="35" t="s">
+      <c r="J48" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="K48" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="L48" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M48" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N48" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="O48" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="P48" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q48" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="R48" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="S48" s="35" t="s">
+      <c r="P48" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q48" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="R48" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="S48" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="T48" s="36" t="s">
+      <c r="T48" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="U48" s="36" t="s">
+      <c r="U48" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="V48" s="37">
+      <c r="V48" s="7">
         <v>-300</v>
       </c>
-      <c r="W48" s="37">
+      <c r="W48" s="7">
         <v>200</v>
       </c>
-      <c r="X48" s="37">
+      <c r="X48" s="7">
         <v>-50</v>
       </c>
-      <c r="Y48" s="37">
+      <c r="Y48" s="7">
         <v>-150</v>
       </c>
       <c r="Z48" s="20"/>
@@ -12763,9 +12758,15 @@
       <c r="AQ48" s="6"/>
       <c r="AR48" s="6"/>
       <c r="AS48" s="6"/>
-      <c r="AT48" s="39"/>
-      <c r="AU48" s="37"/>
-      <c r="AV48" s="4"/>
+      <c r="AT48" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU48" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV48" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="AW48" s="10" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000159',NULL,</v>
@@ -13016,7 +13017,7 @@
       <c r="AQ49" s="6"/>
       <c r="AR49" s="6"/>
       <c r="AS49" s="6"/>
-      <c r="AT49" s="38">
+      <c r="AT49" s="34">
         <v>-1000000</v>
       </c>
       <c r="AU49" s="7" t="s">
@@ -13275,7 +13276,7 @@
       <c r="AQ50" s="6"/>
       <c r="AR50" s="6"/>
       <c r="AS50" s="6"/>
-      <c r="AT50" s="38">
+      <c r="AT50" s="34">
         <v>-1000000</v>
       </c>
       <c r="AU50" s="7" t="s">
@@ -16616,7 +16617,7 @@
       <c r="AQ63" s="6"/>
       <c r="AR63" s="6"/>
       <c r="AS63" s="6"/>
-      <c r="AT63" s="38">
+      <c r="AT63" s="34">
         <v>1000000</v>
       </c>
       <c r="AU63" s="7" t="s">
@@ -16797,67 +16798,67 @@
       <c r="C64" s="2">
         <v>5</v>
       </c>
-      <c r="D64" s="34">
+      <c r="D64" s="30">
         <v>0.16392999999999999</v>
       </c>
-      <c r="E64" s="34" t="s">
-        <v>1</v>
+      <c r="E64" s="30" t="s">
+        <v>148</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="14"/>
       <c r="I64" s="14"/>
-      <c r="J64" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="K64" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="L64" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="M64" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="N64" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="O64" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="P64" s="34"/>
-      <c r="Q64" s="34"/>
-      <c r="R64" s="34"/>
-      <c r="S64" s="35" t="s">
+      <c r="J64" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="K64" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="L64" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M64" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N64" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="O64" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="P64" s="6"/>
+      <c r="Q64" s="6"/>
+      <c r="R64" s="6"/>
+      <c r="S64" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="T64" s="36" t="s">
+      <c r="T64" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="U64" s="41"/>
-      <c r="V64" s="37"/>
-      <c r="W64" s="37"/>
-      <c r="X64" s="37"/>
-      <c r="Y64" s="37"/>
-      <c r="Z64" s="42">
+      <c r="U64" s="15"/>
+      <c r="V64" s="7"/>
+      <c r="W64" s="7"/>
+      <c r="X64" s="7"/>
+      <c r="Y64" s="7"/>
+      <c r="Z64" s="20">
         <v>0</v>
       </c>
-      <c r="AA64" s="42">
+      <c r="AA64" s="20">
         <v>0</v>
       </c>
-      <c r="AB64" s="42">
+      <c r="AB64" s="20">
         <v>0</v>
       </c>
-      <c r="AC64" s="42">
+      <c r="AC64" s="20">
         <v>0</v>
       </c>
-      <c r="AD64" s="34">
+      <c r="AD64" s="6">
         <v>0</v>
       </c>
-      <c r="AE64" s="34">
+      <c r="AE64" s="6">
         <v>0</v>
       </c>
-      <c r="AF64" s="34">
+      <c r="AF64" s="6">
         <v>0</v>
       </c>
       <c r="AG64" s="6"/>
@@ -16873,8 +16874,12 @@
       <c r="AQ64" s="6"/>
       <c r="AR64" s="6"/>
       <c r="AS64" s="6"/>
-      <c r="AT64" s="39"/>
-      <c r="AU64" s="37"/>
+      <c r="AT64" s="6">
+        <v>0.16392999999999999</v>
+      </c>
+      <c r="AU64" s="6" t="s">
+        <v>148</v>
+      </c>
       <c r="AV64" s="4"/>
       <c r="AW64" s="10" t="str">
         <f t="shared" si="3"/>
@@ -17124,7 +17129,7 @@
       <c r="AQ65" s="6"/>
       <c r="AR65" s="6"/>
       <c r="AS65" s="6"/>
-      <c r="AT65" s="38">
+      <c r="AT65" s="34">
         <v>1000000</v>
       </c>
       <c r="AU65" s="7" t="s">
@@ -17895,7 +17900,7 @@
       <c r="AQ68" s="6"/>
       <c r="AR68" s="6"/>
       <c r="AS68" s="6"/>
-      <c r="AT68" s="38">
+      <c r="AT68" s="34">
         <v>1000000</v>
       </c>
       <c r="AU68" s="7" t="s">

--- a/earlywarning-pom/Document/test/SME RETAIL/test_Ind_High_Priority_SMERetail_round3.xlsx
+++ b/earlywarning-pom/Document/test/SME RETAIL/test_Ind_High_Priority_SMERetail_round3.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="154">
   <si>
     <t>valore atteso</t>
   </si>
@@ -468,12 +468,6 @@
     <t>BILA010;</t>
   </si>
   <si>
-    <t>RATG0023;</t>
-  </si>
-  <si>
-    <t>RATG0023;RATG003;</t>
-  </si>
-  <si>
     <t>RATG003;</t>
   </si>
   <si>
@@ -522,7 +516,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -571,12 +565,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF3399"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -606,7 +594,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -690,14 +678,11 @@
     <xf numFmtId="3" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1023,10 +1008,10 @@
   <dimension ref="A1:CR89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="V60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V78" sqref="V78"/>
+      <selection pane="bottomRight" activeCell="AT5" sqref="AT5:AT8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1037,23 +1022,23 @@
     <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="20.33203125" style="1" customWidth="1"/>
-    <col min="8" max="9" width="20.33203125" style="16" customWidth="1"/>
-    <col min="10" max="10" width="30.33203125" style="16" customWidth="1"/>
-    <col min="11" max="18" width="30.33203125" style="17" customWidth="1"/>
-    <col min="19" max="21" width="20.33203125" style="17" customWidth="1"/>
-    <col min="22" max="25" width="33.77734375" style="17" customWidth="1"/>
-    <col min="26" max="26" width="33.77734375" style="22" customWidth="1"/>
-    <col min="27" max="27" width="19.6640625" style="22" customWidth="1"/>
-    <col min="28" max="28" width="22.77734375" style="22" customWidth="1"/>
-    <col min="29" max="29" width="30.109375" style="22" customWidth="1"/>
-    <col min="30" max="30" width="33" style="17" customWidth="1"/>
-    <col min="31" max="38" width="39.33203125" style="17" customWidth="1"/>
-    <col min="39" max="39" width="31.33203125" style="17" customWidth="1"/>
-    <col min="40" max="40" width="27.88671875" style="17" customWidth="1"/>
-    <col min="41" max="41" width="22.109375" style="17" customWidth="1"/>
-    <col min="42" max="42" width="13.44140625" style="17" customWidth="1"/>
-    <col min="43" max="44" width="12.109375" style="17" customWidth="1"/>
-    <col min="45" max="45" width="15.109375" style="17" customWidth="1"/>
+    <col min="8" max="9" width="20.33203125" style="16" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="30.33203125" style="16" hidden="1" customWidth="1"/>
+    <col min="11" max="18" width="30.33203125" style="17" hidden="1" customWidth="1"/>
+    <col min="19" max="21" width="20.33203125" style="17" hidden="1" customWidth="1"/>
+    <col min="22" max="25" width="33.77734375" style="17" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="33.77734375" style="22" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="19.6640625" style="22" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="22.77734375" style="22" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="30.109375" style="22" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="33" style="17" hidden="1" customWidth="1"/>
+    <col min="31" max="38" width="39.33203125" style="17" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="31.33203125" style="17" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="27.88671875" style="17" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="22.109375" style="17" hidden="1" customWidth="1"/>
+    <col min="42" max="42" width="13.44140625" style="17" hidden="1" customWidth="1"/>
+    <col min="43" max="44" width="12.109375" style="17" hidden="1" customWidth="1"/>
+    <col min="45" max="45" width="15.109375" style="17" hidden="1" customWidth="1"/>
     <col min="46" max="46" width="15.6640625" customWidth="1"/>
     <col min="47" max="47" width="21.44140625" style="12" customWidth="1"/>
     <col min="48" max="48" width="39.88671875" style="12" customWidth="1"/>
@@ -1425,11 +1410,9 @@
       <c r="AT3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AU3" s="4" t="s">
-        <v>1</v>
-      </c>
+      <c r="AU3" s="4"/>
       <c r="AV3" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW3" s="10" t="str">
         <f>"INSERT INTO TEWSA0W.CT_SME_TMP ("&amp;AS$1&amp;") VALUES ( " &amp;B3&amp;","&amp;(IF(OR(LEN(F3)=0,F3="missing"),"NULL",F3))&amp;","</f>
@@ -1663,11 +1646,9 @@
       <c r="AT4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AU4" s="4" t="s">
-        <v>1</v>
-      </c>
+      <c r="AU4" s="4"/>
       <c r="AV4" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW4" s="10" t="str">
         <f t="shared" ref="AW4:AW67" si="3">"INSERT INTO TEWSA0W.CT_SME_TMP ("&amp;AS$1&amp;") VALUES ( " &amp;B4&amp;","&amp;(IF(OR(LEN(F4)=0,F4="missing"),"NULL",F4))&amp;","</f>
@@ -1841,16 +1822,16 @@
       <c r="C5" s="2">
         <v>23</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="6" t="s">
         <v>97</v>
       </c>
       <c r="H5" s="14"/>
@@ -1894,8 +1875,12 @@
       <c r="AT5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AU5" s="31"/>
-      <c r="AV5" s="4"/>
+      <c r="AU5" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="AV5" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="AW5" s="10" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000116',NULL,</v>
@@ -2118,11 +2103,15 @@
       <c r="AQ6" s="6"/>
       <c r="AR6" s="6"/>
       <c r="AS6" s="6"/>
-      <c r="AT6" s="3"/>
-      <c r="AU6" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="AV6" s="4"/>
+      <c r="AT6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU6" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="AV6" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="AW6" s="10" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000117','20',</v>
@@ -2345,11 +2334,15 @@
       <c r="AQ7" s="6"/>
       <c r="AR7" s="6"/>
       <c r="AS7" s="6"/>
-      <c r="AT7" s="3"/>
-      <c r="AU7" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="AV7" s="4"/>
+      <c r="AT7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU7" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="AV7" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="AW7" s="10" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000118','05',</v>
@@ -2572,11 +2565,15 @@
       <c r="AQ8" s="6"/>
       <c r="AR8" s="6"/>
       <c r="AS8" s="6"/>
-      <c r="AT8" s="3"/>
-      <c r="AU8" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="AV8" s="4"/>
+      <c r="AT8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU8" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="AV8" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="AW8" s="10" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000119',NULL,</v>
@@ -2802,8 +2799,12 @@
       <c r="AT9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AU9" s="31"/>
-      <c r="AV9" s="4"/>
+      <c r="AU9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AV9" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="AW9" s="10" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000120','20',</v>
@@ -3029,8 +3030,12 @@
       <c r="AT10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AU10" s="31"/>
-      <c r="AV10" s="4"/>
+      <c r="AU10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AV10" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="AW10" s="10" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000121','05',</v>
@@ -3256,10 +3261,12 @@
       <c r="AT11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AU11" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="AV11" s="4"/>
+      <c r="AU11" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="AV11" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="AW11" s="10" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000122',NULL,</v>
@@ -3514,7 +3521,7 @@
         <v>1</v>
       </c>
       <c r="AV12" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW12" s="10" t="str">
         <f t="shared" si="3"/>
@@ -3769,7 +3776,7 @@
         <v>71</v>
       </c>
       <c r="AV13" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW13" s="10" t="str">
         <f t="shared" si="3"/>
@@ -4025,7 +4032,7 @@
         <v>1</v>
       </c>
       <c r="AV14" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW14" s="10" t="str">
         <f t="shared" si="3"/>
@@ -4281,7 +4288,7 @@
         <v>1</v>
       </c>
       <c r="AV15" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW15" s="10" t="str">
         <f t="shared" si="3"/>
@@ -4536,7 +4543,7 @@
         <v>71</v>
       </c>
       <c r="AV16" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW16" s="10" t="str">
         <f t="shared" si="3"/>
@@ -4792,7 +4799,7 @@
         <v>1</v>
       </c>
       <c r="AV17" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW17" s="10" t="str">
         <f t="shared" si="3"/>
@@ -5047,7 +5054,7 @@
         <v>57</v>
       </c>
       <c r="AV18" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW18" s="10" t="str">
         <f t="shared" si="3"/>
@@ -5302,7 +5309,7 @@
         <v>71</v>
       </c>
       <c r="AV19" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW19" s="10" t="str">
         <f t="shared" si="3"/>
@@ -5557,7 +5564,7 @@
         <v>68</v>
       </c>
       <c r="AV20" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW20" s="10" t="str">
         <f t="shared" si="3"/>
@@ -5812,7 +5819,7 @@
         <v>68</v>
       </c>
       <c r="AV21" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW21" s="10" t="str">
         <f t="shared" si="3"/>
@@ -6067,7 +6074,7 @@
         <v>68</v>
       </c>
       <c r="AV22" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW22" s="10" t="str">
         <f t="shared" si="3"/>
@@ -6322,7 +6329,7 @@
         <v>57</v>
       </c>
       <c r="AV23" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW23" s="10" t="str">
         <f t="shared" si="3"/>
@@ -6577,7 +6584,7 @@
         <v>57</v>
       </c>
       <c r="AV24" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW24" s="10" t="str">
         <f t="shared" si="3"/>
@@ -6832,7 +6839,7 @@
         <v>57</v>
       </c>
       <c r="AV25" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW25" s="10" t="str">
         <f t="shared" si="3"/>
@@ -7087,7 +7094,7 @@
         <v>69</v>
       </c>
       <c r="AV26" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW26" s="10" t="str">
         <f t="shared" si="3"/>
@@ -7342,7 +7349,7 @@
         <v>69</v>
       </c>
       <c r="AV27" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW27" s="10" t="str">
         <f t="shared" si="3"/>
@@ -7597,7 +7604,7 @@
         <v>69</v>
       </c>
       <c r="AV28" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW28" s="10" t="str">
         <f t="shared" si="3"/>
@@ -7853,7 +7860,7 @@
         <v>70</v>
       </c>
       <c r="AV29" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW29" s="10" t="str">
         <f t="shared" si="3"/>
@@ -8108,7 +8115,7 @@
         <v>70</v>
       </c>
       <c r="AV30" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW30" s="10" t="str">
         <f t="shared" si="3"/>
@@ -8363,7 +8370,7 @@
         <v>70</v>
       </c>
       <c r="AV31" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW31" s="10" t="str">
         <f t="shared" si="3"/>
@@ -8622,7 +8629,7 @@
         <v>68</v>
       </c>
       <c r="AV32" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW32" s="10" t="str">
         <f t="shared" si="3"/>
@@ -8881,7 +8888,7 @@
         <v>68</v>
       </c>
       <c r="AV33" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW33" s="10" t="str">
         <f t="shared" si="3"/>
@@ -9140,7 +9147,7 @@
         <v>68</v>
       </c>
       <c r="AV34" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW34" s="10" t="str">
         <f t="shared" si="3"/>
@@ -9399,7 +9406,7 @@
         <v>57</v>
       </c>
       <c r="AV35" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW35" s="10" t="str">
         <f t="shared" si="3"/>
@@ -9658,7 +9665,7 @@
         <v>57</v>
       </c>
       <c r="AV36" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW36" s="10" t="str">
         <f t="shared" si="3"/>
@@ -9917,7 +9924,7 @@
         <v>57</v>
       </c>
       <c r="AV37" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW37" s="10" t="str">
         <f t="shared" si="3"/>
@@ -10176,7 +10183,7 @@
         <v>69</v>
       </c>
       <c r="AV38" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW38" s="10" t="str">
         <f t="shared" si="3"/>
@@ -10435,7 +10442,7 @@
         <v>69</v>
       </c>
       <c r="AV39" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW39" s="10" t="str">
         <f t="shared" si="3"/>
@@ -10694,7 +10701,7 @@
         <v>69</v>
       </c>
       <c r="AV40" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW40" s="10" t="str">
         <f t="shared" si="3"/>
@@ -10953,7 +10960,7 @@
         <v>70</v>
       </c>
       <c r="AV41" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW41" s="10" t="str">
         <f t="shared" si="3"/>
@@ -11212,7 +11219,7 @@
         <v>70</v>
       </c>
       <c r="AV42" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW42" s="10" t="str">
         <f t="shared" si="3"/>
@@ -11471,7 +11478,7 @@
         <v>70</v>
       </c>
       <c r="AV43" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW43" s="10" t="str">
         <f t="shared" si="3"/>
@@ -11729,7 +11736,7 @@
       </c>
       <c r="AU44" s="7"/>
       <c r="AV44" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW44" s="10" t="str">
         <f t="shared" si="3"/>
@@ -11981,14 +11988,14 @@
       <c r="AQ45" s="6"/>
       <c r="AR45" s="6"/>
       <c r="AS45" s="6"/>
-      <c r="AT45" s="36">
+      <c r="AT45" s="34">
         <v>1000000</v>
       </c>
       <c r="AU45" s="7" t="s">
         <v>148</v>
       </c>
       <c r="AV45" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW45" s="10" t="str">
         <f t="shared" si="3"/>
@@ -12240,14 +12247,14 @@
       <c r="AQ46" s="6"/>
       <c r="AR46" s="6"/>
       <c r="AS46" s="6"/>
-      <c r="AT46" s="36">
+      <c r="AT46" s="34">
         <v>-1000000</v>
       </c>
       <c r="AU46" s="7" t="s">
         <v>147</v>
       </c>
       <c r="AV46" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW46" s="10" t="str">
         <f t="shared" si="3"/>
@@ -12425,7 +12432,7 @@
         <v>-1000000</v>
       </c>
       <c r="E47" s="30" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -12499,14 +12506,14 @@
       <c r="AQ47" s="6"/>
       <c r="AR47" s="6"/>
       <c r="AS47" s="6"/>
-      <c r="AT47" s="34">
+      <c r="AT47" s="33">
         <v>-1000000</v>
       </c>
       <c r="AU47" s="7" t="s">
         <v>147</v>
       </c>
       <c r="AV47" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW47" s="10" t="str">
         <f t="shared" si="3"/>
@@ -12706,7 +12713,7 @@
         <v>97</v>
       </c>
       <c r="O48" s="26" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="P48" s="26" t="s">
         <v>97</v>
@@ -12765,7 +12772,7 @@
         <v>56</v>
       </c>
       <c r="AV48" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW48" s="10" t="str">
         <f t="shared" si="3"/>
@@ -12943,7 +12950,7 @@
         <v>-1000000</v>
       </c>
       <c r="E49" s="30" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -13017,14 +13024,14 @@
       <c r="AQ49" s="6"/>
       <c r="AR49" s="6"/>
       <c r="AS49" s="6"/>
-      <c r="AT49" s="34">
+      <c r="AT49" s="33">
         <v>-1000000</v>
       </c>
       <c r="AU49" s="7" t="s">
         <v>147</v>
       </c>
       <c r="AV49" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW49" s="10" t="str">
         <f t="shared" si="3"/>
@@ -13202,7 +13209,7 @@
         <v>-1000000</v>
       </c>
       <c r="E50" s="30" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -13276,14 +13283,14 @@
       <c r="AQ50" s="6"/>
       <c r="AR50" s="6"/>
       <c r="AS50" s="6"/>
-      <c r="AT50" s="34">
+      <c r="AT50" s="33">
         <v>-1000000</v>
       </c>
       <c r="AU50" s="7" t="s">
         <v>147</v>
       </c>
       <c r="AV50" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW50" s="10" t="str">
         <f t="shared" si="3"/>
@@ -13540,7 +13547,7 @@
         <v>68</v>
       </c>
       <c r="AV51" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW51" s="10" t="str">
         <f t="shared" si="3"/>
@@ -13797,7 +13804,7 @@
         <v>68</v>
       </c>
       <c r="AV52" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW52" s="10" t="str">
         <f t="shared" si="3"/>
@@ -14054,7 +14061,7 @@
         <v>68</v>
       </c>
       <c r="AV53" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW53" s="10" t="str">
         <f t="shared" si="3"/>
@@ -14311,7 +14318,7 @@
         <v>57</v>
       </c>
       <c r="AV54" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW54" s="10" t="str">
         <f t="shared" si="3"/>
@@ -14568,7 +14575,7 @@
         <v>57</v>
       </c>
       <c r="AV55" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW55" s="10" t="str">
         <f t="shared" si="3"/>
@@ -14825,7 +14832,7 @@
         <v>57</v>
       </c>
       <c r="AV56" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW56" s="10" t="str">
         <f t="shared" si="3"/>
@@ -15082,7 +15089,7 @@
         <v>69</v>
       </c>
       <c r="AV57" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW57" s="10" t="str">
         <f t="shared" si="3"/>
@@ -15339,7 +15346,7 @@
         <v>69</v>
       </c>
       <c r="AV58" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW58" s="10" t="str">
         <f t="shared" si="3"/>
@@ -15596,7 +15603,7 @@
         <v>69</v>
       </c>
       <c r="AV59" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW59" s="10" t="str">
         <f t="shared" si="3"/>
@@ -15853,7 +15860,7 @@
         <v>70</v>
       </c>
       <c r="AV60" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW60" s="10" t="str">
         <f t="shared" si="3"/>
@@ -16110,7 +16117,7 @@
         <v>70</v>
       </c>
       <c r="AV61" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW61" s="10" t="str">
         <f t="shared" si="3"/>
@@ -16367,7 +16374,7 @@
         <v>70</v>
       </c>
       <c r="AV62" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW62" s="10" t="str">
         <f t="shared" si="3"/>
@@ -16617,14 +16624,14 @@
       <c r="AQ63" s="6"/>
       <c r="AR63" s="6"/>
       <c r="AS63" s="6"/>
-      <c r="AT63" s="34">
+      <c r="AT63" s="33">
         <v>1000000</v>
       </c>
       <c r="AU63" s="7" t="s">
         <v>148</v>
       </c>
       <c r="AV63" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW63" s="10" t="str">
         <f t="shared" si="3"/>
@@ -17129,14 +17136,14 @@
       <c r="AQ65" s="6"/>
       <c r="AR65" s="6"/>
       <c r="AS65" s="6"/>
-      <c r="AT65" s="34">
+      <c r="AT65" s="33">
         <v>1000000</v>
       </c>
       <c r="AU65" s="7" t="s">
         <v>148</v>
       </c>
       <c r="AV65" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW65" s="10" t="str">
         <f t="shared" si="3"/>
@@ -17393,7 +17400,7 @@
         <v>148</v>
       </c>
       <c r="AV66" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW66" s="10" t="str">
         <f t="shared" si="3"/>
@@ -17650,7 +17657,7 @@
         <v>148</v>
       </c>
       <c r="AV67" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW67" s="10" t="str">
         <f t="shared" si="3"/>
@@ -17900,14 +17907,14 @@
       <c r="AQ68" s="6"/>
       <c r="AR68" s="6"/>
       <c r="AS68" s="6"/>
-      <c r="AT68" s="34">
+      <c r="AT68" s="33">
         <v>1000000</v>
       </c>
       <c r="AU68" s="7" t="s">
         <v>148</v>
       </c>
       <c r="AV68" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW68" s="10" t="str">
         <f t="shared" ref="AW68:AW79" si="106">"INSERT INTO TEWSA0W.CT_SME_TMP ("&amp;AS$1&amp;") VALUES ( " &amp;B68&amp;","&amp;(IF(OR(LEN(F68)=0,F68="missing"),"NULL",F68))&amp;","</f>
@@ -18164,7 +18171,7 @@
         <v>148</v>
       </c>
       <c r="AV69" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW69" s="10" t="str">
         <f t="shared" si="106"/>
@@ -18403,7 +18410,7 @@
         <v>1</v>
       </c>
       <c r="AV70" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW70" s="10" t="str">
         <f t="shared" si="106"/>
@@ -18642,7 +18649,7 @@
         <v>1</v>
       </c>
       <c r="AV71" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW71" s="10" t="str">
         <f t="shared" si="106"/>
@@ -18881,7 +18888,7 @@
         <v>1</v>
       </c>
       <c r="AV72" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW72" s="10" t="str">
         <f t="shared" si="106"/>
@@ -19120,7 +19127,7 @@
         <v>91</v>
       </c>
       <c r="AV73" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW73" s="10" t="str">
         <f t="shared" si="106"/>
@@ -19361,7 +19368,7 @@
         <v>1</v>
       </c>
       <c r="AV74" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW74" s="10" t="str">
         <f t="shared" si="106"/>
@@ -19602,7 +19609,7 @@
         <v>1</v>
       </c>
       <c r="AV75" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW75" s="10" t="str">
         <f t="shared" si="106"/>
@@ -19843,7 +19850,7 @@
         <v>1</v>
       </c>
       <c r="AV76" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW76" s="10" t="str">
         <f t="shared" si="106"/>
@@ -20084,7 +20091,7 @@
         <v>1</v>
       </c>
       <c r="AV77" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW77" s="10" t="str">
         <f t="shared" si="106"/>
@@ -20325,7 +20332,7 @@
         <v>94</v>
       </c>
       <c r="AV78" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW78" s="10" t="str">
         <f t="shared" si="106"/>
@@ -20566,7 +20573,7 @@
         <v>94</v>
       </c>
       <c r="AV79" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW79" s="10" t="str">
         <f t="shared" si="106"/>
@@ -20735,7 +20742,7 @@
     </row>
     <row r="81" spans="28:29" x14ac:dyDescent="0.3">
       <c r="AB81" s="17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="85" spans="28:29" x14ac:dyDescent="0.3">

--- a/earlywarning-pom/Document/test/SME RETAIL/test_Ind_High_Priority_SMERetail_round3.xlsx
+++ b/earlywarning-pom/Document/test/SME RETAIL/test_Ind_High_Priority_SMERetail_round3.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="High_Priority" sheetId="3" r:id="rId1"/>
+    <sheet name="bilancio" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2444" uniqueCount="159">
   <si>
     <t>valore atteso</t>
   </si>
@@ -482,6 +483,21 @@
   <si>
     <t>(Z63+AA63+AB63+AC63)/(AD63+AE63/3,5-AF63+AC63)</t>
   </si>
+  <si>
+    <t>IMP_PATRIM_NETTO_T1</t>
+  </si>
+  <si>
+    <t>IMP_PATRIM_NETTO_T2</t>
+  </si>
+  <si>
+    <t>'FIS'</t>
+  </si>
+  <si>
+    <t>BILA007</t>
+  </si>
+  <si>
+    <t>0.16393</t>
+  </si>
 </sst>
 </file>
 
@@ -516,7 +532,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -565,6 +581,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -594,7 +616,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -684,6 +706,37 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1007,11 +1060,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CR89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="5" ySplit="2" topLeftCell="F27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AT5" sqref="AT5:AT8"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:AV2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20799,4 +20852,6152 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:AG83"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.21875" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="37" customWidth="1"/>
+    <col min="3" max="5" width="24.21875" customWidth="1"/>
+    <col min="6" max="19" width="24.21875" style="12" customWidth="1"/>
+    <col min="20" max="23" width="38.21875" customWidth="1"/>
+    <col min="24" max="33" width="24.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:33" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="X1" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y1" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z1" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA1" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG1" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="6">
+        <v>3</v>
+      </c>
+      <c r="D2" s="30">
+        <f>(F2-G2)/G2</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6">
+        <v>500</v>
+      </c>
+      <c r="G2" s="7">
+        <v>300</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="K2" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="L2" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M2" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N2" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="O2" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="P2" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q2" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="R2" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="S2" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="6">
+        <v>3</v>
+      </c>
+      <c r="D3" s="30">
+        <v>0</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J3" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="K3" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="L3" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M3" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N3" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="O3" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="P3" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q3" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="R3" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="S3" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="20"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG3" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="6">
+        <v>3</v>
+      </c>
+      <c r="D4" s="30">
+        <f>(F4-G4)/G4</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6">
+        <v>300</v>
+      </c>
+      <c r="G4" s="6">
+        <v>300</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J4" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="K4" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="L4" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M4" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N4" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="O4" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="P4" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q4" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="R4" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="S4" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="20"/>
+      <c r="Z4" s="20"/>
+      <c r="AA4" s="20"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="6">
+        <v>3</v>
+      </c>
+      <c r="D5" s="30">
+        <f>(F5-G5)/G5</f>
+        <v>-0.5</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7">
+        <v>200</v>
+      </c>
+      <c r="G5" s="7">
+        <v>400</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="K5" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="L5" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M5" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N5" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="O5" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="P5" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q5" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="R5" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="S5" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="20"/>
+      <c r="Y5" s="20"/>
+      <c r="Z5" s="20"/>
+      <c r="AA5" s="20"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="3">
+        <v>-0.5</v>
+      </c>
+      <c r="AF5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="6">
+        <v>3</v>
+      </c>
+      <c r="D6" s="30">
+        <v>1000000</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="7">
+        <v>300</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="K6" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="L6" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M6" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N6" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="O6" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="P6" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q6" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="R6" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="S6" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="20"/>
+      <c r="AA6" s="20"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="AF6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG6" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3</v>
+      </c>
+      <c r="D7" s="30">
+        <f>(F7-G7)/ABS(G7)</f>
+        <v>2.5</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6">
+        <v>300</v>
+      </c>
+      <c r="G7" s="6">
+        <v>-200</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J7" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="K7" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="L7" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M7" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N7" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="O7" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="P7" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q7" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="R7" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="S7" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="20"/>
+      <c r="Y7" s="20"/>
+      <c r="Z7" s="20"/>
+      <c r="AA7" s="20"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="AF7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2">
+        <v>3</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M8" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N8" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="O8" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="P8" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q8" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="R8" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="S8" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="20"/>
+      <c r="Y8" s="20"/>
+      <c r="Z8" s="20"/>
+      <c r="AA8" s="20"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG8" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3</v>
+      </c>
+      <c r="D9" s="30">
+        <v>-1000000</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="7">
+        <v>-300</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M9" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N9" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="O9" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="P9" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q9" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="R9" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="S9" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="20"/>
+      <c r="Y9" s="20"/>
+      <c r="Z9" s="20"/>
+      <c r="AA9" s="20"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="3">
+        <v>-1000000</v>
+      </c>
+      <c r="AF9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG9" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="6">
+        <v>500</v>
+      </c>
+      <c r="G10" s="7">
+        <v>300</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="I10" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="L10" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="M10" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="N10" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="O10" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="P10" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q10" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="R10" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="S10" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="20"/>
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="20"/>
+      <c r="AA10" s="20"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="6"/>
+      <c r="AE10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG10" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="I11" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="J11" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="K11" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="L11" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="M11" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="N11" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="O11" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="P11" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q11" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="R11" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="S11" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="20"/>
+      <c r="Y11" s="20"/>
+      <c r="Z11" s="20"/>
+      <c r="AA11" s="20"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="6"/>
+      <c r="AE11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG11" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="2">
+        <v>3</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="I12" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="J12" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="K12" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="L12" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="M12" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="N12" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="O12" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="P12" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q12" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="R12" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="S12" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="20"/>
+      <c r="AA12" s="20"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG12" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="2">
+        <v>3</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="6">
+        <v>500</v>
+      </c>
+      <c r="G13" s="7">
+        <v>300</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q13" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="R13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="S13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="20"/>
+      <c r="AA13" s="20"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG13" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B14" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="2">
+        <v>3</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q14" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="S14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="7"/>
+      <c r="AE14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG14" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B15" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="2">
+        <v>3</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q15" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="R15" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="S15" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="21"/>
+      <c r="AB15" s="7"/>
+      <c r="AC15" s="7"/>
+      <c r="AD15" s="7"/>
+      <c r="AE15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG15" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="2">
+        <v>3</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="6">
+        <v>500</v>
+      </c>
+      <c r="G16" s="7">
+        <v>300</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I16" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="J16" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="K16" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="L16" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="M16" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="N16" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="O16" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="P16" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q16" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="R16" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="S16" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="21"/>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="7"/>
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG16" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B17" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="2">
+        <v>3</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I17" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="J17" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="K17" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="L17" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="M17" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="N17" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="O17" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="P17" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q17" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="R17" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="S17" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="21"/>
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="21"/>
+      <c r="AA17" s="21"/>
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="7"/>
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF17" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG17" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B18" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="2">
+        <v>3</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I18" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="J18" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="K18" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="L18" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="M18" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="N18" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="O18" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="P18" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q18" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="R18" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="S18" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="21"/>
+      <c r="Y18" s="21"/>
+      <c r="Z18" s="21"/>
+      <c r="AA18" s="21"/>
+      <c r="AB18" s="7"/>
+      <c r="AC18" s="7"/>
+      <c r="AD18" s="7"/>
+      <c r="AE18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF18" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG18" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B19" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="2">
+        <v>3</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="6">
+        <v>500</v>
+      </c>
+      <c r="G19" s="7">
+        <v>300</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I19" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J19" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="K19" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="L19" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="M19" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="N19" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="O19" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="P19" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q19" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="R19" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="S19" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="21"/>
+      <c r="Y19" s="21"/>
+      <c r="Z19" s="21"/>
+      <c r="AA19" s="21"/>
+      <c r="AB19" s="7"/>
+      <c r="AC19" s="7"/>
+      <c r="AD19" s="7"/>
+      <c r="AE19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF19" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG19" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B20" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="2">
+        <v>3</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0</v>
+      </c>
+      <c r="H20" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I20" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J20" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="K20" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="L20" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="M20" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="N20" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="O20" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="P20" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q20" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="R20" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="S20" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="21"/>
+      <c r="Y20" s="21"/>
+      <c r="Z20" s="21"/>
+      <c r="AA20" s="21"/>
+      <c r="AB20" s="7"/>
+      <c r="AC20" s="7"/>
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF20" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG20" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B21" s="11"/>
+      <c r="C21" s="38">
+        <v>3</v>
+      </c>
+      <c r="D21" s="38">
+        <f>(F21-G21)/G21</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38">
+        <v>500</v>
+      </c>
+      <c r="G21" s="39">
+        <v>300</v>
+      </c>
+      <c r="H21" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="I21" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="M21" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="N21" s="41"/>
+      <c r="O21" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="P21" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q21" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="R21" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="S21" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="21"/>
+      <c r="Y21" s="21"/>
+      <c r="Z21" s="21"/>
+      <c r="AA21" s="21"/>
+      <c r="AB21" s="7"/>
+      <c r="AC21" s="7"/>
+      <c r="AD21" s="7"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="4"/>
+      <c r="AG21" s="4"/>
+    </row>
+    <row r="22" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B22" s="11"/>
+      <c r="C22" s="38">
+        <v>3</v>
+      </c>
+      <c r="D22" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="39">
+        <v>500</v>
+      </c>
+      <c r="G22" s="39">
+        <v>0</v>
+      </c>
+      <c r="H22" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="I22" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="M22" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="N22" s="41"/>
+      <c r="O22" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="P22" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q22" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="R22" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="S22" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="21"/>
+      <c r="Y22" s="21"/>
+      <c r="Z22" s="21"/>
+      <c r="AA22" s="21"/>
+      <c r="AB22" s="7"/>
+      <c r="AC22" s="7"/>
+      <c r="AD22" s="7"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="4"/>
+    </row>
+    <row r="23" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B23" s="11"/>
+      <c r="C23" s="38">
+        <v>3</v>
+      </c>
+      <c r="D23" s="38">
+        <v>0</v>
+      </c>
+      <c r="E23" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="39">
+        <v>0</v>
+      </c>
+      <c r="G23" s="39">
+        <v>0</v>
+      </c>
+      <c r="H23" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="I23" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="M23" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="N23" s="41"/>
+      <c r="O23" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="P23" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q23" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="R23" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="S23" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="21"/>
+      <c r="Y23" s="21"/>
+      <c r="Z23" s="21"/>
+      <c r="AA23" s="21"/>
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="7"/>
+      <c r="AD23" s="7"/>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="4"/>
+      <c r="AG23" s="4"/>
+    </row>
+    <row r="24" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B24" s="11"/>
+      <c r="C24" s="38">
+        <v>3</v>
+      </c>
+      <c r="D24" s="38">
+        <v>-1000000</v>
+      </c>
+      <c r="E24" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="39">
+        <v>-300</v>
+      </c>
+      <c r="G24" s="39">
+        <v>0</v>
+      </c>
+      <c r="H24" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="I24" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="M24" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="N24" s="41"/>
+      <c r="O24" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="P24" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q24" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="R24" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="S24" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="21"/>
+      <c r="Y24" s="21"/>
+      <c r="Z24" s="21"/>
+      <c r="AA24" s="21"/>
+      <c r="AB24" s="7"/>
+      <c r="AC24" s="7"/>
+      <c r="AD24" s="7"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="4"/>
+      <c r="AG24" s="4"/>
+    </row>
+    <row r="25" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B25" s="11"/>
+      <c r="C25" s="38">
+        <v>3</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" s="38">
+        <v>500</v>
+      </c>
+      <c r="G25" s="39">
+        <v>300</v>
+      </c>
+      <c r="H25" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="I25" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="M25" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="N25" s="41"/>
+      <c r="O25" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="P25" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q25" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="R25" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="S25" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="21"/>
+      <c r="Y25" s="21"/>
+      <c r="Z25" s="21"/>
+      <c r="AA25" s="21"/>
+      <c r="AB25" s="7"/>
+      <c r="AC25" s="7"/>
+      <c r="AD25" s="7"/>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="4"/>
+      <c r="AG25" s="4"/>
+    </row>
+    <row r="26" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B26" s="11"/>
+      <c r="C26" s="38">
+        <v>3</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="F26" s="38">
+        <v>500</v>
+      </c>
+      <c r="G26" s="39">
+        <v>300</v>
+      </c>
+      <c r="H26" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="I26" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="M26" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="N26" s="41"/>
+      <c r="O26" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="P26" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q26" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="R26" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="S26" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="21"/>
+      <c r="Y26" s="21"/>
+      <c r="Z26" s="21"/>
+      <c r="AA26" s="21"/>
+      <c r="AB26" s="7"/>
+      <c r="AC26" s="7"/>
+      <c r="AD26" s="7"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="4"/>
+      <c r="AG26" s="4"/>
+    </row>
+    <row r="27" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B27" s="11"/>
+      <c r="C27" s="38">
+        <v>3</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="G27" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="H27" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="I27" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="M27" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="N27" s="41"/>
+      <c r="O27" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="P27" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q27" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="R27" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="S27" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="21"/>
+      <c r="Y27" s="21"/>
+      <c r="Z27" s="21"/>
+      <c r="AA27" s="21"/>
+      <c r="AB27" s="7"/>
+      <c r="AC27" s="7"/>
+      <c r="AD27" s="7"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="4"/>
+      <c r="AG27" s="4"/>
+    </row>
+    <row r="28" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B28" s="11"/>
+      <c r="C28" s="38">
+        <v>3</v>
+      </c>
+      <c r="D28" s="38">
+        <f>(F28-G28)/ABS(G28)</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="E28" s="38"/>
+      <c r="F28" s="39">
+        <v>500</v>
+      </c>
+      <c r="G28" s="39">
+        <v>-300</v>
+      </c>
+      <c r="H28" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="I28" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="M28" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="N28" s="41"/>
+      <c r="O28" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="P28" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q28" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="R28" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="S28" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="21"/>
+      <c r="Y28" s="21"/>
+      <c r="Z28" s="21"/>
+      <c r="AA28" s="21"/>
+      <c r="AB28" s="7"/>
+      <c r="AC28" s="7"/>
+      <c r="AD28" s="7"/>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="4"/>
+      <c r="AG28" s="4"/>
+    </row>
+    <row r="29" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B29" s="11"/>
+      <c r="C29" s="38">
+        <v>3</v>
+      </c>
+      <c r="D29" s="38">
+        <f t="shared" ref="D29:D30" si="0">(F29-G29)/ABS(G29)</f>
+        <v>1</v>
+      </c>
+      <c r="E29" s="38"/>
+      <c r="F29" s="39">
+        <v>0</v>
+      </c>
+      <c r="G29" s="39">
+        <v>-300</v>
+      </c>
+      <c r="H29" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="I29" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="M29" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="N29" s="41"/>
+      <c r="O29" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="P29" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q29" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="R29" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="S29" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="21"/>
+      <c r="Y29" s="21"/>
+      <c r="Z29" s="21"/>
+      <c r="AA29" s="21"/>
+      <c r="AB29" s="7"/>
+      <c r="AC29" s="7"/>
+      <c r="AD29" s="7"/>
+      <c r="AE29" s="3"/>
+      <c r="AF29" s="4"/>
+      <c r="AG29" s="4"/>
+    </row>
+    <row r="30" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B30" s="11"/>
+      <c r="C30" s="38">
+        <v>3</v>
+      </c>
+      <c r="D30" s="38">
+        <f t="shared" si="0"/>
+        <v>-0.66666666666666663</v>
+      </c>
+      <c r="E30" s="38"/>
+      <c r="F30" s="39">
+        <v>-500</v>
+      </c>
+      <c r="G30" s="39">
+        <v>-300</v>
+      </c>
+      <c r="H30" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="I30" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="M30" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="N30" s="41"/>
+      <c r="O30" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="P30" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q30" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="R30" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="S30" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="21"/>
+      <c r="Y30" s="21"/>
+      <c r="Z30" s="21"/>
+      <c r="AA30" s="21"/>
+      <c r="AB30" s="7"/>
+      <c r="AC30" s="7"/>
+      <c r="AD30" s="7"/>
+      <c r="AE30" s="3"/>
+      <c r="AF30" s="4"/>
+      <c r="AG30" s="4"/>
+    </row>
+    <row r="31" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B31" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="2">
+        <v>3</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H31" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I31" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J31" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="K31" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="L31" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="M31" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="N31" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="O31" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="P31" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q31" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="R31" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="S31" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="21"/>
+      <c r="Y31" s="21"/>
+      <c r="Z31" s="21"/>
+      <c r="AA31" s="21"/>
+      <c r="AB31" s="7"/>
+      <c r="AC31" s="7"/>
+      <c r="AD31" s="7"/>
+      <c r="AE31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF31" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG31" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="32" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B32" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="2">
+        <v>4</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="I32" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="J32" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="K32" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="L32" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="M32" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="N32" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="O32" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="P32" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q32" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="R32" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="S32" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="T32" s="7">
+        <v>300</v>
+      </c>
+      <c r="U32" s="7">
+        <v>200</v>
+      </c>
+      <c r="V32" s="7">
+        <v>100</v>
+      </c>
+      <c r="W32" s="7">
+        <v>50</v>
+      </c>
+      <c r="X32" s="21"/>
+      <c r="Y32" s="21"/>
+      <c r="Z32" s="21"/>
+      <c r="AA32" s="21"/>
+      <c r="AB32" s="7"/>
+      <c r="AC32" s="7"/>
+      <c r="AD32" s="7"/>
+      <c r="AE32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF32" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG32" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B33" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="2">
+        <v>4</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="I33" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="J33" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="K33" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="L33" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="M33" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="N33" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="O33" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="P33" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q33" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="R33" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="S33" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="T33" s="6">
+        <v>0</v>
+      </c>
+      <c r="U33" s="6">
+        <v>0</v>
+      </c>
+      <c r="V33" s="6">
+        <v>0</v>
+      </c>
+      <c r="W33" s="6">
+        <v>0</v>
+      </c>
+      <c r="X33" s="20"/>
+      <c r="Y33" s="20"/>
+      <c r="Z33" s="20"/>
+      <c r="AA33" s="20"/>
+      <c r="AB33" s="6"/>
+      <c r="AC33" s="6"/>
+      <c r="AD33" s="6"/>
+      <c r="AE33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF33" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG33" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B34" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="2">
+        <v>4</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="I34" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="J34" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="K34" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="L34" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="M34" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="N34" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="O34" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="P34" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q34" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="R34" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="S34" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="T34" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="U34" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="V34" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="W34" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="X34" s="20"/>
+      <c r="Y34" s="20"/>
+      <c r="Z34" s="20"/>
+      <c r="AA34" s="20"/>
+      <c r="AB34" s="6"/>
+      <c r="AC34" s="6"/>
+      <c r="AD34" s="6"/>
+      <c r="AE34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF34" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG34" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="35" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B35" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="2">
+        <v>4</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M35" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="N35" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q35" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="R35" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="S35" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="T35" s="7">
+        <v>300</v>
+      </c>
+      <c r="U35" s="7">
+        <v>200</v>
+      </c>
+      <c r="V35" s="7">
+        <v>100</v>
+      </c>
+      <c r="W35" s="7">
+        <v>50</v>
+      </c>
+      <c r="X35" s="20"/>
+      <c r="Y35" s="20"/>
+      <c r="Z35" s="20"/>
+      <c r="AA35" s="20"/>
+      <c r="AB35" s="6"/>
+      <c r="AC35" s="6"/>
+      <c r="AD35" s="6"/>
+      <c r="AE35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF35" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG35" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="36" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B36" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="2">
+        <v>4</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M36" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="N36" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q36" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="R36" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="S36" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="T36" s="6">
+        <v>0</v>
+      </c>
+      <c r="U36" s="6">
+        <v>0</v>
+      </c>
+      <c r="V36" s="6">
+        <v>0</v>
+      </c>
+      <c r="W36" s="6">
+        <v>0</v>
+      </c>
+      <c r="X36" s="20"/>
+      <c r="Y36" s="20"/>
+      <c r="Z36" s="20"/>
+      <c r="AA36" s="20"/>
+      <c r="AB36" s="6"/>
+      <c r="AC36" s="6"/>
+      <c r="AD36" s="6"/>
+      <c r="AE36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF36" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG36" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="37" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B37" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="2">
+        <v>4</v>
+      </c>
+      <c r="D37" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M37" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="N37" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q37" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="R37" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="S37" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="T37" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="U37" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="V37" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="W37" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="X37" s="20"/>
+      <c r="Y37" s="20"/>
+      <c r="Z37" s="20"/>
+      <c r="AA37" s="20"/>
+      <c r="AB37" s="6"/>
+      <c r="AC37" s="6"/>
+      <c r="AD37" s="6"/>
+      <c r="AE37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF37" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG37" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="38" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B38" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="2">
+        <v>4</v>
+      </c>
+      <c r="D38" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I38" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="J38" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="K38" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="L38" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="M38" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="N38" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="O38" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="P38" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q38" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="R38" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="S38" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="T38" s="7">
+        <v>300</v>
+      </c>
+      <c r="U38" s="7">
+        <v>200</v>
+      </c>
+      <c r="V38" s="7">
+        <v>100</v>
+      </c>
+      <c r="W38" s="7">
+        <v>50</v>
+      </c>
+      <c r="X38" s="20"/>
+      <c r="Y38" s="20"/>
+      <c r="Z38" s="20"/>
+      <c r="AA38" s="20"/>
+      <c r="AB38" s="6"/>
+      <c r="AC38" s="6"/>
+      <c r="AD38" s="6"/>
+      <c r="AE38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF38" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG38" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B39" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="2">
+        <v>4</v>
+      </c>
+      <c r="D39" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I39" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="J39" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="K39" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="L39" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="M39" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="N39" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="O39" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="P39" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q39" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="R39" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="S39" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="T39" s="7">
+        <v>0</v>
+      </c>
+      <c r="U39" s="7">
+        <v>0</v>
+      </c>
+      <c r="V39" s="7">
+        <v>0</v>
+      </c>
+      <c r="W39" s="7">
+        <v>0</v>
+      </c>
+      <c r="X39" s="20"/>
+      <c r="Y39" s="20"/>
+      <c r="Z39" s="20"/>
+      <c r="AA39" s="20"/>
+      <c r="AB39" s="6"/>
+      <c r="AC39" s="6"/>
+      <c r="AD39" s="6"/>
+      <c r="AE39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF39" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG39" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="40" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B40" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="2">
+        <v>4</v>
+      </c>
+      <c r="D40" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E40" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I40" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="J40" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="K40" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="L40" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="M40" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="N40" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="O40" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="P40" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q40" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="R40" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="S40" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="T40" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="U40" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="V40" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="W40" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="X40" s="20"/>
+      <c r="Y40" s="20"/>
+      <c r="Z40" s="20"/>
+      <c r="AA40" s="20"/>
+      <c r="AB40" s="6"/>
+      <c r="AC40" s="6"/>
+      <c r="AD40" s="6"/>
+      <c r="AE40" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF40" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG40" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="41" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B41" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" s="2">
+        <v>4</v>
+      </c>
+      <c r="D41" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E41" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I41" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J41" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="K41" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="L41" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="M41" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="N41" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="O41" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="P41" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q41" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="R41" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="S41" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="T41" s="7">
+        <v>300</v>
+      </c>
+      <c r="U41" s="7">
+        <v>200</v>
+      </c>
+      <c r="V41" s="7">
+        <v>100</v>
+      </c>
+      <c r="W41" s="7">
+        <v>50</v>
+      </c>
+      <c r="X41" s="20"/>
+      <c r="Y41" s="20"/>
+      <c r="Z41" s="20"/>
+      <c r="AA41" s="20"/>
+      <c r="AB41" s="6"/>
+      <c r="AC41" s="6"/>
+      <c r="AD41" s="6"/>
+      <c r="AE41" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF41" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG41" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="42" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B42" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="2">
+        <v>4</v>
+      </c>
+      <c r="D42" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E42" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I42" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J42" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="K42" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="L42" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="M42" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="N42" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="O42" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="P42" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q42" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="R42" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="S42" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="T42" s="7">
+        <v>0</v>
+      </c>
+      <c r="U42" s="7">
+        <v>0</v>
+      </c>
+      <c r="V42" s="7">
+        <v>0</v>
+      </c>
+      <c r="W42" s="7">
+        <v>0</v>
+      </c>
+      <c r="X42" s="20"/>
+      <c r="Y42" s="20"/>
+      <c r="Z42" s="20"/>
+      <c r="AA42" s="20"/>
+      <c r="AB42" s="6"/>
+      <c r="AC42" s="6"/>
+      <c r="AD42" s="6"/>
+      <c r="AE42" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF42" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG42" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="43" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B43" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" s="2">
+        <v>4</v>
+      </c>
+      <c r="D43" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I43" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J43" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="K43" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="L43" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="M43" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="N43" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="O43" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="P43" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q43" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="R43" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="S43" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="T43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="U43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="V43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="W43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="X43" s="20"/>
+      <c r="Y43" s="20"/>
+      <c r="Z43" s="20"/>
+      <c r="AA43" s="20"/>
+      <c r="AB43" s="6"/>
+      <c r="AC43" s="6"/>
+      <c r="AD43" s="6"/>
+      <c r="AE43" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF43" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG43" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="44" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B44" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C44" s="2">
+        <v>4</v>
+      </c>
+      <c r="D44" s="30">
+        <f>(MAX(T44,V44)-MAX(U44,W44))/MAX(U44,W44)</f>
+        <v>0.5</v>
+      </c>
+      <c r="E44" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I44" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J44" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="K44" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="L44" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M44" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N44" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="O44" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="P44" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q44" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="R44" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="S44" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="T44" s="6">
+        <v>300</v>
+      </c>
+      <c r="U44" s="6">
+        <v>200</v>
+      </c>
+      <c r="V44" s="6">
+        <v>100</v>
+      </c>
+      <c r="W44" s="6">
+        <v>50</v>
+      </c>
+      <c r="X44" s="20"/>
+      <c r="Y44" s="20"/>
+      <c r="Z44" s="20"/>
+      <c r="AA44" s="20"/>
+      <c r="AB44" s="6"/>
+      <c r="AC44" s="6"/>
+      <c r="AD44" s="6"/>
+      <c r="AE44" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AF44" s="7"/>
+      <c r="AG44" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="45" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B45" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C45" s="2">
+        <v>4</v>
+      </c>
+      <c r="D45" s="30">
+        <v>1000000</v>
+      </c>
+      <c r="E45" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I45" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J45" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="K45" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="L45" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M45" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N45" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="O45" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="P45" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q45" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="R45" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="S45" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="T45" s="7">
+        <v>300</v>
+      </c>
+      <c r="U45" s="7">
+        <v>0</v>
+      </c>
+      <c r="V45" s="7">
+        <v>0</v>
+      </c>
+      <c r="W45" s="7">
+        <v>-100</v>
+      </c>
+      <c r="X45" s="20"/>
+      <c r="Y45" s="20"/>
+      <c r="Z45" s="20"/>
+      <c r="AA45" s="20"/>
+      <c r="AB45" s="6"/>
+      <c r="AC45" s="6"/>
+      <c r="AD45" s="6"/>
+      <c r="AE45" s="34">
+        <v>1000000</v>
+      </c>
+      <c r="AF45" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="AG45" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="46" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B46" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C46" s="2">
+        <v>4</v>
+      </c>
+      <c r="D46" s="30">
+        <v>-1000000</v>
+      </c>
+      <c r="E46" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I46" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J46" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="K46" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="L46" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M46" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N46" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="O46" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="P46" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q46" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="R46" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="S46" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="T46" s="7">
+        <v>-100</v>
+      </c>
+      <c r="U46" s="7">
+        <v>-100</v>
+      </c>
+      <c r="V46" s="7">
+        <v>-200</v>
+      </c>
+      <c r="W46" s="7">
+        <v>0</v>
+      </c>
+      <c r="X46" s="20"/>
+      <c r="Y46" s="20"/>
+      <c r="Z46" s="20"/>
+      <c r="AA46" s="20"/>
+      <c r="AB46" s="6"/>
+      <c r="AC46" s="6"/>
+      <c r="AD46" s="6"/>
+      <c r="AE46" s="34">
+        <v>-1000000</v>
+      </c>
+      <c r="AF46" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG46" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="47" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B47" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" s="2">
+        <v>4</v>
+      </c>
+      <c r="D47" s="30">
+        <v>-1000000</v>
+      </c>
+      <c r="E47" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I47" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J47" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="K47" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="L47" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M47" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N47" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="O47" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="P47" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q47" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="R47" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="S47" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="T47" s="7">
+        <v>-50</v>
+      </c>
+      <c r="U47" s="7">
+        <v>-150</v>
+      </c>
+      <c r="V47" s="7">
+        <v>0</v>
+      </c>
+      <c r="W47" s="7">
+        <v>-100</v>
+      </c>
+      <c r="X47" s="20"/>
+      <c r="Y47" s="20"/>
+      <c r="Z47" s="20"/>
+      <c r="AA47" s="20"/>
+      <c r="AB47" s="6"/>
+      <c r="AC47" s="6"/>
+      <c r="AD47" s="6"/>
+      <c r="AE47" s="33">
+        <v>-1000000</v>
+      </c>
+      <c r="AF47" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG47" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="48" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B48" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C48" s="2">
+        <v>4</v>
+      </c>
+      <c r="D48" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E48" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I48" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J48" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="K48" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="L48" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M48" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="N48" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="O48" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="P48" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q48" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="R48" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="S48" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="T48" s="7">
+        <v>-300</v>
+      </c>
+      <c r="U48" s="7">
+        <v>200</v>
+      </c>
+      <c r="V48" s="7">
+        <v>-50</v>
+      </c>
+      <c r="W48" s="7">
+        <v>-150</v>
+      </c>
+      <c r="X48" s="20"/>
+      <c r="Y48" s="20"/>
+      <c r="Z48" s="20"/>
+      <c r="AA48" s="20"/>
+      <c r="AB48" s="6"/>
+      <c r="AC48" s="6"/>
+      <c r="AD48" s="6"/>
+      <c r="AE48" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF48" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG48" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="49" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B49" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" s="2">
+        <v>4</v>
+      </c>
+      <c r="D49" s="32">
+        <v>-1000000</v>
+      </c>
+      <c r="E49" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I49" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J49" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="K49" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="L49" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M49" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N49" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="O49" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="P49" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q49" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="R49" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="S49" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="T49" s="7">
+        <v>-50</v>
+      </c>
+      <c r="U49" s="7">
+        <v>-150</v>
+      </c>
+      <c r="V49" s="7">
+        <v>-50</v>
+      </c>
+      <c r="W49" s="7">
+        <v>-150</v>
+      </c>
+      <c r="X49" s="20"/>
+      <c r="Y49" s="20"/>
+      <c r="Z49" s="20"/>
+      <c r="AA49" s="20"/>
+      <c r="AB49" s="6"/>
+      <c r="AC49" s="6"/>
+      <c r="AD49" s="6"/>
+      <c r="AE49" s="33">
+        <v>-1000000</v>
+      </c>
+      <c r="AF49" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG49" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="50" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B50" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C50" s="2">
+        <v>4</v>
+      </c>
+      <c r="D50" s="32">
+        <v>-1000000</v>
+      </c>
+      <c r="E50" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I50" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J50" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="K50" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="L50" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M50" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N50" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="O50" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="P50" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q50" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="R50" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="S50" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="T50" s="7">
+        <v>-10</v>
+      </c>
+      <c r="U50" s="7">
+        <v>-10</v>
+      </c>
+      <c r="V50" s="7">
+        <v>-50</v>
+      </c>
+      <c r="W50" s="7">
+        <v>-150</v>
+      </c>
+      <c r="X50" s="20"/>
+      <c r="Y50" s="20"/>
+      <c r="Z50" s="20"/>
+      <c r="AA50" s="20"/>
+      <c r="AB50" s="6"/>
+      <c r="AC50" s="6"/>
+      <c r="AD50" s="6"/>
+      <c r="AE50" s="33">
+        <v>-1000000</v>
+      </c>
+      <c r="AF50" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG50" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="51" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B51" s="11"/>
+      <c r="C51" s="38">
+        <v>4</v>
+      </c>
+      <c r="D51" s="38">
+        <f>MAX(T51,V51)- MAX(U51,W51)/MAX(U51,W51)</f>
+        <v>499</v>
+      </c>
+      <c r="E51" s="38"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="I51" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="J51" s="41"/>
+      <c r="K51" s="41"/>
+      <c r="L51" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="M51" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="N51" s="41"/>
+      <c r="O51" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="P51" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q51" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="R51" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="S51" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="T51" s="38">
+        <v>500</v>
+      </c>
+      <c r="U51" s="39">
+        <v>300</v>
+      </c>
+      <c r="V51" s="39">
+        <v>100</v>
+      </c>
+      <c r="W51" s="39">
+        <v>50</v>
+      </c>
+      <c r="X51" s="20"/>
+      <c r="Y51" s="20"/>
+      <c r="Z51" s="20"/>
+      <c r="AA51" s="20"/>
+      <c r="AB51" s="6"/>
+      <c r="AC51" s="6"/>
+      <c r="AD51" s="6"/>
+      <c r="AE51" s="33"/>
+      <c r="AF51" s="7"/>
+      <c r="AG51" s="4"/>
+    </row>
+    <row r="52" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B52" s="11"/>
+      <c r="C52" s="38">
+        <v>4</v>
+      </c>
+      <c r="D52" s="38">
+        <v>0</v>
+      </c>
+      <c r="E52" s="38"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="I52" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="J52" s="41"/>
+      <c r="K52" s="41"/>
+      <c r="L52" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="M52" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="N52" s="41"/>
+      <c r="O52" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="P52" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q52" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="R52" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="S52" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="T52" s="39">
+        <v>0</v>
+      </c>
+      <c r="U52" s="39">
+        <v>0</v>
+      </c>
+      <c r="V52" s="39">
+        <v>0</v>
+      </c>
+      <c r="W52" s="39">
+        <v>0</v>
+      </c>
+      <c r="X52" s="20"/>
+      <c r="Y52" s="20"/>
+      <c r="Z52" s="20"/>
+      <c r="AA52" s="20"/>
+      <c r="AB52" s="6"/>
+      <c r="AC52" s="6"/>
+      <c r="AD52" s="6"/>
+      <c r="AE52" s="33"/>
+      <c r="AF52" s="7"/>
+      <c r="AG52" s="4"/>
+    </row>
+    <row r="53" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B53" s="11"/>
+      <c r="C53" s="38">
+        <v>4</v>
+      </c>
+      <c r="D53" s="38">
+        <v>-1000000</v>
+      </c>
+      <c r="E53" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="I53" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="J53" s="41"/>
+      <c r="K53" s="41"/>
+      <c r="L53" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="M53" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="N53" s="41"/>
+      <c r="O53" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="P53" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q53" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="R53" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="S53" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="T53" s="39">
+        <v>-200</v>
+      </c>
+      <c r="U53" s="39">
+        <v>0</v>
+      </c>
+      <c r="V53" s="39">
+        <v>-300</v>
+      </c>
+      <c r="W53" s="39">
+        <v>0</v>
+      </c>
+      <c r="X53" s="20"/>
+      <c r="Y53" s="20"/>
+      <c r="Z53" s="20"/>
+      <c r="AA53" s="20"/>
+      <c r="AB53" s="6"/>
+      <c r="AC53" s="6"/>
+      <c r="AD53" s="6"/>
+      <c r="AE53" s="33"/>
+      <c r="AF53" s="7"/>
+      <c r="AG53" s="4"/>
+    </row>
+    <row r="54" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B54" s="11"/>
+      <c r="C54" s="38">
+        <v>4</v>
+      </c>
+      <c r="D54" s="38">
+        <v>-1000000</v>
+      </c>
+      <c r="E54" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="I54" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="J54" s="41"/>
+      <c r="K54" s="41"/>
+      <c r="L54" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="M54" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="N54" s="41"/>
+      <c r="O54" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="P54" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q54" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="R54" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="S54" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="T54" s="39">
+        <v>-300</v>
+      </c>
+      <c r="U54" s="39">
+        <v>-100</v>
+      </c>
+      <c r="V54" s="39">
+        <v>-300</v>
+      </c>
+      <c r="W54" s="39">
+        <v>-300</v>
+      </c>
+      <c r="X54" s="20"/>
+      <c r="Y54" s="20"/>
+      <c r="Z54" s="20"/>
+      <c r="AA54" s="20"/>
+      <c r="AB54" s="6"/>
+      <c r="AC54" s="6"/>
+      <c r="AD54" s="6"/>
+      <c r="AE54" s="33"/>
+      <c r="AF54" s="7"/>
+      <c r="AG54" s="4"/>
+    </row>
+    <row r="55" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B55" s="11"/>
+      <c r="C55" s="38">
+        <v>4</v>
+      </c>
+      <c r="D55" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E55" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="I55" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="J55" s="41"/>
+      <c r="K55" s="41"/>
+      <c r="L55" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="M55" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="N55" s="41"/>
+      <c r="O55" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="P55" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q55" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="R55" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="S55" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="T55" s="38">
+        <v>500</v>
+      </c>
+      <c r="U55" s="39">
+        <v>300</v>
+      </c>
+      <c r="V55" s="39">
+        <v>100</v>
+      </c>
+      <c r="W55" s="39">
+        <v>50</v>
+      </c>
+      <c r="X55" s="20"/>
+      <c r="Y55" s="20"/>
+      <c r="Z55" s="20"/>
+      <c r="AA55" s="20"/>
+      <c r="AB55" s="6"/>
+      <c r="AC55" s="6"/>
+      <c r="AD55" s="6"/>
+      <c r="AE55" s="33"/>
+      <c r="AF55" s="7"/>
+      <c r="AG55" s="4"/>
+    </row>
+    <row r="56" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B56" s="11"/>
+      <c r="C56" s="38">
+        <v>4</v>
+      </c>
+      <c r="D56" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E56" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="I56" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="J56" s="41"/>
+      <c r="K56" s="41"/>
+      <c r="L56" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="M56" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="N56" s="41"/>
+      <c r="O56" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="P56" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q56" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="R56" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="S56" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="T56" s="38">
+        <v>500</v>
+      </c>
+      <c r="U56" s="39">
+        <v>300</v>
+      </c>
+      <c r="V56" s="39">
+        <v>100</v>
+      </c>
+      <c r="W56" s="39">
+        <v>50</v>
+      </c>
+      <c r="X56" s="20"/>
+      <c r="Y56" s="20"/>
+      <c r="Z56" s="20"/>
+      <c r="AA56" s="20"/>
+      <c r="AB56" s="6"/>
+      <c r="AC56" s="6"/>
+      <c r="AD56" s="6"/>
+      <c r="AE56" s="33"/>
+      <c r="AF56" s="7"/>
+      <c r="AG56" s="4"/>
+    </row>
+    <row r="57" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B57" s="11"/>
+      <c r="C57" s="38">
+        <v>4</v>
+      </c>
+      <c r="D57" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="E57" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="I57" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="J57" s="41"/>
+      <c r="K57" s="41"/>
+      <c r="L57" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="M57" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="N57" s="41"/>
+      <c r="O57" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="P57" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q57" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="R57" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="S57" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="T57" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="U57" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="V57" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="W57" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="X57" s="20"/>
+      <c r="Y57" s="20"/>
+      <c r="Z57" s="20"/>
+      <c r="AA57" s="20"/>
+      <c r="AB57" s="6"/>
+      <c r="AC57" s="6"/>
+      <c r="AD57" s="6"/>
+      <c r="AE57" s="33"/>
+      <c r="AF57" s="7"/>
+      <c r="AG57" s="4"/>
+    </row>
+    <row r="58" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B58" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C58" s="2">
+        <v>5</v>
+      </c>
+      <c r="D58" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="E58" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="I58" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="J58" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="K58" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="L58" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="M58" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="N58" s="6"/>
+      <c r="O58" s="6"/>
+      <c r="P58" s="6"/>
+      <c r="Q58" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="R58" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="S58" s="15"/>
+      <c r="T58" s="7"/>
+      <c r="U58" s="7"/>
+      <c r="V58" s="7"/>
+      <c r="W58" s="7"/>
+      <c r="X58" s="20">
+        <v>100</v>
+      </c>
+      <c r="Y58" s="20">
+        <v>50</v>
+      </c>
+      <c r="Z58" s="20">
+        <v>200</v>
+      </c>
+      <c r="AA58" s="20">
+        <v>150</v>
+      </c>
+      <c r="AB58" s="6">
+        <v>20</v>
+      </c>
+      <c r="AC58" s="6">
+        <v>100</v>
+      </c>
+      <c r="AD58" s="6">
+        <v>1000</v>
+      </c>
+      <c r="AE58" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF58" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG58" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="59" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B59" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C59" s="2">
+        <v>5</v>
+      </c>
+      <c r="D59" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E59" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="I59" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="J59" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="K59" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="L59" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="M59" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="N59" s="6"/>
+      <c r="O59" s="6"/>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="R59" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="S59" s="15"/>
+      <c r="T59" s="7"/>
+      <c r="U59" s="7"/>
+      <c r="V59" s="7"/>
+      <c r="W59" s="7"/>
+      <c r="X59" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE59" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF59" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG59" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="60" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B60" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C60" s="2">
+        <v>5</v>
+      </c>
+      <c r="D60" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E60" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="I60" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="J60" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="K60" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="L60" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="M60" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="N60" s="6"/>
+      <c r="O60" s="6"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="R60" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="S60" s="15"/>
+      <c r="T60" s="7"/>
+      <c r="U60" s="7"/>
+      <c r="V60" s="7"/>
+      <c r="W60" s="7"/>
+      <c r="X60" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y60" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z60" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA60" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB60" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC60" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD60" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE60" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF60" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG60" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="61" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B61" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C61" s="2">
+        <v>5</v>
+      </c>
+      <c r="D61" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E61" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I61" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J61" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K61" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L61" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="M61" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="N61" s="6"/>
+      <c r="O61" s="6"/>
+      <c r="P61" s="6"/>
+      <c r="Q61" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="R61" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="S61" s="15"/>
+      <c r="T61" s="7"/>
+      <c r="U61" s="7"/>
+      <c r="V61" s="7"/>
+      <c r="W61" s="7"/>
+      <c r="X61" s="20">
+        <v>100</v>
+      </c>
+      <c r="Y61" s="20">
+        <v>50</v>
+      </c>
+      <c r="Z61" s="20">
+        <v>200</v>
+      </c>
+      <c r="AA61" s="20">
+        <v>150</v>
+      </c>
+      <c r="AB61" s="6">
+        <v>20</v>
+      </c>
+      <c r="AC61" s="6">
+        <v>100</v>
+      </c>
+      <c r="AD61" s="6">
+        <v>1000</v>
+      </c>
+      <c r="AE61" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF61" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG61" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="62" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B62" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C62" s="2">
+        <v>5</v>
+      </c>
+      <c r="D62" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E62" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I62" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J62" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K62" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L62" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="M62" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="N62" s="6"/>
+      <c r="O62" s="6"/>
+      <c r="P62" s="6"/>
+      <c r="Q62" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="R62" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="S62" s="15"/>
+      <c r="T62" s="7"/>
+      <c r="U62" s="7"/>
+      <c r="V62" s="7"/>
+      <c r="W62" s="7"/>
+      <c r="X62" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF62" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG62" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="63" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B63" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C63" s="2">
+        <v>5</v>
+      </c>
+      <c r="D63" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E63" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J63" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K63" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L63" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="M63" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="N63" s="6"/>
+      <c r="O63" s="6"/>
+      <c r="P63" s="6"/>
+      <c r="Q63" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="R63" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="S63" s="15"/>
+      <c r="T63" s="7"/>
+      <c r="U63" s="7"/>
+      <c r="V63" s="7"/>
+      <c r="W63" s="7"/>
+      <c r="X63" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y63" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z63" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA63" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB63" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC63" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD63" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE63" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF63" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG63" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="64" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B64" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C64" s="2">
+        <v>5</v>
+      </c>
+      <c r="D64" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E64" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I64" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="J64" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="K64" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="L64" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="M64" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="N64" s="6"/>
+      <c r="O64" s="6"/>
+      <c r="P64" s="6"/>
+      <c r="Q64" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="R64" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="S64" s="15"/>
+      <c r="T64" s="7"/>
+      <c r="U64" s="7"/>
+      <c r="V64" s="7"/>
+      <c r="W64" s="7"/>
+      <c r="X64" s="20">
+        <v>100</v>
+      </c>
+      <c r="Y64" s="20">
+        <v>50</v>
+      </c>
+      <c r="Z64" s="20">
+        <v>200</v>
+      </c>
+      <c r="AA64" s="20">
+        <v>150</v>
+      </c>
+      <c r="AB64" s="6">
+        <v>20</v>
+      </c>
+      <c r="AC64" s="6">
+        <v>100</v>
+      </c>
+      <c r="AD64" s="6">
+        <v>1000</v>
+      </c>
+      <c r="AE64" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF64" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG64" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="65" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B65" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C65" s="2">
+        <v>5</v>
+      </c>
+      <c r="D65" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E65" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I65" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="J65" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="K65" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="L65" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="M65" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="N65" s="6"/>
+      <c r="O65" s="6"/>
+      <c r="P65" s="6"/>
+      <c r="Q65" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="R65" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="S65" s="15"/>
+      <c r="T65" s="7"/>
+      <c r="U65" s="7"/>
+      <c r="V65" s="7"/>
+      <c r="W65" s="7"/>
+      <c r="X65" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF65" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG65" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="66" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B66" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C66" s="2">
+        <v>5</v>
+      </c>
+      <c r="D66" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E66" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I66" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="J66" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="K66" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="L66" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="M66" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="N66" s="6"/>
+      <c r="O66" s="6"/>
+      <c r="P66" s="6"/>
+      <c r="Q66" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="R66" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="S66" s="15"/>
+      <c r="T66" s="7"/>
+      <c r="U66" s="7"/>
+      <c r="V66" s="7"/>
+      <c r="W66" s="7"/>
+      <c r="X66" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y66" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z66" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA66" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB66" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC66" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD66" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE66" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF66" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG66" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="67" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B67" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C67" s="2">
+        <v>5</v>
+      </c>
+      <c r="D67" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E67" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I67" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J67" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="K67" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="L67" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="M67" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="N67" s="6"/>
+      <c r="O67" s="6"/>
+      <c r="P67" s="6"/>
+      <c r="Q67" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="R67" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="S67" s="15"/>
+      <c r="T67" s="7"/>
+      <c r="U67" s="7"/>
+      <c r="V67" s="7"/>
+      <c r="W67" s="7"/>
+      <c r="X67" s="20">
+        <v>100</v>
+      </c>
+      <c r="Y67" s="20">
+        <v>50</v>
+      </c>
+      <c r="Z67" s="20">
+        <v>200</v>
+      </c>
+      <c r="AA67" s="20">
+        <v>150</v>
+      </c>
+      <c r="AB67" s="6">
+        <v>20</v>
+      </c>
+      <c r="AC67" s="6">
+        <v>100</v>
+      </c>
+      <c r="AD67" s="6">
+        <v>1000</v>
+      </c>
+      <c r="AE67" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF67" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG67" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="68" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B68" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C68" s="2">
+        <v>5</v>
+      </c>
+      <c r="D68" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E68" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I68" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J68" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="K68" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="L68" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="M68" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="N68" s="6"/>
+      <c r="O68" s="6"/>
+      <c r="P68" s="6"/>
+      <c r="Q68" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="R68" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="S68" s="15"/>
+      <c r="T68" s="7"/>
+      <c r="U68" s="7"/>
+      <c r="V68" s="7"/>
+      <c r="W68" s="7"/>
+      <c r="X68" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF68" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG68" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="69" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B69" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C69" s="2">
+        <v>5</v>
+      </c>
+      <c r="D69" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E69" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I69" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J69" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="K69" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="L69" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="M69" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="N69" s="6"/>
+      <c r="O69" s="6"/>
+      <c r="P69" s="6"/>
+      <c r="Q69" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="R69" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="S69" s="15"/>
+      <c r="T69" s="7"/>
+      <c r="U69" s="7"/>
+      <c r="V69" s="7"/>
+      <c r="W69" s="7"/>
+      <c r="X69" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y69" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z69" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA69" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB69" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC69" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD69" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE69" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF69" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG69" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="70" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B70" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C70" s="2">
+        <v>5</v>
+      </c>
+      <c r="D70" s="30">
+        <v>1000000</v>
+      </c>
+      <c r="E70" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I70" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J70" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="K70" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="L70" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M70" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N70" s="6"/>
+      <c r="O70" s="6"/>
+      <c r="P70" s="6"/>
+      <c r="Q70" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="R70" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="S70" s="15"/>
+      <c r="T70" s="7"/>
+      <c r="U70" s="7"/>
+      <c r="V70" s="7"/>
+      <c r="W70" s="7"/>
+      <c r="X70" s="20">
+        <v>100</v>
+      </c>
+      <c r="Y70" s="20">
+        <v>50</v>
+      </c>
+      <c r="Z70" s="20">
+        <v>200</v>
+      </c>
+      <c r="AA70" s="20">
+        <v>150</v>
+      </c>
+      <c r="AB70" s="6">
+        <v>20</v>
+      </c>
+      <c r="AC70" s="6">
+        <v>100</v>
+      </c>
+      <c r="AD70" s="6">
+        <v>1000</v>
+      </c>
+      <c r="AE70" s="33">
+        <v>1000000</v>
+      </c>
+      <c r="AF70" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="AG70" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="71" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B71" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C71" s="2">
+        <v>5</v>
+      </c>
+      <c r="D71" s="30">
+        <v>0.16392999999999999</v>
+      </c>
+      <c r="E71" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I71" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J71" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="K71" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="L71" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M71" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N71" s="6"/>
+      <c r="O71" s="6"/>
+      <c r="P71" s="6"/>
+      <c r="Q71" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="R71" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="S71" s="15"/>
+      <c r="T71" s="7"/>
+      <c r="U71" s="7"/>
+      <c r="V71" s="7"/>
+      <c r="W71" s="7"/>
+      <c r="X71" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB71" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="6">
+        <v>0.16392999999999999</v>
+      </c>
+      <c r="AF71" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="AG71" s="4"/>
+    </row>
+    <row r="72" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B72" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C72" s="2">
+        <v>5</v>
+      </c>
+      <c r="D72" s="30">
+        <v>1000000</v>
+      </c>
+      <c r="E72" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I72" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J72" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="K72" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="L72" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M72" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N72" s="6"/>
+      <c r="O72" s="6"/>
+      <c r="P72" s="6"/>
+      <c r="Q72" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="R72" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="S72" s="15"/>
+      <c r="T72" s="7"/>
+      <c r="U72" s="7"/>
+      <c r="V72" s="7"/>
+      <c r="W72" s="7"/>
+      <c r="X72" s="20">
+        <v>100</v>
+      </c>
+      <c r="Y72" s="20">
+        <v>50</v>
+      </c>
+      <c r="Z72" s="20">
+        <v>200</v>
+      </c>
+      <c r="AA72" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB72" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC72" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD72" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE72" s="33">
+        <v>1000000</v>
+      </c>
+      <c r="AF72" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="AG72" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="73" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B73" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C73" s="2">
+        <v>5</v>
+      </c>
+      <c r="D73" s="30">
+        <v>0.16392999999999999</v>
+      </c>
+      <c r="E73" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I73" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J73" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="K73" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="L73" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M73" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N73" s="6"/>
+      <c r="O73" s="6"/>
+      <c r="P73" s="6"/>
+      <c r="Q73" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="R73" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="S73" s="15"/>
+      <c r="T73" s="7"/>
+      <c r="U73" s="7"/>
+      <c r="V73" s="7"/>
+      <c r="W73" s="7"/>
+      <c r="X73" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="20">
+        <v>-200</v>
+      </c>
+      <c r="AA73" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="14">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="AF73" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="AG73" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="74" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B74" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C74" s="2">
+        <v>5</v>
+      </c>
+      <c r="D74" s="30">
+        <v>0.16392999999999999</v>
+      </c>
+      <c r="E74" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I74" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J74" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="K74" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="L74" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M74" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N74" s="6"/>
+      <c r="O74" s="6"/>
+      <c r="P74" s="6"/>
+      <c r="Q74" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="R74" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="S74" s="15"/>
+      <c r="T74" s="7"/>
+      <c r="U74" s="7"/>
+      <c r="V74" s="7"/>
+      <c r="W74" s="7"/>
+      <c r="X74" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB74" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="6">
+        <v>-100</v>
+      </c>
+      <c r="AD74" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="14">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="AF74" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="AG74" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="75" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B75" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C75" s="2">
+        <v>5</v>
+      </c>
+      <c r="D75" s="30">
+        <v>1000000</v>
+      </c>
+      <c r="E75" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I75" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J75" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="K75" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="L75" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M75" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N75" s="6"/>
+      <c r="O75" s="6"/>
+      <c r="P75" s="6"/>
+      <c r="Q75" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="R75" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="S75" s="15"/>
+      <c r="T75" s="7"/>
+      <c r="U75" s="7"/>
+      <c r="V75" s="7"/>
+      <c r="W75" s="7"/>
+      <c r="X75" s="20">
+        <v>100</v>
+      </c>
+      <c r="Y75" s="20">
+        <v>50</v>
+      </c>
+      <c r="Z75" s="20">
+        <v>200</v>
+      </c>
+      <c r="AA75" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB75" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="6">
+        <v>-100</v>
+      </c>
+      <c r="AD75" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="33">
+        <v>1000000</v>
+      </c>
+      <c r="AF75" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="AG75" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="76" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B76" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C76" s="2">
+        <v>5</v>
+      </c>
+      <c r="D76" s="30">
+        <v>0.16392999999999999</v>
+      </c>
+      <c r="E76" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I76" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J76" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="K76" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="L76" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M76" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N76" s="6"/>
+      <c r="O76" s="6"/>
+      <c r="P76" s="6"/>
+      <c r="Q76" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="R76" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="S76" s="15"/>
+      <c r="T76" s="7"/>
+      <c r="U76" s="7"/>
+      <c r="V76" s="7"/>
+      <c r="W76" s="7"/>
+      <c r="X76" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y76" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z76" s="20">
+        <v>-200</v>
+      </c>
+      <c r="AA76" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB76" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC76" s="6">
+        <v>-100</v>
+      </c>
+      <c r="AD76" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE76" s="14">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="AF76" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="AG76" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="77" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B77" s="46"/>
+      <c r="C77" s="39">
+        <v>5</v>
+      </c>
+      <c r="D77" s="39">
+        <f>(X77+Y77+AA77+Z77)/(AB77+(AC77/3.5)-AD77+AA77)</f>
+        <v>4.2459016393442619</v>
+      </c>
+      <c r="E77" s="39"/>
+      <c r="F77" s="44"/>
+      <c r="G77" s="44"/>
+      <c r="H77" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="I77" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="J77" s="41"/>
+      <c r="K77" s="41"/>
+      <c r="L77" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="M77" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="N77" s="41"/>
+      <c r="O77" s="40"/>
+      <c r="P77" s="40"/>
+      <c r="Q77" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="R77" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="S77" s="40"/>
+      <c r="T77" s="40"/>
+      <c r="U77" s="40"/>
+      <c r="V77" s="40"/>
+      <c r="W77" s="40"/>
+      <c r="X77" s="40">
+        <v>1000</v>
+      </c>
+      <c r="Y77" s="40">
+        <v>500</v>
+      </c>
+      <c r="Z77" s="40">
+        <v>200</v>
+      </c>
+      <c r="AA77" s="40">
+        <v>150</v>
+      </c>
+      <c r="AB77" s="40">
+        <v>500</v>
+      </c>
+      <c r="AC77" s="40">
+        <v>1000</v>
+      </c>
+      <c r="AD77" s="40">
+        <v>500</v>
+      </c>
+      <c r="AE77" s="3"/>
+      <c r="AF77" s="3"/>
+      <c r="AG77" s="3"/>
+    </row>
+    <row r="78" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B78" s="46"/>
+      <c r="C78" s="39">
+        <v>5</v>
+      </c>
+      <c r="D78" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="E78" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="F78" s="44"/>
+      <c r="G78" s="44"/>
+      <c r="H78" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="I78" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="J78" s="41"/>
+      <c r="K78" s="41"/>
+      <c r="L78" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="M78" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="N78" s="41"/>
+      <c r="O78" s="40"/>
+      <c r="P78" s="40"/>
+      <c r="Q78" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="R78" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="S78" s="44"/>
+      <c r="T78" s="43"/>
+      <c r="U78" s="43"/>
+      <c r="V78" s="43"/>
+      <c r="W78" s="43"/>
+      <c r="X78" s="45">
+        <v>100</v>
+      </c>
+      <c r="Y78" s="45">
+        <v>50</v>
+      </c>
+      <c r="Z78" s="45">
+        <v>200</v>
+      </c>
+      <c r="AA78" s="45">
+        <v>150</v>
+      </c>
+      <c r="AB78" s="38">
+        <v>20</v>
+      </c>
+      <c r="AC78" s="38">
+        <v>100</v>
+      </c>
+      <c r="AD78" s="38">
+        <v>1000</v>
+      </c>
+      <c r="AE78" s="3"/>
+      <c r="AF78" s="3"/>
+      <c r="AG78" s="3"/>
+    </row>
+    <row r="79" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B79" s="46"/>
+      <c r="C79" s="39">
+        <v>5</v>
+      </c>
+      <c r="D79" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="E79" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="H79" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="I79" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="J79" s="41"/>
+      <c r="K79" s="41"/>
+      <c r="L79" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="M79" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="N79" s="41"/>
+      <c r="O79" s="40"/>
+      <c r="P79" s="40"/>
+      <c r="Q79" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="R79" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="X79" s="45">
+        <v>100</v>
+      </c>
+      <c r="Y79" s="45">
+        <v>-100</v>
+      </c>
+      <c r="Z79" s="45">
+        <v>200</v>
+      </c>
+      <c r="AA79" s="45">
+        <v>-200</v>
+      </c>
+      <c r="AB79" s="38">
+        <v>20</v>
+      </c>
+      <c r="AC79" s="38">
+        <v>100</v>
+      </c>
+      <c r="AD79" s="38">
+        <v>1000</v>
+      </c>
+      <c r="AE79" s="3"/>
+      <c r="AF79" s="3"/>
+      <c r="AG79" s="3"/>
+    </row>
+    <row r="80" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B80" s="46"/>
+      <c r="C80" s="39">
+        <v>5</v>
+      </c>
+      <c r="D80" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="E80" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="H80" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="I80" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="J80" s="41"/>
+      <c r="K80" s="41"/>
+      <c r="L80" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="M80" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="N80" s="41"/>
+      <c r="O80" s="40"/>
+      <c r="P80" s="40"/>
+      <c r="Q80" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="R80" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="X80" s="45">
+        <v>100</v>
+      </c>
+      <c r="Y80" s="45">
+        <v>-100</v>
+      </c>
+      <c r="Z80" s="45">
+        <v>200</v>
+      </c>
+      <c r="AA80" s="45">
+        <v>1000</v>
+      </c>
+      <c r="AB80" s="38">
+        <v>0</v>
+      </c>
+      <c r="AC80" s="38">
+        <v>0</v>
+      </c>
+      <c r="AD80" s="38">
+        <v>1000</v>
+      </c>
+      <c r="AE80" s="3"/>
+      <c r="AF80" s="3"/>
+      <c r="AG80" s="3"/>
+    </row>
+    <row r="81" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B81" s="46"/>
+      <c r="C81" s="39">
+        <v>5</v>
+      </c>
+      <c r="D81" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="E81" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="H81" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="I81" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="J81" s="41"/>
+      <c r="K81" s="41"/>
+      <c r="L81" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="M81" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="N81" s="41"/>
+      <c r="O81" s="40"/>
+      <c r="P81" s="40"/>
+      <c r="Q81" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="R81" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="X81" s="45">
+        <v>-100</v>
+      </c>
+      <c r="Y81" s="45">
+        <v>-100</v>
+      </c>
+      <c r="Z81" s="45">
+        <v>200</v>
+      </c>
+      <c r="AA81" s="45">
+        <v>0</v>
+      </c>
+      <c r="AB81" s="38">
+        <v>0</v>
+      </c>
+      <c r="AC81" s="38">
+        <v>0</v>
+      </c>
+      <c r="AD81" s="38">
+        <v>0</v>
+      </c>
+      <c r="AE81" s="3"/>
+      <c r="AF81" s="3"/>
+      <c r="AG81" s="3"/>
+    </row>
+    <row r="82" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B82" s="46"/>
+      <c r="C82" s="39">
+        <v>5</v>
+      </c>
+      <c r="D82" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="E82" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="H82" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="I82" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="J82" s="41"/>
+      <c r="K82" s="41"/>
+      <c r="L82" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="M82" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="N82" s="41"/>
+      <c r="O82" s="40"/>
+      <c r="P82" s="40"/>
+      <c r="Q82" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="R82" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="X82" s="40">
+        <v>1000</v>
+      </c>
+      <c r="Y82" s="40">
+        <v>500</v>
+      </c>
+      <c r="Z82" s="40">
+        <v>200</v>
+      </c>
+      <c r="AA82" s="40">
+        <v>150</v>
+      </c>
+      <c r="AB82" s="40">
+        <v>500</v>
+      </c>
+      <c r="AC82" s="40">
+        <v>1000</v>
+      </c>
+      <c r="AD82" s="40">
+        <v>500</v>
+      </c>
+      <c r="AE82" s="3"/>
+      <c r="AF82" s="3"/>
+      <c r="AG82" s="3"/>
+    </row>
+    <row r="83" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B83" s="46"/>
+      <c r="C83" s="39">
+        <v>5</v>
+      </c>
+      <c r="D83" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="E83" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="H83" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="I83" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="J83" s="41"/>
+      <c r="K83" s="41"/>
+      <c r="L83" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="M83" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="N83" s="41"/>
+      <c r="O83" s="40"/>
+      <c r="P83" s="40"/>
+      <c r="Q83" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="R83" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="X83" s="40">
+        <v>1000</v>
+      </c>
+      <c r="Y83" s="40">
+        <v>500</v>
+      </c>
+      <c r="Z83" s="40">
+        <v>200</v>
+      </c>
+      <c r="AA83" s="40">
+        <v>150</v>
+      </c>
+      <c r="AB83" s="40">
+        <v>500</v>
+      </c>
+      <c r="AC83" s="40">
+        <v>1000</v>
+      </c>
+      <c r="AD83" s="40">
+        <v>500</v>
+      </c>
+      <c r="AE83" s="3"/>
+      <c r="AF83" s="3"/>
+      <c r="AG83" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/earlywarning-pom/Document/test/SME RETAIL/test_Ind_High_Priority_SMERetail_round3.xlsx
+++ b/earlywarning-pom/Document/test/SME RETAIL/test_Ind_High_Priority_SMERetail_round3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="High_Priority" sheetId="3" r:id="rId1"/>
     <sheet name="bilancio" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2772" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2773" uniqueCount="183">
   <si>
     <t>valore atteso</t>
   </si>
@@ -493,9 +493,6 @@
     <t>'FIS'</t>
   </si>
   <si>
-    <t>BILA007</t>
-  </si>
-  <si>
     <t>0.16393</t>
   </si>
   <si>
@@ -570,11 +567,14 @@
   <si>
     <t>BILA008;</t>
   </si>
+  <si>
+    <t>BILA008</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -604,7 +604,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -655,19 +655,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,7 +688,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -797,55 +785,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="60% - Accent6 2" xfId="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1171,38 +1124,38 @@
       <selection pane="bottomRight" activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.140625" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.109375" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="20.28515625" style="1" customWidth="1"/>
-    <col min="8" max="9" width="20.28515625" style="16" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="30.28515625" style="16" hidden="1" customWidth="1"/>
-    <col min="11" max="18" width="30.28515625" style="17" hidden="1" customWidth="1"/>
-    <col min="19" max="21" width="20.28515625" style="17" hidden="1" customWidth="1"/>
-    <col min="22" max="25" width="33.7109375" style="17" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="33.7109375" style="22" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="19.7109375" style="22" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="22.7109375" style="22" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="30.140625" style="22" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.33203125" style="1" customWidth="1"/>
+    <col min="8" max="9" width="20.33203125" style="16" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="30.33203125" style="16" hidden="1" customWidth="1"/>
+    <col min="11" max="18" width="30.33203125" style="17" hidden="1" customWidth="1"/>
+    <col min="19" max="21" width="20.33203125" style="17" hidden="1" customWidth="1"/>
+    <col min="22" max="25" width="33.6640625" style="17" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="33.6640625" style="22" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="19.6640625" style="22" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="22.6640625" style="22" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="30.109375" style="22" hidden="1" customWidth="1"/>
     <col min="30" max="30" width="33" style="17" hidden="1" customWidth="1"/>
-    <col min="31" max="38" width="39.28515625" style="17" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="31.28515625" style="17" hidden="1" customWidth="1"/>
-    <col min="40" max="40" width="27.85546875" style="17" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="22.140625" style="17" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="13.42578125" style="17" hidden="1" customWidth="1"/>
-    <col min="43" max="44" width="12.140625" style="17" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="15.140625" style="17" hidden="1" customWidth="1"/>
-    <col min="46" max="46" width="15.7109375" customWidth="1"/>
-    <col min="47" max="47" width="21.42578125" style="12" customWidth="1"/>
-    <col min="48" max="48" width="39.85546875" style="12" customWidth="1"/>
-    <col min="73" max="73" width="14.5703125" customWidth="1"/>
+    <col min="31" max="38" width="39.33203125" style="17" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="31.33203125" style="17" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="27.88671875" style="17" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="22.109375" style="17" hidden="1" customWidth="1"/>
+    <col min="42" max="42" width="13.44140625" style="17" hidden="1" customWidth="1"/>
+    <col min="43" max="44" width="12.109375" style="17" hidden="1" customWidth="1"/>
+    <col min="45" max="45" width="15.109375" style="17" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="15.6640625" customWidth="1"/>
+    <col min="47" max="47" width="21.44140625" style="12" customWidth="1"/>
+    <col min="48" max="48" width="39.88671875" style="12" customWidth="1"/>
+    <col min="73" max="73" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:96" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:96" x14ac:dyDescent="0.3">
       <c r="F1" s="1" t="str">
         <f>B2&amp;","&amp;F2</f>
         <v>COD_SNDG,COD_RATING</v>
@@ -1364,7 +1317,7 @@
         <v>COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT</v>
       </c>
     </row>
-    <row r="2" spans="2:96" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:96" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
@@ -1507,7 +1460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:96" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B3" s="11" t="s">
         <v>7</v>
       </c>
@@ -1743,7 +1696,7 @@
       <c r="CQ3" s="16"/>
       <c r="CR3" s="16"/>
     </row>
-    <row r="4" spans="2:96" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
         <v>8</v>
       </c>
@@ -1972,7 +1925,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000115','05','1',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="5" spans="2:96" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B5" s="11" t="s">
         <v>9</v>
       </c>
@@ -2203,7 +2156,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000116',NULL,'1',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="6" spans="2:96" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B6" s="11" t="s">
         <v>10</v>
       </c>
@@ -2434,7 +2387,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000117','20','0',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="7" spans="2:96" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
         <v>11</v>
       </c>
@@ -2665,7 +2618,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000118','05','0',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="8" spans="2:96" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B8" s="11" t="s">
         <v>12</v>
       </c>
@@ -2896,7 +2849,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000119',NULL,'0',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="9" spans="2:96" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B9" s="11" t="s">
         <v>13</v>
       </c>
@@ -3127,7 +3080,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000120','20',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="10" spans="2:96" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
         <v>14</v>
       </c>
@@ -3358,7 +3311,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000121','05',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="11" spans="2:96" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B11" s="11" t="s">
         <v>15</v>
       </c>
@@ -3589,7 +3542,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000122',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="12" spans="2:96" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B12" s="11" t="s">
         <v>16</v>
       </c>
@@ -3845,7 +3798,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000123',NULL,NULL,500,300,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="13" spans="2:96" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B13" s="11" t="s">
         <v>17</v>
       </c>
@@ -4100,7 +4053,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000124',NULL,NULL,0,0,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="14" spans="2:96" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B14" s="11" t="s">
         <v>18</v>
       </c>
@@ -4356,7 +4309,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000125',NULL,NULL,300,300,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="15" spans="2:96" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B15" s="11" t="s">
         <v>19</v>
       </c>
@@ -4612,7 +4565,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000126',NULL,NULL,200,400,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="16" spans="2:96" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B16" s="11" t="s">
         <v>20</v>
       </c>
@@ -4867,7 +4820,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000127',NULL,NULL,300,0,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="17" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:89" x14ac:dyDescent="0.3">
       <c r="B17" s="11" t="s">
         <v>21</v>
       </c>
@@ -5123,7 +5076,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000128',NULL,NULL,300,-200,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="18" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:89" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
         <v>22</v>
       </c>
@@ -5378,7 +5331,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000129',NULL,NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="19" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:89" x14ac:dyDescent="0.3">
       <c r="B19" s="11" t="s">
         <v>23</v>
       </c>
@@ -5633,7 +5586,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000130',NULL,NULL,-300,0,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="20" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:89" x14ac:dyDescent="0.3">
       <c r="B20" s="11" t="s">
         <v>24</v>
       </c>
@@ -5888,7 +5841,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000131',NULL,NULL,500,300,'0','0','0','0','0','0','0','0','0','CEBI','02/05/2017','02/06/2016',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="21" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:89" x14ac:dyDescent="0.3">
       <c r="B21" s="11" t="s">
         <v>25</v>
       </c>
@@ -6143,7 +6096,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000132',NULL,NULL,0,0,'0','0','0','0','0','0','0','0','0','CEBI','02/05/2017','02/06/2016',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="22" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:89" x14ac:dyDescent="0.3">
       <c r="B22" s="11" t="s">
         <v>26</v>
       </c>
@@ -6398,7 +6351,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000133',NULL,NULL,NULL,NULL,'0','0','0','0','0','0','0','0','0','CEBI','02/05/2017','02/06/2016',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="23" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:89" x14ac:dyDescent="0.3">
       <c r="B23" s="11" t="s">
         <v>27</v>
       </c>
@@ -6653,7 +6606,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000134',NULL,NULL,500,300,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'CEBI',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="24" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:89" x14ac:dyDescent="0.3">
       <c r="B24" s="11" t="s">
         <v>28</v>
       </c>
@@ -6908,7 +6861,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000135',NULL,NULL,0,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'CEBI',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="25" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:89" x14ac:dyDescent="0.3">
       <c r="B25" s="11" t="s">
         <v>29</v>
       </c>
@@ -7163,7 +7116,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000136',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'CEBI',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="26" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:89" x14ac:dyDescent="0.3">
       <c r="B26" s="11" t="s">
         <v>30</v>
       </c>
@@ -7418,7 +7371,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000137',NULL,NULL,500,300,'1','0','0','0','0','0','0','0','0','CEBI','02/05/2017','02/06/2016',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="27" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:89" x14ac:dyDescent="0.3">
       <c r="B27" s="11" t="s">
         <v>31</v>
       </c>
@@ -7673,7 +7626,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000138',NULL,NULL,0,0,'1','0','0','0','0','0','0','0','0','CEBI','02/05/2017','02/06/2016',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="28" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:89" x14ac:dyDescent="0.3">
       <c r="B28" s="11" t="s">
         <v>32</v>
       </c>
@@ -7928,7 +7881,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000139',NULL,NULL,NULL,NULL,'1','0','0','0','0','0','0','0','0','CEBI','02/05/2017','02/06/2016',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="29" spans="1:89" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:89" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29"/>
       <c r="B29" s="11" t="s">
         <v>33</v>
@@ -8184,7 +8137,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000140',NULL,NULL,500,300,'1','1','0','0','0','0','0','0','0','CEBI','02/05/2017','02/06/2016',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="30" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:89" x14ac:dyDescent="0.3">
       <c r="B30" s="11" t="s">
         <v>34</v>
       </c>
@@ -8439,7 +8392,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000141',NULL,NULL,0,0,'1','1','0','0','0','0','0','0','0','CEBI','02/05/2017','02/06/2016',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="31" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:89" x14ac:dyDescent="0.3">
       <c r="B31" s="11" t="s">
         <v>35</v>
       </c>
@@ -8694,7 +8647,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000142',NULL,NULL,NULL,NULL,'1','1','0','0','0','0','0','0','0','CEBI','02/05/2017','02/06/2016',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="32" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:89" x14ac:dyDescent="0.3">
       <c r="B32" s="11" t="s">
         <v>36</v>
       </c>
@@ -8953,7 +8906,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000143',NULL,NULL,NULL,NULL,'0','0','0','0','0','0','0','0','0','CEBI','02/05/2017','02/06/2016',300,200,100,50,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="33" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B33" s="11" t="s">
         <v>37</v>
       </c>
@@ -9212,7 +9165,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000144',NULL,NULL,NULL,NULL,'0','0','0','0','0','0','0','0','0','CEBI','02/05/2017','02/06/2016',0,0,0,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="34" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B34" s="11" t="s">
         <v>38</v>
       </c>
@@ -9471,7 +9424,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000145',NULL,NULL,NULL,NULL,'0','0','0','0','0','0','0','0','0','CEBI','02/05/2017','02/06/2016',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="35" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B35" s="11" t="s">
         <v>39</v>
       </c>
@@ -9730,7 +9683,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000146',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'CEBI',NULL,NULL,300,200,100,50,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="36" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B36" s="11" t="s">
         <v>40</v>
       </c>
@@ -9989,7 +9942,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000147',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'CEBI',NULL,NULL,0,0,0,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="37" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B37" s="11" t="s">
         <v>41</v>
       </c>
@@ -10248,7 +10201,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000148',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'CEBI',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="38" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B38" s="11" t="s">
         <v>42</v>
       </c>
@@ -10507,7 +10460,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000149',NULL,NULL,NULL,NULL,'1','0','0','0','0','0','0','0','0','CEBI','02/05/2017','02/06/2016',300,200,100,50,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="39" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B39" s="11" t="s">
         <v>43</v>
       </c>
@@ -10766,7 +10719,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000150',NULL,NULL,NULL,NULL,'1','0','0','0','0','0','0','0','0','CEBI','02/05/2017','02/06/2016',0,0,0,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="40" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B40" s="11" t="s">
         <v>44</v>
       </c>
@@ -11025,7 +10978,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000151',NULL,NULL,NULL,NULL,'1','0','0','0','0','0','0','0','0','CEBI','02/05/2017','02/06/2016',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="41" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B41" s="23" t="s">
         <v>103</v>
       </c>
@@ -11284,7 +11237,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000152',NULL,NULL,NULL,NULL,'1','1','0','0','0','0','0','0','0','CEBI','02/05/2017','02/06/2016',300,200,100,50,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="42" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B42" s="23" t="s">
         <v>104</v>
       </c>
@@ -11543,7 +11496,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000153',NULL,NULL,NULL,NULL,'1','1','0','0','0','0','0','0','0','CEBI','02/05/2017','02/06/2016',0,0,0,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="43" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B43" s="23" t="s">
         <v>105</v>
       </c>
@@ -11802,7 +11755,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000154',NULL,NULL,NULL,NULL,'1','1','0','0','0','0','0','0','0','CEBI','02/05/2017','02/06/2016',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="44" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B44" s="23" t="s">
         <v>106</v>
       </c>
@@ -12060,7 +12013,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000155',NULL,NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',300,200,100,50,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="45" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B45" s="23" t="s">
         <v>107</v>
       </c>
@@ -12319,7 +12272,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000156',NULL,NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',300,0,0,-100,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="46" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B46" s="23" t="s">
         <v>108</v>
       </c>
@@ -12578,7 +12531,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000157',NULL,NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',-100,-100,-200,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="47" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B47" s="23" t="s">
         <v>109</v>
       </c>
@@ -12837,7 +12790,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000158',NULL,NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',-50,-150,0,-100,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="48" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B48" s="23" t="s">
         <v>110</v>
       </c>
@@ -13096,7 +13049,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000159',NULL,NULL,NULL,NULL,'1','1','1','1','1',0','1','1','1','CEBI','02/05/2017','02/06/2016',-300,200,-50,-150,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="49" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B49" s="23" t="s">
         <v>111</v>
       </c>
@@ -13355,7 +13308,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000160',NULL,NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',-50,-150,-50,-150,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="50" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B50" s="23" t="s">
         <v>112</v>
       </c>
@@ -13614,7 +13567,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000161',NULL,NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',-10,-10,-50,-150,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="51" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B51" s="23" t="s">
         <v>113</v>
       </c>
@@ -13871,7 +13824,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000162',NULL,NULL,NULL,NULL,'0','0','0','0','0','0',NULL,NULL,NULL,'CEBI','02/05/2017',NULL,NULL,NULL,NULL,NULL,100,50,200,150,20,100,1000,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="52" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B52" s="23" t="s">
         <v>114</v>
       </c>
@@ -14128,7 +14081,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000163',NULL,NULL,NULL,NULL,'0','0','0','0','0','0',NULL,NULL,NULL,'CEBI','02/05/2017',NULL,NULL,NULL,NULL,NULL,0,0,0,0,0,0,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="53" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B53" s="23" t="s">
         <v>115</v>
       </c>
@@ -14385,7 +14338,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000164',NULL,NULL,NULL,NULL,'0','0','0','0','0','0',NULL,NULL,NULL,'CEBI','02/05/2017',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="54" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B54" s="23" t="s">
         <v>116</v>
       </c>
@@ -14642,7 +14595,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000165',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'CEBI',NULL,NULL,NULL,NULL,NULL,NULL,100,50,200,150,20,100,1000,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="55" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B55" s="23" t="s">
         <v>117</v>
       </c>
@@ -14899,7 +14852,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000166',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'CEBI',NULL,NULL,NULL,NULL,NULL,NULL,0,0,0,0,0,0,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="56" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B56" s="23" t="s">
         <v>118</v>
       </c>
@@ -15156,7 +15109,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000167',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'CEBI',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="57" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B57" s="23" t="s">
         <v>119</v>
       </c>
@@ -15413,7 +15366,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000168',NULL,NULL,NULL,NULL,'1','0','0','0','0','0',NULL,NULL,NULL,'CEBI','02/05/2017',NULL,NULL,NULL,NULL,NULL,100,50,200,150,20,100,1000,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="58" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B58" s="23" t="s">
         <v>120</v>
       </c>
@@ -15670,7 +15623,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000169',NULL,NULL,NULL,NULL,'1','0','0','0','0','0',NULL,NULL,NULL,'CEBI','02/05/2017',NULL,NULL,NULL,NULL,NULL,0,0,0,0,0,0,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="59" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B59" s="23" t="s">
         <v>121</v>
       </c>
@@ -15927,7 +15880,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000170',NULL,NULL,NULL,NULL,'1','0','0','0','0','0',NULL,NULL,NULL,'CEBI','02/05/2017',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="60" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B60" s="23" t="s">
         <v>122</v>
       </c>
@@ -16184,7 +16137,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000171',NULL,NULL,NULL,NULL,'1','1','0','0','0','0',NULL,NULL,NULL,'CEBI','02/05/2017',NULL,NULL,NULL,NULL,NULL,100,50,200,150,20,100,1000,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="61" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B61" s="23" t="s">
         <v>123</v>
       </c>
@@ -16441,7 +16394,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000172',NULL,NULL,NULL,NULL,'1','1','0','0','0','0',NULL,NULL,NULL,'CEBI','02/05/2017',NULL,NULL,NULL,NULL,NULL,0,0,0,0,0,0,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="62" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B62" s="23" t="s">
         <v>124</v>
       </c>
@@ -16698,7 +16651,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000173',NULL,NULL,NULL,NULL,'1','1','0','0','0','0',NULL,NULL,NULL,'CEBI','02/05/2017',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="63" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B63" s="23" t="s">
         <v>125</v>
       </c>
@@ -16955,7 +16908,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000174',NULL,NULL,NULL,NULL,'1','1','1','1','1','1',NULL,NULL,NULL,'CEBI','02/05/2017',NULL,NULL,NULL,NULL,NULL,100,50,200,150,20,100,1000,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="64" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B64" s="23" t="s">
         <v>126</v>
       </c>
@@ -17210,7 +17163,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000175',NULL,NULL,NULL,NULL,'1','1','1','1','1','1',NULL,NULL,NULL,'CEBI','02/05/2017',NULL,NULL,NULL,NULL,NULL,0,0,0,0,0,0,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="65" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B65" s="23" t="s">
         <v>127</v>
       </c>
@@ -17467,7 +17420,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000176',NULL,NULL,NULL,NULL,'1','1','1','1','1','1',NULL,NULL,NULL,'CEBI','02/05/2017',NULL,NULL,NULL,NULL,NULL,100,50,200,0,0,0,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="66" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B66" s="23" t="s">
         <v>128</v>
       </c>
@@ -17724,7 +17677,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000177',NULL,NULL,NULL,NULL,'1','1','1','1','1','1',NULL,NULL,NULL,'CEBI','02/05/2017',NULL,NULL,NULL,NULL,NULL,0,0,-200,0,0,0,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="67" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B67" s="23" t="s">
         <v>129</v>
       </c>
@@ -17981,7 +17934,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000178',NULL,NULL,NULL,NULL,'1','1','1','1','1','1',NULL,NULL,NULL,'CEBI','02/05/2017',NULL,NULL,NULL,NULL,NULL,0,0,0,0,0,-100,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="68" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B68" s="23" t="s">
         <v>130</v>
       </c>
@@ -18238,7 +18191,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000179',NULL,NULL,NULL,NULL,'1','1','1','1','1','1',NULL,NULL,NULL,'CEBI','02/05/2017',NULL,NULL,NULL,NULL,NULL,100,50,200,0,0,-100,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="69" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B69" s="23" t="s">
         <v>131</v>
       </c>
@@ -18495,7 +18448,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000180',NULL,NULL,NULL,NULL,'1','1','1','1','1','1',NULL,NULL,NULL,'CEBI','02/05/2017',NULL,NULL,NULL,NULL,NULL,0,0,-200,0,0,-100,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="70" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B70" s="23" t="s">
         <v>132</v>
       </c>
@@ -18734,7 +18687,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000183',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'1',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="71" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B71" s="23" t="s">
         <v>133</v>
       </c>
@@ -18973,7 +18926,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000184',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'1','02/06/2017','02/06/2017','02/06/2017','02/06/2017','02/06/2017',NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="72" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B72" s="23" t="s">
         <v>134</v>
       </c>
@@ -19212,7 +19165,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000185',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'0',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="73" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B73" s="23" t="s">
         <v>135</v>
       </c>
@@ -19451,7 +19404,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000186',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'0','02/06/2017','02/06/2017','02/06/2017','02/06/2017','02/06/2017',NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="74" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B74" s="23" t="s">
         <v>136</v>
       </c>
@@ -19692,7 +19645,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000187',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'1','0',NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="75" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B75" s="23" t="s">
         <v>137</v>
       </c>
@@ -19933,7 +19886,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000188',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'0','0',NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="76" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B76" s="23" t="s">
         <v>138</v>
       </c>
@@ -20174,7 +20127,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000191',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="77" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B77" s="23" t="s">
         <v>139</v>
       </c>
@@ -20415,7 +20368,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000192',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'0','1',NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="78" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B78" s="23" t="s">
         <v>140</v>
       </c>
@@ -20656,7 +20609,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000193',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'0','0','02/06/2017','02/06/2017','02/06/2017','02/06/2017','02/06/2017') ;</v>
       </c>
     </row>
-    <row r="79" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B79" s="23" t="s">
         <v>141</v>
       </c>
@@ -20897,12 +20850,12 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000194',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'0','1','02/06/2017','02/06/2017','02/06/2017','02/06/2017','02/06/2017') ;</v>
       </c>
     </row>
-    <row r="81" spans="28:29" x14ac:dyDescent="0.25">
+    <row r="81" spans="28:29" x14ac:dyDescent="0.3">
       <c r="AB81" s="17" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="85" spans="28:29" x14ac:dyDescent="0.25">
+    <row r="85" spans="28:29" x14ac:dyDescent="0.3">
       <c r="AB85" s="22">
         <f>Z65+AA65+AB65+AC65</f>
         <v>350</v>
@@ -20912,7 +20865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="28:29" x14ac:dyDescent="0.25">
+    <row r="86" spans="28:29" x14ac:dyDescent="0.3">
       <c r="AB86" s="22">
         <f>Z66+AA66+AB66+AC66</f>
         <v>-200</v>
@@ -20922,7 +20875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="28:29" x14ac:dyDescent="0.25">
+    <row r="87" spans="28:29" x14ac:dyDescent="0.3">
       <c r="AB87" s="22">
         <f>Z67+AA67+AB67+AC67</f>
         <v>0</v>
@@ -20932,7 +20885,7 @@
         <v>-28.571428571428573</v>
       </c>
     </row>
-    <row r="88" spans="28:29" x14ac:dyDescent="0.25">
+    <row r="88" spans="28:29" x14ac:dyDescent="0.3">
       <c r="AB88" s="22">
         <f>Z68+AA68+AB68+AC68</f>
         <v>350</v>
@@ -20942,7 +20895,7 @@
         <v>-28.571428571428573</v>
       </c>
     </row>
-    <row r="89" spans="28:29" x14ac:dyDescent="0.25">
+    <row r="89" spans="28:29" x14ac:dyDescent="0.3">
       <c r="AB89" s="22">
         <f>Z69+AA69+AB69+AC69</f>
         <v>-200</v>
@@ -20963,23 +20916,23 @@
   <dimension ref="A2:BF84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="AD33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="AE14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AG59" sqref="AG59"/>
+      <selection pane="bottomRight" activeCell="AG32" sqref="AG32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="37" customWidth="1"/>
-    <col min="3" max="5" width="24.28515625" customWidth="1"/>
-    <col min="6" max="19" width="24.28515625" style="12" customWidth="1"/>
-    <col min="20" max="23" width="38.28515625" customWidth="1"/>
-    <col min="24" max="33" width="24.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="37" customWidth="1"/>
+    <col min="3" max="5" width="24.33203125" customWidth="1"/>
+    <col min="6" max="19" width="24.33203125" style="12" customWidth="1"/>
+    <col min="20" max="23" width="38.33203125" customWidth="1"/>
+    <col min="24" max="33" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:57" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:57" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="36" t="s">
         <v>6</v>
       </c>
@@ -21153,7 +21106,7 @@
         <v>IMP_PATRIM_NETTO_T1,IMP_PATRIM_NETTO_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI</v>
       </c>
       <c r="BA2" t="str">
-        <f t="shared" ref="BA2:BE2" si="9">AZ2&amp;","&amp;Z2</f>
+        <f t="shared" ref="BA2:BD2" si="9">AZ2&amp;","&amp;Z2</f>
         <v>IMP_PATRIM_NETTO_T1,IMP_PATRIM_NETTO_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI</v>
       </c>
       <c r="BB2" t="str">
@@ -21168,12 +21121,12 @@
         <f t="shared" si="9"/>
         <v>IMP_PATRIM_NETTO_T1,IMP_PATRIM_NETTO_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT</v>
       </c>
-      <c r="BE2" s="48" t="str">
+      <c r="BE2" s="40" t="str">
         <f>BD2&amp;","&amp;AD2</f>
         <v>IMP_PATRIM_NETTO_T1,IMP_PATRIM_NETTO_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA</v>
       </c>
     </row>
-    <row r="3" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B3" s="11" t="s">
         <v>16</v>
       </c>
@@ -21250,7 +21203,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
         <v>17</v>
       </c>
@@ -21326,7 +21279,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B5" s="11" t="s">
         <v>18</v>
       </c>
@@ -21403,7 +21356,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B6" s="11" t="s">
         <v>19</v>
       </c>
@@ -21480,7 +21433,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
         <v>20</v>
       </c>
@@ -21556,7 +21509,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B8" s="11" t="s">
         <v>21</v>
       </c>
@@ -21633,7 +21586,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B9" s="11" t="s">
         <v>22</v>
       </c>
@@ -21709,7 +21662,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
         <v>23</v>
       </c>
@@ -21785,7 +21738,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B11" s="11" t="s">
         <v>24</v>
       </c>
@@ -21861,7 +21814,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="12" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B12" s="11" t="s">
         <v>25</v>
       </c>
@@ -21937,7 +21890,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="13" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B13" s="11" t="s">
         <v>26</v>
       </c>
@@ -22013,7 +21966,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="14" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B14" s="11" t="s">
         <v>27</v>
       </c>
@@ -22089,7 +22042,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B15" s="11" t="s">
         <v>28</v>
       </c>
@@ -22165,7 +22118,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="16" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B16" s="11" t="s">
         <v>29</v>
       </c>
@@ -22241,7 +22194,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="17" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:58" x14ac:dyDescent="0.3">
       <c r="B17" s="11" t="s">
         <v>30</v>
       </c>
@@ -22317,7 +22270,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="18" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:58" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
         <v>31</v>
       </c>
@@ -22393,7 +22346,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:58" x14ac:dyDescent="0.3">
       <c r="B19" s="11" t="s">
         <v>32</v>
       </c>
@@ -22469,7 +22422,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:58" x14ac:dyDescent="0.3">
       <c r="B20" s="11" t="s">
         <v>33</v>
       </c>
@@ -22545,7 +22498,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="21" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:58" x14ac:dyDescent="0.3">
       <c r="B21" s="11" t="s">
         <v>34</v>
       </c>
@@ -22621,101 +22574,101 @@
         <v>152</v>
       </c>
     </row>
-    <row r="22" spans="2:58" x14ac:dyDescent="0.25">
-      <c r="B22" s="46" t="s">
-        <v>159</v>
-      </c>
-      <c r="C22" s="38">
+    <row r="22" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="B22" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="C22" s="6">
         <v>3</v>
       </c>
-      <c r="D22" s="49">
+      <c r="D22" s="30">
         <f>(F22-G22)/G22</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="E22" s="49"/>
-      <c r="F22" s="38">
+      <c r="E22" s="30"/>
+      <c r="F22" s="6">
         <v>500</v>
       </c>
-      <c r="G22" s="39">
+      <c r="G22" s="7">
         <v>300</v>
       </c>
-      <c r="H22" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="I22" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="J22" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="K22" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="L22" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="M22" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="N22" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="O22" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="P22" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q22" s="40" t="s">
+      <c r="H22" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I22" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L22" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M22" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="O22" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="P22" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q22" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="R22" s="42" t="s">
+      <c r="R22" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="S22" s="42" t="s">
+      <c r="S22" s="28" t="s">
         <v>101</v>
       </c>
       <c r="T22" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U22" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V22" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="W22" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X22" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Y22" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Z22" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AA22" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AB22" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AC22" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AD22" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="AE22" s="4">
+        <v>180</v>
+      </c>
+      <c r="AE22" s="7">
         <v>0.66666666666666663</v>
       </c>
-      <c r="AF22" s="4"/>
-      <c r="AG22" s="4" t="s">
+      <c r="AF22" s="7"/>
+      <c r="AG22" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="AH22" t="str">
+      <c r="AH22" s="16" t="str">
         <f>F22&amp;","&amp;G22</f>
         <v>500,300</v>
       </c>
@@ -22724,7 +22677,7 @@
         <v>500,300,'1'</v>
       </c>
       <c r="AJ22" t="str">
-        <f t="shared" ref="AJ22:BF22" si="10">AI22&amp;","&amp;I22</f>
+        <f t="shared" ref="AJ22:BC22" si="10">AI22&amp;","&amp;I22</f>
         <v>500,300,'1','1'</v>
       </c>
       <c r="AK22" t="str">
@@ -22807,7 +22760,7 @@
         <f>BC22&amp;","&amp;AC22</f>
         <v>500,300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null,null,null</v>
       </c>
-      <c r="BE22" s="48" t="str">
+      <c r="BE22" s="40" t="str">
         <f>BD22&amp;","&amp;AD22</f>
         <v>500,300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null,null,null,null</v>
       </c>
@@ -22816,104 +22769,104 @@
         <v>500,300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null,null,null,null,0,666666666666667</v>
       </c>
     </row>
-    <row r="23" spans="2:58" x14ac:dyDescent="0.25">
-      <c r="B23" s="46" t="s">
-        <v>160</v>
-      </c>
-      <c r="C23" s="38">
+    <row r="23" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="B23" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="C23" s="6">
         <v>3</v>
       </c>
-      <c r="D23" s="49">
+      <c r="D23" s="30">
         <v>1000000</v>
       </c>
-      <c r="E23" s="49" t="s">
+      <c r="E23" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="F23" s="39">
+      <c r="F23" s="7">
         <v>500</v>
       </c>
-      <c r="G23" s="39">
+      <c r="G23" s="7">
         <v>0</v>
       </c>
-      <c r="H23" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="I23" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="J23" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="K23" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="L23" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="M23" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="N23" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="O23" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="P23" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q23" s="40" t="s">
+      <c r="H23" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I23" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L23" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M23" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="O23" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="P23" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q23" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="R23" s="42" t="s">
+      <c r="R23" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="S23" s="42" t="s">
+      <c r="S23" s="28" t="s">
         <v>101</v>
       </c>
       <c r="T23" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U23" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V23" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="W23" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X23" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Y23" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Z23" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AA23" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AB23" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AC23" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AD23" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="AE23" s="4">
+        <v>180</v>
+      </c>
+      <c r="AE23" s="7">
         <v>1000000</v>
       </c>
-      <c r="AF23" s="4" t="s">
+      <c r="AF23" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="AG23" s="4" t="s">
+      <c r="AG23" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="AH23" t="str">
+      <c r="AH23" s="16" t="str">
         <f t="shared" ref="AH23:AH31" si="11">F23&amp;","&amp;G23</f>
         <v>500,0</v>
       </c>
@@ -23005,109 +22958,109 @@
         <f t="shared" si="30"/>
         <v>500,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null,null,null</v>
       </c>
-      <c r="BE23" s="48" t="str">
+      <c r="BE23" s="40" t="str">
         <f t="shared" si="30"/>
         <v>500,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null,null,null,null</v>
       </c>
     </row>
-    <row r="24" spans="2:58" x14ac:dyDescent="0.25">
-      <c r="B24" s="46" t="s">
-        <v>161</v>
-      </c>
-      <c r="C24" s="38">
+    <row r="24" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="B24" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="C24" s="6">
         <v>3</v>
       </c>
-      <c r="D24" s="49">
+      <c r="D24" s="30">
         <v>0</v>
       </c>
-      <c r="E24" s="49" t="s">
+      <c r="E24" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="F24" s="39">
+      <c r="F24" s="7">
         <v>0</v>
       </c>
-      <c r="G24" s="39">
+      <c r="G24" s="7">
         <v>0</v>
       </c>
-      <c r="H24" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="I24" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="J24" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="K24" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="L24" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="M24" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="N24" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="O24" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="P24" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q24" s="40" t="s">
+      <c r="H24" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I24" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L24" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M24" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="O24" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="P24" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q24" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="R24" s="42" t="s">
+      <c r="R24" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="S24" s="42" t="s">
+      <c r="S24" s="28" t="s">
         <v>101</v>
       </c>
       <c r="T24" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U24" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V24" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="W24" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X24" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Y24" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Z24" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AA24" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AB24" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AC24" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AD24" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="AE24" s="4">
+        <v>180</v>
+      </c>
+      <c r="AE24" s="7">
         <v>0</v>
       </c>
-      <c r="AF24" s="4" t="s">
+      <c r="AF24" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="AG24" s="4" t="s">
+      <c r="AG24" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="AH24" t="str">
+      <c r="AH24" s="16" t="str">
         <f t="shared" si="11"/>
         <v>0,0</v>
       </c>
@@ -23199,109 +23152,109 @@
         <f t="shared" ref="BD24:BE24" si="33">BC24&amp;","&amp;AC24</f>
         <v>0,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null,null,null</v>
       </c>
-      <c r="BE24" s="48" t="str">
+      <c r="BE24" s="40" t="str">
         <f t="shared" si="33"/>
         <v>0,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null,null,null,null</v>
       </c>
     </row>
-    <row r="25" spans="2:58" x14ac:dyDescent="0.25">
-      <c r="B25" s="46" t="s">
-        <v>162</v>
-      </c>
-      <c r="C25" s="38">
+    <row r="25" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="B25" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="C25" s="6">
         <v>3</v>
       </c>
-      <c r="D25" s="49">
+      <c r="D25" s="30">
         <v>-1000000</v>
       </c>
-      <c r="E25" s="49" t="s">
+      <c r="E25" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="F25" s="39">
+      <c r="F25" s="7">
         <v>-300</v>
       </c>
-      <c r="G25" s="39">
+      <c r="G25" s="7">
         <v>0</v>
       </c>
-      <c r="H25" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="I25" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="J25" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="K25" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="L25" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="M25" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="N25" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="O25" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="P25" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q25" s="40" t="s">
+      <c r="H25" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I25" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L25" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M25" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="O25" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="P25" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q25" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="R25" s="42" t="s">
+      <c r="R25" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="S25" s="42" t="s">
+      <c r="S25" s="28" t="s">
         <v>101</v>
       </c>
       <c r="T25" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U25" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V25" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="W25" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X25" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Y25" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Z25" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AA25" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AB25" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AC25" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AD25" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="AE25" s="4">
+        <v>180</v>
+      </c>
+      <c r="AE25" s="7">
         <v>-1000000</v>
       </c>
-      <c r="AF25" s="4" t="s">
+      <c r="AF25" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="AG25" s="4" t="s">
+      <c r="AG25" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="AH25" t="str">
+      <c r="AH25" s="16" t="str">
         <f t="shared" si="11"/>
         <v>-300,0</v>
       </c>
@@ -23393,109 +23346,109 @@
         <f t="shared" ref="BD25:BE25" si="34">BC25&amp;","&amp;AC25</f>
         <v>-300,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null,null,null</v>
       </c>
-      <c r="BE25" s="48" t="str">
+      <c r="BE25" s="40" t="str">
         <f t="shared" si="34"/>
         <v>-300,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null,null,null,null</v>
       </c>
     </row>
-    <row r="26" spans="2:58" x14ac:dyDescent="0.25">
-      <c r="B26" s="46" t="s">
-        <v>163</v>
-      </c>
-      <c r="C26" s="38">
+    <row r="26" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="B26" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="C26" s="6">
         <v>3</v>
       </c>
-      <c r="D26" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="E26" s="49" t="s">
+      <c r="D26" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="F26" s="38">
+      <c r="F26" s="6">
         <v>500</v>
       </c>
-      <c r="G26" s="39">
+      <c r="G26" s="7">
         <v>300</v>
       </c>
-      <c r="H26" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="I26" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="J26" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="K26" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="L26" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="M26" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="N26" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="O26" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="P26" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q26" s="40" t="s">
+      <c r="H26" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="I26" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L26" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M26" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N26" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="O26" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="P26" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q26" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="R26" s="42" t="s">
+      <c r="R26" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="S26" s="42" t="s">
+      <c r="S26" s="28" t="s">
         <v>101</v>
       </c>
       <c r="T26" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U26" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V26" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="W26" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X26" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Y26" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Z26" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AA26" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AB26" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AC26" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AD26" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="AE26" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF26" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AE26" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF26" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AG26" s="4" t="s">
+      <c r="AG26" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="AH26" t="str">
+      <c r="AH26" s="16" t="str">
         <f t="shared" si="11"/>
         <v>500,300</v>
       </c>
@@ -23587,109 +23540,109 @@
         <f t="shared" ref="BD26:BE26" si="35">BC26&amp;","&amp;AC26</f>
         <v>500,300,'0','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null,null,null</v>
       </c>
-      <c r="BE26" s="48" t="str">
+      <c r="BE26" s="40" t="str">
         <f t="shared" si="35"/>
         <v>500,300,'0','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null,null,null,null</v>
       </c>
     </row>
-    <row r="27" spans="2:58" x14ac:dyDescent="0.25">
-      <c r="B27" s="46" t="s">
-        <v>164</v>
-      </c>
-      <c r="C27" s="38">
+    <row r="27" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="B27" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="C27" s="6">
         <v>3</v>
       </c>
-      <c r="D27" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="E27" s="49" t="s">
+      <c r="D27" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="F27" s="38">
+      <c r="F27" s="6">
         <v>500</v>
       </c>
-      <c r="G27" s="39">
+      <c r="G27" s="7">
         <v>300</v>
       </c>
-      <c r="H27" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="I27" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="J27" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="K27" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="L27" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="M27" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="N27" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="O27" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="P27" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q27" s="40" t="s">
+      <c r="H27" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I27" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L27" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M27" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N27" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="O27" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="P27" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q27" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="R27" s="42" t="s">
+      <c r="R27" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="S27" s="42" t="s">
+      <c r="S27" s="28" t="s">
         <v>101</v>
       </c>
       <c r="T27" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U27" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V27" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="W27" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X27" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Y27" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Z27" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AA27" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AB27" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AC27" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AD27" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="AE27" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF27" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AE27" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF27" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="AG27" s="4" t="s">
+      <c r="AG27" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="AH27" t="str">
+      <c r="AH27" s="16" t="str">
         <f t="shared" si="11"/>
         <v>500,300</v>
       </c>
@@ -23781,109 +23734,109 @@
         <f t="shared" ref="BD27:BE27" si="36">BC27&amp;","&amp;AC27</f>
         <v>500,300,'1','0',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null,null,null</v>
       </c>
-      <c r="BE27" s="48" t="str">
+      <c r="BE27" s="40" t="str">
         <f t="shared" si="36"/>
         <v>500,300,'1','0',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null,null,null,null</v>
       </c>
     </row>
-    <row r="28" spans="2:58" x14ac:dyDescent="0.25">
-      <c r="B28" s="46" t="s">
-        <v>165</v>
-      </c>
-      <c r="C28" s="38">
+    <row r="28" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="B28" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="C28" s="6">
         <v>3</v>
       </c>
-      <c r="D28" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="E28" s="49" t="s">
+      <c r="D28" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="F28" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="G28" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="H28" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="I28" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="J28" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="K28" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="L28" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="M28" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="N28" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="O28" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="P28" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q28" s="40" t="s">
+      <c r="F28" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="N28" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q28" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="R28" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="S28" s="39" t="s">
-        <v>181</v>
+      <c r="R28" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="S28" s="7" t="s">
+        <v>180</v>
       </c>
       <c r="T28" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U28" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V28" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="W28" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X28" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Y28" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Z28" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AA28" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AB28" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AC28" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AD28" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="AE28" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF28" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AE28" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF28" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AG28" s="4" t="s">
+      <c r="AG28" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="AH28" t="str">
+      <c r="AH28" s="16" t="str">
         <f t="shared" si="11"/>
         <v>null,null</v>
       </c>
@@ -23975,106 +23928,106 @@
         <f t="shared" ref="BD28:BE28" si="37">BC28&amp;","&amp;AC28</f>
         <v>null,null,null,null,null,null,null,null,null,?,?,'FIS',null,null,null,null,null,null,null,null,null,null,null,null</v>
       </c>
-      <c r="BE28" s="48" t="str">
+      <c r="BE28" s="40" t="str">
         <f t="shared" si="37"/>
         <v>null,null,null,null,null,null,null,null,null,?,?,'FIS',null,null,null,null,null,null,null,null,null,null,null,null,null</v>
       </c>
     </row>
-    <row r="29" spans="2:58" x14ac:dyDescent="0.25">
-      <c r="B29" s="46" t="s">
-        <v>166</v>
-      </c>
-      <c r="C29" s="38">
+    <row r="29" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="B29" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="C29" s="6">
         <v>3</v>
       </c>
-      <c r="D29" s="49">
+      <c r="D29" s="30">
         <f>(F29-G29)/ABS(G29)</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="E29" s="49"/>
-      <c r="F29" s="39">
+      <c r="E29" s="30"/>
+      <c r="F29" s="7">
         <v>500</v>
       </c>
-      <c r="G29" s="39">
+      <c r="G29" s="7">
         <v>-300</v>
       </c>
-      <c r="H29" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="I29" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="J29" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="K29" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="L29" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="M29" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="N29" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="O29" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="P29" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q29" s="40" t="s">
+      <c r="H29" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I29" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L29" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M29" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N29" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="O29" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="P29" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q29" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="R29" s="42" t="s">
+      <c r="R29" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="S29" s="42" t="s">
+      <c r="S29" s="28" t="s">
         <v>101</v>
       </c>
       <c r="T29" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U29" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V29" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="W29" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X29" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Y29" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Z29" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AA29" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AB29" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AC29" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AD29" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="AE29" s="4">
+        <v>180</v>
+      </c>
+      <c r="AE29" s="7">
         <v>2.6666666666666665</v>
       </c>
-      <c r="AF29" s="4"/>
-      <c r="AG29" s="4" t="s">
+      <c r="AF29" s="7"/>
+      <c r="AG29" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="AH29" t="str">
+      <c r="AH29" s="16" t="str">
         <f t="shared" si="11"/>
         <v>500,-300</v>
       </c>
@@ -24166,106 +24119,106 @@
         <f t="shared" ref="BD29:BE29" si="38">BC29&amp;","&amp;AC29</f>
         <v>500,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null,null,null</v>
       </c>
-      <c r="BE29" s="48" t="str">
+      <c r="BE29" s="40" t="str">
         <f t="shared" si="38"/>
         <v>500,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null,null,null,null</v>
       </c>
     </row>
-    <row r="30" spans="2:58" x14ac:dyDescent="0.25">
-      <c r="B30" s="46" t="s">
-        <v>167</v>
-      </c>
-      <c r="C30" s="38">
+    <row r="30" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="B30" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="C30" s="6">
         <v>3</v>
       </c>
-      <c r="D30" s="49">
+      <c r="D30" s="30">
         <f t="shared" ref="D30:D31" si="39">(F30-G30)/ABS(G30)</f>
         <v>1</v>
       </c>
-      <c r="E30" s="49"/>
-      <c r="F30" s="39">
+      <c r="E30" s="30"/>
+      <c r="F30" s="7">
         <v>0</v>
       </c>
-      <c r="G30" s="39">
+      <c r="G30" s="7">
         <v>-300</v>
       </c>
-      <c r="H30" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="I30" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="J30" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="K30" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="L30" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="M30" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="N30" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="O30" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="P30" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q30" s="40" t="s">
+      <c r="H30" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I30" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L30" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M30" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N30" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="O30" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="P30" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q30" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="R30" s="42" t="s">
+      <c r="R30" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="S30" s="42" t="s">
+      <c r="S30" s="28" t="s">
         <v>101</v>
       </c>
       <c r="T30" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U30" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V30" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="W30" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X30" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Y30" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Z30" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AA30" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AB30" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AC30" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AD30" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="AE30" s="4">
+        <v>180</v>
+      </c>
+      <c r="AE30" s="7">
         <v>1</v>
       </c>
-      <c r="AF30" s="4"/>
-      <c r="AG30" s="4" t="s">
+      <c r="AF30" s="7"/>
+      <c r="AG30" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="AH30" t="str">
+      <c r="AH30" s="16" t="str">
         <f t="shared" si="11"/>
         <v>0,-300</v>
       </c>
@@ -24357,106 +24310,106 @@
         <f t="shared" ref="BD30:BE30" si="40">BC30&amp;","&amp;AC30</f>
         <v>0,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null,null,null</v>
       </c>
-      <c r="BE30" s="48" t="str">
+      <c r="BE30" s="40" t="str">
         <f t="shared" si="40"/>
         <v>0,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null,null,null,null</v>
       </c>
     </row>
-    <row r="31" spans="2:58" x14ac:dyDescent="0.25">
-      <c r="B31" s="46" t="s">
-        <v>168</v>
-      </c>
-      <c r="C31" s="38">
+    <row r="31" spans="2:58" x14ac:dyDescent="0.3">
+      <c r="B31" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="C31" s="6">
         <v>3</v>
       </c>
-      <c r="D31" s="49">
+      <c r="D31" s="30">
         <f t="shared" si="39"/>
         <v>-0.66666666666666663</v>
       </c>
-      <c r="E31" s="49"/>
-      <c r="F31" s="39">
+      <c r="E31" s="30"/>
+      <c r="F31" s="7">
         <v>-500</v>
       </c>
-      <c r="G31" s="39">
+      <c r="G31" s="7">
         <v>-300</v>
       </c>
-      <c r="H31" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="I31" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="J31" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="K31" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="L31" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="M31" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="N31" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="O31" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="P31" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q31" s="40" t="s">
+      <c r="H31" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I31" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L31" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M31" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N31" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="O31" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="P31" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q31" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="R31" s="42" t="s">
+      <c r="R31" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="S31" s="42" t="s">
+      <c r="S31" s="28" t="s">
         <v>101</v>
       </c>
       <c r="T31" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U31" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V31" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="W31" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X31" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Y31" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Z31" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AA31" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AB31" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AC31" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AD31" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="AE31" s="4">
+        <v>180</v>
+      </c>
+      <c r="AE31" s="7">
         <v>-0.66666666666666663</v>
       </c>
-      <c r="AF31" s="4"/>
-      <c r="AG31" s="4" t="s">
+      <c r="AF31" s="7"/>
+      <c r="AG31" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="AH31" t="str">
+      <c r="AH31" s="16" t="str">
         <f t="shared" si="11"/>
         <v>-500,-300</v>
       </c>
@@ -24548,12 +24501,12 @@
         <f t="shared" ref="BD31:BE31" si="41">BC31&amp;","&amp;AC31</f>
         <v>-500,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null,null,null</v>
       </c>
-      <c r="BE31" s="48" t="str">
+      <c r="BE31" s="40" t="str">
         <f t="shared" si="41"/>
         <v>-500,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null,null,null,null</v>
       </c>
     </row>
-    <row r="32" spans="2:58" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:58" x14ac:dyDescent="0.3">
       <c r="B32" s="11" t="s">
         <v>35</v>
       </c>
@@ -24628,9 +24581,9 @@
       <c r="AG32" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="BE32" s="48"/>
+      <c r="BE32" s="40"/>
     </row>
-    <row r="33" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B33" s="11" t="s">
         <v>36</v>
       </c>
@@ -24709,9 +24662,9 @@
       <c r="AG33" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="BE33" s="48"/>
+      <c r="BE33" s="40"/>
     </row>
-    <row r="34" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B34" s="11" t="s">
         <v>37</v>
       </c>
@@ -24790,9 +24743,9 @@
       <c r="AG34" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="BE34" s="48"/>
+      <c r="BE34" s="40"/>
     </row>
-    <row r="35" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B35" s="11" t="s">
         <v>38</v>
       </c>
@@ -24871,9 +24824,9 @@
       <c r="AG35" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="BE35" s="48"/>
+      <c r="BE35" s="40"/>
     </row>
-    <row r="36" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B36" s="11" t="s">
         <v>39</v>
       </c>
@@ -24952,9 +24905,9 @@
       <c r="AG36" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="BE36" s="48"/>
+      <c r="BE36" s="40"/>
     </row>
-    <row r="37" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B37" s="11" t="s">
         <v>40</v>
       </c>
@@ -25033,9 +24986,9 @@
       <c r="AG37" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="BE37" s="48"/>
+      <c r="BE37" s="40"/>
     </row>
-    <row r="38" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B38" s="11" t="s">
         <v>41</v>
       </c>
@@ -25114,9 +25067,9 @@
       <c r="AG38" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="BE38" s="48"/>
+      <c r="BE38" s="40"/>
     </row>
-    <row r="39" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B39" s="11" t="s">
         <v>42</v>
       </c>
@@ -25195,9 +25148,9 @@
       <c r="AG39" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="BE39" s="48"/>
+      <c r="BE39" s="40"/>
     </row>
-    <row r="40" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B40" s="11" t="s">
         <v>43</v>
       </c>
@@ -25276,9 +25229,9 @@
       <c r="AG40" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="BE40" s="48"/>
+      <c r="BE40" s="40"/>
     </row>
-    <row r="41" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B41" s="11" t="s">
         <v>44</v>
       </c>
@@ -25357,9 +25310,9 @@
       <c r="AG41" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="BE41" s="48"/>
+      <c r="BE41" s="40"/>
     </row>
-    <row r="42" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B42" s="11" t="s">
         <v>103</v>
       </c>
@@ -25438,9 +25391,9 @@
       <c r="AG42" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="BE42" s="48"/>
+      <c r="BE42" s="40"/>
     </row>
-    <row r="43" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B43" s="11" t="s">
         <v>104</v>
       </c>
@@ -25519,9 +25472,9 @@
       <c r="AG43" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="BE43" s="48"/>
+      <c r="BE43" s="40"/>
     </row>
-    <row r="44" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B44" s="11" t="s">
         <v>105</v>
       </c>
@@ -25600,9 +25553,9 @@
       <c r="AG44" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="BE44" s="48"/>
+      <c r="BE44" s="40"/>
     </row>
-    <row r="45" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B45" s="11" t="s">
         <v>106</v>
       </c>
@@ -25680,9 +25633,9 @@
       <c r="AG45" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="BE45" s="48"/>
+      <c r="BE45" s="40"/>
     </row>
-    <row r="46" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B46" s="11" t="s">
         <v>107</v>
       </c>
@@ -25761,9 +25714,9 @@
       <c r="AG46" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="BE46" s="48"/>
+      <c r="BE46" s="40"/>
     </row>
-    <row r="47" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B47" s="11" t="s">
         <v>108</v>
       </c>
@@ -25842,9 +25795,9 @@
       <c r="AG47" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="BE47" s="48"/>
+      <c r="BE47" s="40"/>
     </row>
-    <row r="48" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B48" s="11" t="s">
         <v>109</v>
       </c>
@@ -25923,9 +25876,9 @@
       <c r="AG48" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="BE48" s="48"/>
+      <c r="BE48" s="40"/>
     </row>
-    <row r="49" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B49" s="11" t="s">
         <v>110</v>
       </c>
@@ -26004,9 +25957,9 @@
       <c r="AG49" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="BE49" s="48"/>
+      <c r="BE49" s="40"/>
     </row>
-    <row r="50" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B50" s="11" t="s">
         <v>111</v>
       </c>
@@ -26085,9 +26038,9 @@
       <c r="AG50" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="BE50" s="48"/>
+      <c r="BE50" s="40"/>
     </row>
-    <row r="51" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B51" s="11" t="s">
         <v>112</v>
       </c>
@@ -26166,295 +26119,297 @@
       <c r="AG51" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="BE51" s="48"/>
+      <c r="BE51" s="40"/>
     </row>
-    <row r="52" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="B52" s="46" t="s">
-        <v>167</v>
-      </c>
-      <c r="C52" s="38">
+    <row r="52" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="B52" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="C52" s="6">
         <v>4</v>
       </c>
-      <c r="D52" s="49">
+      <c r="D52" s="32">
         <f>(MAX(T52,V52)- MAX(U52,W52))/MAX(U52,W52)</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="E52" s="49"/>
-      <c r="F52" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="H52" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="I52" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="J52" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="K52" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="L52" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="M52" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="N52" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="O52" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="P52" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q52" s="40" t="s">
+      <c r="E52" s="32"/>
+      <c r="F52" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H52" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I52" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L52" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M52" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N52" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="O52" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="P52" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q52" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="R52" s="42" t="s">
+      <c r="R52" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="S52" s="42" t="s">
+      <c r="S52" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="T52" s="38">
+      <c r="T52" s="6">
         <v>500</v>
       </c>
-      <c r="U52" s="39">
+      <c r="U52" s="7">
         <v>300</v>
       </c>
-      <c r="V52" s="39">
+      <c r="V52" s="7">
         <v>100</v>
       </c>
-      <c r="W52" s="39">
+      <c r="W52" s="7">
         <v>50</v>
       </c>
-      <c r="X52" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="Y52" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="Z52" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA52" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="AB52" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="AC52" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="AD52" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="AE52" s="53">
+      <c r="X52" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y52" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z52" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="AA52" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB52" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="AC52" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="AD52" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="AE52" s="41">
         <v>0.66666666666666663</v>
       </c>
       <c r="AF52" s="7"/>
-      <c r="AG52" s="4" t="s">
+      <c r="AG52" s="7" t="s">
         <v>152</v>
       </c>
       <c r="AH52" t="str">
-        <f t="shared" ref="AH32:AH84" si="42">F52&amp;","&amp;G52</f>
+        <f t="shared" ref="AH52:AH84" si="42">F52&amp;","&amp;G52</f>
         <v>null,null</v>
       </c>
       <c r="AI52" t="str">
-        <f t="shared" ref="AI32:AI84" si="43">AH52&amp;","&amp;H52</f>
+        <f t="shared" ref="AI52:AI84" si="43">AH52&amp;","&amp;H52</f>
         <v>null,null,'1'</v>
       </c>
       <c r="AJ52" t="str">
-        <f t="shared" ref="AJ32:AJ84" si="44">AI52&amp;","&amp;I52</f>
+        <f t="shared" ref="AJ52:AJ84" si="44">AI52&amp;","&amp;I52</f>
         <v>null,null,'1','1'</v>
       </c>
       <c r="AK52" t="str">
-        <f t="shared" ref="AK32:AK84" si="45">AJ52&amp;","&amp;J52</f>
+        <f t="shared" ref="AK52:AK84" si="45">AJ52&amp;","&amp;J52</f>
         <v>null,null,'1','1',null</v>
       </c>
       <c r="AL52" t="str">
-        <f t="shared" ref="AL32:AL84" si="46">AK52&amp;","&amp;K52</f>
+        <f t="shared" ref="AL52:AL84" si="46">AK52&amp;","&amp;K52</f>
         <v>null,null,'1','1',null,null</v>
       </c>
       <c r="AM52" t="str">
-        <f t="shared" ref="AM32:AM84" si="47">AL52&amp;","&amp;L52</f>
+        <f t="shared" ref="AM52:AM84" si="47">AL52&amp;","&amp;L52</f>
         <v>null,null,'1','1',null,null,'1'</v>
       </c>
       <c r="AN52" t="str">
-        <f t="shared" ref="AN32:AN84" si="48">AM52&amp;","&amp;M52</f>
+        <f t="shared" ref="AN52:AN84" si="48">AM52&amp;","&amp;M52</f>
         <v>null,null,'1','1',null,null,'1','1'</v>
       </c>
       <c r="AO52" t="str">
-        <f t="shared" ref="AO32:AO84" si="49">AN52&amp;","&amp;N52</f>
+        <f t="shared" ref="AO52:AO84" si="49">AN52&amp;","&amp;N52</f>
         <v>null,null,'1','1',null,null,'1','1',null</v>
       </c>
       <c r="AP52" t="str">
-        <f t="shared" ref="AP32:AP84" si="50">AO52&amp;","&amp;O52</f>
+        <f t="shared" ref="AP52:AP84" si="50">AO52&amp;","&amp;O52</f>
         <v>null,null,'1','1',null,null,'1','1',null,'1'</v>
       </c>
       <c r="AQ52" t="str">
-        <f t="shared" ref="AQ32:AQ84" si="51">AP52&amp;","&amp;P52</f>
+        <f t="shared" ref="AQ52:AQ84" si="51">AP52&amp;","&amp;P52</f>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1'</v>
       </c>
       <c r="AR52" t="str">
-        <f t="shared" ref="AR32:AR84" si="52">AQ52&amp;","&amp;Q52</f>
+        <f t="shared" ref="AR52:AR84" si="52">AQ52&amp;","&amp;Q52</f>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS'</v>
       </c>
       <c r="AS52" t="str">
-        <f t="shared" ref="AS32:AS84" si="53">AR52&amp;","&amp;R52</f>
+        <f t="shared" ref="AS52:AS84" si="53">AR52&amp;","&amp;R52</f>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017'</v>
       </c>
       <c r="AT52" t="str">
-        <f t="shared" ref="AT32:AT84" si="54">AS52&amp;","&amp;S52</f>
+        <f t="shared" ref="AT52:AT84" si="54">AS52&amp;","&amp;S52</f>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016'</v>
       </c>
       <c r="AU52" t="str">
-        <f t="shared" ref="AU32:AU84" si="55">AT52&amp;","&amp;T52</f>
+        <f t="shared" ref="AU52:AU84" si="55">AT52&amp;","&amp;T52</f>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',500</v>
       </c>
       <c r="AV52" t="str">
-        <f t="shared" ref="AV32:AV84" si="56">AU52&amp;","&amp;U52</f>
+        <f t="shared" ref="AV52:AV84" si="56">AU52&amp;","&amp;U52</f>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',500,300</v>
       </c>
       <c r="AW52" t="str">
-        <f t="shared" ref="AW32:AW84" si="57">AV52&amp;","&amp;V52</f>
+        <f t="shared" ref="AW52:AW84" si="57">AV52&amp;","&amp;V52</f>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',500,300,100</v>
       </c>
       <c r="AX52" t="str">
-        <f t="shared" ref="AX32:AX84" si="58">AW52&amp;","&amp;W52</f>
+        <f t="shared" ref="AX52:AX84" si="58">AW52&amp;","&amp;W52</f>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',500,300,100,50</v>
       </c>
       <c r="AY52" t="str">
-        <f t="shared" ref="AY32:AY84" si="59">AX52&amp;","&amp;X52</f>
+        <f t="shared" ref="AY52:AY84" si="59">AX52&amp;","&amp;X52</f>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',500,300,100,50,null</v>
       </c>
       <c r="AZ52" t="str">
-        <f t="shared" ref="AZ32:AZ84" si="60">AY52&amp;","&amp;Y52</f>
+        <f t="shared" ref="AZ52:AZ84" si="60">AY52&amp;","&amp;Y52</f>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',500,300,100,50,null,null</v>
       </c>
       <c r="BA52" t="str">
-        <f t="shared" ref="BA32:BA84" si="61">AZ52&amp;","&amp;Z52</f>
+        <f t="shared" ref="BA52:BA84" si="61">AZ52&amp;","&amp;Z52</f>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',500,300,100,50,null,null,null</v>
       </c>
       <c r="BB52" t="str">
-        <f t="shared" ref="BB32:BB84" si="62">BA52&amp;","&amp;AA52</f>
+        <f t="shared" ref="BB52:BB84" si="62">BA52&amp;","&amp;AA52</f>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',500,300,100,50,null,null,null,null</v>
       </c>
       <c r="BC52" t="str">
-        <f t="shared" ref="BC32:BC84" si="63">BB52&amp;","&amp;AB52</f>
+        <f t="shared" ref="BC52:BC84" si="63">BB52&amp;","&amp;AB52</f>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',500,300,100,50,null,null,null,null,null</v>
       </c>
       <c r="BD52" t="str">
-        <f t="shared" ref="BD32:BD84" si="64">BC52&amp;","&amp;AC52</f>
+        <f t="shared" ref="BD52:BD84" si="64">BC52&amp;","&amp;AC52</f>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',500,300,100,50,null,null,null,null,null,null</v>
       </c>
-      <c r="BE52" s="48" t="str">
-        <f t="shared" ref="BE32:BE84" si="65">BD52&amp;","&amp;AD52</f>
+      <c r="BE52" s="40" t="str">
+        <f t="shared" ref="BE52:BE84" si="65">BD52&amp;","&amp;AD52</f>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',500,300,100,50,null,null,null,null,null,null,null</v>
       </c>
     </row>
-    <row r="53" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A53" s="52" t="s">
+    <row r="53" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A53" s="16"/>
+      <c r="B53" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="C53" s="6">
+        <v>4</v>
+      </c>
+      <c r="D53" s="32">
+        <v>0</v>
+      </c>
+      <c r="E53" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="B53" s="46" t="s">
-        <v>168</v>
-      </c>
-      <c r="C53" s="38">
-        <v>4</v>
-      </c>
-      <c r="D53" s="49">
+      <c r="F53" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H53" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I53" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L53" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M53" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N53" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="O53" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="P53" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q53" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="R53" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="S53" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="T53" s="7">
         <v>0</v>
       </c>
-      <c r="E53" s="50"/>
-      <c r="F53" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="H53" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="I53" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="J53" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="K53" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="L53" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="M53" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="N53" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="O53" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="P53" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q53" s="40" t="s">
-        <v>156</v>
-      </c>
-      <c r="R53" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="S53" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="T53" s="39">
+      <c r="U53" s="7">
         <v>0</v>
       </c>
-      <c r="U53" s="39">
+      <c r="V53" s="7">
         <v>0</v>
       </c>
-      <c r="V53" s="39">
+      <c r="W53" s="7">
         <v>0</v>
       </c>
-      <c r="W53" s="39">
+      <c r="X53" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y53" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z53" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="AA53" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB53" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="AC53" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="AD53" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="AE53" s="41">
         <v>0</v>
       </c>
-      <c r="X53" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="Y53" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="Z53" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA53" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="AB53" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="AC53" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="AD53" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="AE53" s="53">
-        <v>0</v>
-      </c>
-      <c r="AF53" s="54" t="s">
+      <c r="AF53" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="AG53" s="4"/>
+      <c r="AG53" s="7" t="s">
+        <v>152</v>
+      </c>
       <c r="AH53" t="str">
         <f t="shared" si="42"/>
         <v>null,null</v>
@@ -26547,106 +26502,107 @@
         <f t="shared" si="64"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',0,0,0,0,null,null,null,null,null,null</v>
       </c>
-      <c r="BE53" s="48" t="str">
+      <c r="BE53" s="40" t="str">
         <f t="shared" si="65"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',0,0,0,0,null,null,null,null,null,null,null</v>
       </c>
     </row>
-    <row r="54" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="B54" s="46" t="s">
-        <v>169</v>
-      </c>
-      <c r="C54" s="38">
+    <row r="54" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A54" s="16"/>
+      <c r="B54" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="C54" s="6">
         <v>4</v>
       </c>
-      <c r="D54" s="49">
+      <c r="D54" s="32">
         <v>-1000000</v>
       </c>
-      <c r="E54" s="49" t="s">
+      <c r="E54" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="F54" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="H54" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="I54" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="J54" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="K54" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="L54" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="M54" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="N54" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="O54" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="P54" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q54" s="40" t="s">
+      <c r="F54" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H54" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I54" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L54" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M54" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N54" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="O54" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="P54" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q54" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="R54" s="42" t="s">
+      <c r="R54" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="S54" s="42" t="s">
+      <c r="S54" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="T54" s="39">
+      <c r="T54" s="7">
         <v>-200</v>
       </c>
-      <c r="U54" s="39">
+      <c r="U54" s="7">
         <v>0</v>
       </c>
-      <c r="V54" s="39">
+      <c r="V54" s="7">
         <v>-300</v>
       </c>
-      <c r="W54" s="39">
+      <c r="W54" s="7">
         <v>0</v>
       </c>
-      <c r="X54" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="Y54" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="Z54" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA54" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="AB54" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="AC54" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="AD54" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="AE54" s="53">
+      <c r="X54" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y54" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z54" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="AA54" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB54" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="AC54" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="AD54" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="AE54" s="41">
         <v>-1000000</v>
       </c>
       <c r="AF54" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="AG54" s="4" t="s">
+      <c r="AG54" s="7" t="s">
         <v>152</v>
       </c>
       <c r="AH54" t="str">
@@ -26741,106 +26697,107 @@
         <f t="shared" si="64"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',-200,0,-300,0,null,null,null,null,null,null</v>
       </c>
-      <c r="BE54" s="48" t="str">
+      <c r="BE54" s="40" t="str">
         <f t="shared" si="65"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',-200,0,-300,0,null,null,null,null,null,null,null</v>
       </c>
     </row>
-    <row r="55" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="B55" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="C55" s="38">
+    <row r="55" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A55" s="16"/>
+      <c r="B55" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="C55" s="6">
         <v>4</v>
       </c>
-      <c r="D55" s="49">
+      <c r="D55" s="32">
         <v>-1000000</v>
       </c>
-      <c r="E55" s="49" t="s">
+      <c r="E55" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="F55" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="H55" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="I55" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="J55" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="K55" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="L55" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="M55" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="N55" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="O55" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="P55" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q55" s="40" t="s">
+      <c r="F55" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H55" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I55" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L55" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M55" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N55" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="O55" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="P55" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q55" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="R55" s="42" t="s">
+      <c r="R55" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="S55" s="42" t="s">
+      <c r="S55" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="T55" s="39">
+      <c r="T55" s="7">
         <v>-300</v>
       </c>
-      <c r="U55" s="39">
+      <c r="U55" s="7">
         <v>-100</v>
       </c>
-      <c r="V55" s="39">
+      <c r="V55" s="7">
         <v>-300</v>
       </c>
-      <c r="W55" s="39">
+      <c r="W55" s="7">
         <v>-300</v>
       </c>
-      <c r="X55" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="Y55" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="Z55" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA55" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="AB55" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="AC55" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="AD55" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="AE55" s="53">
+      <c r="X55" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y55" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z55" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="AA55" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB55" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="AC55" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="AD55" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="AE55" s="41">
         <v>-1000000</v>
       </c>
       <c r="AF55" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="AG55" s="4" t="s">
+      <c r="AG55" s="7" t="s">
         <v>152</v>
       </c>
       <c r="AH55" t="str">
@@ -26935,106 +26892,107 @@
         <f t="shared" si="64"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',-300,-100,-300,-300,null,null,null,null,null,null</v>
       </c>
-      <c r="BE55" s="48" t="str">
+      <c r="BE55" s="40" t="str">
         <f t="shared" si="65"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',-300,-100,-300,-300,null,null,null,null,null,null,null</v>
       </c>
     </row>
-    <row r="56" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="B56" s="46" t="s">
-        <v>171</v>
-      </c>
-      <c r="C56" s="38">
+    <row r="56" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A56" s="16"/>
+      <c r="B56" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="C56" s="6">
         <v>4</v>
       </c>
-      <c r="D56" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="E56" s="49" t="s">
+      <c r="D56" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E56" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="F56" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="H56" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="I56" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="J56" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="K56" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="L56" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="M56" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="N56" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="O56" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="P56" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q56" s="40" t="s">
+      <c r="F56" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H56" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I56" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L56" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M56" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="N56" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="O56" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="P56" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q56" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="R56" s="42" t="s">
+      <c r="R56" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="S56" s="42" t="s">
+      <c r="S56" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="T56" s="38">
+      <c r="T56" s="6">
         <v>500</v>
       </c>
-      <c r="U56" s="39">
+      <c r="U56" s="7">
         <v>300</v>
       </c>
-      <c r="V56" s="39">
+      <c r="V56" s="7">
         <v>100</v>
       </c>
-      <c r="W56" s="39">
+      <c r="W56" s="7">
         <v>50</v>
       </c>
-      <c r="X56" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="Y56" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="Z56" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA56" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="AB56" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="AC56" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="AD56" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="AE56" s="53" t="s">
+      <c r="X56" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y56" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z56" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="AA56" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB56" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="AC56" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="AD56" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="AE56" s="41" t="s">
         <v>49</v>
       </c>
       <c r="AF56" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="AG56" s="4" t="s">
+      <c r="AG56" s="7" t="s">
         <v>152</v>
       </c>
       <c r="AH56" t="str">
@@ -27129,109 +27087,109 @@
         <f t="shared" si="64"/>
         <v>null,null,'1','1',null,null,'1','0',null,'1','1','FIS','02/05/2017','02/06/2016',500,300,100,50,null,null,null,null,null,null</v>
       </c>
-      <c r="BE56" s="48" t="str">
+      <c r="BE56" s="40" t="str">
         <f t="shared" si="65"/>
         <v>null,null,'1','1',null,null,'1','0',null,'1','1','FIS','02/05/2017','02/06/2016',500,300,100,50,null,null,null,null,null,null,null</v>
       </c>
     </row>
-    <row r="57" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A57" s="52" t="s">
+    <row r="57" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A57" s="16"/>
+      <c r="B57" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="C57" s="6">
+        <v>4</v>
+      </c>
+      <c r="D57" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E57" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="B57" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="C57" s="38">
-        <v>4</v>
-      </c>
-      <c r="D57" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="E57" s="50" t="s">
-        <v>157</v>
-      </c>
-      <c r="F57" s="4" t="s">
+      <c r="F57" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H57" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I57" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L57" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M57" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N57" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="O57" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="P57" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q57" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="R57" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="S57" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="T57" s="6">
+        <v>500</v>
+      </c>
+      <c r="U57" s="7">
+        <v>300</v>
+      </c>
+      <c r="V57" s="7">
+        <v>100</v>
+      </c>
+      <c r="W57" s="7">
+        <v>50</v>
+      </c>
+      <c r="X57" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y57" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z57" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="AA57" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB57" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="AC57" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="AD57" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="AE57" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF57" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="G57" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="H57" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="I57" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="J57" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="K57" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="L57" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="M57" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="N57" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="O57" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="P57" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q57" s="40" t="s">
-        <v>156</v>
-      </c>
-      <c r="R57" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="S57" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="T57" s="38">
-        <v>500</v>
-      </c>
-      <c r="U57" s="39">
-        <v>300</v>
-      </c>
-      <c r="V57" s="39">
-        <v>100</v>
-      </c>
-      <c r="W57" s="39">
-        <v>50</v>
-      </c>
-      <c r="X57" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="Y57" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="Z57" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA57" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="AB57" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="AC57" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="AD57" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="AE57" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF57" s="54" t="s">
-        <v>182</v>
-      </c>
-      <c r="AG57" s="4"/>
+      <c r="AG57" s="7" t="s">
+        <v>152</v>
+      </c>
       <c r="AH57" t="str">
         <f t="shared" si="42"/>
         <v>null,null</v>
@@ -27324,106 +27282,106 @@
         <f t="shared" si="64"/>
         <v>null,null,'1','1',null,null,'1','1',null,'0','1','FIS','02/05/2017','02/06/2016',500,300,100,50,null,null,null,null,null,null</v>
       </c>
-      <c r="BE57" s="48" t="str">
+      <c r="BE57" s="40" t="str">
         <f t="shared" si="65"/>
         <v>null,null,'1','1',null,null,'1','1',null,'0','1','FIS','02/05/2017','02/06/2016',500,300,100,50,null,null,null,null,null,null,null</v>
       </c>
     </row>
-    <row r="58" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="B58" s="46" t="s">
-        <v>173</v>
-      </c>
-      <c r="C58" s="38">
+    <row r="58" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="B58" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="C58" s="6">
         <v>4</v>
       </c>
-      <c r="D58" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="E58" s="49" t="s">
+      <c r="D58" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E58" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="F58" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="H58" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="I58" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="J58" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="K58" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="L58" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="M58" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="N58" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="O58" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="P58" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q58" s="40" t="s">
+      <c r="F58" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L58" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="M58" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="N58" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="O58" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P58" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q58" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="R58" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="S58" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="T58" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="U58" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="V58" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="W58" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="X58" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="Y58" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="Z58" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA58" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="AB58" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="AC58" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="AD58" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="AE58" s="53" t="s">
+      <c r="R58" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="S58" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="T58" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="U58" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="V58" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="W58" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="X58" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y58" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z58" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="AA58" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB58" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="AC58" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="AD58" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="AE58" s="41" t="s">
         <v>49</v>
       </c>
       <c r="AF58" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AG58" s="4" t="s">
+      <c r="AG58" s="7" t="s">
         <v>152</v>
       </c>
       <c r="AH58" t="str">
@@ -27518,12 +27476,12 @@
         <f t="shared" si="64"/>
         <v>null,null,null,null,null,null,null,null,null,null,null,'FIS',null,null,null,null,null,null,null,null,null,null,null,null</v>
       </c>
-      <c r="BE58" s="48" t="str">
+      <c r="BE58" s="40" t="str">
         <f t="shared" si="65"/>
         <v>null,null,null,null,null,null,null,null,null,null,null,'FIS',null,null,null,null,null,null,null,null,null,null,null,null,null</v>
       </c>
     </row>
-    <row r="59" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B59" s="11" t="s">
         <v>113</v>
       </c>
@@ -27591,18 +27549,18 @@
       <c r="AD59" s="6">
         <v>1000</v>
       </c>
-      <c r="AE59" s="3" t="s">
+      <c r="AE59" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="AF59" s="4" t="s">
+      <c r="AF59" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AG59" s="4" t="s">
+      <c r="AG59" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="BE59" s="48"/>
+      <c r="BE59" s="40"/>
     </row>
-    <row r="60" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B60" s="11" t="s">
         <v>114</v>
       </c>
@@ -27670,18 +27628,18 @@
       <c r="AD60" s="6">
         <v>0</v>
       </c>
-      <c r="AE60" s="3" t="s">
+      <c r="AE60" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="AF60" s="4" t="s">
+      <c r="AF60" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AG60" s="4" t="s">
+      <c r="AG60" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="BE60" s="48"/>
+      <c r="BE60" s="40"/>
     </row>
-    <row r="61" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B61" s="11" t="s">
         <v>115</v>
       </c>
@@ -27749,18 +27707,18 @@
       <c r="AD61" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AE61" s="3" t="s">
+      <c r="AE61" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="AF61" s="4" t="s">
+      <c r="AF61" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AG61" s="4" t="s">
+      <c r="AG61" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="BE61" s="48"/>
+      <c r="BE61" s="40"/>
     </row>
-    <row r="62" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B62" s="11" t="s">
         <v>116</v>
       </c>
@@ -27828,18 +27786,18 @@
       <c r="AD62" s="6">
         <v>1000</v>
       </c>
-      <c r="AE62" s="3" t="s">
+      <c r="AE62" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="AF62" s="4" t="s">
+      <c r="AF62" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AG62" s="4" t="s">
+      <c r="AG62" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="BE62" s="48"/>
+      <c r="BE62" s="40"/>
     </row>
-    <row r="63" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B63" s="11" t="s">
         <v>117</v>
       </c>
@@ -27907,18 +27865,18 @@
       <c r="AD63" s="6">
         <v>0</v>
       </c>
-      <c r="AE63" s="3" t="s">
+      <c r="AE63" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="AF63" s="4" t="s">
+      <c r="AF63" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AG63" s="4" t="s">
+      <c r="AG63" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="BE63" s="48"/>
+      <c r="BE63" s="40"/>
     </row>
-    <row r="64" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B64" s="11" t="s">
         <v>118</v>
       </c>
@@ -27986,18 +27944,18 @@
       <c r="AD64" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AE64" s="3" t="s">
+      <c r="AE64" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="AF64" s="4" t="s">
+      <c r="AF64" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AG64" s="4" t="s">
+      <c r="AG64" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="BE64" s="48"/>
+      <c r="BE64" s="40"/>
     </row>
-    <row r="65" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B65" s="11" t="s">
         <v>119</v>
       </c>
@@ -28065,18 +28023,18 @@
       <c r="AD65" s="6">
         <v>1000</v>
       </c>
-      <c r="AE65" s="3" t="s">
+      <c r="AE65" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="AF65" s="4" t="s">
+      <c r="AF65" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="AG65" s="4" t="s">
+      <c r="AG65" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="BE65" s="48"/>
+      <c r="BE65" s="40"/>
     </row>
-    <row r="66" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B66" s="11" t="s">
         <v>120</v>
       </c>
@@ -28144,18 +28102,18 @@
       <c r="AD66" s="6">
         <v>0</v>
       </c>
-      <c r="AE66" s="3" t="s">
+      <c r="AE66" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="AF66" s="4" t="s">
+      <c r="AF66" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="AG66" s="4" t="s">
+      <c r="AG66" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="BE66" s="48"/>
+      <c r="BE66" s="40"/>
     </row>
-    <row r="67" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B67" s="11" t="s">
         <v>121</v>
       </c>
@@ -28223,18 +28181,18 @@
       <c r="AD67" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AE67" s="3" t="s">
+      <c r="AE67" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="AF67" s="4" t="s">
+      <c r="AF67" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="AG67" s="4" t="s">
+      <c r="AG67" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="BE67" s="48"/>
+      <c r="BE67" s="40"/>
     </row>
-    <row r="68" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B68" s="11" t="s">
         <v>122</v>
       </c>
@@ -28302,18 +28260,18 @@
       <c r="AD68" s="6">
         <v>1000</v>
       </c>
-      <c r="AE68" s="3" t="s">
+      <c r="AE68" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="AF68" s="4" t="s">
+      <c r="AF68" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="AG68" s="4" t="s">
+      <c r="AG68" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="BE68" s="48"/>
+      <c r="BE68" s="40"/>
     </row>
-    <row r="69" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B69" s="11" t="s">
         <v>123</v>
       </c>
@@ -28381,18 +28339,18 @@
       <c r="AD69" s="6">
         <v>0</v>
       </c>
-      <c r="AE69" s="3" t="s">
+      <c r="AE69" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="AF69" s="4" t="s">
+      <c r="AF69" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="AG69" s="4" t="s">
+      <c r="AG69" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="BE69" s="48"/>
+      <c r="BE69" s="40"/>
     </row>
-    <row r="70" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B70" s="11" t="s">
         <v>124</v>
       </c>
@@ -28460,18 +28418,18 @@
       <c r="AD70" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AE70" s="3" t="s">
+      <c r="AE70" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="AF70" s="4" t="s">
+      <c r="AF70" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="AG70" s="4" t="s">
+      <c r="AG70" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="BE70" s="48"/>
+      <c r="BE70" s="40"/>
     </row>
-    <row r="71" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B71" s="11" t="s">
         <v>125</v>
       </c>
@@ -28545,12 +28503,12 @@
       <c r="AF71" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="AG71" s="4" t="s">
+      <c r="AG71" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="BE71" s="48"/>
+      <c r="BE71" s="40"/>
     </row>
-    <row r="72" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B72" s="11" t="s">
         <v>126</v>
       </c>
@@ -28624,10 +28582,10 @@
       <c r="AF72" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="AG72" s="4"/>
-      <c r="BE72" s="48"/>
+      <c r="AG72" s="7"/>
+      <c r="BE72" s="40"/>
     </row>
-    <row r="73" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B73" s="11" t="s">
         <v>127</v>
       </c>
@@ -28701,12 +28659,12 @@
       <c r="AF73" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="AG73" s="4" t="s">
+      <c r="AG73" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="BE73" s="48"/>
+      <c r="BE73" s="40"/>
     </row>
-    <row r="74" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B74" s="11" t="s">
         <v>128</v>
       </c>
@@ -28780,12 +28738,12 @@
       <c r="AF74" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="AG74" s="4" t="s">
+      <c r="AG74" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="BE74" s="48"/>
+      <c r="BE74" s="40"/>
     </row>
-    <row r="75" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B75" s="11" t="s">
         <v>129</v>
       </c>
@@ -28859,12 +28817,12 @@
       <c r="AF75" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="AG75" s="4" t="s">
+      <c r="AG75" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="BE75" s="48"/>
+      <c r="BE75" s="40"/>
     </row>
-    <row r="76" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B76" s="11" t="s">
         <v>130</v>
       </c>
@@ -28938,12 +28896,12 @@
       <c r="AF76" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="AG76" s="4" t="s">
+      <c r="AG76" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="BE76" s="48"/>
+      <c r="BE76" s="40"/>
     </row>
-    <row r="77" spans="2:57" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B77" s="11" t="s">
         <v>131</v>
       </c>
@@ -29017,87 +28975,87 @@
       <c r="AF77" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="AG77" s="4" t="s">
+      <c r="AG77" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="BE77" s="48"/>
+      <c r="BE77" s="40"/>
     </row>
-    <row r="78" spans="2:57" x14ac:dyDescent="0.25">
-      <c r="B78" s="47" t="s">
-        <v>174</v>
-      </c>
-      <c r="C78" s="39">
+    <row r="78" spans="2:57" x14ac:dyDescent="0.3">
+      <c r="B78" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="C78" s="7">
         <v>5</v>
       </c>
-      <c r="D78" s="51">
+      <c r="D78" s="30">
         <f>(X78+Y78+AA78+Z78)/(AB78+(AC78/3.5)-AD78+AA78)</f>
         <v>4.2459016393442619</v>
       </c>
-      <c r="E78" s="51"/>
-      <c r="F78" s="44" t="s">
-        <v>181</v>
-      </c>
-      <c r="G78" s="44" t="s">
-        <v>181</v>
-      </c>
-      <c r="H78" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="I78" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="J78" s="44" t="s">
-        <v>181</v>
-      </c>
-      <c r="K78" s="44" t="s">
-        <v>181</v>
-      </c>
-      <c r="L78" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="M78" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="N78" s="41"/>
-      <c r="O78" s="40"/>
-      <c r="P78" s="40"/>
-      <c r="Q78" s="40" t="s">
+      <c r="E78" s="30"/>
+      <c r="F78" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H78" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I78" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J78" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K78" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L78" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M78" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N78" s="27"/>
+      <c r="O78" s="26"/>
+      <c r="P78" s="26"/>
+      <c r="Q78" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="R78" s="40" t="s">
+      <c r="R78" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="S78" s="40"/>
-      <c r="T78" s="40"/>
-      <c r="U78" s="40"/>
-      <c r="V78" s="40"/>
-      <c r="W78" s="40"/>
-      <c r="X78" s="40">
+      <c r="S78" s="26"/>
+      <c r="T78" s="26"/>
+      <c r="U78" s="26"/>
+      <c r="V78" s="26"/>
+      <c r="W78" s="26"/>
+      <c r="X78" s="26">
         <v>1000</v>
       </c>
-      <c r="Y78" s="40">
+      <c r="Y78" s="26">
         <v>500</v>
       </c>
-      <c r="Z78" s="40">
+      <c r="Z78" s="26">
         <v>200</v>
       </c>
-      <c r="AA78" s="40">
+      <c r="AA78" s="26">
         <v>150</v>
       </c>
-      <c r="AB78" s="40">
+      <c r="AB78" s="26">
         <v>500</v>
       </c>
-      <c r="AC78" s="40">
+      <c r="AC78" s="26">
         <v>1000</v>
       </c>
-      <c r="AD78" s="40">
+      <c r="AD78" s="26">
         <v>500</v>
       </c>
-      <c r="AE78" s="4">
+      <c r="AE78" s="7">
         <v>4.2459016393442619</v>
       </c>
-      <c r="AF78" s="4"/>
-      <c r="AG78" s="4" t="s">
+      <c r="AF78" s="7"/>
+      <c r="AG78" s="7" t="s">
         <v>152</v>
       </c>
       <c r="AH78" t="str">
@@ -29192,90 +29150,90 @@
         <f t="shared" si="64"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,1000,500,200,150,500,1000</v>
       </c>
-      <c r="BE78" s="48" t="str">
+      <c r="BE78" s="40" t="str">
         <f t="shared" si="65"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,1000,500,200,150,500,1000,500</v>
       </c>
     </row>
-    <row r="79" spans="2:57" x14ac:dyDescent="0.25">
-      <c r="B79" s="47" t="s">
-        <v>175</v>
-      </c>
-      <c r="C79" s="39">
+    <row r="79" spans="2:57" x14ac:dyDescent="0.3">
+      <c r="B79" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="C79" s="7">
         <v>5</v>
       </c>
-      <c r="D79" s="49">
+      <c r="D79" s="30">
         <v>1000000</v>
       </c>
-      <c r="E79" s="51" t="s">
+      <c r="E79" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="F79" s="44" t="s">
-        <v>181</v>
-      </c>
-      <c r="G79" s="44" t="s">
-        <v>181</v>
-      </c>
-      <c r="H79" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="I79" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="J79" s="44" t="s">
-        <v>181</v>
-      </c>
-      <c r="K79" s="44" t="s">
-        <v>181</v>
-      </c>
-      <c r="L79" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="M79" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="N79" s="41"/>
-      <c r="O79" s="40"/>
-      <c r="P79" s="40"/>
-      <c r="Q79" s="40" t="s">
+      <c r="F79" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H79" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I79" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J79" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K79" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L79" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M79" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N79" s="27"/>
+      <c r="O79" s="26"/>
+      <c r="P79" s="26"/>
+      <c r="Q79" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="R79" s="40" t="s">
+      <c r="R79" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="S79" s="44"/>
-      <c r="T79" s="43"/>
-      <c r="U79" s="43"/>
-      <c r="V79" s="43"/>
-      <c r="W79" s="43"/>
-      <c r="X79" s="45">
+      <c r="S79" s="7"/>
+      <c r="T79" s="14"/>
+      <c r="U79" s="14"/>
+      <c r="V79" s="14"/>
+      <c r="W79" s="14"/>
+      <c r="X79" s="20">
         <v>100</v>
       </c>
-      <c r="Y79" s="45">
+      <c r="Y79" s="20">
         <v>50</v>
       </c>
-      <c r="Z79" s="45">
+      <c r="Z79" s="20">
         <v>200</v>
       </c>
-      <c r="AA79" s="45">
+      <c r="AA79" s="20">
         <v>150</v>
       </c>
-      <c r="AB79" s="38">
+      <c r="AB79" s="6">
         <v>20</v>
       </c>
-      <c r="AC79" s="38">
+      <c r="AC79" s="6">
         <v>100</v>
       </c>
-      <c r="AD79" s="38">
+      <c r="AD79" s="6">
         <v>1000</v>
       </c>
-      <c r="AE79" s="4">
+      <c r="AE79" s="7">
         <v>1000000</v>
       </c>
-      <c r="AF79" s="4" t="s">
+      <c r="AF79" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="AG79" s="4" t="s">
+      <c r="AG79" s="7" t="s">
         <v>152</v>
       </c>
       <c r="AH79" t="str">
@@ -29370,85 +29328,90 @@
         <f t="shared" si="64"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,100,50,200,150,20,100</v>
       </c>
-      <c r="BE79" s="48" t="str">
+      <c r="BE79" s="40" t="str">
         <f t="shared" si="65"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,100,50,200,150,20,100,1000</v>
       </c>
     </row>
-    <row r="80" spans="2:57" x14ac:dyDescent="0.25">
-      <c r="B80" s="47" t="s">
-        <v>176</v>
-      </c>
-      <c r="C80" s="39">
+    <row r="80" spans="2:57" x14ac:dyDescent="0.3">
+      <c r="B80" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="C80" s="7">
         <v>5</v>
       </c>
-      <c r="D80" s="51" t="s">
-        <v>158</v>
-      </c>
-      <c r="E80" s="51" t="s">
+      <c r="D80" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="E80" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="F80" s="44" t="s">
-        <v>181</v>
-      </c>
-      <c r="G80" s="44" t="s">
-        <v>181</v>
-      </c>
-      <c r="H80" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="I80" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="J80" s="44" t="s">
-        <v>181</v>
-      </c>
-      <c r="K80" s="44" t="s">
-        <v>181</v>
-      </c>
-      <c r="L80" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="M80" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="N80" s="41"/>
-      <c r="O80" s="40"/>
-      <c r="P80" s="40"/>
-      <c r="Q80" s="40" t="s">
+      <c r="F80" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H80" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I80" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J80" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K80" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L80" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M80" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N80" s="27"/>
+      <c r="O80" s="26"/>
+      <c r="P80" s="26"/>
+      <c r="Q80" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="R80" s="40" t="s">
+      <c r="R80" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="X80" s="45">
+      <c r="S80" s="7"/>
+      <c r="T80" s="14"/>
+      <c r="U80" s="14"/>
+      <c r="V80" s="14"/>
+      <c r="W80" s="14"/>
+      <c r="X80" s="20">
         <v>100</v>
       </c>
-      <c r="Y80" s="45">
+      <c r="Y80" s="20">
         <v>-100</v>
       </c>
-      <c r="Z80" s="45">
+      <c r="Z80" s="20">
         <v>200</v>
       </c>
-      <c r="AA80" s="45">
+      <c r="AA80" s="20">
         <v>-200</v>
       </c>
-      <c r="AB80" s="38">
+      <c r="AB80" s="6">
         <v>20</v>
       </c>
-      <c r="AC80" s="38">
+      <c r="AC80" s="6">
         <v>100</v>
       </c>
-      <c r="AD80" s="38">
+      <c r="AD80" s="6">
         <v>1000</v>
       </c>
-      <c r="AE80" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="AF80" s="4" t="s">
+      <c r="AE80" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="AF80" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="AG80" s="4" t="s">
+      <c r="AG80" s="7" t="s">
         <v>152</v>
       </c>
       <c r="AH80" t="str">
@@ -29543,85 +29506,90 @@
         <f t="shared" si="64"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,100,-100,200,-200,20,100</v>
       </c>
-      <c r="BE80" s="48" t="str">
+      <c r="BE80" s="40" t="str">
         <f t="shared" si="65"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,100,-100,200,-200,20,100,1000</v>
       </c>
     </row>
-    <row r="81" spans="2:57" x14ac:dyDescent="0.25">
-      <c r="B81" s="47" t="s">
-        <v>177</v>
-      </c>
-      <c r="C81" s="39">
+    <row r="81" spans="2:57" x14ac:dyDescent="0.3">
+      <c r="B81" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="C81" s="7">
         <v>5</v>
       </c>
-      <c r="D81" s="49">
+      <c r="D81" s="30">
         <v>1000000</v>
       </c>
-      <c r="E81" s="51" t="s">
+      <c r="E81" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="F81" s="44" t="s">
-        <v>181</v>
-      </c>
-      <c r="G81" s="44" t="s">
-        <v>181</v>
-      </c>
-      <c r="H81" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="I81" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="J81" s="44" t="s">
-        <v>181</v>
-      </c>
-      <c r="K81" s="44" t="s">
-        <v>181</v>
-      </c>
-      <c r="L81" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="M81" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="N81" s="41"/>
-      <c r="O81" s="40"/>
-      <c r="P81" s="40"/>
-      <c r="Q81" s="40" t="s">
+      <c r="F81" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H81" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I81" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J81" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K81" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L81" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M81" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N81" s="27"/>
+      <c r="O81" s="26"/>
+      <c r="P81" s="26"/>
+      <c r="Q81" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="R81" s="40" t="s">
+      <c r="R81" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="X81" s="45">
+      <c r="S81" s="7"/>
+      <c r="T81" s="14"/>
+      <c r="U81" s="14"/>
+      <c r="V81" s="14"/>
+      <c r="W81" s="14"/>
+      <c r="X81" s="20">
         <v>100</v>
       </c>
-      <c r="Y81" s="45">
+      <c r="Y81" s="20">
         <v>-100</v>
       </c>
-      <c r="Z81" s="45">
+      <c r="Z81" s="20">
         <v>200</v>
       </c>
-      <c r="AA81" s="45">
+      <c r="AA81" s="20">
         <v>1000</v>
       </c>
-      <c r="AB81" s="38">
+      <c r="AB81" s="6">
         <v>0</v>
       </c>
-      <c r="AC81" s="38">
+      <c r="AC81" s="6">
         <v>0</v>
       </c>
-      <c r="AD81" s="38">
+      <c r="AD81" s="6">
         <v>1000</v>
       </c>
-      <c r="AE81" s="4">
+      <c r="AE81" s="7">
         <v>1000000</v>
       </c>
-      <c r="AF81" s="4" t="s">
+      <c r="AF81" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="AG81" s="4" t="s">
+      <c r="AG81" s="7" t="s">
         <v>152</v>
       </c>
       <c r="AH81" t="str">
@@ -29716,85 +29684,90 @@
         <f t="shared" si="64"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,100,-100,200,1000,0,0</v>
       </c>
-      <c r="BE81" s="48" t="str">
+      <c r="BE81" s="40" t="str">
         <f t="shared" si="65"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,100,-100,200,1000,0,0,1000</v>
       </c>
     </row>
-    <row r="82" spans="2:57" x14ac:dyDescent="0.25">
-      <c r="B82" s="47" t="s">
-        <v>178</v>
-      </c>
-      <c r="C82" s="39">
+    <row r="82" spans="2:57" x14ac:dyDescent="0.3">
+      <c r="B82" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="C82" s="7">
         <v>5</v>
       </c>
-      <c r="D82" s="51" t="s">
-        <v>158</v>
-      </c>
-      <c r="E82" s="51" t="s">
+      <c r="D82" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="E82" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="F82" s="44" t="s">
-        <v>181</v>
-      </c>
-      <c r="G82" s="44" t="s">
-        <v>181</v>
-      </c>
-      <c r="H82" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="I82" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="J82" s="44" t="s">
-        <v>181</v>
-      </c>
-      <c r="K82" s="44" t="s">
-        <v>181</v>
-      </c>
-      <c r="L82" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="M82" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="N82" s="41"/>
-      <c r="O82" s="40"/>
-      <c r="P82" s="40"/>
-      <c r="Q82" s="40" t="s">
+      <c r="F82" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H82" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I82" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J82" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K82" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L82" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M82" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N82" s="27"/>
+      <c r="O82" s="26"/>
+      <c r="P82" s="26"/>
+      <c r="Q82" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="R82" s="40" t="s">
+      <c r="R82" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="X82" s="45">
+      <c r="S82" s="7"/>
+      <c r="T82" s="14"/>
+      <c r="U82" s="14"/>
+      <c r="V82" s="14"/>
+      <c r="W82" s="14"/>
+      <c r="X82" s="20">
         <v>-100</v>
       </c>
-      <c r="Y82" s="45">
+      <c r="Y82" s="20">
         <v>-100</v>
       </c>
-      <c r="Z82" s="45">
+      <c r="Z82" s="20">
         <v>200</v>
       </c>
-      <c r="AA82" s="45">
+      <c r="AA82" s="20">
         <v>0</v>
       </c>
-      <c r="AB82" s="38">
+      <c r="AB82" s="6">
         <v>0</v>
       </c>
-      <c r="AC82" s="38">
+      <c r="AC82" s="6">
         <v>0</v>
       </c>
-      <c r="AD82" s="38">
+      <c r="AD82" s="6">
         <v>0</v>
       </c>
-      <c r="AE82" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="AF82" s="4" t="s">
+      <c r="AE82" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="AF82" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="AG82" s="4" t="s">
+      <c r="AG82" s="7" t="s">
         <v>152</v>
       </c>
       <c r="AH82" t="str">
@@ -29889,85 +29862,90 @@
         <f t="shared" si="64"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,-100,-100,200,0,0,0</v>
       </c>
-      <c r="BE82" s="48" t="str">
+      <c r="BE82" s="40" t="str">
         <f t="shared" si="65"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,-100,-100,200,0,0,0,0</v>
       </c>
     </row>
-    <row r="83" spans="2:57" x14ac:dyDescent="0.25">
-      <c r="B83" s="47" t="s">
-        <v>179</v>
-      </c>
-      <c r="C83" s="39">
+    <row r="83" spans="2:57" x14ac:dyDescent="0.3">
+      <c r="B83" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="C83" s="7">
         <v>5</v>
       </c>
-      <c r="D83" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="E83" s="51" t="s">
+      <c r="D83" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E83" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="F83" s="44" t="s">
-        <v>181</v>
-      </c>
-      <c r="G83" s="44" t="s">
-        <v>181</v>
-      </c>
-      <c r="H83" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="I83" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="J83" s="44" t="s">
-        <v>181</v>
-      </c>
-      <c r="K83" s="44" t="s">
-        <v>181</v>
-      </c>
-      <c r="L83" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="M83" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="N83" s="41"/>
-      <c r="O83" s="40"/>
-      <c r="P83" s="40"/>
-      <c r="Q83" s="40" t="s">
+      <c r="F83" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H83" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I83" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="J83" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K83" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L83" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M83" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N83" s="27"/>
+      <c r="O83" s="26"/>
+      <c r="P83" s="26"/>
+      <c r="Q83" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="R83" s="40" t="s">
+      <c r="R83" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="X83" s="40">
+      <c r="S83" s="7"/>
+      <c r="T83" s="14"/>
+      <c r="U83" s="14"/>
+      <c r="V83" s="14"/>
+      <c r="W83" s="14"/>
+      <c r="X83" s="26">
         <v>1000</v>
       </c>
-      <c r="Y83" s="40">
+      <c r="Y83" s="26">
         <v>500</v>
       </c>
-      <c r="Z83" s="40">
+      <c r="Z83" s="26">
         <v>200</v>
       </c>
-      <c r="AA83" s="40">
+      <c r="AA83" s="26">
         <v>150</v>
       </c>
-      <c r="AB83" s="40">
+      <c r="AB83" s="26">
         <v>500</v>
       </c>
-      <c r="AC83" s="40">
+      <c r="AC83" s="26">
         <v>1000</v>
       </c>
-      <c r="AD83" s="40">
+      <c r="AD83" s="26">
         <v>500</v>
       </c>
-      <c r="AE83" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF83" s="4" t="s">
+      <c r="AE83" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF83" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="AG83" s="4" t="s">
+      <c r="AG83" s="7" t="s">
         <v>152</v>
       </c>
       <c r="AH83" t="str">
@@ -30062,85 +30040,90 @@
         <f t="shared" si="64"/>
         <v>null,null,'1','0',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,1000,500,200,150,500,1000</v>
       </c>
-      <c r="BE83" s="48" t="str">
+      <c r="BE83" s="40" t="str">
         <f t="shared" si="65"/>
         <v>null,null,'1','0',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,1000,500,200,150,500,1000,500</v>
       </c>
     </row>
-    <row r="84" spans="2:57" x14ac:dyDescent="0.25">
-      <c r="B84" s="47" t="s">
+    <row r="84" spans="2:57" x14ac:dyDescent="0.3">
+      <c r="B84" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="C84" s="7">
+        <v>5</v>
+      </c>
+      <c r="D84" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E84" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F84" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C84" s="39">
-        <v>5</v>
-      </c>
-      <c r="D84" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="E84" s="51" t="s">
+      <c r="G84" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H84" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I84" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J84" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K84" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L84" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M84" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="N84" s="27"/>
+      <c r="O84" s="26"/>
+      <c r="P84" s="26"/>
+      <c r="Q84" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="R84" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="S84" s="7"/>
+      <c r="T84" s="14"/>
+      <c r="U84" s="14"/>
+      <c r="V84" s="14"/>
+      <c r="W84" s="14"/>
+      <c r="X84" s="26">
+        <v>1000</v>
+      </c>
+      <c r="Y84" s="26">
+        <v>500</v>
+      </c>
+      <c r="Z84" s="26">
+        <v>200</v>
+      </c>
+      <c r="AA84" s="26">
+        <v>150</v>
+      </c>
+      <c r="AB84" s="26">
+        <v>500</v>
+      </c>
+      <c r="AC84" s="26">
+        <v>1000</v>
+      </c>
+      <c r="AD84" s="26">
+        <v>500</v>
+      </c>
+      <c r="AE84" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF84" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F84" s="44" t="s">
-        <v>181</v>
-      </c>
-      <c r="G84" s="44" t="s">
-        <v>181</v>
-      </c>
-      <c r="H84" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="I84" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="J84" s="44" t="s">
-        <v>181</v>
-      </c>
-      <c r="K84" s="44" t="s">
-        <v>181</v>
-      </c>
-      <c r="L84" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="M84" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="N84" s="41"/>
-      <c r="O84" s="40"/>
-      <c r="P84" s="40"/>
-      <c r="Q84" s="40" t="s">
-        <v>156</v>
-      </c>
-      <c r="R84" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="X84" s="40">
-        <v>1000</v>
-      </c>
-      <c r="Y84" s="40">
-        <v>500</v>
-      </c>
-      <c r="Z84" s="40">
-        <v>200</v>
-      </c>
-      <c r="AA84" s="40">
-        <v>150</v>
-      </c>
-      <c r="AB84" s="40">
-        <v>500</v>
-      </c>
-      <c r="AC84" s="40">
-        <v>1000</v>
-      </c>
-      <c r="AD84" s="40">
-        <v>500</v>
-      </c>
-      <c r="AE84" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF84" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG84" s="4" t="s">
+      <c r="AG84" s="7" t="s">
         <v>152</v>
       </c>
       <c r="AH84" t="str">
@@ -30235,7 +30218,7 @@
         <f t="shared" si="64"/>
         <v>null,null,'1','1',null,null,'1','0',,,,'FIS','02/05/2017',,,,,,1000,500,200,150,500,1000</v>
       </c>
-      <c r="BE84" s="48" t="str">
+      <c r="BE84" s="40" t="str">
         <f t="shared" si="65"/>
         <v>null,null,'1','1',null,null,'1','0',,,,'FIS','02/05/2017',,,,,,1000,500,200,150,500,1000,500</v>
       </c>

--- a/earlywarning-pom/Document/test/SME RETAIL/test_Ind_High_Priority_SMERetail_round3.xlsx
+++ b/earlywarning-pom/Document/test/SME RETAIL/test_Ind_High_Priority_SMERetail_round3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="High_Priority" sheetId="3" r:id="rId1"/>
     <sheet name="bilancio" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3166" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3219" uniqueCount="224">
   <si>
     <t>valore atteso</t>
   </si>
@@ -684,11 +684,20 @@
   <si>
     <t>(-1000000)/?</t>
   </si>
+  <si>
+    <t>0000000000000440'</t>
+  </si>
+  <si>
+    <t>BILA009;</t>
+  </si>
+  <si>
+    <t>BILA003;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -718,7 +727,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -785,6 +794,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -814,7 +829,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -960,10 +975,25 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="60% - Accent6 2" xfId="1"/>
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1289,38 +1319,38 @@
       <selection pane="bottomRight" activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.109375" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="20.33203125" style="1" customWidth="1"/>
-    <col min="8" max="9" width="20.33203125" style="16" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="30.33203125" style="16" hidden="1" customWidth="1"/>
-    <col min="11" max="18" width="30.33203125" style="17" hidden="1" customWidth="1"/>
-    <col min="19" max="21" width="20.33203125" style="17" hidden="1" customWidth="1"/>
-    <col min="22" max="25" width="33.6640625" style="17" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="33.6640625" style="22" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="19.6640625" style="22" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="22.6640625" style="22" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="30.109375" style="22" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.28515625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="20.28515625" style="16" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="30.28515625" style="16" hidden="1" customWidth="1"/>
+    <col min="11" max="18" width="30.28515625" style="17" hidden="1" customWidth="1"/>
+    <col min="19" max="21" width="20.28515625" style="17" hidden="1" customWidth="1"/>
+    <col min="22" max="25" width="33.7109375" style="17" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="33.7109375" style="22" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="19.7109375" style="22" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="22.7109375" style="22" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="30.140625" style="22" hidden="1" customWidth="1"/>
     <col min="30" max="30" width="33" style="17" hidden="1" customWidth="1"/>
-    <col min="31" max="38" width="39.33203125" style="17" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="31.33203125" style="17" hidden="1" customWidth="1"/>
-    <col min="40" max="40" width="27.88671875" style="17" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="22.109375" style="17" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="13.44140625" style="17" hidden="1" customWidth="1"/>
-    <col min="43" max="44" width="12.109375" style="17" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="15.109375" style="17" hidden="1" customWidth="1"/>
-    <col min="46" max="46" width="15.6640625" customWidth="1"/>
-    <col min="47" max="47" width="21.44140625" style="12" customWidth="1"/>
-    <col min="48" max="48" width="39.88671875" style="12" customWidth="1"/>
-    <col min="73" max="73" width="14.5546875" customWidth="1"/>
+    <col min="31" max="38" width="39.28515625" style="17" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="31.28515625" style="17" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="27.85546875" style="17" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="22.140625" style="17" hidden="1" customWidth="1"/>
+    <col min="42" max="42" width="13.42578125" style="17" hidden="1" customWidth="1"/>
+    <col min="43" max="44" width="12.140625" style="17" hidden="1" customWidth="1"/>
+    <col min="45" max="45" width="15.140625" style="17" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="15.7109375" customWidth="1"/>
+    <col min="47" max="47" width="21.42578125" style="12" customWidth="1"/>
+    <col min="48" max="48" width="39.85546875" style="12" customWidth="1"/>
+    <col min="73" max="73" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:96" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:96" x14ac:dyDescent="0.25">
       <c r="F1" s="1" t="str">
         <f>B2&amp;","&amp;F2</f>
         <v>COD_SNDG,COD_RATING</v>
@@ -1482,7 +1512,7 @@
         <v>COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT</v>
       </c>
     </row>
-    <row r="2" spans="2:96" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:96" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
@@ -1625,7 +1655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:96" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:96" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
         <v>7</v>
       </c>
@@ -1861,7 +1891,7 @@
       <c r="CQ3" s="16"/>
       <c r="CR3" s="16"/>
     </row>
-    <row r="4" spans="2:96" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:96" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
         <v>8</v>
       </c>
@@ -2090,7 +2120,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000115','05','1',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="5" spans="2:96" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:96" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
         <v>9</v>
       </c>
@@ -2321,7 +2351,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000116',NULL,'1',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="6" spans="2:96" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:96" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
         <v>10</v>
       </c>
@@ -2552,7 +2582,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000117','20','0',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="7" spans="2:96" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:96" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
         <v>11</v>
       </c>
@@ -2783,7 +2813,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000118','05','0',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="8" spans="2:96" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:96" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
         <v>12</v>
       </c>
@@ -3014,7 +3044,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000119',NULL,'0',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="9" spans="2:96" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:96" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
         <v>13</v>
       </c>
@@ -3245,7 +3275,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000120','20',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="10" spans="2:96" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:96" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
         <v>14</v>
       </c>
@@ -3476,7 +3506,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000121','05',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="11" spans="2:96" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:96" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
         <v>15</v>
       </c>
@@ -3707,7 +3737,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000122',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="12" spans="2:96" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:96" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
         <v>16</v>
       </c>
@@ -3963,7 +3993,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000123',NULL,NULL,500,300,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="13" spans="2:96" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:96" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
         <v>17</v>
       </c>
@@ -4218,7 +4248,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000124',NULL,NULL,0,0,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="14" spans="2:96" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:96" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
         <v>18</v>
       </c>
@@ -4474,7 +4504,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000125',NULL,NULL,300,300,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="15" spans="2:96" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:96" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
         <v>19</v>
       </c>
@@ -4730,7 +4760,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000126',NULL,NULL,200,400,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="16" spans="2:96" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:96" x14ac:dyDescent="0.25">
       <c r="B16" s="11" t="s">
         <v>20</v>
       </c>
@@ -4985,7 +5015,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000127',NULL,NULL,300,0,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="17" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:89" x14ac:dyDescent="0.25">
       <c r="B17" s="11" t="s">
         <v>21</v>
       </c>
@@ -5241,7 +5271,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000128',NULL,NULL,300,-200,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="18" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:89" x14ac:dyDescent="0.25">
       <c r="B18" s="11" t="s">
         <v>22</v>
       </c>
@@ -5496,7 +5526,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000129',NULL,NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="19" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:89" x14ac:dyDescent="0.25">
       <c r="B19" s="11" t="s">
         <v>23</v>
       </c>
@@ -5751,7 +5781,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000130',NULL,NULL,-300,0,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="20" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:89" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
         <v>24</v>
       </c>
@@ -6006,7 +6036,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000131',NULL,NULL,500,300,'0','0','0','0','0','0','0','0','0','CEBI','02/05/2017','02/06/2016',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="21" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:89" x14ac:dyDescent="0.25">
       <c r="B21" s="11" t="s">
         <v>25</v>
       </c>
@@ -6261,7 +6291,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000132',NULL,NULL,0,0,'0','0','0','0','0','0','0','0','0','CEBI','02/05/2017','02/06/2016',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="22" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:89" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
         <v>26</v>
       </c>
@@ -6516,7 +6546,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000133',NULL,NULL,NULL,NULL,'0','0','0','0','0','0','0','0','0','CEBI','02/05/2017','02/06/2016',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="23" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:89" x14ac:dyDescent="0.25">
       <c r="B23" s="11" t="s">
         <v>27</v>
       </c>
@@ -6771,7 +6801,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000134',NULL,NULL,500,300,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'CEBI',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="24" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:89" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
         <v>28</v>
       </c>
@@ -7026,7 +7056,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000135',NULL,NULL,0,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'CEBI',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="25" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:89" x14ac:dyDescent="0.25">
       <c r="B25" s="11" t="s">
         <v>29</v>
       </c>
@@ -7281,7 +7311,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000136',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'CEBI',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="26" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:89" x14ac:dyDescent="0.25">
       <c r="B26" s="11" t="s">
         <v>30</v>
       </c>
@@ -7536,7 +7566,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000137',NULL,NULL,500,300,'1','0','0','0','0','0','0','0','0','CEBI','02/05/2017','02/06/2016',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="27" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:89" x14ac:dyDescent="0.25">
       <c r="B27" s="11" t="s">
         <v>31</v>
       </c>
@@ -7791,7 +7821,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000138',NULL,NULL,0,0,'1','0','0','0','0','0','0','0','0','CEBI','02/05/2017','02/06/2016',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="28" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:89" x14ac:dyDescent="0.25">
       <c r="B28" s="11" t="s">
         <v>32</v>
       </c>
@@ -8046,7 +8076,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000139',NULL,NULL,NULL,NULL,'1','0','0','0','0','0','0','0','0','CEBI','02/05/2017','02/06/2016',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="29" spans="1:89" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:89" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29"/>
       <c r="B29" s="11" t="s">
         <v>33</v>
@@ -8302,7 +8332,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000140',NULL,NULL,500,300,'1','1','0','0','0','0','0','0','0','CEBI','02/05/2017','02/06/2016',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="30" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:89" x14ac:dyDescent="0.25">
       <c r="B30" s="11" t="s">
         <v>34</v>
       </c>
@@ -8557,7 +8587,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000141',NULL,NULL,0,0,'1','1','0','0','0','0','0','0','0','CEBI','02/05/2017','02/06/2016',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="31" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:89" x14ac:dyDescent="0.25">
       <c r="B31" s="11" t="s">
         <v>35</v>
       </c>
@@ -8812,7 +8842,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000142',NULL,NULL,NULL,NULL,'1','1','0','0','0','0','0','0','0','CEBI','02/05/2017','02/06/2016',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="32" spans="1:89" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:89" x14ac:dyDescent="0.25">
       <c r="B32" s="11" t="s">
         <v>36</v>
       </c>
@@ -9071,7 +9101,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000143',NULL,NULL,NULL,NULL,'0','0','0','0','0','0','0','0','0','CEBI','02/05/2017','02/06/2016',300,200,100,50,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="33" spans="2:89" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B33" s="11" t="s">
         <v>37</v>
       </c>
@@ -9330,7 +9360,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000144',NULL,NULL,NULL,NULL,'0','0','0','0','0','0','0','0','0','CEBI','02/05/2017','02/06/2016',0,0,0,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="34" spans="2:89" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B34" s="11" t="s">
         <v>38</v>
       </c>
@@ -9589,7 +9619,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000145',NULL,NULL,NULL,NULL,'0','0','0','0','0','0','0','0','0','CEBI','02/05/2017','02/06/2016',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="35" spans="2:89" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B35" s="11" t="s">
         <v>39</v>
       </c>
@@ -9848,7 +9878,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000146',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'CEBI',NULL,NULL,300,200,100,50,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="36" spans="2:89" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B36" s="11" t="s">
         <v>40</v>
       </c>
@@ -10107,7 +10137,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000147',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'CEBI',NULL,NULL,0,0,0,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="37" spans="2:89" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B37" s="11" t="s">
         <v>41</v>
       </c>
@@ -10366,7 +10396,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000148',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'CEBI',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="38" spans="2:89" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B38" s="11" t="s">
         <v>42</v>
       </c>
@@ -10625,7 +10655,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000149',NULL,NULL,NULL,NULL,'1','0','0','0','0','0','0','0','0','CEBI','02/05/2017','02/06/2016',300,200,100,50,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="39" spans="2:89" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B39" s="11" t="s">
         <v>43</v>
       </c>
@@ -10884,7 +10914,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000150',NULL,NULL,NULL,NULL,'1','0','0','0','0','0','0','0','0','CEBI','02/05/2017','02/06/2016',0,0,0,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="40" spans="2:89" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B40" s="11" t="s">
         <v>44</v>
       </c>
@@ -11143,7 +11173,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000151',NULL,NULL,NULL,NULL,'1','0','0','0','0','0','0','0','0','CEBI','02/05/2017','02/06/2016',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="41" spans="2:89" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B41" s="23" t="s">
         <v>103</v>
       </c>
@@ -11402,7 +11432,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000152',NULL,NULL,NULL,NULL,'1','1','0','0','0','0','0','0','0','CEBI','02/05/2017','02/06/2016',300,200,100,50,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="42" spans="2:89" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B42" s="23" t="s">
         <v>104</v>
       </c>
@@ -11661,7 +11691,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000153',NULL,NULL,NULL,NULL,'1','1','0','0','0','0','0','0','0','CEBI','02/05/2017','02/06/2016',0,0,0,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="43" spans="2:89" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B43" s="23" t="s">
         <v>105</v>
       </c>
@@ -11920,7 +11950,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000154',NULL,NULL,NULL,NULL,'1','1','0','0','0','0','0','0','0','CEBI','02/05/2017','02/06/2016',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="44" spans="2:89" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B44" s="23" t="s">
         <v>106</v>
       </c>
@@ -12178,7 +12208,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000155',NULL,NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',300,200,100,50,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="45" spans="2:89" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B45" s="23" t="s">
         <v>107</v>
       </c>
@@ -12437,7 +12467,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000156',NULL,NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',300,0,0,-100,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="46" spans="2:89" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B46" s="23" t="s">
         <v>108</v>
       </c>
@@ -12696,7 +12726,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000157',NULL,NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',-100,-100,-200,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="47" spans="2:89" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B47" s="23" t="s">
         <v>109</v>
       </c>
@@ -12955,7 +12985,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000158',NULL,NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',-50,-150,0,-100,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="48" spans="2:89" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B48" s="23" t="s">
         <v>110</v>
       </c>
@@ -13214,7 +13244,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000159',NULL,NULL,NULL,NULL,'1','1','1','1','1',0','1','1','1','CEBI','02/05/2017','02/06/2016',-300,200,-50,-150,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="49" spans="2:89" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B49" s="23" t="s">
         <v>111</v>
       </c>
@@ -13473,7 +13503,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000160',NULL,NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',-50,-150,-50,-150,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="50" spans="2:89" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B50" s="23" t="s">
         <v>112</v>
       </c>
@@ -13732,7 +13762,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000161',NULL,NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',-10,-10,-50,-150,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="51" spans="2:89" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B51" s="23" t="s">
         <v>113</v>
       </c>
@@ -13989,7 +14019,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000162',NULL,NULL,NULL,NULL,'0','0','0','0','0','0',NULL,NULL,NULL,'CEBI','02/05/2017',NULL,NULL,NULL,NULL,NULL,100,50,200,150,20,100,1000,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="52" spans="2:89" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B52" s="23" t="s">
         <v>114</v>
       </c>
@@ -14246,7 +14276,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000163',NULL,NULL,NULL,NULL,'0','0','0','0','0','0',NULL,NULL,NULL,'CEBI','02/05/2017',NULL,NULL,NULL,NULL,NULL,0,0,0,0,0,0,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="53" spans="2:89" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B53" s="23" t="s">
         <v>115</v>
       </c>
@@ -14503,7 +14533,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000164',NULL,NULL,NULL,NULL,'0','0','0','0','0','0',NULL,NULL,NULL,'CEBI','02/05/2017',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="54" spans="2:89" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B54" s="23" t="s">
         <v>116</v>
       </c>
@@ -14760,7 +14790,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000165',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'CEBI',NULL,NULL,NULL,NULL,NULL,NULL,100,50,200,150,20,100,1000,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="55" spans="2:89" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B55" s="23" t="s">
         <v>117</v>
       </c>
@@ -15017,7 +15047,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000166',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'CEBI',NULL,NULL,NULL,NULL,NULL,NULL,0,0,0,0,0,0,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="56" spans="2:89" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B56" s="23" t="s">
         <v>118</v>
       </c>
@@ -15274,7 +15304,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000167',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'CEBI',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="57" spans="2:89" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B57" s="23" t="s">
         <v>119</v>
       </c>
@@ -15531,7 +15561,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000168',NULL,NULL,NULL,NULL,'1','0','0','0','0','0',NULL,NULL,NULL,'CEBI','02/05/2017',NULL,NULL,NULL,NULL,NULL,100,50,200,150,20,100,1000,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="58" spans="2:89" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B58" s="23" t="s">
         <v>120</v>
       </c>
@@ -15788,7 +15818,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000169',NULL,NULL,NULL,NULL,'1','0','0','0','0','0',NULL,NULL,NULL,'CEBI','02/05/2017',NULL,NULL,NULL,NULL,NULL,0,0,0,0,0,0,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="59" spans="2:89" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B59" s="23" t="s">
         <v>121</v>
       </c>
@@ -16045,7 +16075,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000170',NULL,NULL,NULL,NULL,'1','0','0','0','0','0',NULL,NULL,NULL,'CEBI','02/05/2017',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="60" spans="2:89" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B60" s="23" t="s">
         <v>122</v>
       </c>
@@ -16302,7 +16332,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000171',NULL,NULL,NULL,NULL,'1','1','0','0','0','0',NULL,NULL,NULL,'CEBI','02/05/2017',NULL,NULL,NULL,NULL,NULL,100,50,200,150,20,100,1000,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="61" spans="2:89" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B61" s="23" t="s">
         <v>123</v>
       </c>
@@ -16559,7 +16589,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000172',NULL,NULL,NULL,NULL,'1','1','0','0','0','0',NULL,NULL,NULL,'CEBI','02/05/2017',NULL,NULL,NULL,NULL,NULL,0,0,0,0,0,0,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="62" spans="2:89" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B62" s="23" t="s">
         <v>124</v>
       </c>
@@ -16816,7 +16846,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000173',NULL,NULL,NULL,NULL,'1','1','0','0','0','0',NULL,NULL,NULL,'CEBI','02/05/2017',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="63" spans="2:89" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B63" s="23" t="s">
         <v>125</v>
       </c>
@@ -17073,7 +17103,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000174',NULL,NULL,NULL,NULL,'1','1','1','1','1','1',NULL,NULL,NULL,'CEBI','02/05/2017',NULL,NULL,NULL,NULL,NULL,100,50,200,150,20,100,1000,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="64" spans="2:89" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B64" s="23" t="s">
         <v>126</v>
       </c>
@@ -17328,7 +17358,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000175',NULL,NULL,NULL,NULL,'1','1','1','1','1','1',NULL,NULL,NULL,'CEBI','02/05/2017',NULL,NULL,NULL,NULL,NULL,0,0,0,0,0,0,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="65" spans="2:89" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B65" s="23" t="s">
         <v>127</v>
       </c>
@@ -17585,7 +17615,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000176',NULL,NULL,NULL,NULL,'1','1','1','1','1','1',NULL,NULL,NULL,'CEBI','02/05/2017',NULL,NULL,NULL,NULL,NULL,100,50,200,0,0,0,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="66" spans="2:89" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B66" s="23" t="s">
         <v>128</v>
       </c>
@@ -17842,7 +17872,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000177',NULL,NULL,NULL,NULL,'1','1','1','1','1','1',NULL,NULL,NULL,'CEBI','02/05/2017',NULL,NULL,NULL,NULL,NULL,0,0,-200,0,0,0,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="67" spans="2:89" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B67" s="23" t="s">
         <v>129</v>
       </c>
@@ -18099,7 +18129,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000178',NULL,NULL,NULL,NULL,'1','1','1','1','1','1',NULL,NULL,NULL,'CEBI','02/05/2017',NULL,NULL,NULL,NULL,NULL,0,0,0,0,0,-100,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="68" spans="2:89" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B68" s="23" t="s">
         <v>130</v>
       </c>
@@ -18356,7 +18386,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000179',NULL,NULL,NULL,NULL,'1','1','1','1','1','1',NULL,NULL,NULL,'CEBI','02/05/2017',NULL,NULL,NULL,NULL,NULL,100,50,200,0,0,-100,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="69" spans="2:89" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B69" s="23" t="s">
         <v>131</v>
       </c>
@@ -18613,7 +18643,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000180',NULL,NULL,NULL,NULL,'1','1','1','1','1','1',NULL,NULL,NULL,'CEBI','02/05/2017',NULL,NULL,NULL,NULL,NULL,0,0,-200,0,0,-100,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="70" spans="2:89" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B70" s="23" t="s">
         <v>132</v>
       </c>
@@ -18852,7 +18882,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000183',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'1',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="71" spans="2:89" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B71" s="23" t="s">
         <v>133</v>
       </c>
@@ -19091,7 +19121,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000184',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'1','02/06/2017','02/06/2017','02/06/2017','02/06/2017','02/06/2017',NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="72" spans="2:89" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B72" s="23" t="s">
         <v>134</v>
       </c>
@@ -19330,7 +19360,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000185',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'0',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="73" spans="2:89" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B73" s="23" t="s">
         <v>135</v>
       </c>
@@ -19569,7 +19599,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000186',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'0','02/06/2017','02/06/2017','02/06/2017','02/06/2017','02/06/2017',NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="74" spans="2:89" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B74" s="23" t="s">
         <v>136</v>
       </c>
@@ -19810,7 +19840,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000187',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'1','0',NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="75" spans="2:89" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B75" s="23" t="s">
         <v>137</v>
       </c>
@@ -20051,7 +20081,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000188',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'0','0',NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="76" spans="2:89" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B76" s="23" t="s">
         <v>138</v>
       </c>
@@ -20292,7 +20322,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000191',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="77" spans="2:89" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B77" s="23" t="s">
         <v>139</v>
       </c>
@@ -20533,7 +20563,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000192',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'0','1',NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="78" spans="2:89" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B78" s="23" t="s">
         <v>140</v>
       </c>
@@ -20774,7 +20804,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000193',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'0','0','02/06/2017','02/06/2017','02/06/2017','02/06/2017','02/06/2017') ;</v>
       </c>
     </row>
-    <row r="79" spans="2:89" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:89" x14ac:dyDescent="0.25">
       <c r="B79" s="23" t="s">
         <v>141</v>
       </c>
@@ -21015,12 +21045,12 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000194',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'0','1','02/06/2017','02/06/2017','02/06/2017','02/06/2017','02/06/2017') ;</v>
       </c>
     </row>
-    <row r="81" spans="28:29" x14ac:dyDescent="0.3">
+    <row r="81" spans="28:29" x14ac:dyDescent="0.25">
       <c r="AB81" s="17" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="85" spans="28:29" x14ac:dyDescent="0.3">
+    <row r="85" spans="28:29" x14ac:dyDescent="0.25">
       <c r="AB85" s="22">
         <f>Z65+AA65+AB65+AC65</f>
         <v>350</v>
@@ -21030,7 +21060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="28:29" x14ac:dyDescent="0.3">
+    <row r="86" spans="28:29" x14ac:dyDescent="0.25">
       <c r="AB86" s="22">
         <f>Z66+AA66+AB66+AC66</f>
         <v>-200</v>
@@ -21040,7 +21070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="28:29" x14ac:dyDescent="0.3">
+    <row r="87" spans="28:29" x14ac:dyDescent="0.25">
       <c r="AB87" s="22">
         <f>Z67+AA67+AB67+AC67</f>
         <v>0</v>
@@ -21050,7 +21080,7 @@
         <v>-28.571428571428573</v>
       </c>
     </row>
-    <row r="88" spans="28:29" x14ac:dyDescent="0.3">
+    <row r="88" spans="28:29" x14ac:dyDescent="0.25">
       <c r="AB88" s="22">
         <f>Z68+AA68+AB68+AC68</f>
         <v>350</v>
@@ -21060,7 +21090,7 @@
         <v>-28.571428571428573</v>
       </c>
     </row>
-    <row r="89" spans="28:29" x14ac:dyDescent="0.3">
+    <row r="89" spans="28:29" x14ac:dyDescent="0.25">
       <c r="AB89" s="22">
         <f>Z69+AA69+AB69+AC69</f>
         <v>-200</v>
@@ -21080,24 +21110,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:BO112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F21" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="5" ySplit="2" topLeftCell="AK18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D117" sqref="D117"/>
+      <selection pane="bottomRight" activeCell="AL112" sqref="AL112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="37" customWidth="1"/>
-    <col min="3" max="5" width="24.33203125" customWidth="1"/>
-    <col min="6" max="19" width="24.33203125" style="12" customWidth="1"/>
-    <col min="20" max="23" width="38.33203125" customWidth="1"/>
-    <col min="24" max="42" width="24.33203125" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="37" customWidth="1"/>
+    <col min="3" max="5" width="24.28515625" customWidth="1"/>
+    <col min="6" max="19" width="24.28515625" style="12" customWidth="1"/>
+    <col min="20" max="23" width="38.28515625" customWidth="1"/>
+    <col min="24" max="39" width="24.28515625" customWidth="1"/>
+    <col min="40" max="41" width="24.28515625" style="12" customWidth="1"/>
+    <col min="42" max="42" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:66" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:66" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="36" t="s">
         <v>6</v>
       </c>
@@ -21226,55 +21258,55 @@
         <v>IMP_PATRIM_NETTO_T1,IMP_PATRIM_NETTO_T2</v>
       </c>
       <c r="AR2" t="str">
-        <f>AQ2&amp;","&amp;H2</f>
+        <f t="shared" ref="AR2:AY2" si="0">AQ2&amp;","&amp;H2</f>
         <v>IMP_PATRIM_NETTO_T1,IMP_PATRIM_NETTO_T2,FLG_COND_ELEGIBILITA_1</v>
       </c>
       <c r="AS2" t="str">
-        <f>AR2&amp;","&amp;I2</f>
+        <f t="shared" si="0"/>
         <v>IMP_PATRIM_NETTO_T1,IMP_PATRIM_NETTO_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2</v>
       </c>
       <c r="AT2" t="str">
-        <f>AS2&amp;","&amp;J2</f>
+        <f t="shared" si="0"/>
         <v>IMP_PATRIM_NETTO_T1,IMP_PATRIM_NETTO_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3</v>
       </c>
       <c r="AU2" t="str">
-        <f>AT2&amp;","&amp;K2</f>
+        <f t="shared" si="0"/>
         <v>IMP_PATRIM_NETTO_T1,IMP_PATRIM_NETTO_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4</v>
       </c>
       <c r="AV2" t="str">
-        <f>AU2&amp;","&amp;L2</f>
+        <f t="shared" si="0"/>
         <v>IMP_PATRIM_NETTO_T1,IMP_PATRIM_NETTO_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5</v>
       </c>
       <c r="AW2" t="str">
-        <f>AV2&amp;","&amp;M2</f>
+        <f t="shared" si="0"/>
         <v>IMP_PATRIM_NETTO_T1,IMP_PATRIM_NETTO_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6</v>
       </c>
       <c r="AX2" t="str">
-        <f>AW2&amp;","&amp;N2</f>
+        <f t="shared" si="0"/>
         <v>IMP_PATRIM_NETTO_T1,IMP_PATRIM_NETTO_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7</v>
       </c>
       <c r="AY2" t="str">
-        <f>AX2&amp;","&amp;O2</f>
+        <f t="shared" si="0"/>
         <v>IMP_PATRIM_NETTO_T1,IMP_PATRIM_NETTO_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8</v>
       </c>
       <c r="AZ2" t="str">
-        <f t="shared" ref="AZ2" si="0">AY2&amp;","&amp;P2</f>
+        <f t="shared" ref="AZ2" si="1">AY2&amp;","&amp;P2</f>
         <v>IMP_PATRIM_NETTO_T1,IMP_PATRIM_NETTO_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9</v>
       </c>
       <c r="BA2" t="str">
-        <f t="shared" ref="BA2" si="1">AZ2&amp;","&amp;Q2</f>
+        <f t="shared" ref="BA2" si="2">AZ2&amp;","&amp;Q2</f>
         <v>IMP_PATRIM_NETTO_T1,IMP_PATRIM_NETTO_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE</v>
       </c>
       <c r="BB2" t="str">
-        <f t="shared" ref="BB2" si="2">BA2&amp;","&amp;R2</f>
+        <f t="shared" ref="BB2" si="3">BA2&amp;","&amp;R2</f>
         <v>IMP_PATRIM_NETTO_T1,IMP_PATRIM_NETTO_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1</v>
       </c>
       <c r="BC2" t="str">
-        <f t="shared" ref="BC2" si="3">BB2&amp;","&amp;S2</f>
+        <f t="shared" ref="BC2" si="4">BB2&amp;","&amp;S2</f>
         <v>IMP_PATRIM_NETTO_T1,IMP_PATRIM_NETTO_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2</v>
       </c>
       <c r="BD2" t="str">
-        <f t="shared" ref="BD2" si="4">BC2&amp;","&amp;T2</f>
+        <f t="shared" ref="BD2" si="5">BC2&amp;","&amp;T2</f>
         <v>IMP_PATRIM_NETTO_T1,IMP_PATRIM_NETTO_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1</v>
       </c>
       <c r="BE2" t="str">
@@ -21286,39 +21318,39 @@
         <v>IMP_PATRIM_NETTO_T1,IMP_PATRIM_NETTO_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1</v>
       </c>
       <c r="BG2" t="str">
-        <f t="shared" ref="BG2" si="5">BF2&amp;","&amp;W2</f>
+        <f t="shared" ref="BG2" si="6">BF2&amp;","&amp;W2</f>
         <v>IMP_PATRIM_NETTO_T1,IMP_PATRIM_NETTO_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2</v>
       </c>
       <c r="BH2" t="str">
-        <f t="shared" ref="BH2" si="6">BG2&amp;","&amp;X2</f>
+        <f t="shared" ref="BH2" si="7">BG2&amp;","&amp;X2</f>
         <v>IMP_PATRIM_NETTO_T1,IMP_PATRIM_NETTO_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE</v>
       </c>
       <c r="BI2" t="str">
-        <f>BH2&amp;","&amp;Y2</f>
+        <f t="shared" ref="BI2:BN2" si="8">BH2&amp;","&amp;Y2</f>
         <v>IMP_PATRIM_NETTO_T1,IMP_PATRIM_NETTO_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI</v>
       </c>
       <c r="BJ2" t="str">
-        <f>BI2&amp;","&amp;Z2</f>
+        <f t="shared" si="8"/>
         <v>IMP_PATRIM_NETTO_T1,IMP_PATRIM_NETTO_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI</v>
       </c>
       <c r="BK2" t="str">
-        <f>BJ2&amp;","&amp;AA2</f>
+        <f t="shared" si="8"/>
         <v>IMP_PATRIM_NETTO_T1,IMP_PATRIM_NETTO_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS</v>
       </c>
       <c r="BL2" t="str">
-        <f>BK2&amp;","&amp;AB2</f>
+        <f t="shared" si="8"/>
         <v>IMP_PATRIM_NETTO_T1,IMP_PATRIM_NETTO_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT</v>
       </c>
       <c r="BM2" t="str">
-        <f>BL2&amp;","&amp;AC2</f>
+        <f t="shared" si="8"/>
         <v>IMP_PATRIM_NETTO_T1,IMP_PATRIM_NETTO_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT</v>
       </c>
       <c r="BN2" s="40" t="str">
-        <f>BM2&amp;","&amp;AD2</f>
+        <f t="shared" si="8"/>
         <v>IMP_PATRIM_NETTO_T1,IMP_PATRIM_NETTO_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA</v>
       </c>
     </row>
-    <row r="3" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
         <v>16</v>
       </c>
@@ -21394,7 +21426,7 @@
       <c r="AK3" s="6"/>
       <c r="AL3" s="6"/>
       <c r="AM3" s="6"/>
-      <c r="AN3" s="3">
+      <c r="AN3" s="4">
         <v>0.66666666666666663</v>
       </c>
       <c r="AO3" s="4" t="s">
@@ -21404,7 +21436,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
         <v>17</v>
       </c>
@@ -21479,7 +21511,7 @@
       <c r="AK4" s="6"/>
       <c r="AL4" s="6"/>
       <c r="AM4" s="6"/>
-      <c r="AN4" s="3">
+      <c r="AN4" s="4">
         <v>0</v>
       </c>
       <c r="AO4" s="4" t="s">
@@ -21489,7 +21521,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
         <v>18</v>
       </c>
@@ -21565,7 +21597,7 @@
       <c r="AK5" s="6"/>
       <c r="AL5" s="6"/>
       <c r="AM5" s="6"/>
-      <c r="AN5" s="3">
+      <c r="AN5" s="4">
         <v>0</v>
       </c>
       <c r="AO5" s="4" t="s">
@@ -21575,7 +21607,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
         <v>19</v>
       </c>
@@ -21651,7 +21683,7 @@
       <c r="AK6" s="6"/>
       <c r="AL6" s="6"/>
       <c r="AM6" s="6"/>
-      <c r="AN6" s="3">
+      <c r="AN6" s="4">
         <v>-0.5</v>
       </c>
       <c r="AO6" s="4" t="s">
@@ -21661,7 +21693,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
         <v>20</v>
       </c>
@@ -21736,7 +21768,7 @@
       <c r="AK7" s="6"/>
       <c r="AL7" s="6"/>
       <c r="AM7" s="6"/>
-      <c r="AN7" s="3">
+      <c r="AN7" s="4">
         <v>1000000</v>
       </c>
       <c r="AO7" s="4" t="s">
@@ -21746,7 +21778,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
         <v>21</v>
       </c>
@@ -21822,7 +21854,7 @@
       <c r="AK8" s="6"/>
       <c r="AL8" s="6"/>
       <c r="AM8" s="6"/>
-      <c r="AN8" s="3">
+      <c r="AN8" s="4">
         <v>2.5</v>
       </c>
       <c r="AO8" s="4" t="s">
@@ -21832,7 +21864,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
         <v>22</v>
       </c>
@@ -21907,7 +21939,7 @@
       <c r="AK9" s="6"/>
       <c r="AL9" s="6"/>
       <c r="AM9" s="6"/>
-      <c r="AN9" s="3" t="s">
+      <c r="AN9" s="4" t="s">
         <v>1</v>
       </c>
       <c r="AO9" s="4" t="s">
@@ -21917,7 +21949,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
         <v>23</v>
       </c>
@@ -21992,7 +22024,7 @@
       <c r="AK10" s="6"/>
       <c r="AL10" s="6"/>
       <c r="AM10" s="6"/>
-      <c r="AN10" s="3">
+      <c r="AN10" s="4">
         <v>-1000000</v>
       </c>
       <c r="AO10" s="4" t="s">
@@ -22002,7 +22034,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
         <v>24</v>
       </c>
@@ -22077,7 +22109,7 @@
       <c r="AK11" s="6"/>
       <c r="AL11" s="6"/>
       <c r="AM11" s="6"/>
-      <c r="AN11" s="3" t="s">
+      <c r="AN11" s="4" t="s">
         <v>1</v>
       </c>
       <c r="AO11" s="4" t="s">
@@ -22087,7 +22119,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="12" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
         <v>25</v>
       </c>
@@ -22162,7 +22194,7 @@
       <c r="AK12" s="6"/>
       <c r="AL12" s="6"/>
       <c r="AM12" s="6"/>
-      <c r="AN12" s="3" t="s">
+      <c r="AN12" s="4" t="s">
         <v>1</v>
       </c>
       <c r="AO12" s="4" t="s">
@@ -22172,7 +22204,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="13" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
         <v>26</v>
       </c>
@@ -22247,7 +22279,7 @@
       <c r="AK13" s="6"/>
       <c r="AL13" s="6"/>
       <c r="AM13" s="6"/>
-      <c r="AN13" s="3" t="s">
+      <c r="AN13" s="4" t="s">
         <v>1</v>
       </c>
       <c r="AO13" s="4" t="s">
@@ -22257,7 +22289,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="14" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
         <v>27</v>
       </c>
@@ -22332,7 +22364,7 @@
       <c r="AK14" s="6"/>
       <c r="AL14" s="6"/>
       <c r="AM14" s="6"/>
-      <c r="AN14" s="3" t="s">
+      <c r="AN14" s="4" t="s">
         <v>1</v>
       </c>
       <c r="AO14" s="4" t="s">
@@ -22342,7 +22374,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
         <v>28</v>
       </c>
@@ -22417,7 +22449,7 @@
       <c r="AK15" s="7"/>
       <c r="AL15" s="7"/>
       <c r="AM15" s="7"/>
-      <c r="AN15" s="3" t="s">
+      <c r="AN15" s="4" t="s">
         <v>1</v>
       </c>
       <c r="AO15" s="4" t="s">
@@ -22427,7 +22459,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="16" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B16" s="11" t="s">
         <v>29</v>
       </c>
@@ -22502,7 +22534,7 @@
       <c r="AK16" s="7"/>
       <c r="AL16" s="7"/>
       <c r="AM16" s="7"/>
-      <c r="AN16" s="3" t="s">
+      <c r="AN16" s="4" t="s">
         <v>1</v>
       </c>
       <c r="AO16" s="4" t="s">
@@ -22512,7 +22544,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="17" spans="2:67" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B17" s="11" t="s">
         <v>30</v>
       </c>
@@ -22587,7 +22619,7 @@
       <c r="AK17" s="7"/>
       <c r="AL17" s="7"/>
       <c r="AM17" s="7"/>
-      <c r="AN17" s="3" t="s">
+      <c r="AN17" s="4" t="s">
         <v>1</v>
       </c>
       <c r="AO17" s="4" t="s">
@@ -22597,7 +22629,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="18" spans="2:67" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B18" s="11" t="s">
         <v>31</v>
       </c>
@@ -22672,7 +22704,7 @@
       <c r="AK18" s="7"/>
       <c r="AL18" s="7"/>
       <c r="AM18" s="7"/>
-      <c r="AN18" s="3" t="s">
+      <c r="AN18" s="4" t="s">
         <v>1</v>
       </c>
       <c r="AO18" s="4" t="s">
@@ -22682,7 +22714,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="2:67" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B19" s="11" t="s">
         <v>32</v>
       </c>
@@ -22757,7 +22789,7 @@
       <c r="AK19" s="7"/>
       <c r="AL19" s="7"/>
       <c r="AM19" s="7"/>
-      <c r="AN19" s="3" t="s">
+      <c r="AN19" s="4" t="s">
         <v>1</v>
       </c>
       <c r="AO19" s="4" t="s">
@@ -22767,7 +22799,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="2:67" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
         <v>33</v>
       </c>
@@ -22842,7 +22874,7 @@
       <c r="AK20" s="7"/>
       <c r="AL20" s="7"/>
       <c r="AM20" s="7"/>
-      <c r="AN20" s="3" t="s">
+      <c r="AN20" s="4" t="s">
         <v>1</v>
       </c>
       <c r="AO20" s="4" t="s">
@@ -22852,7 +22884,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="21" spans="2:67" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B21" s="11" t="s">
         <v>34</v>
       </c>
@@ -22927,7 +22959,7 @@
       <c r="AK21" s="7"/>
       <c r="AL21" s="7"/>
       <c r="AM21" s="7"/>
-      <c r="AN21" s="3" t="s">
+      <c r="AN21" s="4" t="s">
         <v>1</v>
       </c>
       <c r="AO21" s="4" t="s">
@@ -22937,7 +22969,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="22" spans="2:67" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B22" s="38" t="s">
         <v>158</v>
       </c>
@@ -23045,95 +23077,95 @@
         <v>500,300</v>
       </c>
       <c r="AR22" t="str">
-        <f>AQ22&amp;","&amp;H22</f>
+        <f t="shared" ref="AR22:BN22" si="9">AQ22&amp;","&amp;H22</f>
         <v>500,300,'1'</v>
       </c>
       <c r="AS22" t="str">
-        <f>AR22&amp;","&amp;I22</f>
+        <f t="shared" si="9"/>
         <v>500,300,'1','1'</v>
       </c>
       <c r="AT22" t="str">
-        <f>AS22&amp;","&amp;J22</f>
+        <f t="shared" si="9"/>
         <v>500,300,'1','1',null</v>
       </c>
       <c r="AU22" t="str">
-        <f>AT22&amp;","&amp;K22</f>
+        <f t="shared" si="9"/>
         <v>500,300,'1','1',null,null</v>
       </c>
       <c r="AV22" t="str">
-        <f>AU22&amp;","&amp;L22</f>
+        <f t="shared" si="9"/>
         <v>500,300,'1','1',null,null,'1'</v>
       </c>
       <c r="AW22" t="str">
-        <f>AV22&amp;","&amp;M22</f>
+        <f t="shared" si="9"/>
         <v>500,300,'1','1',null,null,'1','1'</v>
       </c>
       <c r="AX22" t="str">
-        <f>AW22&amp;","&amp;N22</f>
+        <f t="shared" si="9"/>
         <v>500,300,'1','1',null,null,'1','1',null</v>
       </c>
       <c r="AY22" t="str">
-        <f>AX22&amp;","&amp;O22</f>
+        <f t="shared" si="9"/>
         <v>500,300,'1','1',null,null,'1','1',null,'1'</v>
       </c>
       <c r="AZ22" t="str">
-        <f>AY22&amp;","&amp;P22</f>
+        <f t="shared" si="9"/>
         <v>500,300,'1','1',null,null,'1','1',null,'1','1'</v>
       </c>
       <c r="BA22" t="str">
-        <f>AZ22&amp;","&amp;Q22</f>
+        <f t="shared" si="9"/>
         <v>500,300,'1','1',null,null,'1','1',null,'1','1','FIS'</v>
       </c>
       <c r="BB22" t="str">
-        <f>BA22&amp;","&amp;R22</f>
+        <f t="shared" si="9"/>
         <v>500,300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017'</v>
       </c>
       <c r="BC22" t="str">
-        <f>BB22&amp;","&amp;S22</f>
+        <f t="shared" si="9"/>
         <v>500,300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016'</v>
       </c>
       <c r="BD22" t="str">
-        <f>BC22&amp;","&amp;T22</f>
+        <f t="shared" si="9"/>
         <v>500,300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null</v>
       </c>
       <c r="BE22" t="str">
-        <f>BD22&amp;","&amp;U22</f>
+        <f t="shared" si="9"/>
         <v>500,300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null</v>
       </c>
       <c r="BF22" t="str">
-        <f>BE22&amp;","&amp;V22</f>
+        <f t="shared" si="9"/>
         <v>500,300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null</v>
       </c>
       <c r="BG22" t="str">
-        <f>BF22&amp;","&amp;W22</f>
+        <f t="shared" si="9"/>
         <v>500,300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null</v>
       </c>
       <c r="BH22" t="str">
-        <f>BG22&amp;","&amp;X22</f>
+        <f t="shared" si="9"/>
         <v>500,300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null</v>
       </c>
       <c r="BI22" t="str">
-        <f>BH22&amp;","&amp;Y22</f>
+        <f t="shared" si="9"/>
         <v>500,300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null</v>
       </c>
       <c r="BJ22" t="str">
-        <f>BI22&amp;","&amp;Z22</f>
+        <f t="shared" si="9"/>
         <v>500,300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null</v>
       </c>
       <c r="BK22" t="str">
-        <f>BJ22&amp;","&amp;AA22</f>
+        <f t="shared" si="9"/>
         <v>500,300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null</v>
       </c>
       <c r="BL22" t="str">
-        <f>BK22&amp;","&amp;AB22</f>
+        <f t="shared" si="9"/>
         <v>500,300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null,null</v>
       </c>
       <c r="BM22" t="str">
-        <f>BL22&amp;","&amp;AC22</f>
+        <f t="shared" si="9"/>
         <v>500,300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null,null,null</v>
       </c>
       <c r="BN22" s="40" t="str">
-        <f>BM22&amp;","&amp;AD22</f>
+        <f t="shared" si="9"/>
         <v>500,300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null,null,null,null</v>
       </c>
       <c r="BO22" t="str">
@@ -23141,7 +23173,7 @@
         <v>500,300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null,null,null,null,0,666666666666667</v>
       </c>
     </row>
-    <row r="23" spans="2:67" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B23" s="38" t="s">
         <v>159</v>
       </c>
@@ -23248,11 +23280,11 @@
         <v>152</v>
       </c>
       <c r="AQ23" s="16" t="str">
-        <f t="shared" ref="AQ23:AQ31" si="7">F23&amp;","&amp;G23</f>
+        <f t="shared" ref="AQ23:AQ31" si="10">F23&amp;","&amp;G23</f>
         <v>500,0</v>
       </c>
       <c r="AR23" t="str">
-        <f t="shared" ref="AR23:AR31" si="8">AQ23&amp;","&amp;H23</f>
+        <f t="shared" ref="AR23:AR31" si="11">AQ23&amp;","&amp;H23</f>
         <v>500,0,'1'</v>
       </c>
       <c r="AS23" t="str">
@@ -23264,11 +23296,11 @@
         <v>500,0,'1','1',null</v>
       </c>
       <c r="AU23" t="str">
-        <f t="shared" ref="AU23:AU31" si="9">AT23&amp;","&amp;K23</f>
+        <f t="shared" ref="AU23:AU31" si="12">AT23&amp;","&amp;K23</f>
         <v>500,0,'1','1',null,null</v>
       </c>
       <c r="AV23" t="str">
-        <f t="shared" ref="AV23:AV31" si="10">AU23&amp;","&amp;L23</f>
+        <f t="shared" ref="AV23:AV31" si="13">AU23&amp;","&amp;L23</f>
         <v>500,0,'1','1',null,null,'1'</v>
       </c>
       <c r="AW23" t="str">
@@ -23280,71 +23312,71 @@
         <v>500,0,'1','1',null,null,'1','1',null</v>
       </c>
       <c r="AY23" t="str">
-        <f t="shared" ref="AY23:AY31" si="11">AX23&amp;","&amp;O23</f>
+        <f t="shared" ref="AY23:AY31" si="14">AX23&amp;","&amp;O23</f>
         <v>500,0,'1','1',null,null,'1','1',null,'1'</v>
       </c>
       <c r="AZ23" t="str">
-        <f t="shared" ref="AZ23:AZ31" si="12">AY23&amp;","&amp;P23</f>
+        <f t="shared" ref="AZ23:AZ31" si="15">AY23&amp;","&amp;P23</f>
         <v>500,0,'1','1',null,null,'1','1',null,'1','1'</v>
       </c>
       <c r="BA23" t="str">
-        <f t="shared" ref="BA23:BA31" si="13">AZ23&amp;","&amp;Q23</f>
+        <f t="shared" ref="BA23:BA31" si="16">AZ23&amp;","&amp;Q23</f>
         <v>500,0,'1','1',null,null,'1','1',null,'1','1','FIS'</v>
       </c>
       <c r="BB23" t="str">
-        <f t="shared" ref="BB23:BB31" si="14">BA23&amp;","&amp;R23</f>
+        <f t="shared" ref="BB23:BB31" si="17">BA23&amp;","&amp;R23</f>
         <v>500,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017'</v>
       </c>
       <c r="BC23" t="str">
-        <f t="shared" ref="BC23:BC31" si="15">BB23&amp;","&amp;S23</f>
+        <f t="shared" ref="BC23:BC31" si="18">BB23&amp;","&amp;S23</f>
         <v>500,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016'</v>
       </c>
       <c r="BD23" t="str">
-        <f t="shared" ref="BD23:BD31" si="16">BC23&amp;","&amp;T23</f>
+        <f t="shared" ref="BD23:BD31" si="19">BC23&amp;","&amp;T23</f>
         <v>500,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null</v>
       </c>
       <c r="BE23" t="str">
-        <f t="shared" ref="BE23:BE31" si="17">BD23&amp;","&amp;U23</f>
+        <f t="shared" ref="BE23:BE31" si="20">BD23&amp;","&amp;U23</f>
         <v>500,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null</v>
       </c>
       <c r="BF23" t="str">
-        <f t="shared" ref="BF23:BF31" si="18">BE23&amp;","&amp;V23</f>
+        <f t="shared" ref="BF23:BF31" si="21">BE23&amp;","&amp;V23</f>
         <v>500,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null</v>
       </c>
       <c r="BG23" t="str">
-        <f t="shared" ref="BG23:BG31" si="19">BF23&amp;","&amp;W23</f>
+        <f t="shared" ref="BG23:BG31" si="22">BF23&amp;","&amp;W23</f>
         <v>500,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null</v>
       </c>
       <c r="BH23" t="str">
-        <f t="shared" ref="BH23:BH31" si="20">BG23&amp;","&amp;X23</f>
+        <f t="shared" ref="BH23:BH31" si="23">BG23&amp;","&amp;X23</f>
         <v>500,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null</v>
       </c>
       <c r="BI23" t="str">
-        <f t="shared" ref="BI23:BI31" si="21">BH23&amp;","&amp;Y23</f>
+        <f t="shared" ref="BI23:BI31" si="24">BH23&amp;","&amp;Y23</f>
         <v>500,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null</v>
       </c>
       <c r="BJ23" t="str">
-        <f t="shared" ref="BJ23:BJ31" si="22">BI23&amp;","&amp;Z23</f>
+        <f t="shared" ref="BJ23:BJ31" si="25">BI23&amp;","&amp;Z23</f>
         <v>500,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null</v>
       </c>
       <c r="BK23" t="str">
-        <f t="shared" ref="BK23:BK31" si="23">BJ23&amp;","&amp;AA23</f>
+        <f t="shared" ref="BK23:BK31" si="26">BJ23&amp;","&amp;AA23</f>
         <v>500,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null</v>
       </c>
       <c r="BL23" t="str">
-        <f>BK23&amp;","&amp;AB23</f>
+        <f t="shared" ref="BL23:BL31" si="27">BK23&amp;","&amp;AB23</f>
         <v>500,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null,null</v>
       </c>
       <c r="BM23" t="str">
-        <f>BL23&amp;","&amp;AC23</f>
+        <f t="shared" ref="BM23:BM31" si="28">BL23&amp;","&amp;AC23</f>
         <v>500,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null,null,null</v>
       </c>
       <c r="BN23" s="40" t="str">
-        <f>BM23&amp;","&amp;AD23</f>
+        <f t="shared" ref="BN23:BN31" si="29">BM23&amp;","&amp;AD23</f>
         <v>500,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null,null,null,null</v>
       </c>
     </row>
-    <row r="24" spans="2:67" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B24" s="38" t="s">
         <v>160</v>
       </c>
@@ -23451,103 +23483,103 @@
         <v>152</v>
       </c>
       <c r="AQ24" s="16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0,0</v>
       </c>
       <c r="AR24" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0,0,'1'</v>
       </c>
       <c r="AS24" t="str">
-        <f>AR24&amp;","&amp;I24</f>
+        <f t="shared" ref="AS24:AS31" si="30">AR24&amp;","&amp;I24</f>
         <v>0,0,'1','1'</v>
       </c>
       <c r="AT24" t="str">
-        <f t="shared" ref="AT24:AT31" si="24">AS24&amp;","&amp;J24</f>
+        <f t="shared" ref="AT24:AT31" si="31">AS24&amp;","&amp;J24</f>
         <v>0,0,'1','1',null</v>
       </c>
       <c r="AU24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0,0,'1','1',null,null</v>
       </c>
       <c r="AV24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0,0,'1','1',null,null,'1'</v>
       </c>
       <c r="AW24" t="str">
-        <f>AV24&amp;","&amp;M24</f>
+        <f t="shared" ref="AW24:AW31" si="32">AV24&amp;","&amp;M24</f>
         <v>0,0,'1','1',null,null,'1','1'</v>
       </c>
       <c r="AX24" t="str">
-        <f t="shared" ref="AX24:AX31" si="25">AW24&amp;","&amp;N24</f>
+        <f t="shared" ref="AX24:AX31" si="33">AW24&amp;","&amp;N24</f>
         <v>0,0,'1','1',null,null,'1','1',null</v>
       </c>
       <c r="AY24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0,0,'1','1',null,null,'1','1',null,'1'</v>
       </c>
       <c r="AZ24" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0,0,'1','1',null,null,'1','1',null,'1','1'</v>
       </c>
       <c r="BA24" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0,0,'1','1',null,null,'1','1',null,'1','1','FIS'</v>
       </c>
       <c r="BB24" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017'</v>
       </c>
       <c r="BC24" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016'</v>
       </c>
       <c r="BD24" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null</v>
       </c>
       <c r="BE24" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null</v>
       </c>
       <c r="BF24" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null</v>
       </c>
       <c r="BG24" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null</v>
       </c>
       <c r="BH24" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null</v>
       </c>
       <c r="BI24" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null</v>
       </c>
       <c r="BJ24" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null</v>
       </c>
       <c r="BK24" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null</v>
       </c>
       <c r="BL24" t="str">
-        <f>BK24&amp;","&amp;AB24</f>
+        <f t="shared" si="27"/>
         <v>0,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null,null</v>
       </c>
       <c r="BM24" t="str">
-        <f>BL24&amp;","&amp;AC24</f>
+        <f t="shared" si="28"/>
         <v>0,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null,null,null</v>
       </c>
       <c r="BN24" s="40" t="str">
-        <f>BM24&amp;","&amp;AD24</f>
+        <f t="shared" si="29"/>
         <v>0,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null,null,null,null</v>
       </c>
     </row>
-    <row r="25" spans="2:67" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B25" s="38" t="s">
         <v>161</v>
       </c>
@@ -23654,103 +23686,103 @@
         <v>152</v>
       </c>
       <c r="AQ25" s="16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-300,0</v>
       </c>
       <c r="AR25" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-300,0,'1'</v>
       </c>
       <c r="AS25" t="str">
-        <f>AR25&amp;","&amp;I25</f>
+        <f t="shared" si="30"/>
         <v>-300,0,'1','1'</v>
       </c>
       <c r="AT25" t="str">
+        <f t="shared" si="31"/>
+        <v>-300,0,'1','1',null</v>
+      </c>
+      <c r="AU25" t="str">
+        <f t="shared" si="12"/>
+        <v>-300,0,'1','1',null,null</v>
+      </c>
+      <c r="AV25" t="str">
+        <f t="shared" si="13"/>
+        <v>-300,0,'1','1',null,null,'1'</v>
+      </c>
+      <c r="AW25" t="str">
+        <f t="shared" si="32"/>
+        <v>-300,0,'1','1',null,null,'1','1'</v>
+      </c>
+      <c r="AX25" t="str">
+        <f t="shared" si="33"/>
+        <v>-300,0,'1','1',null,null,'1','1',null</v>
+      </c>
+      <c r="AY25" t="str">
+        <f t="shared" si="14"/>
+        <v>-300,0,'1','1',null,null,'1','1',null,'1'</v>
+      </c>
+      <c r="AZ25" t="str">
+        <f t="shared" si="15"/>
+        <v>-300,0,'1','1',null,null,'1','1',null,'1','1'</v>
+      </c>
+      <c r="BA25" t="str">
+        <f t="shared" si="16"/>
+        <v>-300,0,'1','1',null,null,'1','1',null,'1','1','FIS'</v>
+      </c>
+      <c r="BB25" t="str">
+        <f t="shared" si="17"/>
+        <v>-300,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017'</v>
+      </c>
+      <c r="BC25" t="str">
+        <f t="shared" si="18"/>
+        <v>-300,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016'</v>
+      </c>
+      <c r="BD25" t="str">
+        <f t="shared" si="19"/>
+        <v>-300,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null</v>
+      </c>
+      <c r="BE25" t="str">
+        <f t="shared" si="20"/>
+        <v>-300,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null</v>
+      </c>
+      <c r="BF25" t="str">
+        <f t="shared" si="21"/>
+        <v>-300,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null</v>
+      </c>
+      <c r="BG25" t="str">
+        <f t="shared" si="22"/>
+        <v>-300,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null</v>
+      </c>
+      <c r="BH25" t="str">
+        <f t="shared" si="23"/>
+        <v>-300,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null</v>
+      </c>
+      <c r="BI25" t="str">
         <f t="shared" si="24"/>
-        <v>-300,0,'1','1',null</v>
-      </c>
-      <c r="AU25" t="str">
-        <f t="shared" si="9"/>
-        <v>-300,0,'1','1',null,null</v>
-      </c>
-      <c r="AV25" t="str">
-        <f t="shared" si="10"/>
-        <v>-300,0,'1','1',null,null,'1'</v>
-      </c>
-      <c r="AW25" t="str">
-        <f>AV25&amp;","&amp;M25</f>
-        <v>-300,0,'1','1',null,null,'1','1'</v>
-      </c>
-      <c r="AX25" t="str">
+        <v>-300,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null</v>
+      </c>
+      <c r="BJ25" t="str">
         <f t="shared" si="25"/>
-        <v>-300,0,'1','1',null,null,'1','1',null</v>
-      </c>
-      <c r="AY25" t="str">
-        <f t="shared" si="11"/>
-        <v>-300,0,'1','1',null,null,'1','1',null,'1'</v>
-      </c>
-      <c r="AZ25" t="str">
-        <f t="shared" si="12"/>
-        <v>-300,0,'1','1',null,null,'1','1',null,'1','1'</v>
-      </c>
-      <c r="BA25" t="str">
-        <f t="shared" si="13"/>
-        <v>-300,0,'1','1',null,null,'1','1',null,'1','1','FIS'</v>
-      </c>
-      <c r="BB25" t="str">
-        <f t="shared" si="14"/>
-        <v>-300,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017'</v>
-      </c>
-      <c r="BC25" t="str">
-        <f t="shared" si="15"/>
-        <v>-300,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016'</v>
-      </c>
-      <c r="BD25" t="str">
-        <f t="shared" si="16"/>
-        <v>-300,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null</v>
-      </c>
-      <c r="BE25" t="str">
-        <f t="shared" si="17"/>
-        <v>-300,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null</v>
-      </c>
-      <c r="BF25" t="str">
-        <f t="shared" si="18"/>
-        <v>-300,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null</v>
-      </c>
-      <c r="BG25" t="str">
-        <f t="shared" si="19"/>
-        <v>-300,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null</v>
-      </c>
-      <c r="BH25" t="str">
-        <f t="shared" si="20"/>
-        <v>-300,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null</v>
-      </c>
-      <c r="BI25" t="str">
-        <f t="shared" si="21"/>
-        <v>-300,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null</v>
-      </c>
-      <c r="BJ25" t="str">
-        <f t="shared" si="22"/>
         <v>-300,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null</v>
       </c>
       <c r="BK25" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>-300,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null</v>
       </c>
       <c r="BL25" t="str">
-        <f>BK25&amp;","&amp;AB25</f>
+        <f t="shared" si="27"/>
         <v>-300,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null,null</v>
       </c>
       <c r="BM25" t="str">
-        <f>BL25&amp;","&amp;AC25</f>
+        <f t="shared" si="28"/>
         <v>-300,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null,null,null</v>
       </c>
       <c r="BN25" s="40" t="str">
-        <f>BM25&amp;","&amp;AD25</f>
+        <f t="shared" si="29"/>
         <v>-300,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null,null,null,null</v>
       </c>
     </row>
-    <row r="26" spans="2:67" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B26" s="38" t="s">
         <v>162</v>
       </c>
@@ -23857,103 +23889,103 @@
         <v>152</v>
       </c>
       <c r="AQ26" s="16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>500,300</v>
       </c>
       <c r="AR26" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>500,300,'0'</v>
       </c>
       <c r="AS26" t="str">
-        <f>AR26&amp;","&amp;I26</f>
+        <f t="shared" si="30"/>
         <v>500,300,'0','1'</v>
       </c>
       <c r="AT26" t="str">
+        <f t="shared" si="31"/>
+        <v>500,300,'0','1',null</v>
+      </c>
+      <c r="AU26" t="str">
+        <f t="shared" si="12"/>
+        <v>500,300,'0','1',null,null</v>
+      </c>
+      <c r="AV26" t="str">
+        <f t="shared" si="13"/>
+        <v>500,300,'0','1',null,null,'1'</v>
+      </c>
+      <c r="AW26" t="str">
+        <f t="shared" si="32"/>
+        <v>500,300,'0','1',null,null,'1','1'</v>
+      </c>
+      <c r="AX26" t="str">
+        <f t="shared" si="33"/>
+        <v>500,300,'0','1',null,null,'1','1',null</v>
+      </c>
+      <c r="AY26" t="str">
+        <f t="shared" si="14"/>
+        <v>500,300,'0','1',null,null,'1','1',null,'1'</v>
+      </c>
+      <c r="AZ26" t="str">
+        <f t="shared" si="15"/>
+        <v>500,300,'0','1',null,null,'1','1',null,'1','1'</v>
+      </c>
+      <c r="BA26" t="str">
+        <f t="shared" si="16"/>
+        <v>500,300,'0','1',null,null,'1','1',null,'1','1','FIS'</v>
+      </c>
+      <c r="BB26" t="str">
+        <f t="shared" si="17"/>
+        <v>500,300,'0','1',null,null,'1','1',null,'1','1','FIS','02/05/2017'</v>
+      </c>
+      <c r="BC26" t="str">
+        <f t="shared" si="18"/>
+        <v>500,300,'0','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016'</v>
+      </c>
+      <c r="BD26" t="str">
+        <f t="shared" si="19"/>
+        <v>500,300,'0','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null</v>
+      </c>
+      <c r="BE26" t="str">
+        <f t="shared" si="20"/>
+        <v>500,300,'0','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null</v>
+      </c>
+      <c r="BF26" t="str">
+        <f t="shared" si="21"/>
+        <v>500,300,'0','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null</v>
+      </c>
+      <c r="BG26" t="str">
+        <f t="shared" si="22"/>
+        <v>500,300,'0','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null</v>
+      </c>
+      <c r="BH26" t="str">
+        <f t="shared" si="23"/>
+        <v>500,300,'0','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null</v>
+      </c>
+      <c r="BI26" t="str">
         <f t="shared" si="24"/>
-        <v>500,300,'0','1',null</v>
-      </c>
-      <c r="AU26" t="str">
-        <f t="shared" si="9"/>
-        <v>500,300,'0','1',null,null</v>
-      </c>
-      <c r="AV26" t="str">
-        <f t="shared" si="10"/>
-        <v>500,300,'0','1',null,null,'1'</v>
-      </c>
-      <c r="AW26" t="str">
-        <f>AV26&amp;","&amp;M26</f>
-        <v>500,300,'0','1',null,null,'1','1'</v>
-      </c>
-      <c r="AX26" t="str">
+        <v>500,300,'0','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null</v>
+      </c>
+      <c r="BJ26" t="str">
         <f t="shared" si="25"/>
-        <v>500,300,'0','1',null,null,'1','1',null</v>
-      </c>
-      <c r="AY26" t="str">
-        <f t="shared" si="11"/>
-        <v>500,300,'0','1',null,null,'1','1',null,'1'</v>
-      </c>
-      <c r="AZ26" t="str">
-        <f t="shared" si="12"/>
-        <v>500,300,'0','1',null,null,'1','1',null,'1','1'</v>
-      </c>
-      <c r="BA26" t="str">
-        <f t="shared" si="13"/>
-        <v>500,300,'0','1',null,null,'1','1',null,'1','1','FIS'</v>
-      </c>
-      <c r="BB26" t="str">
-        <f t="shared" si="14"/>
-        <v>500,300,'0','1',null,null,'1','1',null,'1','1','FIS','02/05/2017'</v>
-      </c>
-      <c r="BC26" t="str">
-        <f t="shared" si="15"/>
-        <v>500,300,'0','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016'</v>
-      </c>
-      <c r="BD26" t="str">
-        <f t="shared" si="16"/>
-        <v>500,300,'0','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null</v>
-      </c>
-      <c r="BE26" t="str">
-        <f t="shared" si="17"/>
-        <v>500,300,'0','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null</v>
-      </c>
-      <c r="BF26" t="str">
-        <f t="shared" si="18"/>
-        <v>500,300,'0','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null</v>
-      </c>
-      <c r="BG26" t="str">
-        <f t="shared" si="19"/>
-        <v>500,300,'0','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null</v>
-      </c>
-      <c r="BH26" t="str">
-        <f t="shared" si="20"/>
-        <v>500,300,'0','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null</v>
-      </c>
-      <c r="BI26" t="str">
-        <f t="shared" si="21"/>
-        <v>500,300,'0','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null</v>
-      </c>
-      <c r="BJ26" t="str">
-        <f t="shared" si="22"/>
         <v>500,300,'0','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null</v>
       </c>
       <c r="BK26" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>500,300,'0','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null</v>
       </c>
       <c r="BL26" t="str">
-        <f>BK26&amp;","&amp;AB26</f>
+        <f t="shared" si="27"/>
         <v>500,300,'0','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null,null</v>
       </c>
       <c r="BM26" t="str">
-        <f>BL26&amp;","&amp;AC26</f>
+        <f t="shared" si="28"/>
         <v>500,300,'0','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null,null,null</v>
       </c>
       <c r="BN26" s="40" t="str">
-        <f>BM26&amp;","&amp;AD26</f>
+        <f t="shared" si="29"/>
         <v>500,300,'0','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null,null,null,null</v>
       </c>
     </row>
-    <row r="27" spans="2:67" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B27" s="38" t="s">
         <v>163</v>
       </c>
@@ -24060,103 +24092,103 @@
         <v>152</v>
       </c>
       <c r="AQ27" s="16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>500,300</v>
       </c>
       <c r="AR27" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>500,300,'1'</v>
       </c>
       <c r="AS27" t="str">
-        <f>AR27&amp;","&amp;I27</f>
+        <f t="shared" si="30"/>
         <v>500,300,'1','0'</v>
       </c>
       <c r="AT27" t="str">
+        <f t="shared" si="31"/>
+        <v>500,300,'1','0',null</v>
+      </c>
+      <c r="AU27" t="str">
+        <f t="shared" si="12"/>
+        <v>500,300,'1','0',null,null</v>
+      </c>
+      <c r="AV27" t="str">
+        <f t="shared" si="13"/>
+        <v>500,300,'1','0',null,null,'1'</v>
+      </c>
+      <c r="AW27" t="str">
+        <f t="shared" si="32"/>
+        <v>500,300,'1','0',null,null,'1','1'</v>
+      </c>
+      <c r="AX27" t="str">
+        <f t="shared" si="33"/>
+        <v>500,300,'1','0',null,null,'1','1',null</v>
+      </c>
+      <c r="AY27" t="str">
+        <f t="shared" si="14"/>
+        <v>500,300,'1','0',null,null,'1','1',null,'1'</v>
+      </c>
+      <c r="AZ27" t="str">
+        <f t="shared" si="15"/>
+        <v>500,300,'1','0',null,null,'1','1',null,'1','1'</v>
+      </c>
+      <c r="BA27" t="str">
+        <f t="shared" si="16"/>
+        <v>500,300,'1','0',null,null,'1','1',null,'1','1','FIS'</v>
+      </c>
+      <c r="BB27" t="str">
+        <f t="shared" si="17"/>
+        <v>500,300,'1','0',null,null,'1','1',null,'1','1','FIS','02/05/2017'</v>
+      </c>
+      <c r="BC27" t="str">
+        <f t="shared" si="18"/>
+        <v>500,300,'1','0',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016'</v>
+      </c>
+      <c r="BD27" t="str">
+        <f t="shared" si="19"/>
+        <v>500,300,'1','0',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null</v>
+      </c>
+      <c r="BE27" t="str">
+        <f t="shared" si="20"/>
+        <v>500,300,'1','0',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null</v>
+      </c>
+      <c r="BF27" t="str">
+        <f t="shared" si="21"/>
+        <v>500,300,'1','0',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null</v>
+      </c>
+      <c r="BG27" t="str">
+        <f t="shared" si="22"/>
+        <v>500,300,'1','0',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null</v>
+      </c>
+      <c r="BH27" t="str">
+        <f t="shared" si="23"/>
+        <v>500,300,'1','0',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null</v>
+      </c>
+      <c r="BI27" t="str">
         <f t="shared" si="24"/>
-        <v>500,300,'1','0',null</v>
-      </c>
-      <c r="AU27" t="str">
-        <f t="shared" si="9"/>
-        <v>500,300,'1','0',null,null</v>
-      </c>
-      <c r="AV27" t="str">
-        <f t="shared" si="10"/>
-        <v>500,300,'1','0',null,null,'1'</v>
-      </c>
-      <c r="AW27" t="str">
-        <f>AV27&amp;","&amp;M27</f>
-        <v>500,300,'1','0',null,null,'1','1'</v>
-      </c>
-      <c r="AX27" t="str">
+        <v>500,300,'1','0',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null</v>
+      </c>
+      <c r="BJ27" t="str">
         <f t="shared" si="25"/>
-        <v>500,300,'1','0',null,null,'1','1',null</v>
-      </c>
-      <c r="AY27" t="str">
-        <f t="shared" si="11"/>
-        <v>500,300,'1','0',null,null,'1','1',null,'1'</v>
-      </c>
-      <c r="AZ27" t="str">
-        <f t="shared" si="12"/>
-        <v>500,300,'1','0',null,null,'1','1',null,'1','1'</v>
-      </c>
-      <c r="BA27" t="str">
-        <f t="shared" si="13"/>
-        <v>500,300,'1','0',null,null,'1','1',null,'1','1','FIS'</v>
-      </c>
-      <c r="BB27" t="str">
-        <f t="shared" si="14"/>
-        <v>500,300,'1','0',null,null,'1','1',null,'1','1','FIS','02/05/2017'</v>
-      </c>
-      <c r="BC27" t="str">
-        <f t="shared" si="15"/>
-        <v>500,300,'1','0',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016'</v>
-      </c>
-      <c r="BD27" t="str">
-        <f t="shared" si="16"/>
-        <v>500,300,'1','0',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null</v>
-      </c>
-      <c r="BE27" t="str">
-        <f t="shared" si="17"/>
-        <v>500,300,'1','0',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null</v>
-      </c>
-      <c r="BF27" t="str">
-        <f t="shared" si="18"/>
-        <v>500,300,'1','0',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null</v>
-      </c>
-      <c r="BG27" t="str">
-        <f t="shared" si="19"/>
-        <v>500,300,'1','0',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null</v>
-      </c>
-      <c r="BH27" t="str">
-        <f t="shared" si="20"/>
-        <v>500,300,'1','0',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null</v>
-      </c>
-      <c r="BI27" t="str">
-        <f t="shared" si="21"/>
-        <v>500,300,'1','0',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null</v>
-      </c>
-      <c r="BJ27" t="str">
-        <f t="shared" si="22"/>
         <v>500,300,'1','0',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null</v>
       </c>
       <c r="BK27" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>500,300,'1','0',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null</v>
       </c>
       <c r="BL27" t="str">
-        <f>BK27&amp;","&amp;AB27</f>
+        <f t="shared" si="27"/>
         <v>500,300,'1','0',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null,null</v>
       </c>
       <c r="BM27" t="str">
-        <f>BL27&amp;","&amp;AC27</f>
+        <f t="shared" si="28"/>
         <v>500,300,'1','0',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null,null,null</v>
       </c>
       <c r="BN27" s="40" t="str">
-        <f>BM27&amp;","&amp;AD27</f>
+        <f t="shared" si="29"/>
         <v>500,300,'1','0',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null,null,null,null</v>
       </c>
     </row>
-    <row r="28" spans="2:67" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B28" s="38" t="s">
         <v>164</v>
       </c>
@@ -24263,103 +24295,103 @@
         <v>152</v>
       </c>
       <c r="AQ28" s="16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>null,null</v>
       </c>
       <c r="AR28" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>null,null,null</v>
       </c>
       <c r="AS28" t="str">
-        <f>AR28&amp;","&amp;I28</f>
+        <f t="shared" si="30"/>
         <v>null,null,null,null</v>
       </c>
       <c r="AT28" t="str">
+        <f t="shared" si="31"/>
+        <v>null,null,null,null,null</v>
+      </c>
+      <c r="AU28" t="str">
+        <f t="shared" si="12"/>
+        <v>null,null,null,null,null,null</v>
+      </c>
+      <c r="AV28" t="str">
+        <f t="shared" si="13"/>
+        <v>null,null,null,null,null,null,null</v>
+      </c>
+      <c r="AW28" t="str">
+        <f t="shared" si="32"/>
+        <v>null,null,null,null,null,null,null,null</v>
+      </c>
+      <c r="AX28" t="str">
+        <f t="shared" si="33"/>
+        <v>null,null,null,null,null,null,null,null,null</v>
+      </c>
+      <c r="AY28" t="str">
+        <f t="shared" si="14"/>
+        <v>null,null,null,null,null,null,null,null,null,?</v>
+      </c>
+      <c r="AZ28" t="str">
+        <f t="shared" si="15"/>
+        <v>null,null,null,null,null,null,null,null,null,?,?</v>
+      </c>
+      <c r="BA28" t="str">
+        <f t="shared" si="16"/>
+        <v>null,null,null,null,null,null,null,null,null,?,?,'FIS'</v>
+      </c>
+      <c r="BB28" t="str">
+        <f t="shared" si="17"/>
+        <v>null,null,null,null,null,null,null,null,null,?,?,'FIS',null</v>
+      </c>
+      <c r="BC28" t="str">
+        <f t="shared" si="18"/>
+        <v>null,null,null,null,null,null,null,null,null,?,?,'FIS',null,null</v>
+      </c>
+      <c r="BD28" t="str">
+        <f t="shared" si="19"/>
+        <v>null,null,null,null,null,null,null,null,null,?,?,'FIS',null,null,null</v>
+      </c>
+      <c r="BE28" t="str">
+        <f t="shared" si="20"/>
+        <v>null,null,null,null,null,null,null,null,null,?,?,'FIS',null,null,null,null</v>
+      </c>
+      <c r="BF28" t="str">
+        <f t="shared" si="21"/>
+        <v>null,null,null,null,null,null,null,null,null,?,?,'FIS',null,null,null,null,null</v>
+      </c>
+      <c r="BG28" t="str">
+        <f t="shared" si="22"/>
+        <v>null,null,null,null,null,null,null,null,null,?,?,'FIS',null,null,null,null,null,null</v>
+      </c>
+      <c r="BH28" t="str">
+        <f t="shared" si="23"/>
+        <v>null,null,null,null,null,null,null,null,null,?,?,'FIS',null,null,null,null,null,null,null</v>
+      </c>
+      <c r="BI28" t="str">
         <f t="shared" si="24"/>
-        <v>null,null,null,null,null</v>
-      </c>
-      <c r="AU28" t="str">
-        <f t="shared" si="9"/>
-        <v>null,null,null,null,null,null</v>
-      </c>
-      <c r="AV28" t="str">
-        <f t="shared" si="10"/>
-        <v>null,null,null,null,null,null,null</v>
-      </c>
-      <c r="AW28" t="str">
-        <f>AV28&amp;","&amp;M28</f>
-        <v>null,null,null,null,null,null,null,null</v>
-      </c>
-      <c r="AX28" t="str">
+        <v>null,null,null,null,null,null,null,null,null,?,?,'FIS',null,null,null,null,null,null,null,null</v>
+      </c>
+      <c r="BJ28" t="str">
         <f t="shared" si="25"/>
-        <v>null,null,null,null,null,null,null,null,null</v>
-      </c>
-      <c r="AY28" t="str">
-        <f t="shared" si="11"/>
-        <v>null,null,null,null,null,null,null,null,null,?</v>
-      </c>
-      <c r="AZ28" t="str">
-        <f t="shared" si="12"/>
-        <v>null,null,null,null,null,null,null,null,null,?,?</v>
-      </c>
-      <c r="BA28" t="str">
-        <f t="shared" si="13"/>
-        <v>null,null,null,null,null,null,null,null,null,?,?,'FIS'</v>
-      </c>
-      <c r="BB28" t="str">
-        <f t="shared" si="14"/>
-        <v>null,null,null,null,null,null,null,null,null,?,?,'FIS',null</v>
-      </c>
-      <c r="BC28" t="str">
-        <f t="shared" si="15"/>
-        <v>null,null,null,null,null,null,null,null,null,?,?,'FIS',null,null</v>
-      </c>
-      <c r="BD28" t="str">
-        <f t="shared" si="16"/>
-        <v>null,null,null,null,null,null,null,null,null,?,?,'FIS',null,null,null</v>
-      </c>
-      <c r="BE28" t="str">
-        <f t="shared" si="17"/>
-        <v>null,null,null,null,null,null,null,null,null,?,?,'FIS',null,null,null,null</v>
-      </c>
-      <c r="BF28" t="str">
-        <f t="shared" si="18"/>
-        <v>null,null,null,null,null,null,null,null,null,?,?,'FIS',null,null,null,null,null</v>
-      </c>
-      <c r="BG28" t="str">
-        <f t="shared" si="19"/>
-        <v>null,null,null,null,null,null,null,null,null,?,?,'FIS',null,null,null,null,null,null</v>
-      </c>
-      <c r="BH28" t="str">
-        <f t="shared" si="20"/>
-        <v>null,null,null,null,null,null,null,null,null,?,?,'FIS',null,null,null,null,null,null,null</v>
-      </c>
-      <c r="BI28" t="str">
-        <f t="shared" si="21"/>
-        <v>null,null,null,null,null,null,null,null,null,?,?,'FIS',null,null,null,null,null,null,null,null</v>
-      </c>
-      <c r="BJ28" t="str">
-        <f t="shared" si="22"/>
         <v>null,null,null,null,null,null,null,null,null,?,?,'FIS',null,null,null,null,null,null,null,null,null</v>
       </c>
       <c r="BK28" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>null,null,null,null,null,null,null,null,null,?,?,'FIS',null,null,null,null,null,null,null,null,null,null</v>
       </c>
       <c r="BL28" t="str">
-        <f>BK28&amp;","&amp;AB28</f>
+        <f t="shared" si="27"/>
         <v>null,null,null,null,null,null,null,null,null,?,?,'FIS',null,null,null,null,null,null,null,null,null,null,null</v>
       </c>
       <c r="BM28" t="str">
-        <f>BL28&amp;","&amp;AC28</f>
+        <f t="shared" si="28"/>
         <v>null,null,null,null,null,null,null,null,null,?,?,'FIS',null,null,null,null,null,null,null,null,null,null,null,null</v>
       </c>
       <c r="BN28" s="40" t="str">
-        <f>BM28&amp;","&amp;AD28</f>
+        <f t="shared" si="29"/>
         <v>null,null,null,null,null,null,null,null,null,?,?,'FIS',null,null,null,null,null,null,null,null,null,null,null,null,null</v>
       </c>
     </row>
-    <row r="29" spans="2:67" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B29" s="38" t="s">
         <v>165</v>
       </c>
@@ -24463,103 +24495,103 @@
         <v>152</v>
       </c>
       <c r="AQ29" s="16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>500,-300</v>
       </c>
       <c r="AR29" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>500,-300,'1'</v>
       </c>
       <c r="AS29" t="str">
-        <f>AR29&amp;","&amp;I29</f>
+        <f t="shared" si="30"/>
         <v>500,-300,'1','1'</v>
       </c>
       <c r="AT29" t="str">
+        <f t="shared" si="31"/>
+        <v>500,-300,'1','1',null</v>
+      </c>
+      <c r="AU29" t="str">
+        <f t="shared" si="12"/>
+        <v>500,-300,'1','1',null,null</v>
+      </c>
+      <c r="AV29" t="str">
+        <f t="shared" si="13"/>
+        <v>500,-300,'1','1',null,null,'1'</v>
+      </c>
+      <c r="AW29" t="str">
+        <f t="shared" si="32"/>
+        <v>500,-300,'1','1',null,null,'1','1'</v>
+      </c>
+      <c r="AX29" t="str">
+        <f t="shared" si="33"/>
+        <v>500,-300,'1','1',null,null,'1','1',null</v>
+      </c>
+      <c r="AY29" t="str">
+        <f t="shared" si="14"/>
+        <v>500,-300,'1','1',null,null,'1','1',null,'1'</v>
+      </c>
+      <c r="AZ29" t="str">
+        <f t="shared" si="15"/>
+        <v>500,-300,'1','1',null,null,'1','1',null,'1','1'</v>
+      </c>
+      <c r="BA29" t="str">
+        <f t="shared" si="16"/>
+        <v>500,-300,'1','1',null,null,'1','1',null,'1','1','FIS'</v>
+      </c>
+      <c r="BB29" t="str">
+        <f t="shared" si="17"/>
+        <v>500,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017'</v>
+      </c>
+      <c r="BC29" t="str">
+        <f t="shared" si="18"/>
+        <v>500,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016'</v>
+      </c>
+      <c r="BD29" t="str">
+        <f t="shared" si="19"/>
+        <v>500,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null</v>
+      </c>
+      <c r="BE29" t="str">
+        <f t="shared" si="20"/>
+        <v>500,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null</v>
+      </c>
+      <c r="BF29" t="str">
+        <f t="shared" si="21"/>
+        <v>500,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null</v>
+      </c>
+      <c r="BG29" t="str">
+        <f t="shared" si="22"/>
+        <v>500,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null</v>
+      </c>
+      <c r="BH29" t="str">
+        <f t="shared" si="23"/>
+        <v>500,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null</v>
+      </c>
+      <c r="BI29" t="str">
         <f t="shared" si="24"/>
-        <v>500,-300,'1','1',null</v>
-      </c>
-      <c r="AU29" t="str">
-        <f t="shared" si="9"/>
-        <v>500,-300,'1','1',null,null</v>
-      </c>
-      <c r="AV29" t="str">
-        <f t="shared" si="10"/>
-        <v>500,-300,'1','1',null,null,'1'</v>
-      </c>
-      <c r="AW29" t="str">
-        <f>AV29&amp;","&amp;M29</f>
-        <v>500,-300,'1','1',null,null,'1','1'</v>
-      </c>
-      <c r="AX29" t="str">
+        <v>500,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null</v>
+      </c>
+      <c r="BJ29" t="str">
         <f t="shared" si="25"/>
-        <v>500,-300,'1','1',null,null,'1','1',null</v>
-      </c>
-      <c r="AY29" t="str">
-        <f t="shared" si="11"/>
-        <v>500,-300,'1','1',null,null,'1','1',null,'1'</v>
-      </c>
-      <c r="AZ29" t="str">
-        <f t="shared" si="12"/>
-        <v>500,-300,'1','1',null,null,'1','1',null,'1','1'</v>
-      </c>
-      <c r="BA29" t="str">
-        <f t="shared" si="13"/>
-        <v>500,-300,'1','1',null,null,'1','1',null,'1','1','FIS'</v>
-      </c>
-      <c r="BB29" t="str">
-        <f t="shared" si="14"/>
-        <v>500,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017'</v>
-      </c>
-      <c r="BC29" t="str">
-        <f t="shared" si="15"/>
-        <v>500,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016'</v>
-      </c>
-      <c r="BD29" t="str">
-        <f t="shared" si="16"/>
-        <v>500,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null</v>
-      </c>
-      <c r="BE29" t="str">
-        <f t="shared" si="17"/>
-        <v>500,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null</v>
-      </c>
-      <c r="BF29" t="str">
-        <f t="shared" si="18"/>
-        <v>500,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null</v>
-      </c>
-      <c r="BG29" t="str">
-        <f t="shared" si="19"/>
-        <v>500,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null</v>
-      </c>
-      <c r="BH29" t="str">
-        <f t="shared" si="20"/>
-        <v>500,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null</v>
-      </c>
-      <c r="BI29" t="str">
-        <f t="shared" si="21"/>
-        <v>500,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null</v>
-      </c>
-      <c r="BJ29" t="str">
-        <f t="shared" si="22"/>
         <v>500,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null</v>
       </c>
       <c r="BK29" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>500,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null</v>
       </c>
       <c r="BL29" t="str">
-        <f>BK29&amp;","&amp;AB29</f>
+        <f t="shared" si="27"/>
         <v>500,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null,null</v>
       </c>
       <c r="BM29" t="str">
-        <f>BL29&amp;","&amp;AC29</f>
+        <f t="shared" si="28"/>
         <v>500,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null,null,null</v>
       </c>
       <c r="BN29" s="40" t="str">
-        <f>BM29&amp;","&amp;AD29</f>
+        <f t="shared" si="29"/>
         <v>500,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null,null,null,null</v>
       </c>
     </row>
-    <row r="30" spans="2:67" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B30" s="38" t="s">
         <v>166</v>
       </c>
@@ -24567,7 +24599,7 @@
         <v>3</v>
       </c>
       <c r="D30" s="30">
-        <f t="shared" ref="D30:D31" si="26">(F30-G30)/ABS(G30)</f>
+        <f t="shared" ref="D30:D31" si="34">(F30-G30)/ABS(G30)</f>
         <v>1</v>
       </c>
       <c r="E30" s="30"/>
@@ -24663,103 +24695,103 @@
         <v>152</v>
       </c>
       <c r="AQ30" s="16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0,-300</v>
       </c>
       <c r="AR30" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0,-300,'1'</v>
       </c>
       <c r="AS30" t="str">
-        <f>AR30&amp;","&amp;I30</f>
+        <f t="shared" si="30"/>
         <v>0,-300,'1','1'</v>
       </c>
       <c r="AT30" t="str">
+        <f t="shared" si="31"/>
+        <v>0,-300,'1','1',null</v>
+      </c>
+      <c r="AU30" t="str">
+        <f t="shared" si="12"/>
+        <v>0,-300,'1','1',null,null</v>
+      </c>
+      <c r="AV30" t="str">
+        <f t="shared" si="13"/>
+        <v>0,-300,'1','1',null,null,'1'</v>
+      </c>
+      <c r="AW30" t="str">
+        <f t="shared" si="32"/>
+        <v>0,-300,'1','1',null,null,'1','1'</v>
+      </c>
+      <c r="AX30" t="str">
+        <f t="shared" si="33"/>
+        <v>0,-300,'1','1',null,null,'1','1',null</v>
+      </c>
+      <c r="AY30" t="str">
+        <f t="shared" si="14"/>
+        <v>0,-300,'1','1',null,null,'1','1',null,'1'</v>
+      </c>
+      <c r="AZ30" t="str">
+        <f t="shared" si="15"/>
+        <v>0,-300,'1','1',null,null,'1','1',null,'1','1'</v>
+      </c>
+      <c r="BA30" t="str">
+        <f t="shared" si="16"/>
+        <v>0,-300,'1','1',null,null,'1','1',null,'1','1','FIS'</v>
+      </c>
+      <c r="BB30" t="str">
+        <f t="shared" si="17"/>
+        <v>0,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017'</v>
+      </c>
+      <c r="BC30" t="str">
+        <f t="shared" si="18"/>
+        <v>0,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016'</v>
+      </c>
+      <c r="BD30" t="str">
+        <f t="shared" si="19"/>
+        <v>0,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null</v>
+      </c>
+      <c r="BE30" t="str">
+        <f t="shared" si="20"/>
+        <v>0,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null</v>
+      </c>
+      <c r="BF30" t="str">
+        <f t="shared" si="21"/>
+        <v>0,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null</v>
+      </c>
+      <c r="BG30" t="str">
+        <f t="shared" si="22"/>
+        <v>0,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null</v>
+      </c>
+      <c r="BH30" t="str">
+        <f t="shared" si="23"/>
+        <v>0,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null</v>
+      </c>
+      <c r="BI30" t="str">
         <f t="shared" si="24"/>
-        <v>0,-300,'1','1',null</v>
-      </c>
-      <c r="AU30" t="str">
-        <f t="shared" si="9"/>
-        <v>0,-300,'1','1',null,null</v>
-      </c>
-      <c r="AV30" t="str">
-        <f t="shared" si="10"/>
-        <v>0,-300,'1','1',null,null,'1'</v>
-      </c>
-      <c r="AW30" t="str">
-        <f>AV30&amp;","&amp;M30</f>
-        <v>0,-300,'1','1',null,null,'1','1'</v>
-      </c>
-      <c r="AX30" t="str">
+        <v>0,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null</v>
+      </c>
+      <c r="BJ30" t="str">
         <f t="shared" si="25"/>
-        <v>0,-300,'1','1',null,null,'1','1',null</v>
-      </c>
-      <c r="AY30" t="str">
-        <f t="shared" si="11"/>
-        <v>0,-300,'1','1',null,null,'1','1',null,'1'</v>
-      </c>
-      <c r="AZ30" t="str">
-        <f t="shared" si="12"/>
-        <v>0,-300,'1','1',null,null,'1','1',null,'1','1'</v>
-      </c>
-      <c r="BA30" t="str">
-        <f t="shared" si="13"/>
-        <v>0,-300,'1','1',null,null,'1','1',null,'1','1','FIS'</v>
-      </c>
-      <c r="BB30" t="str">
-        <f t="shared" si="14"/>
-        <v>0,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017'</v>
-      </c>
-      <c r="BC30" t="str">
-        <f t="shared" si="15"/>
-        <v>0,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016'</v>
-      </c>
-      <c r="BD30" t="str">
-        <f t="shared" si="16"/>
-        <v>0,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null</v>
-      </c>
-      <c r="BE30" t="str">
-        <f t="shared" si="17"/>
-        <v>0,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null</v>
-      </c>
-      <c r="BF30" t="str">
-        <f t="shared" si="18"/>
-        <v>0,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null</v>
-      </c>
-      <c r="BG30" t="str">
-        <f t="shared" si="19"/>
-        <v>0,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null</v>
-      </c>
-      <c r="BH30" t="str">
-        <f t="shared" si="20"/>
-        <v>0,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null</v>
-      </c>
-      <c r="BI30" t="str">
-        <f t="shared" si="21"/>
-        <v>0,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null</v>
-      </c>
-      <c r="BJ30" t="str">
-        <f t="shared" si="22"/>
         <v>0,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null</v>
       </c>
       <c r="BK30" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null</v>
       </c>
       <c r="BL30" t="str">
-        <f>BK30&amp;","&amp;AB30</f>
+        <f t="shared" si="27"/>
         <v>0,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null,null</v>
       </c>
       <c r="BM30" t="str">
-        <f>BL30&amp;","&amp;AC30</f>
+        <f t="shared" si="28"/>
         <v>0,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null,null,null</v>
       </c>
       <c r="BN30" s="40" t="str">
-        <f>BM30&amp;","&amp;AD30</f>
+        <f t="shared" si="29"/>
         <v>0,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null,null,null,null</v>
       </c>
     </row>
-    <row r="31" spans="2:67" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B31" s="38" t="s">
         <v>167</v>
       </c>
@@ -24767,7 +24799,7 @@
         <v>3</v>
       </c>
       <c r="D31" s="30">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>-0.66666666666666663</v>
       </c>
       <c r="E31" s="30"/>
@@ -24863,103 +24895,103 @@
         <v>152</v>
       </c>
       <c r="AQ31" s="16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-500,-300</v>
       </c>
       <c r="AR31" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-500,-300,'1'</v>
       </c>
       <c r="AS31" t="str">
-        <f>AR31&amp;","&amp;I31</f>
+        <f t="shared" si="30"/>
         <v>-500,-300,'1','1'</v>
       </c>
       <c r="AT31" t="str">
+        <f t="shared" si="31"/>
+        <v>-500,-300,'1','1',null</v>
+      </c>
+      <c r="AU31" t="str">
+        <f t="shared" si="12"/>
+        <v>-500,-300,'1','1',null,null</v>
+      </c>
+      <c r="AV31" t="str">
+        <f t="shared" si="13"/>
+        <v>-500,-300,'1','1',null,null,'1'</v>
+      </c>
+      <c r="AW31" t="str">
+        <f t="shared" si="32"/>
+        <v>-500,-300,'1','1',null,null,'1','1'</v>
+      </c>
+      <c r="AX31" t="str">
+        <f t="shared" si="33"/>
+        <v>-500,-300,'1','1',null,null,'1','1',null</v>
+      </c>
+      <c r="AY31" t="str">
+        <f t="shared" si="14"/>
+        <v>-500,-300,'1','1',null,null,'1','1',null,'1'</v>
+      </c>
+      <c r="AZ31" t="str">
+        <f t="shared" si="15"/>
+        <v>-500,-300,'1','1',null,null,'1','1',null,'1','1'</v>
+      </c>
+      <c r="BA31" t="str">
+        <f t="shared" si="16"/>
+        <v>-500,-300,'1','1',null,null,'1','1',null,'1','1','FIS'</v>
+      </c>
+      <c r="BB31" t="str">
+        <f t="shared" si="17"/>
+        <v>-500,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017'</v>
+      </c>
+      <c r="BC31" t="str">
+        <f t="shared" si="18"/>
+        <v>-500,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016'</v>
+      </c>
+      <c r="BD31" t="str">
+        <f t="shared" si="19"/>
+        <v>-500,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null</v>
+      </c>
+      <c r="BE31" t="str">
+        <f t="shared" si="20"/>
+        <v>-500,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null</v>
+      </c>
+      <c r="BF31" t="str">
+        <f t="shared" si="21"/>
+        <v>-500,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null</v>
+      </c>
+      <c r="BG31" t="str">
+        <f t="shared" si="22"/>
+        <v>-500,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null</v>
+      </c>
+      <c r="BH31" t="str">
+        <f t="shared" si="23"/>
+        <v>-500,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null</v>
+      </c>
+      <c r="BI31" t="str">
         <f t="shared" si="24"/>
-        <v>-500,-300,'1','1',null</v>
-      </c>
-      <c r="AU31" t="str">
-        <f t="shared" si="9"/>
-        <v>-500,-300,'1','1',null,null</v>
-      </c>
-      <c r="AV31" t="str">
-        <f t="shared" si="10"/>
-        <v>-500,-300,'1','1',null,null,'1'</v>
-      </c>
-      <c r="AW31" t="str">
-        <f>AV31&amp;","&amp;M31</f>
-        <v>-500,-300,'1','1',null,null,'1','1'</v>
-      </c>
-      <c r="AX31" t="str">
+        <v>-500,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null</v>
+      </c>
+      <c r="BJ31" t="str">
         <f t="shared" si="25"/>
-        <v>-500,-300,'1','1',null,null,'1','1',null</v>
-      </c>
-      <c r="AY31" t="str">
-        <f t="shared" si="11"/>
-        <v>-500,-300,'1','1',null,null,'1','1',null,'1'</v>
-      </c>
-      <c r="AZ31" t="str">
-        <f t="shared" si="12"/>
-        <v>-500,-300,'1','1',null,null,'1','1',null,'1','1'</v>
-      </c>
-      <c r="BA31" t="str">
-        <f t="shared" si="13"/>
-        <v>-500,-300,'1','1',null,null,'1','1',null,'1','1','FIS'</v>
-      </c>
-      <c r="BB31" t="str">
-        <f t="shared" si="14"/>
-        <v>-500,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017'</v>
-      </c>
-      <c r="BC31" t="str">
-        <f t="shared" si="15"/>
-        <v>-500,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016'</v>
-      </c>
-      <c r="BD31" t="str">
-        <f t="shared" si="16"/>
-        <v>-500,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null</v>
-      </c>
-      <c r="BE31" t="str">
-        <f t="shared" si="17"/>
-        <v>-500,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null</v>
-      </c>
-      <c r="BF31" t="str">
-        <f t="shared" si="18"/>
-        <v>-500,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null</v>
-      </c>
-      <c r="BG31" t="str">
-        <f t="shared" si="19"/>
-        <v>-500,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null</v>
-      </c>
-      <c r="BH31" t="str">
-        <f t="shared" si="20"/>
-        <v>-500,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null</v>
-      </c>
-      <c r="BI31" t="str">
-        <f t="shared" si="21"/>
-        <v>-500,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null</v>
-      </c>
-      <c r="BJ31" t="str">
-        <f t="shared" si="22"/>
         <v>-500,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null</v>
       </c>
       <c r="BK31" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>-500,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null</v>
       </c>
       <c r="BL31" t="str">
-        <f>BK31&amp;","&amp;AB31</f>
+        <f t="shared" si="27"/>
         <v>-500,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null,null</v>
       </c>
       <c r="BM31" t="str">
-        <f>BL31&amp;","&amp;AC31</f>
+        <f t="shared" si="28"/>
         <v>-500,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null,null,null</v>
       </c>
       <c r="BN31" s="40" t="str">
-        <f>BM31&amp;","&amp;AD31</f>
+        <f t="shared" si="29"/>
         <v>-500,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null,null,null,null</v>
       </c>
     </row>
-    <row r="32" spans="2:67" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B32" s="11" t="s">
         <v>35</v>
       </c>
@@ -25034,7 +25066,7 @@
       <c r="AK32" s="7"/>
       <c r="AL32" s="7"/>
       <c r="AM32" s="7"/>
-      <c r="AN32" s="3" t="s">
+      <c r="AN32" s="4" t="s">
         <v>1</v>
       </c>
       <c r="AO32" s="4" t="s">
@@ -25045,7 +25077,7 @@
       </c>
       <c r="BN32" s="40"/>
     </row>
-    <row r="33" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B33" s="42" t="s">
         <v>184</v>
       </c>
@@ -25099,9 +25131,13 @@
       <c r="S33" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="T33" s="7"/>
-      <c r="U33" s="7"/>
-      <c r="V33" s="7"/>
+      <c r="T33" s="4">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="W33" s="7"/>
       <c r="X33" s="21"/>
       <c r="Y33" s="21"/>
@@ -25119,12 +25155,14 @@
       <c r="AK33" s="7"/>
       <c r="AL33" s="7"/>
       <c r="AM33" s="7"/>
-      <c r="AN33" s="3"/>
+      <c r="AN33" s="4">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="AO33" s="4"/>
       <c r="AP33" s="4"/>
       <c r="BN33" s="40"/>
     </row>
-    <row r="34" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B34" s="42" t="s">
         <v>185</v>
       </c>
@@ -25178,9 +25216,13 @@
       <c r="S34" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="T34" s="7"/>
-      <c r="U34" s="7"/>
-      <c r="V34" s="7"/>
+      <c r="T34" s="4">
+        <v>0</v>
+      </c>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="W34" s="7"/>
       <c r="X34" s="21"/>
       <c r="Y34" s="21"/>
@@ -25198,12 +25240,14 @@
       <c r="AK34" s="7"/>
       <c r="AL34" s="7"/>
       <c r="AM34" s="7"/>
-      <c r="AN34" s="3"/>
+      <c r="AN34" s="4">
+        <v>0</v>
+      </c>
       <c r="AO34" s="4"/>
       <c r="AP34" s="4"/>
       <c r="BN34" s="40"/>
     </row>
-    <row r="35" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B35" s="42" t="s">
         <v>186</v>
       </c>
@@ -25212,14 +25256,14 @@
       </c>
       <c r="D35" s="44">
         <f>(F35-G35)/G35</f>
-        <v>-0.6</v>
+        <v>-0.33333333333333331</v>
       </c>
       <c r="E35" s="44"/>
       <c r="F35" s="43">
         <v>200</v>
       </c>
       <c r="G35" s="43">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="H35" s="44" t="s">
         <v>97</v>
@@ -25257,9 +25301,13 @@
       <c r="S35" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="T35" s="7"/>
-      <c r="U35" s="7"/>
-      <c r="V35" s="7"/>
+      <c r="T35" s="4">
+        <v>-0.33333333333333331</v>
+      </c>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="W35" s="7"/>
       <c r="X35" s="21"/>
       <c r="Y35" s="21"/>
@@ -25277,12 +25325,14 @@
       <c r="AK35" s="7"/>
       <c r="AL35" s="7"/>
       <c r="AM35" s="7"/>
-      <c r="AN35" s="3"/>
+      <c r="AN35" s="4">
+        <v>-0.33333333333333331</v>
+      </c>
       <c r="AO35" s="4"/>
       <c r="AP35" s="4"/>
       <c r="BN35" s="40"/>
     </row>
-    <row r="36" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B36" s="42" t="s">
         <v>187</v>
       </c>
@@ -25337,9 +25387,15 @@
       <c r="S36" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="T36" s="7"/>
-      <c r="U36" s="7"/>
-      <c r="V36" s="7"/>
+      <c r="T36" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="U36" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="V36" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="W36" s="7"/>
       <c r="X36" s="21"/>
       <c r="Y36" s="21"/>
@@ -25357,12 +25413,16 @@
       <c r="AK36" s="7"/>
       <c r="AL36" s="7"/>
       <c r="AM36" s="7"/>
-      <c r="AN36" s="3"/>
-      <c r="AO36" s="4"/>
+      <c r="AN36" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="AO36" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="AP36" s="4"/>
       <c r="BN36" s="40"/>
     </row>
-    <row r="37" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B37" s="42" t="s">
         <v>188</v>
       </c>
@@ -25417,9 +25477,15 @@
       <c r="S37" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="T37" s="7"/>
-      <c r="U37" s="7"/>
-      <c r="V37" s="7"/>
+      <c r="T37" s="4">
+        <v>0</v>
+      </c>
+      <c r="U37" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="V37" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="W37" s="7"/>
       <c r="X37" s="21"/>
       <c r="Y37" s="21"/>
@@ -25437,12 +25503,16 @@
       <c r="AK37" s="7"/>
       <c r="AL37" s="7"/>
       <c r="AM37" s="7"/>
-      <c r="AN37" s="3"/>
-      <c r="AO37" s="4"/>
+      <c r="AN37" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO37" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="AP37" s="4"/>
       <c r="BN37" s="40"/>
     </row>
-    <row r="38" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B38" s="42" t="s">
         <v>189</v>
       </c>
@@ -25497,9 +25567,15 @@
       <c r="S38" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="T38" s="7"/>
-      <c r="U38" s="7"/>
-      <c r="V38" s="7"/>
+      <c r="T38" s="4">
+        <v>-1000000</v>
+      </c>
+      <c r="U38" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="V38" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="W38" s="7"/>
       <c r="X38" s="21"/>
       <c r="Y38" s="21"/>
@@ -25517,12 +25593,16 @@
       <c r="AK38" s="7"/>
       <c r="AL38" s="7"/>
       <c r="AM38" s="7"/>
-      <c r="AN38" s="3"/>
-      <c r="AO38" s="4"/>
+      <c r="AN38" s="4">
+        <v>-1000000</v>
+      </c>
+      <c r="AO38" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="AP38" s="4"/>
       <c r="BN38" s="40"/>
     </row>
-    <row r="39" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B39" s="42" t="s">
         <v>190</v>
       </c>
@@ -25576,9 +25656,13 @@
       <c r="S39" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="T39" s="7"/>
-      <c r="U39" s="7"/>
-      <c r="V39" s="7"/>
+      <c r="T39" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="W39" s="7"/>
       <c r="X39" s="21"/>
       <c r="Y39" s="21"/>
@@ -25596,12 +25680,14 @@
       <c r="AK39" s="7"/>
       <c r="AL39" s="7"/>
       <c r="AM39" s="7"/>
-      <c r="AN39" s="3"/>
+      <c r="AN39" s="4">
+        <v>3.5</v>
+      </c>
       <c r="AO39" s="4"/>
       <c r="AP39" s="4"/>
       <c r="BN39" s="40"/>
     </row>
-    <row r="40" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B40" s="42" t="s">
         <v>191</v>
       </c>
@@ -25609,7 +25695,7 @@
         <v>3</v>
       </c>
       <c r="D40" s="44">
-        <f t="shared" ref="D40:D41" si="27">(F40-G40)/ABS(G40)</f>
+        <f t="shared" ref="D40:D41" si="35">(F40-G40)/ABS(G40)</f>
         <v>0</v>
       </c>
       <c r="E40" s="44"/>
@@ -25655,9 +25741,13 @@
       <c r="S40" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="T40" s="7"/>
-      <c r="U40" s="7"/>
-      <c r="V40" s="7"/>
+      <c r="T40" s="4">
+        <v>0</v>
+      </c>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="W40" s="7"/>
       <c r="X40" s="21"/>
       <c r="Y40" s="21"/>
@@ -25675,12 +25765,14 @@
       <c r="AK40" s="7"/>
       <c r="AL40" s="7"/>
       <c r="AM40" s="7"/>
-      <c r="AN40" s="3"/>
+      <c r="AN40" s="4">
+        <v>0</v>
+      </c>
       <c r="AO40" s="4"/>
       <c r="AP40" s="4"/>
       <c r="BN40" s="40"/>
     </row>
-    <row r="41" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B41" s="42" t="s">
         <v>192</v>
       </c>
@@ -25688,7 +25780,7 @@
         <v>3</v>
       </c>
       <c r="D41" s="44">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="E41" s="44"/>
@@ -25734,9 +25826,13 @@
       <c r="S41" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="T41" s="7"/>
-      <c r="U41" s="7"/>
-      <c r="V41" s="7"/>
+      <c r="T41" s="4">
+        <v>1</v>
+      </c>
+      <c r="U41" s="4"/>
+      <c r="V41" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="W41" s="7"/>
       <c r="X41" s="21"/>
       <c r="Y41" s="21"/>
@@ -25754,12 +25850,14 @@
       <c r="AK41" s="7"/>
       <c r="AL41" s="7"/>
       <c r="AM41" s="7"/>
-      <c r="AN41" s="3"/>
+      <c r="AN41" s="4">
+        <v>1</v>
+      </c>
       <c r="AO41" s="4"/>
       <c r="AP41" s="4"/>
       <c r="BN41" s="40"/>
     </row>
-    <row r="42" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B42" s="42" t="s">
         <v>193</v>
       </c>
@@ -25814,9 +25912,15 @@
       <c r="S42" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="T42" s="7"/>
-      <c r="U42" s="7"/>
-      <c r="V42" s="7"/>
+      <c r="T42" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="U42" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="V42" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="W42" s="7"/>
       <c r="X42" s="21"/>
       <c r="Y42" s="21"/>
@@ -25834,12 +25938,16 @@
       <c r="AK42" s="7"/>
       <c r="AL42" s="7"/>
       <c r="AM42" s="7"/>
-      <c r="AN42" s="3"/>
-      <c r="AO42" s="4"/>
+      <c r="AN42" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO42" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="AP42" s="4"/>
       <c r="BN42" s="40"/>
     </row>
-    <row r="43" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B43" s="42" t="s">
         <v>194</v>
       </c>
@@ -25894,9 +26002,15 @@
       <c r="S43" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="T43" s="7"/>
-      <c r="U43" s="7"/>
-      <c r="V43" s="7"/>
+      <c r="T43" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="U43" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="V43" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="W43" s="7"/>
       <c r="X43" s="21"/>
       <c r="Y43" s="21"/>
@@ -25914,12 +26028,16 @@
       <c r="AK43" s="7"/>
       <c r="AL43" s="7"/>
       <c r="AM43" s="7"/>
-      <c r="AN43" s="3"/>
-      <c r="AO43" s="4"/>
+      <c r="AN43" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO43" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="AP43" s="4"/>
       <c r="BN43" s="40"/>
     </row>
-    <row r="44" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B44" s="42" t="s">
         <v>195</v>
       </c>
@@ -25974,9 +26092,15 @@
       <c r="S44" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="T44" s="7"/>
-      <c r="U44" s="7"/>
-      <c r="V44" s="7"/>
+      <c r="T44" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="U44" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="V44" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="W44" s="7"/>
       <c r="X44" s="21"/>
       <c r="Y44" s="21"/>
@@ -25994,12 +26118,16 @@
       <c r="AK44" s="7"/>
       <c r="AL44" s="7"/>
       <c r="AM44" s="7"/>
-      <c r="AN44" s="3"/>
-      <c r="AO44" s="4"/>
+      <c r="AN44" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO44" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="AP44" s="4"/>
       <c r="BN44" s="40"/>
     </row>
-    <row r="45" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B45" s="47"/>
       <c r="C45" s="48">
         <v>3</v>
@@ -26007,7 +26135,7 @@
       <c r="D45" s="48" t="s">
         <v>196</v>
       </c>
-      <c r="E45" s="48"/>
+      <c r="E45" s="55"/>
       <c r="F45" s="49" t="s">
         <v>49</v>
       </c>
@@ -26070,12 +26198,16 @@
       <c r="AK45" s="7"/>
       <c r="AL45" s="7"/>
       <c r="AM45" s="7"/>
-      <c r="AN45" s="3"/>
-      <c r="AO45" s="4"/>
+      <c r="AN45" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO45" s="57" t="s">
+        <v>223</v>
+      </c>
       <c r="AP45" s="4"/>
       <c r="BN45" s="40"/>
     </row>
-    <row r="46" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B46" s="11" t="s">
         <v>36</v>
       </c>
@@ -26154,7 +26286,7 @@
       <c r="AK46" s="7"/>
       <c r="AL46" s="7"/>
       <c r="AM46" s="7"/>
-      <c r="AN46" s="3" t="s">
+      <c r="AN46" s="4" t="s">
         <v>1</v>
       </c>
       <c r="AO46" s="4" t="s">
@@ -26165,7 +26297,7 @@
       </c>
       <c r="BN46" s="40"/>
     </row>
-    <row r="47" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B47" s="11" t="s">
         <v>37</v>
       </c>
@@ -26244,7 +26376,7 @@
       <c r="AK47" s="6"/>
       <c r="AL47" s="6"/>
       <c r="AM47" s="6"/>
-      <c r="AN47" s="3" t="s">
+      <c r="AN47" s="4" t="s">
         <v>1</v>
       </c>
       <c r="AO47" s="4" t="s">
@@ -26255,7 +26387,7 @@
       </c>
       <c r="BN47" s="40"/>
     </row>
-    <row r="48" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B48" s="11" t="s">
         <v>38</v>
       </c>
@@ -26334,7 +26466,7 @@
       <c r="AK48" s="6"/>
       <c r="AL48" s="6"/>
       <c r="AM48" s="6"/>
-      <c r="AN48" s="3" t="s">
+      <c r="AN48" s="4" t="s">
         <v>1</v>
       </c>
       <c r="AO48" s="4" t="s">
@@ -26345,7 +26477,7 @@
       </c>
       <c r="BN48" s="40"/>
     </row>
-    <row r="49" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B49" s="11" t="s">
         <v>39</v>
       </c>
@@ -26424,7 +26556,7 @@
       <c r="AK49" s="6"/>
       <c r="AL49" s="6"/>
       <c r="AM49" s="6"/>
-      <c r="AN49" s="3" t="s">
+      <c r="AN49" s="4" t="s">
         <v>1</v>
       </c>
       <c r="AO49" s="4" t="s">
@@ -26435,7 +26567,7 @@
       </c>
       <c r="BN49" s="40"/>
     </row>
-    <row r="50" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B50" s="11" t="s">
         <v>40</v>
       </c>
@@ -26514,7 +26646,7 @@
       <c r="AK50" s="6"/>
       <c r="AL50" s="6"/>
       <c r="AM50" s="6"/>
-      <c r="AN50" s="3" t="s">
+      <c r="AN50" s="4" t="s">
         <v>1</v>
       </c>
       <c r="AO50" s="4" t="s">
@@ -26525,7 +26657,7 @@
       </c>
       <c r="BN50" s="40"/>
     </row>
-    <row r="51" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B51" s="11" t="s">
         <v>41</v>
       </c>
@@ -26604,7 +26736,7 @@
       <c r="AK51" s="6"/>
       <c r="AL51" s="6"/>
       <c r="AM51" s="6"/>
-      <c r="AN51" s="3" t="s">
+      <c r="AN51" s="4" t="s">
         <v>1</v>
       </c>
       <c r="AO51" s="4" t="s">
@@ -26615,7 +26747,7 @@
       </c>
       <c r="BN51" s="40"/>
     </row>
-    <row r="52" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B52" s="11" t="s">
         <v>42</v>
       </c>
@@ -26694,7 +26826,7 @@
       <c r="AK52" s="6"/>
       <c r="AL52" s="6"/>
       <c r="AM52" s="6"/>
-      <c r="AN52" s="3" t="s">
+      <c r="AN52" s="4" t="s">
         <v>1</v>
       </c>
       <c r="AO52" s="4" t="s">
@@ -26705,7 +26837,7 @@
       </c>
       <c r="BN52" s="40"/>
     </row>
-    <row r="53" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B53" s="11" t="s">
         <v>43</v>
       </c>
@@ -26784,7 +26916,7 @@
       <c r="AK53" s="6"/>
       <c r="AL53" s="6"/>
       <c r="AM53" s="6"/>
-      <c r="AN53" s="3" t="s">
+      <c r="AN53" s="4" t="s">
         <v>1</v>
       </c>
       <c r="AO53" s="4" t="s">
@@ -26795,7 +26927,7 @@
       </c>
       <c r="BN53" s="40"/>
     </row>
-    <row r="54" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B54" s="11" t="s">
         <v>44</v>
       </c>
@@ -26874,7 +27006,7 @@
       <c r="AK54" s="6"/>
       <c r="AL54" s="6"/>
       <c r="AM54" s="6"/>
-      <c r="AN54" s="3" t="s">
+      <c r="AN54" s="4" t="s">
         <v>1</v>
       </c>
       <c r="AO54" s="4" t="s">
@@ -26885,7 +27017,7 @@
       </c>
       <c r="BN54" s="40"/>
     </row>
-    <row r="55" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B55" s="11" t="s">
         <v>103</v>
       </c>
@@ -26964,7 +27096,7 @@
       <c r="AK55" s="6"/>
       <c r="AL55" s="6"/>
       <c r="AM55" s="6"/>
-      <c r="AN55" s="3" t="s">
+      <c r="AN55" s="4" t="s">
         <v>1</v>
       </c>
       <c r="AO55" s="4" t="s">
@@ -26975,7 +27107,7 @@
       </c>
       <c r="BN55" s="40"/>
     </row>
-    <row r="56" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B56" s="11" t="s">
         <v>104</v>
       </c>
@@ -27054,7 +27186,7 @@
       <c r="AK56" s="6"/>
       <c r="AL56" s="6"/>
       <c r="AM56" s="6"/>
-      <c r="AN56" s="3" t="s">
+      <c r="AN56" s="4" t="s">
         <v>1</v>
       </c>
       <c r="AO56" s="4" t="s">
@@ -27065,7 +27197,7 @@
       </c>
       <c r="BN56" s="40"/>
     </row>
-    <row r="57" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B57" s="11" t="s">
         <v>105</v>
       </c>
@@ -27144,7 +27276,7 @@
       <c r="AK57" s="6"/>
       <c r="AL57" s="6"/>
       <c r="AM57" s="6"/>
-      <c r="AN57" s="3" t="s">
+      <c r="AN57" s="4" t="s">
         <v>1</v>
       </c>
       <c r="AO57" s="4" t="s">
@@ -27155,7 +27287,7 @@
       </c>
       <c r="BN57" s="40"/>
     </row>
-    <row r="58" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B58" s="11" t="s">
         <v>106</v>
       </c>
@@ -27235,7 +27367,7 @@
       <c r="AK58" s="6"/>
       <c r="AL58" s="6"/>
       <c r="AM58" s="6"/>
-      <c r="AN58" s="14">
+      <c r="AN58" s="7">
         <v>0.5</v>
       </c>
       <c r="AO58" s="7"/>
@@ -27244,7 +27376,7 @@
       </c>
       <c r="BN58" s="40"/>
     </row>
-    <row r="59" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B59" s="11" t="s">
         <v>107</v>
       </c>
@@ -27334,7 +27466,7 @@
       </c>
       <c r="BN59" s="40"/>
     </row>
-    <row r="60" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B60" s="11" t="s">
         <v>108</v>
       </c>
@@ -27424,7 +27556,7 @@
       </c>
       <c r="BN60" s="40"/>
     </row>
-    <row r="61" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B61" s="11" t="s">
         <v>109</v>
       </c>
@@ -27503,7 +27635,7 @@
       <c r="AK61" s="6"/>
       <c r="AL61" s="6"/>
       <c r="AM61" s="6"/>
-      <c r="AN61" s="33">
+      <c r="AN61" s="41">
         <v>-1000000</v>
       </c>
       <c r="AO61" s="7" t="s">
@@ -27514,7 +27646,7 @@
       </c>
       <c r="BN61" s="40"/>
     </row>
-    <row r="62" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B62" s="11" t="s">
         <v>110</v>
       </c>
@@ -27604,7 +27736,7 @@
       </c>
       <c r="BN62" s="40"/>
     </row>
-    <row r="63" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B63" s="11" t="s">
         <v>111</v>
       </c>
@@ -27683,7 +27815,7 @@
       <c r="AK63" s="6"/>
       <c r="AL63" s="6"/>
       <c r="AM63" s="6"/>
-      <c r="AN63" s="33">
+      <c r="AN63" s="41">
         <v>-1000000</v>
       </c>
       <c r="AO63" s="7" t="s">
@@ -27694,7 +27826,7 @@
       </c>
       <c r="BN63" s="40"/>
     </row>
-    <row r="64" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B64" s="11" t="s">
         <v>112</v>
       </c>
@@ -27773,7 +27905,7 @@
       <c r="AK64" s="6"/>
       <c r="AL64" s="6"/>
       <c r="AM64" s="6"/>
-      <c r="AN64" s="33">
+      <c r="AN64" s="41">
         <v>-1000000</v>
       </c>
       <c r="AO64" s="7" t="s">
@@ -27784,7 +27916,7 @@
       </c>
       <c r="BN64" s="40"/>
     </row>
-    <row r="65" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B65" s="38" t="s">
         <v>166</v>
       </c>
@@ -27888,103 +28020,103 @@
         <v>152</v>
       </c>
       <c r="AQ65" t="str">
-        <f t="shared" ref="AQ65:AQ109" si="28">F65&amp;","&amp;G65</f>
+        <f t="shared" ref="AQ65:AQ109" si="36">F65&amp;","&amp;G65</f>
         <v>null,null</v>
       </c>
       <c r="AR65" t="str">
-        <f t="shared" ref="AR65:AR109" si="29">AQ65&amp;","&amp;H65</f>
+        <f t="shared" ref="AR65:AR109" si="37">AQ65&amp;","&amp;H65</f>
         <v>null,null,'1'</v>
       </c>
       <c r="AS65" t="str">
-        <f t="shared" ref="AS65:AS109" si="30">AR65&amp;","&amp;I65</f>
+        <f t="shared" ref="AS65:AS109" si="38">AR65&amp;","&amp;I65</f>
         <v>null,null,'1','1'</v>
       </c>
       <c r="AT65" t="str">
-        <f t="shared" ref="AT65:AT109" si="31">AS65&amp;","&amp;J65</f>
+        <f t="shared" ref="AT65:AT109" si="39">AS65&amp;","&amp;J65</f>
         <v>null,null,'1','1',null</v>
       </c>
       <c r="AU65" t="str">
-        <f t="shared" ref="AU65:AU109" si="32">AT65&amp;","&amp;K65</f>
+        <f t="shared" ref="AU65:AU109" si="40">AT65&amp;","&amp;K65</f>
         <v>null,null,'1','1',null,null</v>
       </c>
       <c r="AV65" t="str">
-        <f t="shared" ref="AV65:AV109" si="33">AU65&amp;","&amp;L65</f>
+        <f t="shared" ref="AV65:AV109" si="41">AU65&amp;","&amp;L65</f>
         <v>null,null,'1','1',null,null,'1'</v>
       </c>
       <c r="AW65" t="str">
-        <f t="shared" ref="AW65:AW109" si="34">AV65&amp;","&amp;M65</f>
+        <f t="shared" ref="AW65:AW109" si="42">AV65&amp;","&amp;M65</f>
         <v>null,null,'1','1',null,null,'1','1'</v>
       </c>
       <c r="AX65" t="str">
-        <f t="shared" ref="AX65:AX109" si="35">AW65&amp;","&amp;N65</f>
+        <f t="shared" ref="AX65:AX109" si="43">AW65&amp;","&amp;N65</f>
         <v>null,null,'1','1',null,null,'1','1',null</v>
       </c>
       <c r="AY65" t="str">
-        <f t="shared" ref="AY65:AY109" si="36">AX65&amp;","&amp;O65</f>
+        <f t="shared" ref="AY65:AY109" si="44">AX65&amp;","&amp;O65</f>
         <v>null,null,'1','1',null,null,'1','1',null,'1'</v>
       </c>
       <c r="AZ65" t="str">
-        <f t="shared" ref="AZ65:AZ109" si="37">AY65&amp;","&amp;P65</f>
+        <f t="shared" ref="AZ65:AZ109" si="45">AY65&amp;","&amp;P65</f>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1'</v>
       </c>
       <c r="BA65" t="str">
-        <f t="shared" ref="BA65:BA109" si="38">AZ65&amp;","&amp;Q65</f>
+        <f t="shared" ref="BA65:BA109" si="46">AZ65&amp;","&amp;Q65</f>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS'</v>
       </c>
       <c r="BB65" t="str">
-        <f t="shared" ref="BB65:BB109" si="39">BA65&amp;","&amp;R65</f>
+        <f t="shared" ref="BB65:BB109" si="47">BA65&amp;","&amp;R65</f>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017'</v>
       </c>
       <c r="BC65" t="str">
-        <f t="shared" ref="BC65:BC109" si="40">BB65&amp;","&amp;S65</f>
+        <f t="shared" ref="BC65:BC109" si="48">BB65&amp;","&amp;S65</f>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016'</v>
       </c>
       <c r="BD65" t="str">
-        <f t="shared" ref="BD65:BD109" si="41">BC65&amp;","&amp;T65</f>
+        <f t="shared" ref="BD65:BD109" si="49">BC65&amp;","&amp;T65</f>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',500</v>
       </c>
       <c r="BE65" t="str">
-        <f t="shared" ref="BE65:BE109" si="42">BD65&amp;","&amp;U65</f>
+        <f t="shared" ref="BE65:BE109" si="50">BD65&amp;","&amp;U65</f>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',500,300</v>
       </c>
       <c r="BF65" t="str">
-        <f t="shared" ref="BF65:BF109" si="43">BE65&amp;","&amp;V65</f>
+        <f t="shared" ref="BF65:BF109" si="51">BE65&amp;","&amp;V65</f>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',500,300,100</v>
       </c>
       <c r="BG65" t="str">
-        <f t="shared" ref="BG65:BG109" si="44">BF65&amp;","&amp;W65</f>
+        <f t="shared" ref="BG65:BG109" si="52">BF65&amp;","&amp;W65</f>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',500,300,100,50</v>
       </c>
       <c r="BH65" t="str">
-        <f t="shared" ref="BH65:BH109" si="45">BG65&amp;","&amp;X65</f>
+        <f t="shared" ref="BH65:BH109" si="53">BG65&amp;","&amp;X65</f>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',500,300,100,50,null</v>
       </c>
       <c r="BI65" t="str">
-        <f t="shared" ref="BI65:BI109" si="46">BH65&amp;","&amp;Y65</f>
+        <f t="shared" ref="BI65:BI109" si="54">BH65&amp;","&amp;Y65</f>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',500,300,100,50,null,null</v>
       </c>
       <c r="BJ65" t="str">
-        <f t="shared" ref="BJ65:BJ109" si="47">BI65&amp;","&amp;Z65</f>
+        <f t="shared" ref="BJ65:BJ109" si="55">BI65&amp;","&amp;Z65</f>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',500,300,100,50,null,null,null</v>
       </c>
       <c r="BK65" t="str">
-        <f t="shared" ref="BK65:BK109" si="48">BJ65&amp;","&amp;AA65</f>
+        <f t="shared" ref="BK65:BK109" si="56">BJ65&amp;","&amp;AA65</f>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',500,300,100,50,null,null,null,null</v>
       </c>
       <c r="BL65" t="str">
-        <f t="shared" ref="BL65:BL109" si="49">BK65&amp;","&amp;AB65</f>
+        <f t="shared" ref="BL65:BL109" si="57">BK65&amp;","&amp;AB65</f>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',500,300,100,50,null,null,null,null,null</v>
       </c>
       <c r="BM65" t="str">
-        <f t="shared" ref="BM65:BM109" si="50">BL65&amp;","&amp;AC65</f>
+        <f t="shared" ref="BM65:BM109" si="58">BL65&amp;","&amp;AC65</f>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',500,300,100,50,null,null,null,null,null,null</v>
       </c>
       <c r="BN65" s="40" t="str">
-        <f t="shared" ref="BN65:BN109" si="51">BM65&amp;","&amp;AD65</f>
+        <f t="shared" ref="BN65:BN109" si="59">BM65&amp;","&amp;AD65</f>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',500,300,100,50,null,null,null,null,null,null,null</v>
       </c>
     </row>
-    <row r="66" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A66" s="16"/>
       <c r="B66" s="38" t="s">
         <v>167</v>
@@ -28092,103 +28224,103 @@
         <v>152</v>
       </c>
       <c r="AQ66" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>null,null</v>
       </c>
       <c r="AR66" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>null,null,'1'</v>
       </c>
       <c r="AS66" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>null,null,'1','1'</v>
       </c>
       <c r="AT66" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>null,null,'1','1',null</v>
       </c>
       <c r="AU66" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>null,null,'1','1',null,null</v>
       </c>
       <c r="AV66" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v>null,null,'1','1',null,null,'1'</v>
       </c>
       <c r="AW66" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v>null,null,'1','1',null,null,'1','1'</v>
       </c>
       <c r="AX66" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>null,null,'1','1',null,null,'1','1',null</v>
       </c>
       <c r="AY66" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1'</v>
       </c>
       <c r="AZ66" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1'</v>
       </c>
       <c r="BA66" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS'</v>
       </c>
       <c r="BB66" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017'</v>
       </c>
       <c r="BC66" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016'</v>
       </c>
       <c r="BD66" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',0</v>
       </c>
       <c r="BE66" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="50"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',0,0</v>
       </c>
       <c r="BF66" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',0,0,0</v>
       </c>
       <c r="BG66" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',0,0,0,0</v>
       </c>
       <c r="BH66" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="53"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',0,0,0,0,null</v>
       </c>
       <c r="BI66" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="54"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',0,0,0,0,null,null</v>
       </c>
       <c r="BJ66" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',0,0,0,0,null,null,null</v>
       </c>
       <c r="BK66" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',0,0,0,0,null,null,null,null</v>
       </c>
       <c r="BL66" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="57"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',0,0,0,0,null,null,null,null,null</v>
       </c>
       <c r="BM66" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',0,0,0,0,null,null,null,null,null,null</v>
       </c>
       <c r="BN66" s="40" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',0,0,0,0,null,null,null,null,null,null,null</v>
       </c>
     </row>
-    <row r="67" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A67" s="16"/>
       <c r="B67" s="38" t="s">
         <v>168</v>
@@ -28296,103 +28428,103 @@
         <v>152</v>
       </c>
       <c r="AQ67" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>null,null</v>
       </c>
       <c r="AR67" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>null,null,'1'</v>
       </c>
       <c r="AS67" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>null,null,'1','1'</v>
       </c>
       <c r="AT67" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>null,null,'1','1',null</v>
       </c>
       <c r="AU67" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>null,null,'1','1',null,null</v>
       </c>
       <c r="AV67" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v>null,null,'1','1',null,null,'1'</v>
       </c>
       <c r="AW67" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v>null,null,'1','1',null,null,'1','1'</v>
       </c>
       <c r="AX67" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>null,null,'1','1',null,null,'1','1',null</v>
       </c>
       <c r="AY67" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1'</v>
       </c>
       <c r="AZ67" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1'</v>
       </c>
       <c r="BA67" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS'</v>
       </c>
       <c r="BB67" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017'</v>
       </c>
       <c r="BC67" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016'</v>
       </c>
       <c r="BD67" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',-200</v>
       </c>
       <c r="BE67" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="50"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',-200,0</v>
       </c>
       <c r="BF67" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',-200,0,-300</v>
       </c>
       <c r="BG67" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',-200,0,-300,0</v>
       </c>
       <c r="BH67" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="53"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',-200,0,-300,0,null</v>
       </c>
       <c r="BI67" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="54"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',-200,0,-300,0,null,null</v>
       </c>
       <c r="BJ67" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',-200,0,-300,0,null,null,null</v>
       </c>
       <c r="BK67" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',-200,0,-300,0,null,null,null,null</v>
       </c>
       <c r="BL67" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="57"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',-200,0,-300,0,null,null,null,null,null</v>
       </c>
       <c r="BM67" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',-200,0,-300,0,null,null,null,null,null,null</v>
       </c>
       <c r="BN67" s="40" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',-200,0,-300,0,null,null,null,null,null,null,null</v>
       </c>
     </row>
-    <row r="68" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A68" s="16"/>
       <c r="B68" s="38" t="s">
         <v>169</v>
@@ -28500,103 +28632,103 @@
         <v>152</v>
       </c>
       <c r="AQ68" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>null,null</v>
       </c>
       <c r="AR68" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>null,null,'1'</v>
       </c>
       <c r="AS68" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>null,null,'1','1'</v>
       </c>
       <c r="AT68" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>null,null,'1','1',null</v>
       </c>
       <c r="AU68" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>null,null,'1','1',null,null</v>
       </c>
       <c r="AV68" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v>null,null,'1','1',null,null,'1'</v>
       </c>
       <c r="AW68" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v>null,null,'1','1',null,null,'1','1'</v>
       </c>
       <c r="AX68" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>null,null,'1','1',null,null,'1','1',null</v>
       </c>
       <c r="AY68" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1'</v>
       </c>
       <c r="AZ68" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1'</v>
       </c>
       <c r="BA68" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS'</v>
       </c>
       <c r="BB68" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017'</v>
       </c>
       <c r="BC68" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016'</v>
       </c>
       <c r="BD68" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',-300</v>
       </c>
       <c r="BE68" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="50"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',-300,-100</v>
       </c>
       <c r="BF68" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',-300,-100,-300</v>
       </c>
       <c r="BG68" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',-300,-100,-300,-300</v>
       </c>
       <c r="BH68" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="53"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',-300,-100,-300,-300,null</v>
       </c>
       <c r="BI68" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="54"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',-300,-100,-300,-300,null,null</v>
       </c>
       <c r="BJ68" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',-300,-100,-300,-300,null,null,null</v>
       </c>
       <c r="BK68" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',-300,-100,-300,-300,null,null,null,null</v>
       </c>
       <c r="BL68" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="57"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',-300,-100,-300,-300,null,null,null,null,null</v>
       </c>
       <c r="BM68" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',-300,-100,-300,-300,null,null,null,null,null,null</v>
       </c>
       <c r="BN68" s="40" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',-300,-100,-300,-300,null,null,null,null,null,null,null</v>
       </c>
     </row>
-    <row r="69" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A69" s="16"/>
       <c r="B69" s="38" t="s">
         <v>170</v>
@@ -28704,103 +28836,103 @@
         <v>152</v>
       </c>
       <c r="AQ69" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>null,null</v>
       </c>
       <c r="AR69" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>null,null,'1'</v>
       </c>
       <c r="AS69" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>null,null,'1','1'</v>
       </c>
       <c r="AT69" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>null,null,'1','1',null</v>
       </c>
       <c r="AU69" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>null,null,'1','1',null,null</v>
       </c>
       <c r="AV69" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v>null,null,'1','1',null,null,'1'</v>
       </c>
       <c r="AW69" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v>null,null,'1','1',null,null,'1','0'</v>
       </c>
       <c r="AX69" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>null,null,'1','1',null,null,'1','0',null</v>
       </c>
       <c r="AY69" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v>null,null,'1','1',null,null,'1','0',null,'1'</v>
       </c>
       <c r="AZ69" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v>null,null,'1','1',null,null,'1','0',null,'1','1'</v>
       </c>
       <c r="BA69" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>null,null,'1','1',null,null,'1','0',null,'1','1','FIS'</v>
       </c>
       <c r="BB69" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>null,null,'1','1',null,null,'1','0',null,'1','1','FIS','02/05/2017'</v>
       </c>
       <c r="BC69" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>null,null,'1','1',null,null,'1','0',null,'1','1','FIS','02/05/2017','02/06/2016'</v>
       </c>
       <c r="BD69" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v>null,null,'1','1',null,null,'1','0',null,'1','1','FIS','02/05/2017','02/06/2016',500</v>
       </c>
       <c r="BE69" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="50"/>
         <v>null,null,'1','1',null,null,'1','0',null,'1','1','FIS','02/05/2017','02/06/2016',500,300</v>
       </c>
       <c r="BF69" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>null,null,'1','1',null,null,'1','0',null,'1','1','FIS','02/05/2017','02/06/2016',500,300,100</v>
       </c>
       <c r="BG69" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>null,null,'1','1',null,null,'1','0',null,'1','1','FIS','02/05/2017','02/06/2016',500,300,100,50</v>
       </c>
       <c r="BH69" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="53"/>
         <v>null,null,'1','1',null,null,'1','0',null,'1','1','FIS','02/05/2017','02/06/2016',500,300,100,50,null</v>
       </c>
       <c r="BI69" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="54"/>
         <v>null,null,'1','1',null,null,'1','0',null,'1','1','FIS','02/05/2017','02/06/2016',500,300,100,50,null,null</v>
       </c>
       <c r="BJ69" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>null,null,'1','1',null,null,'1','0',null,'1','1','FIS','02/05/2017','02/06/2016',500,300,100,50,null,null,null</v>
       </c>
       <c r="BK69" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>null,null,'1','1',null,null,'1','0',null,'1','1','FIS','02/05/2017','02/06/2016',500,300,100,50,null,null,null,null</v>
       </c>
       <c r="BL69" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="57"/>
         <v>null,null,'1','1',null,null,'1','0',null,'1','1','FIS','02/05/2017','02/06/2016',500,300,100,50,null,null,null,null,null</v>
       </c>
       <c r="BM69" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>null,null,'1','1',null,null,'1','0',null,'1','1','FIS','02/05/2017','02/06/2016',500,300,100,50,null,null,null,null,null,null</v>
       </c>
       <c r="BN69" s="40" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>null,null,'1','1',null,null,'1','0',null,'1','1','FIS','02/05/2017','02/06/2016',500,300,100,50,null,null,null,null,null,null,null</v>
       </c>
     </row>
-    <row r="70" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A70" s="16"/>
       <c r="B70" s="38" t="s">
         <v>171</v>
@@ -28908,103 +29040,103 @@
         <v>152</v>
       </c>
       <c r="AQ70" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>null,null</v>
       </c>
       <c r="AR70" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>null,null,'1'</v>
       </c>
       <c r="AS70" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>null,null,'1','1'</v>
       </c>
       <c r="AT70" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>null,null,'1','1',null</v>
       </c>
       <c r="AU70" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>null,null,'1','1',null,null</v>
       </c>
       <c r="AV70" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v>null,null,'1','1',null,null,'1'</v>
       </c>
       <c r="AW70" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v>null,null,'1','1',null,null,'1','1'</v>
       </c>
       <c r="AX70" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>null,null,'1','1',null,null,'1','1',null</v>
       </c>
       <c r="AY70" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v>null,null,'1','1',null,null,'1','1',null,'0'</v>
       </c>
       <c r="AZ70" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v>null,null,'1','1',null,null,'1','1',null,'0','1'</v>
       </c>
       <c r="BA70" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>null,null,'1','1',null,null,'1','1',null,'0','1','FIS'</v>
       </c>
       <c r="BB70" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>null,null,'1','1',null,null,'1','1',null,'0','1','FIS','02/05/2017'</v>
       </c>
       <c r="BC70" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>null,null,'1','1',null,null,'1','1',null,'0','1','FIS','02/05/2017','02/06/2016'</v>
       </c>
       <c r="BD70" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v>null,null,'1','1',null,null,'1','1',null,'0','1','FIS','02/05/2017','02/06/2016',500</v>
       </c>
       <c r="BE70" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="50"/>
         <v>null,null,'1','1',null,null,'1','1',null,'0','1','FIS','02/05/2017','02/06/2016',500,300</v>
       </c>
       <c r="BF70" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>null,null,'1','1',null,null,'1','1',null,'0','1','FIS','02/05/2017','02/06/2016',500,300,100</v>
       </c>
       <c r="BG70" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>null,null,'1','1',null,null,'1','1',null,'0','1','FIS','02/05/2017','02/06/2016',500,300,100,50</v>
       </c>
       <c r="BH70" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="53"/>
         <v>null,null,'1','1',null,null,'1','1',null,'0','1','FIS','02/05/2017','02/06/2016',500,300,100,50,null</v>
       </c>
       <c r="BI70" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="54"/>
         <v>null,null,'1','1',null,null,'1','1',null,'0','1','FIS','02/05/2017','02/06/2016',500,300,100,50,null,null</v>
       </c>
       <c r="BJ70" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>null,null,'1','1',null,null,'1','1',null,'0','1','FIS','02/05/2017','02/06/2016',500,300,100,50,null,null,null</v>
       </c>
       <c r="BK70" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>null,null,'1','1',null,null,'1','1',null,'0','1','FIS','02/05/2017','02/06/2016',500,300,100,50,null,null,null,null</v>
       </c>
       <c r="BL70" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="57"/>
         <v>null,null,'1','1',null,null,'1','1',null,'0','1','FIS','02/05/2017','02/06/2016',500,300,100,50,null,null,null,null,null</v>
       </c>
       <c r="BM70" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>null,null,'1','1',null,null,'1','1',null,'0','1','FIS','02/05/2017','02/06/2016',500,300,100,50,null,null,null,null,null,null</v>
       </c>
       <c r="BN70" s="40" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>null,null,'1','1',null,null,'1','1',null,'0','1','FIS','02/05/2017','02/06/2016',500,300,100,50,null,null,null,null,null,null,null</v>
       </c>
     </row>
-    <row r="71" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B71" s="38" t="s">
         <v>172</v>
       </c>
@@ -29111,103 +29243,103 @@
         <v>152</v>
       </c>
       <c r="AQ71" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>null,null</v>
       </c>
       <c r="AR71" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>null,null,null</v>
       </c>
       <c r="AS71" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>null,null,null,null</v>
       </c>
       <c r="AT71" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>null,null,null,null,null</v>
       </c>
       <c r="AU71" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>null,null,null,null,null,null</v>
       </c>
       <c r="AV71" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v>null,null,null,null,null,null,null</v>
       </c>
       <c r="AW71" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v>null,null,null,null,null,null,null,null</v>
       </c>
       <c r="AX71" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>null,null,null,null,null,null,null,null,null</v>
       </c>
       <c r="AY71" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v>null,null,null,null,null,null,null,null,null,null</v>
       </c>
       <c r="AZ71" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v>null,null,null,null,null,null,null,null,null,null,null</v>
       </c>
       <c r="BA71" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>null,null,null,null,null,null,null,null,null,null,null,'FIS'</v>
       </c>
       <c r="BB71" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>null,null,null,null,null,null,null,null,null,null,null,'FIS',null</v>
       </c>
       <c r="BC71" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>null,null,null,null,null,null,null,null,null,null,null,'FIS',null,null</v>
       </c>
       <c r="BD71" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v>null,null,null,null,null,null,null,null,null,null,null,'FIS',null,null,null</v>
       </c>
       <c r="BE71" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="50"/>
         <v>null,null,null,null,null,null,null,null,null,null,null,'FIS',null,null,null,null</v>
       </c>
       <c r="BF71" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>null,null,null,null,null,null,null,null,null,null,null,'FIS',null,null,null,null,null</v>
       </c>
       <c r="BG71" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>null,null,null,null,null,null,null,null,null,null,null,'FIS',null,null,null,null,null,null</v>
       </c>
       <c r="BH71" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="53"/>
         <v>null,null,null,null,null,null,null,null,null,null,null,'FIS',null,null,null,null,null,null,null</v>
       </c>
       <c r="BI71" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="54"/>
         <v>null,null,null,null,null,null,null,null,null,null,null,'FIS',null,null,null,null,null,null,null,null</v>
       </c>
       <c r="BJ71" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>null,null,null,null,null,null,null,null,null,null,null,'FIS',null,null,null,null,null,null,null,null,null</v>
       </c>
       <c r="BK71" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>null,null,null,null,null,null,null,null,null,null,null,'FIS',null,null,null,null,null,null,null,null,null,null</v>
       </c>
       <c r="BL71" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="57"/>
         <v>null,null,null,null,null,null,null,null,null,null,null,'FIS',null,null,null,null,null,null,null,null,null,null,null</v>
       </c>
       <c r="BM71" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>null,null,null,null,null,null,null,null,null,null,null,'FIS',null,null,null,null,null,null,null,null,null,null,null,null</v>
       </c>
       <c r="BN71" s="40" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>null,null,null,null,null,null,null,null,null,null,null,'FIS',null,null,null,null,null,null,null,null,null,null,null,null,null</v>
       </c>
     </row>
-    <row r="72" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B72" s="42" t="s">
         <v>195</v>
       </c>
@@ -29273,11 +29405,11 @@
       <c r="AC72" s="7"/>
       <c r="AD72" s="7"/>
       <c r="AE72" s="50">
-        <f>MAX(T72,V72)</f>
+        <f t="shared" ref="AE72:AE83" si="60">MAX(T72,V72)</f>
         <v>300</v>
       </c>
       <c r="AF72" s="50">
-        <f>MAX(U72,W72)</f>
+        <f t="shared" ref="AF72:AF83" si="61">MAX(U72,W72)</f>
         <v>200</v>
       </c>
       <c r="AG72" s="7"/>
@@ -29286,19 +29418,23 @@
       <c r="AJ72" s="7"/>
       <c r="AK72" s="7"/>
       <c r="AL72" s="43">
-        <f>AE72-AF72</f>
+        <f t="shared" ref="AL72:AL83" si="62">AE72-AF72</f>
         <v>100</v>
       </c>
       <c r="AM72" s="43">
-        <f>AF72</f>
+        <f t="shared" ref="AM72:AM83" si="63">AF72</f>
         <v>200</v>
       </c>
-      <c r="AN72" s="3"/>
-      <c r="AO72" s="3"/>
-      <c r="AP72" s="7"/>
+      <c r="AN72" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="AO72" s="4"/>
+      <c r="AP72" s="7" t="s">
+        <v>152</v>
+      </c>
       <c r="BN72" s="40"/>
     </row>
-    <row r="73" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B73" s="42" t="s">
         <v>197</v>
       </c>
@@ -29368,11 +29504,11 @@
       <c r="AC73" s="7"/>
       <c r="AD73" s="7"/>
       <c r="AE73" s="50">
-        <f>MAX(T73,V73)</f>
+        <f t="shared" si="60"/>
         <v>200</v>
       </c>
       <c r="AF73" s="50">
-        <f>MAX(U73,W73)</f>
+        <f t="shared" si="61"/>
         <v>200</v>
       </c>
       <c r="AG73" s="7"/>
@@ -29381,19 +29517,23 @@
       <c r="AJ73" s="7"/>
       <c r="AK73" s="7"/>
       <c r="AL73" s="43">
-        <f>AE73-AF73</f>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="AM73" s="43">
-        <f>AF73</f>
+        <f t="shared" si="63"/>
         <v>200</v>
       </c>
-      <c r="AN73" s="3"/>
-      <c r="AO73" s="3"/>
-      <c r="AP73" s="7"/>
+      <c r="AN73" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO73" s="4"/>
+      <c r="AP73" s="7" t="s">
+        <v>152</v>
+      </c>
       <c r="BN73" s="40"/>
     </row>
-    <row r="74" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B74" s="42" t="s">
         <v>198</v>
       </c>
@@ -29463,11 +29603,11 @@
       <c r="AC74" s="7"/>
       <c r="AD74" s="7"/>
       <c r="AE74" s="50">
-        <f>MAX(T74,V74)</f>
+        <f t="shared" si="60"/>
         <v>-200</v>
       </c>
       <c r="AF74" s="50">
-        <f>MAX(U74,W74)</f>
+        <f t="shared" si="61"/>
         <v>200</v>
       </c>
       <c r="AG74" s="7"/>
@@ -29476,19 +29616,23 @@
       <c r="AJ74" s="7"/>
       <c r="AK74" s="7"/>
       <c r="AL74" s="43">
-        <f>AE74-AF74</f>
+        <f t="shared" si="62"/>
         <v>-400</v>
       </c>
       <c r="AM74" s="43">
-        <f>AF74</f>
+        <f t="shared" si="63"/>
         <v>200</v>
       </c>
-      <c r="AN74" s="3"/>
-      <c r="AO74" s="3"/>
-      <c r="AP74" s="7"/>
+      <c r="AN74" s="4">
+        <v>-2</v>
+      </c>
+      <c r="AO74" s="4"/>
+      <c r="AP74" s="7" t="s">
+        <v>152</v>
+      </c>
       <c r="BN74" s="40"/>
     </row>
-    <row r="75" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B75" s="42" t="s">
         <v>199</v>
       </c>
@@ -29559,11 +29703,11 @@
       <c r="AC75" s="7"/>
       <c r="AD75" s="7"/>
       <c r="AE75" s="50">
-        <f>MAX(T75,V75)</f>
+        <f t="shared" si="60"/>
         <v>500</v>
       </c>
       <c r="AF75" s="50">
-        <f>MAX(U75,W75)</f>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AG75" s="7"/>
@@ -29572,19 +29716,25 @@
       <c r="AJ75" s="7"/>
       <c r="AK75" s="7"/>
       <c r="AL75" s="50">
-        <f>AE75-AF75</f>
+        <f t="shared" si="62"/>
         <v>500</v>
       </c>
       <c r="AM75" s="50">
-        <f>AF75</f>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="AN75" s="3"/>
-      <c r="AO75" s="3"/>
-      <c r="AP75" s="7"/>
+      <c r="AN75" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="AO75" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP75" s="7" t="s">
+        <v>152</v>
+      </c>
       <c r="BN75" s="40"/>
     </row>
-    <row r="76" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B76" s="42" t="s">
         <v>200</v>
       </c>
@@ -29655,11 +29805,11 @@
       <c r="AC76" s="7"/>
       <c r="AD76" s="7"/>
       <c r="AE76" s="50">
-        <f>MAX(T76,V76)</f>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="AF76" s="50">
-        <f>MAX(U76,W76)</f>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AG76" s="7"/>
@@ -29668,19 +29818,25 @@
       <c r="AJ76" s="7"/>
       <c r="AK76" s="7"/>
       <c r="AL76" s="50">
-        <f>AE76-AF76</f>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="AM76" s="50">
-        <f>AF76</f>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="AN76" s="3"/>
-      <c r="AO76" s="3"/>
-      <c r="AP76" s="7"/>
+      <c r="AN76" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO76" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP76" s="7" t="s">
+        <v>152</v>
+      </c>
       <c r="BN76" s="40"/>
     </row>
-    <row r="77" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B77" s="42" t="s">
         <v>201</v>
       </c>
@@ -29751,11 +29907,11 @@
       <c r="AC77" s="7"/>
       <c r="AD77" s="7"/>
       <c r="AE77" s="50">
-        <f>MAX(T77,V77)</f>
+        <f t="shared" si="60"/>
         <v>-200</v>
       </c>
       <c r="AF77" s="50">
-        <f>MAX(U77,W77)</f>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AG77" s="7"/>
@@ -29764,19 +29920,25 @@
       <c r="AJ77" s="7"/>
       <c r="AK77" s="7"/>
       <c r="AL77" s="50">
-        <f>AE77-AF77</f>
+        <f t="shared" si="62"/>
         <v>-200</v>
       </c>
       <c r="AM77" s="50">
-        <f>AF77</f>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="AN77" s="3"/>
-      <c r="AO77" s="3"/>
-      <c r="AP77" s="7"/>
+      <c r="AN77" s="4">
+        <v>-1000000</v>
+      </c>
+      <c r="AO77" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="AP77" s="7" t="s">
+        <v>152</v>
+      </c>
       <c r="BN77" s="40"/>
     </row>
-    <row r="78" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B78" s="42" t="s">
         <v>202</v>
       </c>
@@ -29847,11 +30009,11 @@
       <c r="AC78" s="7"/>
       <c r="AD78" s="7"/>
       <c r="AE78" s="50">
-        <f>MAX(T78,V78)</f>
+        <f t="shared" si="60"/>
         <v>500</v>
       </c>
       <c r="AF78" s="50">
-        <f>MAX(U78,W78)</f>
+        <f t="shared" si="61"/>
         <v>-50</v>
       </c>
       <c r="AG78" s="7"/>
@@ -29860,19 +30022,23 @@
       <c r="AJ78" s="7"/>
       <c r="AK78" s="7"/>
       <c r="AL78" s="50">
-        <f>AE78-AF78</f>
+        <f t="shared" si="62"/>
         <v>550</v>
       </c>
       <c r="AM78" s="50">
-        <f>AF78</f>
+        <f t="shared" si="63"/>
         <v>-50</v>
       </c>
-      <c r="AN78" s="3"/>
-      <c r="AO78" s="3"/>
+      <c r="AN78" s="4">
+        <v>-1000000</v>
+      </c>
+      <c r="AO78" s="4" t="s">
+        <v>150</v>
+      </c>
       <c r="AP78" s="7"/>
       <c r="BN78" s="40"/>
     </row>
-    <row r="79" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B79" s="42" t="s">
         <v>203</v>
       </c>
@@ -29943,11 +30109,11 @@
       <c r="AC79" s="7"/>
       <c r="AD79" s="7"/>
       <c r="AE79" s="50">
-        <f>MAX(T79,V79)</f>
+        <f t="shared" si="60"/>
         <v>-50</v>
       </c>
       <c r="AF79" s="50">
-        <f>MAX(U79,W79)</f>
+        <f t="shared" si="61"/>
         <v>-50</v>
       </c>
       <c r="AG79" s="7"/>
@@ -29956,19 +30122,23 @@
       <c r="AJ79" s="7"/>
       <c r="AK79" s="7"/>
       <c r="AL79" s="50">
-        <f>AE79-AF79</f>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="AM79" s="50">
-        <f>AF79</f>
+        <f t="shared" si="63"/>
         <v>-50</v>
       </c>
-      <c r="AN79" s="3"/>
-      <c r="AO79" s="3"/>
+      <c r="AN79" s="4">
+        <v>-1000000</v>
+      </c>
+      <c r="AO79" s="4" t="s">
+        <v>150</v>
+      </c>
       <c r="AP79" s="7"/>
       <c r="BN79" s="40"/>
     </row>
-    <row r="80" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B80" s="42" t="s">
         <v>204</v>
       </c>
@@ -30039,11 +30209,11 @@
       <c r="AC80" s="7"/>
       <c r="AD80" s="7"/>
       <c r="AE80" s="50">
-        <f>MAX(T80,V80)</f>
+        <f t="shared" si="60"/>
         <v>-200</v>
       </c>
       <c r="AF80" s="50">
-        <f>MAX(U80,W80)</f>
+        <f t="shared" si="61"/>
         <v>-50</v>
       </c>
       <c r="AG80" s="7"/>
@@ -30052,29 +30222,33 @@
       <c r="AJ80" s="7"/>
       <c r="AK80" s="7"/>
       <c r="AL80" s="50">
-        <f>AE80-AF80</f>
+        <f t="shared" si="62"/>
         <v>-150</v>
       </c>
       <c r="AM80" s="50">
-        <f>AF80</f>
+        <f t="shared" si="63"/>
         <v>-50</v>
       </c>
-      <c r="AN80" s="3"/>
-      <c r="AO80" s="3"/>
+      <c r="AN80" s="4">
+        <v>-1000000</v>
+      </c>
+      <c r="AO80" s="4" t="s">
+        <v>150</v>
+      </c>
       <c r="AP80" s="7"/>
       <c r="BN80" s="40"/>
     </row>
-    <row r="81" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B81" s="47" t="s">
         <v>215</v>
       </c>
       <c r="C81" s="6">
         <v>4</v>
       </c>
-      <c r="D81" s="48" t="s">
+      <c r="D81" s="55" t="s">
         <v>196</v>
       </c>
-      <c r="E81" s="52" t="s">
+      <c r="E81" s="56" t="s">
         <v>205</v>
       </c>
       <c r="F81" s="7"/>
@@ -30135,11 +30309,11 @@
       <c r="AC81" s="7"/>
       <c r="AD81" s="7"/>
       <c r="AE81" s="50">
-        <f>MAX(T81,V81)</f>
+        <f t="shared" si="60"/>
         <v>300</v>
       </c>
       <c r="AF81" s="50">
-        <f>MAX(U81,W81)</f>
+        <f t="shared" si="61"/>
         <v>200</v>
       </c>
       <c r="AG81" s="7"/>
@@ -30148,29 +30322,31 @@
       <c r="AJ81" s="7"/>
       <c r="AK81" s="7"/>
       <c r="AL81" s="50">
-        <f>AE81-AF81</f>
+        <f t="shared" si="62"/>
         <v>100</v>
       </c>
       <c r="AM81" s="50">
-        <f>AF81</f>
+        <f t="shared" si="63"/>
         <v>200</v>
       </c>
-      <c r="AN81" s="3"/>
-      <c r="AO81" s="3"/>
+      <c r="AN81" s="57">
+        <v>0.5</v>
+      </c>
+      <c r="AO81" s="57"/>
       <c r="AP81" s="7"/>
       <c r="BN81" s="40"/>
     </row>
-    <row r="82" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B82" s="47" t="s">
         <v>216</v>
       </c>
       <c r="C82" s="6">
         <v>4</v>
       </c>
-      <c r="D82" s="48">
+      <c r="D82" s="55">
         <v>-1000000</v>
       </c>
-      <c r="E82" s="52" t="s">
+      <c r="E82" s="56" t="s">
         <v>150</v>
       </c>
       <c r="F82" s="7"/>
@@ -30231,11 +30407,11 @@
       <c r="AC82" s="7"/>
       <c r="AD82" s="7"/>
       <c r="AE82" s="50">
-        <f>MAX(T82,V82)</f>
+        <f t="shared" si="60"/>
         <v>-300</v>
       </c>
       <c r="AF82" s="50">
-        <f>MAX(U82,W82)</f>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AG82" s="7"/>
@@ -30244,29 +30420,33 @@
       <c r="AJ82" s="7"/>
       <c r="AK82" s="7"/>
       <c r="AL82" s="50">
-        <f>AE82-AF82</f>
+        <f t="shared" si="62"/>
         <v>-300</v>
       </c>
       <c r="AM82" s="50">
-        <f>AF82</f>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="AN82" s="3"/>
-      <c r="AO82" s="3"/>
+      <c r="AN82" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO82" s="57" t="s">
+        <v>222</v>
+      </c>
       <c r="AP82" s="7"/>
       <c r="BN82" s="40"/>
     </row>
-    <row r="83" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B83" s="47" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C83" s="6">
         <v>4</v>
       </c>
-      <c r="D83" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="E83" s="52"/>
+      <c r="D83" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="E83" s="56"/>
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c r="H83" s="48" t="s">
@@ -30325,11 +30505,11 @@
       <c r="AC83" s="7"/>
       <c r="AD83" s="7"/>
       <c r="AE83" s="50">
-        <f>MAX(T83,V83)</f>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="AF83" s="50">
-        <f>MAX(U83,W83)</f>
+        <f t="shared" si="61"/>
         <v>300</v>
       </c>
       <c r="AG83" s="7"/>
@@ -30338,19 +30518,23 @@
       <c r="AJ83" s="7"/>
       <c r="AK83" s="7"/>
       <c r="AL83" s="50">
-        <f>AE83-AF83</f>
+        <f t="shared" si="62"/>
         <v>-300</v>
       </c>
       <c r="AM83" s="50">
-        <f>AF83</f>
+        <f t="shared" si="63"/>
         <v>300</v>
       </c>
-      <c r="AN83" s="3"/>
-      <c r="AO83" s="3"/>
+      <c r="AN83" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO83" s="57" t="s">
+        <v>222</v>
+      </c>
       <c r="AP83" s="7"/>
       <c r="BN83" s="40"/>
     </row>
-    <row r="84" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B84" s="11" t="s">
         <v>113</v>
       </c>
@@ -30427,7 +30611,7 @@
       <c r="AK84" s="6"/>
       <c r="AL84" s="6"/>
       <c r="AM84" s="6"/>
-      <c r="AN84" s="14" t="s">
+      <c r="AN84" s="7" t="s">
         <v>1</v>
       </c>
       <c r="AO84" s="7" t="s">
@@ -30438,7 +30622,7 @@
       </c>
       <c r="BN84" s="40"/>
     </row>
-    <row r="85" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B85" s="11" t="s">
         <v>114</v>
       </c>
@@ -30515,7 +30699,7 @@
       <c r="AK85" s="6"/>
       <c r="AL85" s="6"/>
       <c r="AM85" s="6"/>
-      <c r="AN85" s="14" t="s">
+      <c r="AN85" s="7" t="s">
         <v>1</v>
       </c>
       <c r="AO85" s="7" t="s">
@@ -30526,7 +30710,7 @@
       </c>
       <c r="BN85" s="40"/>
     </row>
-    <row r="86" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B86" s="11" t="s">
         <v>115</v>
       </c>
@@ -30603,7 +30787,7 @@
       <c r="AK86" s="6"/>
       <c r="AL86" s="6"/>
       <c r="AM86" s="6"/>
-      <c r="AN86" s="14" t="s">
+      <c r="AN86" s="7" t="s">
         <v>1</v>
       </c>
       <c r="AO86" s="7" t="s">
@@ -30614,7 +30798,7 @@
       </c>
       <c r="BN86" s="40"/>
     </row>
-    <row r="87" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B87" s="11" t="s">
         <v>116</v>
       </c>
@@ -30691,7 +30875,7 @@
       <c r="AK87" s="6"/>
       <c r="AL87" s="6"/>
       <c r="AM87" s="6"/>
-      <c r="AN87" s="14" t="s">
+      <c r="AN87" s="7" t="s">
         <v>1</v>
       </c>
       <c r="AO87" s="7" t="s">
@@ -30702,7 +30886,7 @@
       </c>
       <c r="BN87" s="40"/>
     </row>
-    <row r="88" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B88" s="11" t="s">
         <v>117</v>
       </c>
@@ -30779,7 +30963,7 @@
       <c r="AK88" s="6"/>
       <c r="AL88" s="6"/>
       <c r="AM88" s="6"/>
-      <c r="AN88" s="14" t="s">
+      <c r="AN88" s="7" t="s">
         <v>1</v>
       </c>
       <c r="AO88" s="7" t="s">
@@ -30790,7 +30974,7 @@
       </c>
       <c r="BN88" s="40"/>
     </row>
-    <row r="89" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B89" s="11" t="s">
         <v>118</v>
       </c>
@@ -30867,7 +31051,7 @@
       <c r="AK89" s="6"/>
       <c r="AL89" s="6"/>
       <c r="AM89" s="6"/>
-      <c r="AN89" s="14" t="s">
+      <c r="AN89" s="7" t="s">
         <v>1</v>
       </c>
       <c r="AO89" s="7" t="s">
@@ -30878,7 +31062,7 @@
       </c>
       <c r="BN89" s="40"/>
     </row>
-    <row r="90" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B90" s="11" t="s">
         <v>119</v>
       </c>
@@ -30955,7 +31139,7 @@
       <c r="AK90" s="6"/>
       <c r="AL90" s="6"/>
       <c r="AM90" s="6"/>
-      <c r="AN90" s="14" t="s">
+      <c r="AN90" s="7" t="s">
         <v>1</v>
       </c>
       <c r="AO90" s="7" t="s">
@@ -30966,7 +31150,7 @@
       </c>
       <c r="BN90" s="40"/>
     </row>
-    <row r="91" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B91" s="11" t="s">
         <v>120</v>
       </c>
@@ -31043,7 +31227,7 @@
       <c r="AK91" s="6"/>
       <c r="AL91" s="6"/>
       <c r="AM91" s="6"/>
-      <c r="AN91" s="14" t="s">
+      <c r="AN91" s="7" t="s">
         <v>1</v>
       </c>
       <c r="AO91" s="7" t="s">
@@ -31054,7 +31238,7 @@
       </c>
       <c r="BN91" s="40"/>
     </row>
-    <row r="92" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B92" s="11" t="s">
         <v>121</v>
       </c>
@@ -31131,7 +31315,7 @@
       <c r="AK92" s="6"/>
       <c r="AL92" s="6"/>
       <c r="AM92" s="6"/>
-      <c r="AN92" s="14" t="s">
+      <c r="AN92" s="7" t="s">
         <v>1</v>
       </c>
       <c r="AO92" s="7" t="s">
@@ -31142,7 +31326,7 @@
       </c>
       <c r="BN92" s="40"/>
     </row>
-    <row r="93" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B93" s="11" t="s">
         <v>122</v>
       </c>
@@ -31219,7 +31403,7 @@
       <c r="AK93" s="6"/>
       <c r="AL93" s="6"/>
       <c r="AM93" s="6"/>
-      <c r="AN93" s="14" t="s">
+      <c r="AN93" s="7" t="s">
         <v>1</v>
       </c>
       <c r="AO93" s="7" t="s">
@@ -31230,7 +31414,7 @@
       </c>
       <c r="BN93" s="40"/>
     </row>
-    <row r="94" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B94" s="11" t="s">
         <v>123</v>
       </c>
@@ -31307,7 +31491,7 @@
       <c r="AK94" s="6"/>
       <c r="AL94" s="6"/>
       <c r="AM94" s="6"/>
-      <c r="AN94" s="14" t="s">
+      <c r="AN94" s="7" t="s">
         <v>1</v>
       </c>
       <c r="AO94" s="7" t="s">
@@ -31318,7 +31502,7 @@
       </c>
       <c r="BN94" s="40"/>
     </row>
-    <row r="95" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B95" s="11" t="s">
         <v>124</v>
       </c>
@@ -31395,7 +31579,7 @@
       <c r="AK95" s="6"/>
       <c r="AL95" s="6"/>
       <c r="AM95" s="6"/>
-      <c r="AN95" s="14" t="s">
+      <c r="AN95" s="7" t="s">
         <v>1</v>
       </c>
       <c r="AO95" s="7" t="s">
@@ -31406,7 +31590,7 @@
       </c>
       <c r="BN95" s="40"/>
     </row>
-    <row r="96" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B96" s="11" t="s">
         <v>125</v>
       </c>
@@ -31483,7 +31667,7 @@
       <c r="AK96" s="6"/>
       <c r="AL96" s="6"/>
       <c r="AM96" s="6"/>
-      <c r="AN96" s="33">
+      <c r="AN96" s="41">
         <v>1000000</v>
       </c>
       <c r="AO96" s="7" t="s">
@@ -31494,7 +31678,7 @@
       </c>
       <c r="BN96" s="40"/>
     </row>
-    <row r="97" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B97" s="11" t="s">
         <v>126</v>
       </c>
@@ -31580,7 +31764,7 @@
       <c r="AP97" s="7"/>
       <c r="BN97" s="40"/>
     </row>
-    <row r="98" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B98" s="11" t="s">
         <v>127</v>
       </c>
@@ -31657,7 +31841,7 @@
       <c r="AK98" s="6"/>
       <c r="AL98" s="6"/>
       <c r="AM98" s="6"/>
-      <c r="AN98" s="33">
+      <c r="AN98" s="41">
         <v>1000000</v>
       </c>
       <c r="AO98" s="7" t="s">
@@ -31668,7 +31852,7 @@
       </c>
       <c r="BN98" s="40"/>
     </row>
-    <row r="99" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B99" s="11" t="s">
         <v>128</v>
       </c>
@@ -31745,7 +31929,7 @@
       <c r="AK99" s="6"/>
       <c r="AL99" s="6"/>
       <c r="AM99" s="6"/>
-      <c r="AN99" s="14">
+      <c r="AN99" s="7">
         <v>0.16400000000000001</v>
       </c>
       <c r="AO99" s="7" t="s">
@@ -31756,7 +31940,7 @@
       </c>
       <c r="BN99" s="40"/>
     </row>
-    <row r="100" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B100" s="11" t="s">
         <v>129</v>
       </c>
@@ -31833,7 +32017,7 @@
       <c r="AK100" s="6"/>
       <c r="AL100" s="6"/>
       <c r="AM100" s="6"/>
-      <c r="AN100" s="14">
+      <c r="AN100" s="7">
         <v>0.16400000000000001</v>
       </c>
       <c r="AO100" s="7" t="s">
@@ -31844,7 +32028,7 @@
       </c>
       <c r="BN100" s="40"/>
     </row>
-    <row r="101" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B101" s="11" t="s">
         <v>130</v>
       </c>
@@ -31921,7 +32105,7 @@
       <c r="AK101" s="6"/>
       <c r="AL101" s="6"/>
       <c r="AM101" s="6"/>
-      <c r="AN101" s="33">
+      <c r="AN101" s="41">
         <v>1000000</v>
       </c>
       <c r="AO101" s="7" t="s">
@@ -31932,7 +32116,7 @@
       </c>
       <c r="BN101" s="40"/>
     </row>
-    <row r="102" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B102" s="11" t="s">
         <v>131</v>
       </c>
@@ -32009,7 +32193,7 @@
       <c r="AK102" s="6"/>
       <c r="AL102" s="6"/>
       <c r="AM102" s="6"/>
-      <c r="AN102" s="14">
+      <c r="AN102" s="7">
         <v>0.16400000000000001</v>
       </c>
       <c r="AO102" s="7" t="s">
@@ -32020,7 +32204,7 @@
       </c>
       <c r="BN102" s="40"/>
     </row>
-    <row r="103" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B103" s="39" t="s">
         <v>173</v>
       </c>
@@ -32108,103 +32292,103 @@
         <v>152</v>
       </c>
       <c r="AQ103" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>null,null</v>
       </c>
       <c r="AR103" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>null,null,'1'</v>
       </c>
       <c r="AS103" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>null,null,'1','1'</v>
       </c>
       <c r="AT103" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>null,null,'1','1',null</v>
       </c>
       <c r="AU103" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>null,null,'1','1',null,null</v>
       </c>
       <c r="AV103" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v>null,null,'1','1',null,null,'1'</v>
       </c>
       <c r="AW103" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v>null,null,'1','1',null,null,'1','1'</v>
       </c>
       <c r="AX103" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>null,null,'1','1',null,null,'1','1',</v>
       </c>
       <c r="AY103" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v>null,null,'1','1',null,null,'1','1',,</v>
       </c>
       <c r="AZ103" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v>null,null,'1','1',null,null,'1','1',,,</v>
       </c>
       <c r="BA103" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS'</v>
       </c>
       <c r="BB103" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017'</v>
       </c>
       <c r="BC103" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',</v>
       </c>
       <c r="BD103" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,</v>
       </c>
       <c r="BE103" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="50"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,</v>
       </c>
       <c r="BF103" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,</v>
       </c>
       <c r="BG103" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,</v>
       </c>
       <c r="BH103" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="53"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,1000</v>
       </c>
       <c r="BI103" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="54"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,1000,500</v>
       </c>
       <c r="BJ103" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,1000,500,200</v>
       </c>
       <c r="BK103" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,1000,500,200,150</v>
       </c>
       <c r="BL103" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="57"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,1000,500,200,150,500</v>
       </c>
       <c r="BM103" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,1000,500,200,150,500,1000</v>
       </c>
       <c r="BN103" s="40" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,1000,500,200,150,500,1000,500</v>
       </c>
     </row>
-    <row r="104" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B104" s="39" t="s">
         <v>174</v>
       </c>
@@ -32295,103 +32479,103 @@
         <v>152</v>
       </c>
       <c r="AQ104" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>null,null</v>
       </c>
       <c r="AR104" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>null,null,'1'</v>
       </c>
       <c r="AS104" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>null,null,'1','1'</v>
       </c>
       <c r="AT104" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>null,null,'1','1',null</v>
       </c>
       <c r="AU104" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>null,null,'1','1',null,null</v>
       </c>
       <c r="AV104" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v>null,null,'1','1',null,null,'1'</v>
       </c>
       <c r="AW104" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v>null,null,'1','1',null,null,'1','1'</v>
       </c>
       <c r="AX104" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>null,null,'1','1',null,null,'1','1',</v>
       </c>
       <c r="AY104" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v>null,null,'1','1',null,null,'1','1',,</v>
       </c>
       <c r="AZ104" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v>null,null,'1','1',null,null,'1','1',,,</v>
       </c>
       <c r="BA104" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS'</v>
       </c>
       <c r="BB104" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017'</v>
       </c>
       <c r="BC104" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',</v>
       </c>
       <c r="BD104" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,</v>
       </c>
       <c r="BE104" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="50"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,</v>
       </c>
       <c r="BF104" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,</v>
       </c>
       <c r="BG104" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,</v>
       </c>
       <c r="BH104" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="53"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,100</v>
       </c>
       <c r="BI104" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="54"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,100,50</v>
       </c>
       <c r="BJ104" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,100,50,200</v>
       </c>
       <c r="BK104" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,100,50,200,150</v>
       </c>
       <c r="BL104" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="57"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,100,50,200,150,20</v>
       </c>
       <c r="BM104" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,100,50,200,150,20,100</v>
       </c>
       <c r="BN104" s="40" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,100,50,200,150,20,100,1000</v>
       </c>
     </row>
-    <row r="105" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B105" s="39" t="s">
         <v>175</v>
       </c>
@@ -32482,103 +32666,103 @@
         <v>152</v>
       </c>
       <c r="AQ105" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>null,null</v>
       </c>
       <c r="AR105" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>null,null,'1'</v>
       </c>
       <c r="AS105" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>null,null,'1','1'</v>
       </c>
       <c r="AT105" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>null,null,'1','1',null</v>
       </c>
       <c r="AU105" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>null,null,'1','1',null,null</v>
       </c>
       <c r="AV105" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v>null,null,'1','1',null,null,'1'</v>
       </c>
       <c r="AW105" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v>null,null,'1','1',null,null,'1','1'</v>
       </c>
       <c r="AX105" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>null,null,'1','1',null,null,'1','1',</v>
       </c>
       <c r="AY105" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v>null,null,'1','1',null,null,'1','1',,</v>
       </c>
       <c r="AZ105" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v>null,null,'1','1',null,null,'1','1',,,</v>
       </c>
       <c r="BA105" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS'</v>
       </c>
       <c r="BB105" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017'</v>
       </c>
       <c r="BC105" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',</v>
       </c>
       <c r="BD105" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,</v>
       </c>
       <c r="BE105" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="50"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,</v>
       </c>
       <c r="BF105" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,</v>
       </c>
       <c r="BG105" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,</v>
       </c>
       <c r="BH105" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="53"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,100</v>
       </c>
       <c r="BI105" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="54"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,100,-100</v>
       </c>
       <c r="BJ105" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,100,-100,200</v>
       </c>
       <c r="BK105" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,100,-100,200,-200</v>
       </c>
       <c r="BL105" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="57"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,100,-100,200,-200,20</v>
       </c>
       <c r="BM105" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,100,-100,200,-200,20,100</v>
       </c>
       <c r="BN105" s="40" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,100,-100,200,-200,20,100,1000</v>
       </c>
     </row>
-    <row r="106" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B106" s="39" t="s">
         <v>176</v>
       </c>
@@ -32669,103 +32853,103 @@
         <v>152</v>
       </c>
       <c r="AQ106" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>null,null</v>
       </c>
       <c r="AR106" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>null,null,'1'</v>
       </c>
       <c r="AS106" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>null,null,'1','1'</v>
       </c>
       <c r="AT106" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>null,null,'1','1',null</v>
       </c>
       <c r="AU106" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>null,null,'1','1',null,null</v>
       </c>
       <c r="AV106" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v>null,null,'1','1',null,null,'1'</v>
       </c>
       <c r="AW106" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v>null,null,'1','1',null,null,'1','1'</v>
       </c>
       <c r="AX106" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>null,null,'1','1',null,null,'1','1',</v>
       </c>
       <c r="AY106" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v>null,null,'1','1',null,null,'1','1',,</v>
       </c>
       <c r="AZ106" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v>null,null,'1','1',null,null,'1','1',,,</v>
       </c>
       <c r="BA106" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS'</v>
       </c>
       <c r="BB106" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017'</v>
       </c>
       <c r="BC106" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',</v>
       </c>
       <c r="BD106" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,</v>
       </c>
       <c r="BE106" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="50"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,</v>
       </c>
       <c r="BF106" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,</v>
       </c>
       <c r="BG106" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,</v>
       </c>
       <c r="BH106" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="53"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,100</v>
       </c>
       <c r="BI106" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="54"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,100,-100</v>
       </c>
       <c r="BJ106" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,100,-100,200</v>
       </c>
       <c r="BK106" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,100,-100,200,1000</v>
       </c>
       <c r="BL106" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="57"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,100,-100,200,1000,0</v>
       </c>
       <c r="BM106" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,100,-100,200,1000,0,0</v>
       </c>
       <c r="BN106" s="40" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,100,-100,200,1000,0,0,1000</v>
       </c>
     </row>
-    <row r="107" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B107" s="39" t="s">
         <v>177</v>
       </c>
@@ -32856,103 +33040,103 @@
         <v>152</v>
       </c>
       <c r="AQ107" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>null,null</v>
       </c>
       <c r="AR107" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>null,null,'1'</v>
       </c>
       <c r="AS107" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>null,null,'1','1'</v>
       </c>
       <c r="AT107" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>null,null,'1','1',null</v>
       </c>
       <c r="AU107" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>null,null,'1','1',null,null</v>
       </c>
       <c r="AV107" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v>null,null,'1','1',null,null,'1'</v>
       </c>
       <c r="AW107" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v>null,null,'1','1',null,null,'1','1'</v>
       </c>
       <c r="AX107" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>null,null,'1','1',null,null,'1','1',</v>
       </c>
       <c r="AY107" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v>null,null,'1','1',null,null,'1','1',,</v>
       </c>
       <c r="AZ107" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v>null,null,'1','1',null,null,'1','1',,,</v>
       </c>
       <c r="BA107" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS'</v>
       </c>
       <c r="BB107" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017'</v>
       </c>
       <c r="BC107" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',</v>
       </c>
       <c r="BD107" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,</v>
       </c>
       <c r="BE107" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="50"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,</v>
       </c>
       <c r="BF107" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,</v>
       </c>
       <c r="BG107" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,</v>
       </c>
       <c r="BH107" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="53"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,-100</v>
       </c>
       <c r="BI107" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="54"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,-100,-100</v>
       </c>
       <c r="BJ107" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,-100,-100,200</v>
       </c>
       <c r="BK107" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,-100,-100,200,0</v>
       </c>
       <c r="BL107" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="57"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,-100,-100,200,0,0</v>
       </c>
       <c r="BM107" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,-100,-100,200,0,0,0</v>
       </c>
       <c r="BN107" s="40" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,-100,-100,200,0,0,0,0</v>
       </c>
     </row>
-    <row r="108" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B108" s="39" t="s">
         <v>178</v>
       </c>
@@ -33043,103 +33227,103 @@
         <v>152</v>
       </c>
       <c r="AQ108" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>null,null</v>
       </c>
       <c r="AR108" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>null,null,'1'</v>
       </c>
       <c r="AS108" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>null,null,'1','0'</v>
       </c>
       <c r="AT108" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>null,null,'1','0',null</v>
       </c>
       <c r="AU108" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>null,null,'1','0',null,null</v>
       </c>
       <c r="AV108" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v>null,null,'1','0',null,null,'1'</v>
       </c>
       <c r="AW108" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v>null,null,'1','0',null,null,'1','1'</v>
       </c>
       <c r="AX108" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>null,null,'1','0',null,null,'1','1',</v>
       </c>
       <c r="AY108" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v>null,null,'1','0',null,null,'1','1',,</v>
       </c>
       <c r="AZ108" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v>null,null,'1','0',null,null,'1','1',,,</v>
       </c>
       <c r="BA108" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>null,null,'1','0',null,null,'1','1',,,,'FIS'</v>
       </c>
       <c r="BB108" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>null,null,'1','0',null,null,'1','1',,,,'FIS','02/05/2017'</v>
       </c>
       <c r="BC108" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>null,null,'1','0',null,null,'1','1',,,,'FIS','02/05/2017',</v>
       </c>
       <c r="BD108" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v>null,null,'1','0',null,null,'1','1',,,,'FIS','02/05/2017',,</v>
       </c>
       <c r="BE108" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="50"/>
         <v>null,null,'1','0',null,null,'1','1',,,,'FIS','02/05/2017',,,</v>
       </c>
       <c r="BF108" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>null,null,'1','0',null,null,'1','1',,,,'FIS','02/05/2017',,,,</v>
       </c>
       <c r="BG108" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>null,null,'1','0',null,null,'1','1',,,,'FIS','02/05/2017',,,,,</v>
       </c>
       <c r="BH108" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="53"/>
         <v>null,null,'1','0',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,1000</v>
       </c>
       <c r="BI108" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="54"/>
         <v>null,null,'1','0',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,1000,500</v>
       </c>
       <c r="BJ108" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>null,null,'1','0',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,1000,500,200</v>
       </c>
       <c r="BK108" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>null,null,'1','0',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,1000,500,200,150</v>
       </c>
       <c r="BL108" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="57"/>
         <v>null,null,'1','0',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,1000,500,200,150,500</v>
       </c>
       <c r="BM108" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>null,null,'1','0',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,1000,500,200,150,500,1000</v>
       </c>
       <c r="BN108" s="40" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>null,null,'1','0',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,1000,500,200,150,500,1000,500</v>
       </c>
     </row>
-    <row r="109" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B109" s="39" t="s">
         <v>179</v>
       </c>
@@ -33230,110 +33414,110 @@
         <v>152</v>
       </c>
       <c r="AQ109" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>null,null</v>
       </c>
       <c r="AR109" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>null,null,'1'</v>
       </c>
       <c r="AS109" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>null,null,'1','1'</v>
       </c>
       <c r="AT109" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>null,null,'1','1',null</v>
       </c>
       <c r="AU109" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>null,null,'1','1',null,null</v>
       </c>
       <c r="AV109" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v>null,null,'1','1',null,null,'1'</v>
       </c>
       <c r="AW109" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v>null,null,'1','1',null,null,'1','0'</v>
       </c>
       <c r="AX109" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>null,null,'1','1',null,null,'1','0',</v>
       </c>
       <c r="AY109" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v>null,null,'1','1',null,null,'1','0',,</v>
       </c>
       <c r="AZ109" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v>null,null,'1','1',null,null,'1','0',,,</v>
       </c>
       <c r="BA109" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>null,null,'1','1',null,null,'1','0',,,,'FIS'</v>
       </c>
       <c r="BB109" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>null,null,'1','1',null,null,'1','0',,,,'FIS','02/05/2017'</v>
       </c>
       <c r="BC109" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>null,null,'1','1',null,null,'1','0',,,,'FIS','02/05/2017',</v>
       </c>
       <c r="BD109" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v>null,null,'1','1',null,null,'1','0',,,,'FIS','02/05/2017',,</v>
       </c>
       <c r="BE109" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="50"/>
         <v>null,null,'1','1',null,null,'1','0',,,,'FIS','02/05/2017',,,</v>
       </c>
       <c r="BF109" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>null,null,'1','1',null,null,'1','0',,,,'FIS','02/05/2017',,,,</v>
       </c>
       <c r="BG109" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>null,null,'1','1',null,null,'1','0',,,,'FIS','02/05/2017',,,,,</v>
       </c>
       <c r="BH109" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="53"/>
         <v>null,null,'1','1',null,null,'1','0',,,,'FIS','02/05/2017',,,,,,1000</v>
       </c>
       <c r="BI109" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="54"/>
         <v>null,null,'1','1',null,null,'1','0',,,,'FIS','02/05/2017',,,,,,1000,500</v>
       </c>
       <c r="BJ109" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>null,null,'1','1',null,null,'1','0',,,,'FIS','02/05/2017',,,,,,1000,500,200</v>
       </c>
       <c r="BK109" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>null,null,'1','1',null,null,'1','0',,,,'FIS','02/05/2017',,,,,,1000,500,200,150</v>
       </c>
       <c r="BL109" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="57"/>
         <v>null,null,'1','1',null,null,'1','0',,,,'FIS','02/05/2017',,,,,,1000,500,200,150,500</v>
       </c>
       <c r="BM109" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>null,null,'1','1',null,null,'1','0',,,,'FIS','02/05/2017',,,,,,1000,500,200,150,500,1000</v>
       </c>
       <c r="BN109" s="40" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>null,null,'1','1',null,null,'1','0',,,,'FIS','02/05/2017',,,,,,1000,500,200,150,500,1000,500</v>
       </c>
     </row>
-    <row r="110" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B110" s="47" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C110" s="7">
         <v>5</v>
       </c>
-      <c r="D110" s="49">
+      <c r="D110" s="58">
         <f>AL110/AM110</f>
         <v>-0.6026476980833827</v>
       </c>
@@ -33398,27 +33582,27 @@
         <v>100</v>
       </c>
       <c r="AF110" s="49">
-        <f t="shared" ref="AF110:AK110" si="52">IF(Y110="?",0,Y110)</f>
+        <f t="shared" ref="AF110:AK110" si="64">IF(Y110="?",0,Y110)</f>
         <v>50</v>
       </c>
       <c r="AG110" s="49">
-        <f t="shared" si="52"/>
+        <f t="shared" si="64"/>
         <v>200</v>
       </c>
       <c r="AH110" s="49">
-        <f t="shared" si="52"/>
+        <f t="shared" si="64"/>
         <v>150</v>
       </c>
       <c r="AI110" s="49">
-        <f t="shared" si="52"/>
+        <f t="shared" si="64"/>
         <v>20</v>
       </c>
       <c r="AJ110" s="49">
-        <f t="shared" si="52"/>
+        <f t="shared" si="64"/>
         <v>100</v>
       </c>
       <c r="AK110" s="49">
-        <f t="shared" si="52"/>
+        <f t="shared" si="64"/>
         <v>1000</v>
       </c>
       <c r="AL110" s="49">
@@ -33429,13 +33613,17 @@
         <f>AH110+(AJ110/305)+AI110-AK110</f>
         <v>-829.67213114754099</v>
       </c>
-      <c r="AN110" s="3"/>
-      <c r="AO110" s="3"/>
+      <c r="AN110" s="59">
+        <v>1000000</v>
+      </c>
+      <c r="AO110" s="57" t="s">
+        <v>148</v>
+      </c>
       <c r="AP110" s="3"/>
     </row>
-    <row r="111" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B111" s="47" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C111" s="7">
         <v>5</v>
@@ -33506,27 +33694,27 @@
         <v>100</v>
       </c>
       <c r="AF111" s="49">
-        <f t="shared" ref="AF111" si="53">IF(Y111="?",0,Y111)</f>
+        <f t="shared" ref="AF111" si="65">IF(Y111="?",0,Y111)</f>
         <v>50</v>
       </c>
       <c r="AG111" s="49">
-        <f t="shared" ref="AG111" si="54">IF(Z111="?",0,Z111)</f>
+        <f t="shared" ref="AG111" si="66">IF(Z111="?",0,Z111)</f>
         <v>200</v>
       </c>
       <c r="AH111" s="49">
-        <f t="shared" ref="AH111" si="55">IF(AA111="?",0,AA111)</f>
+        <f t="shared" ref="AH111" si="67">IF(AA111="?",0,AA111)</f>
         <v>150</v>
       </c>
       <c r="AI111" s="49">
-        <f t="shared" ref="AI111" si="56">IF(AB111="?",0,AB111)</f>
+        <f t="shared" ref="AI111" si="68">IF(AB111="?",0,AB111)</f>
         <v>20</v>
       </c>
       <c r="AJ111" s="49">
-        <f t="shared" ref="AJ111" si="57">IF(AC111="?",0,AC111)</f>
+        <f t="shared" ref="AJ111" si="69">IF(AC111="?",0,AC111)</f>
         <v>100</v>
       </c>
       <c r="AK111" s="49">
-        <f t="shared" ref="AK111" si="58">IF(AD111="?",0,AD111)</f>
+        <f t="shared" ref="AK111" si="70">IF(AD111="?",0,AD111)</f>
         <v>1000</v>
       </c>
       <c r="AL111" s="49">
@@ -33537,13 +33725,19 @@
         <f>AH111+(AJ111/305)+AI111-AK111</f>
         <v>-829.67213114754099</v>
       </c>
-      <c r="AN111" s="3"/>
-      <c r="AO111" s="3"/>
-      <c r="AP111" s="3"/>
+      <c r="AN111" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO111" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="AP111" s="3" t="s">
+        <v>152</v>
+      </c>
     </row>
-    <row r="112" spans="2:66" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:66" x14ac:dyDescent="0.25">
       <c r="B112" s="47" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C112" s="7">
         <v>5</v>
@@ -33613,11 +33807,11 @@
         <v>0</v>
       </c>
       <c r="AF112" s="49">
-        <f t="shared" ref="AF112" si="59">IF(Y112="?",0,Y112)</f>
+        <f t="shared" ref="AF112" si="71">IF(Y112="?",0,Y112)</f>
         <v>50</v>
       </c>
       <c r="AG112" s="49">
-        <f t="shared" ref="AG112" si="60">IF(Z112="?",0,Z112)</f>
+        <f t="shared" ref="AG112" si="72">IF(Z112="?",0,Z112)</f>
         <v>200</v>
       </c>
       <c r="AH112" s="49">
@@ -33625,11 +33819,11 @@
         <v>0</v>
       </c>
       <c r="AI112" s="49">
-        <f t="shared" ref="AI112" si="61">IF(AB112="?",0,AB112)</f>
+        <f t="shared" ref="AI112" si="73">IF(AB112="?",0,AB112)</f>
         <v>20</v>
       </c>
       <c r="AJ112" s="49">
-        <f t="shared" ref="AJ112" si="62">IF(AC112="?",0,AC112)</f>
+        <f t="shared" ref="AJ112" si="74">IF(AC112="?",0,AC112)</f>
         <v>100</v>
       </c>
       <c r="AK112" s="49">
@@ -33644,8 +33838,12 @@
         <f>AH112+(AJ112/305)+AI112-AK112</f>
         <v>20.327868852459016</v>
       </c>
-      <c r="AN112" s="3"/>
-      <c r="AO112" s="3"/>
+      <c r="AN112" s="59">
+        <v>1000000</v>
+      </c>
+      <c r="AO112" s="57" t="s">
+        <v>148</v>
+      </c>
       <c r="AP112" s="3"/>
     </row>
   </sheetData>

--- a/earlywarning-pom/Document/test/SME RETAIL/test_Ind_High_Priority_SMERetail_round3.xlsx
+++ b/earlywarning-pom/Document/test/SME RETAIL/test_Ind_High_Priority_SMERetail_round3.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3219" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3232" uniqueCount="223">
   <si>
     <t>valore atteso</t>
   </si>
@@ -688,9 +688,6 @@
     <t>0000000000000440'</t>
   </si>
   <si>
-    <t>BILA009;</t>
-  </si>
-  <si>
     <t>BILA003;</t>
   </si>
 </sst>
@@ -829,7 +826,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -973,12 +970,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -21111,10 +21102,10 @@
   <dimension ref="A2:BO112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="AK18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="P84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AL112" sqref="AL112"/>
+      <selection pane="bottomRight" activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21122,7 +21113,10 @@
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" style="37" customWidth="1"/>
     <col min="3" max="5" width="24.28515625" customWidth="1"/>
-    <col min="6" max="19" width="24.28515625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" style="12" customWidth="1"/>
+    <col min="7" max="15" width="24.28515625" style="12" customWidth="1"/>
+    <col min="16" max="16" width="30" style="12" customWidth="1"/>
+    <col min="17" max="19" width="24.28515625" style="12" customWidth="1"/>
     <col min="20" max="23" width="38.28515625" customWidth="1"/>
     <col min="24" max="39" width="24.28515625" customWidth="1"/>
     <col min="40" max="41" width="24.28515625" style="12" customWidth="1"/>
@@ -25159,7 +25153,9 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="AO33" s="4"/>
-      <c r="AP33" s="4"/>
+      <c r="AP33" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="BN33" s="40"/>
     </row>
     <row r="34" spans="2:66" x14ac:dyDescent="0.25">
@@ -25244,7 +25240,9 @@
         <v>0</v>
       </c>
       <c r="AO34" s="4"/>
-      <c r="AP34" s="4"/>
+      <c r="AP34" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="BN34" s="40"/>
     </row>
     <row r="35" spans="2:66" x14ac:dyDescent="0.25">
@@ -25329,7 +25327,9 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="AO35" s="4"/>
-      <c r="AP35" s="4"/>
+      <c r="AP35" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="BN35" s="40"/>
     </row>
     <row r="36" spans="2:66" x14ac:dyDescent="0.25">
@@ -25419,7 +25419,9 @@
       <c r="AO36" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="AP36" s="4"/>
+      <c r="AP36" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="BN36" s="40"/>
     </row>
     <row r="37" spans="2:66" x14ac:dyDescent="0.25">
@@ -25509,7 +25511,9 @@
       <c r="AO37" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="AP37" s="4"/>
+      <c r="AP37" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="BN37" s="40"/>
     </row>
     <row r="38" spans="2:66" x14ac:dyDescent="0.25">
@@ -25599,7 +25603,9 @@
       <c r="AO38" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="AP38" s="4"/>
+      <c r="AP38" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="BN38" s="40"/>
     </row>
     <row r="39" spans="2:66" x14ac:dyDescent="0.25">
@@ -25684,7 +25690,9 @@
         <v>3.5</v>
       </c>
       <c r="AO39" s="4"/>
-      <c r="AP39" s="4"/>
+      <c r="AP39" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="BN39" s="40"/>
     </row>
     <row r="40" spans="2:66" x14ac:dyDescent="0.25">
@@ -25769,7 +25777,9 @@
         <v>0</v>
       </c>
       <c r="AO40" s="4"/>
-      <c r="AP40" s="4"/>
+      <c r="AP40" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="BN40" s="40"/>
     </row>
     <row r="41" spans="2:66" x14ac:dyDescent="0.25">
@@ -25854,7 +25864,9 @@
         <v>1</v>
       </c>
       <c r="AO41" s="4"/>
-      <c r="AP41" s="4"/>
+      <c r="AP41" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="BN41" s="40"/>
     </row>
     <row r="42" spans="2:66" x14ac:dyDescent="0.25">
@@ -25944,7 +25956,9 @@
       <c r="AO42" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="AP42" s="4"/>
+      <c r="AP42" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="BN42" s="40"/>
     </row>
     <row r="43" spans="2:66" x14ac:dyDescent="0.25">
@@ -26034,7 +26048,9 @@
       <c r="AO43" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AP43" s="4"/>
+      <c r="AP43" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="BN43" s="40"/>
     </row>
     <row r="44" spans="2:66" x14ac:dyDescent="0.25">
@@ -26047,7 +26063,7 @@
       <c r="D44" s="44" t="s">
         <v>196</v>
       </c>
-      <c r="E44" s="44" t="s">
+      <c r="E44" s="48" t="s">
         <v>70</v>
       </c>
       <c r="F44" s="29">
@@ -26124,18 +26140,22 @@
       <c r="AO44" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="AP44" s="4"/>
+      <c r="AP44" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="BN44" s="40"/>
     </row>
     <row r="45" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B45" s="47"/>
+      <c r="B45" s="42" t="s">
+        <v>197</v>
+      </c>
       <c r="C45" s="48">
         <v>3</v>
       </c>
       <c r="D45" s="48" t="s">
         <v>196</v>
       </c>
-      <c r="E45" s="55"/>
+      <c r="E45" s="48"/>
       <c r="F45" s="49" t="s">
         <v>49</v>
       </c>
@@ -26149,7 +26169,7 @@
         <v>97</v>
       </c>
       <c r="J45" s="48" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K45" s="48" t="s">
         <v>97</v>
@@ -26201,8 +26221,8 @@
       <c r="AN45" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AO45" s="57" t="s">
-        <v>223</v>
+      <c r="AO45" s="55" t="s">
+        <v>222</v>
       </c>
       <c r="AP45" s="4"/>
       <c r="BN45" s="40"/>
@@ -30245,10 +30265,10 @@
       <c r="C81" s="6">
         <v>4</v>
       </c>
-      <c r="D81" s="55" t="s">
+      <c r="D81" s="48" t="s">
         <v>196</v>
       </c>
-      <c r="E81" s="56" t="s">
+      <c r="E81" s="52" t="s">
         <v>205</v>
       </c>
       <c r="F81" s="7"/>
@@ -30329,10 +30349,12 @@
         <f t="shared" si="63"/>
         <v>200</v>
       </c>
-      <c r="AN81" s="57">
-        <v>0.5</v>
-      </c>
-      <c r="AO81" s="57"/>
+      <c r="AN81" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO81" s="34" t="s">
+        <v>205</v>
+      </c>
       <c r="AP81" s="7"/>
       <c r="BN81" s="40"/>
     </row>
@@ -30343,10 +30365,10 @@
       <c r="C82" s="6">
         <v>4</v>
       </c>
-      <c r="D82" s="55">
+      <c r="D82" s="48">
         <v>-1000000</v>
       </c>
-      <c r="E82" s="56" t="s">
+      <c r="E82" s="52" t="s">
         <v>150</v>
       </c>
       <c r="F82" s="7"/>
@@ -30427,11 +30449,11 @@
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="AN82" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="AO82" s="57" t="s">
-        <v>222</v>
+      <c r="AN82" s="26">
+        <v>-1000000</v>
+      </c>
+      <c r="AO82" s="34" t="s">
+        <v>150</v>
       </c>
       <c r="AP82" s="7"/>
       <c r="BN82" s="40"/>
@@ -30443,10 +30465,10 @@
       <c r="C83" s="6">
         <v>4</v>
       </c>
-      <c r="D83" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="E83" s="56"/>
+      <c r="D83" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="E83" s="52"/>
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c r="H83" s="48" t="s">
@@ -30525,12 +30547,10 @@
         <f t="shared" si="63"/>
         <v>300</v>
       </c>
-      <c r="AN83" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="AO83" s="57" t="s">
-        <v>222</v>
-      </c>
+      <c r="AN83" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO83" s="34"/>
       <c r="AP83" s="7"/>
       <c r="BN83" s="40"/>
     </row>
@@ -33517,7 +33537,7 @@
       <c r="C110" s="7">
         <v>5</v>
       </c>
-      <c r="D110" s="58">
+      <c r="D110" s="56">
         <f>AL110/AM110</f>
         <v>-0.6026476980833827</v>
       </c>
@@ -33613,10 +33633,10 @@
         <f>AH110+(AJ110/305)+AI110-AK110</f>
         <v>-829.67213114754099</v>
       </c>
-      <c r="AN110" s="59">
+      <c r="AN110" s="57">
         <v>1000000</v>
       </c>
-      <c r="AO110" s="57" t="s">
+      <c r="AO110" s="55" t="s">
         <v>148</v>
       </c>
       <c r="AP110" s="3"/>
@@ -33729,7 +33749,7 @@
         <v>49</v>
       </c>
       <c r="AO111" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AP111" s="3" t="s">
         <v>152</v>
@@ -33838,10 +33858,10 @@
         <f>AH112+(AJ112/305)+AI112-AK112</f>
         <v>20.327868852459016</v>
       </c>
-      <c r="AN112" s="59">
+      <c r="AN112" s="57">
         <v>1000000</v>
       </c>
-      <c r="AO112" s="57" t="s">
+      <c r="AO112" s="55" t="s">
         <v>148</v>
       </c>
       <c r="AP112" s="3"/>

--- a/earlywarning-pom/Document/test/SME RETAIL/test_Ind_High_Priority_SMERetail_round3.xlsx
+++ b/earlywarning-pom/Document/test/SME RETAIL/test_Ind_High_Priority_SMERetail_round3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="High_Priority" sheetId="3" r:id="rId1"/>
     <sheet name="bilancio" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3232" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3215" uniqueCount="220">
   <si>
     <t>valore atteso</t>
   </si>
@@ -681,20 +681,14 @@
   <si>
     <t>0000000000000439'</t>
   </si>
-  <si>
-    <t>(-1000000)/?</t>
-  </si>
-  <si>
-    <t>0000000000000440'</t>
-  </si>
-  <si>
-    <t>BILA003;</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.000000"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -724,7 +718,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -779,24 +773,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF3399"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -826,7 +802,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -933,58 +909,17 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="10" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="60% - Accent6 2" xfId="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1310,38 +1245,38 @@
       <selection pane="bottomRight" activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.140625" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.109375" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="20.28515625" style="1" customWidth="1"/>
-    <col min="8" max="9" width="20.28515625" style="16" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="30.28515625" style="16" hidden="1" customWidth="1"/>
-    <col min="11" max="18" width="30.28515625" style="17" hidden="1" customWidth="1"/>
-    <col min="19" max="21" width="20.28515625" style="17" hidden="1" customWidth="1"/>
-    <col min="22" max="25" width="33.7109375" style="17" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="33.7109375" style="22" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="19.7109375" style="22" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="22.7109375" style="22" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="30.140625" style="22" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.33203125" style="1" customWidth="1"/>
+    <col min="8" max="9" width="20.33203125" style="16" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="30.33203125" style="16" hidden="1" customWidth="1"/>
+    <col min="11" max="18" width="30.33203125" style="17" hidden="1" customWidth="1"/>
+    <col min="19" max="21" width="20.33203125" style="17" hidden="1" customWidth="1"/>
+    <col min="22" max="25" width="33.6640625" style="17" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="33.6640625" style="22" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="19.6640625" style="22" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="22.6640625" style="22" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="30.109375" style="22" hidden="1" customWidth="1"/>
     <col min="30" max="30" width="33" style="17" hidden="1" customWidth="1"/>
-    <col min="31" max="38" width="39.28515625" style="17" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="31.28515625" style="17" hidden="1" customWidth="1"/>
-    <col min="40" max="40" width="27.85546875" style="17" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="22.140625" style="17" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="13.42578125" style="17" hidden="1" customWidth="1"/>
-    <col min="43" max="44" width="12.140625" style="17" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="15.140625" style="17" hidden="1" customWidth="1"/>
-    <col min="46" max="46" width="15.7109375" customWidth="1"/>
-    <col min="47" max="47" width="21.42578125" style="12" customWidth="1"/>
-    <col min="48" max="48" width="39.85546875" style="12" customWidth="1"/>
-    <col min="73" max="73" width="14.5703125" customWidth="1"/>
+    <col min="31" max="38" width="39.33203125" style="17" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="31.33203125" style="17" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="27.88671875" style="17" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="22.109375" style="17" hidden="1" customWidth="1"/>
+    <col min="42" max="42" width="13.44140625" style="17" hidden="1" customWidth="1"/>
+    <col min="43" max="44" width="12.109375" style="17" hidden="1" customWidth="1"/>
+    <col min="45" max="45" width="15.109375" style="17" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="15.6640625" customWidth="1"/>
+    <col min="47" max="47" width="21.44140625" style="12" customWidth="1"/>
+    <col min="48" max="48" width="39.88671875" style="12" customWidth="1"/>
+    <col min="73" max="73" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:96" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:96" x14ac:dyDescent="0.3">
       <c r="F1" s="1" t="str">
         <f>B2&amp;","&amp;F2</f>
         <v>COD_SNDG,COD_RATING</v>
@@ -1503,7 +1438,7 @@
         <v>COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT</v>
       </c>
     </row>
-    <row r="2" spans="2:96" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:96" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
@@ -1646,7 +1581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:96" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B3" s="11" t="s">
         <v>7</v>
       </c>
@@ -1882,7 +1817,7 @@
       <c r="CQ3" s="16"/>
       <c r="CR3" s="16"/>
     </row>
-    <row r="4" spans="2:96" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
         <v>8</v>
       </c>
@@ -2111,7 +2046,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000115','05','1',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="5" spans="2:96" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B5" s="11" t="s">
         <v>9</v>
       </c>
@@ -2342,7 +2277,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000116',NULL,'1',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="6" spans="2:96" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B6" s="11" t="s">
         <v>10</v>
       </c>
@@ -2573,7 +2508,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000117','20','0',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="7" spans="2:96" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
         <v>11</v>
       </c>
@@ -2804,7 +2739,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000118','05','0',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="8" spans="2:96" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B8" s="11" t="s">
         <v>12</v>
       </c>
@@ -3035,7 +2970,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000119',NULL,'0',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="9" spans="2:96" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B9" s="11" t="s">
         <v>13</v>
       </c>
@@ -3266,7 +3201,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000120','20',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="10" spans="2:96" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
         <v>14</v>
       </c>
@@ -3497,7 +3432,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000121','05',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="11" spans="2:96" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B11" s="11" t="s">
         <v>15</v>
       </c>
@@ -3728,7 +3663,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000122',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="12" spans="2:96" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B12" s="11" t="s">
         <v>16</v>
       </c>
@@ -3984,7 +3919,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000123',NULL,NULL,500,300,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="13" spans="2:96" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B13" s="11" t="s">
         <v>17</v>
       </c>
@@ -4239,7 +4174,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000124',NULL,NULL,0,0,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="14" spans="2:96" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B14" s="11" t="s">
         <v>18</v>
       </c>
@@ -4495,7 +4430,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000125',NULL,NULL,300,300,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="15" spans="2:96" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B15" s="11" t="s">
         <v>19</v>
       </c>
@@ -4751,7 +4686,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000126',NULL,NULL,200,400,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="16" spans="2:96" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B16" s="11" t="s">
         <v>20</v>
       </c>
@@ -5006,7 +4941,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000127',NULL,NULL,300,0,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="17" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:89" x14ac:dyDescent="0.3">
       <c r="B17" s="11" t="s">
         <v>21</v>
       </c>
@@ -5262,7 +5197,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000128',NULL,NULL,300,-200,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="18" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:89" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
         <v>22</v>
       </c>
@@ -5517,7 +5452,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000129',NULL,NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="19" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:89" x14ac:dyDescent="0.3">
       <c r="B19" s="11" t="s">
         <v>23</v>
       </c>
@@ -5772,7 +5707,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000130',NULL,NULL,-300,0,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="20" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:89" x14ac:dyDescent="0.3">
       <c r="B20" s="11" t="s">
         <v>24</v>
       </c>
@@ -6027,7 +5962,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000131',NULL,NULL,500,300,'0','0','0','0','0','0','0','0','0','CEBI','02/05/2017','02/06/2016',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="21" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:89" x14ac:dyDescent="0.3">
       <c r="B21" s="11" t="s">
         <v>25</v>
       </c>
@@ -6282,7 +6217,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000132',NULL,NULL,0,0,'0','0','0','0','0','0','0','0','0','CEBI','02/05/2017','02/06/2016',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="22" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:89" x14ac:dyDescent="0.3">
       <c r="B22" s="11" t="s">
         <v>26</v>
       </c>
@@ -6537,7 +6472,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000133',NULL,NULL,NULL,NULL,'0','0','0','0','0','0','0','0','0','CEBI','02/05/2017','02/06/2016',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="23" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:89" x14ac:dyDescent="0.3">
       <c r="B23" s="11" t="s">
         <v>27</v>
       </c>
@@ -6792,7 +6727,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000134',NULL,NULL,500,300,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'CEBI',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="24" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:89" x14ac:dyDescent="0.3">
       <c r="B24" s="11" t="s">
         <v>28</v>
       </c>
@@ -7047,7 +6982,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000135',NULL,NULL,0,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'CEBI',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="25" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:89" x14ac:dyDescent="0.3">
       <c r="B25" s="11" t="s">
         <v>29</v>
       </c>
@@ -7302,7 +7237,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000136',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'CEBI',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="26" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:89" x14ac:dyDescent="0.3">
       <c r="B26" s="11" t="s">
         <v>30</v>
       </c>
@@ -7557,7 +7492,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000137',NULL,NULL,500,300,'1','0','0','0','0','0','0','0','0','CEBI','02/05/2017','02/06/2016',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="27" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:89" x14ac:dyDescent="0.3">
       <c r="B27" s="11" t="s">
         <v>31</v>
       </c>
@@ -7812,7 +7747,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000138',NULL,NULL,0,0,'1','0','0','0','0','0','0','0','0','CEBI','02/05/2017','02/06/2016',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="28" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:89" x14ac:dyDescent="0.3">
       <c r="B28" s="11" t="s">
         <v>32</v>
       </c>
@@ -8067,7 +8002,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000139',NULL,NULL,NULL,NULL,'1','0','0','0','0','0','0','0','0','CEBI','02/05/2017','02/06/2016',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="29" spans="1:89" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:89" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29"/>
       <c r="B29" s="11" t="s">
         <v>33</v>
@@ -8323,7 +8258,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000140',NULL,NULL,500,300,'1','1','0','0','0','0','0','0','0','CEBI','02/05/2017','02/06/2016',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="30" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:89" x14ac:dyDescent="0.3">
       <c r="B30" s="11" t="s">
         <v>34</v>
       </c>
@@ -8578,7 +8513,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000141',NULL,NULL,0,0,'1','1','0','0','0','0','0','0','0','CEBI','02/05/2017','02/06/2016',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="31" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:89" x14ac:dyDescent="0.3">
       <c r="B31" s="11" t="s">
         <v>35</v>
       </c>
@@ -8833,7 +8768,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000142',NULL,NULL,NULL,NULL,'1','1','0','0','0','0','0','0','0','CEBI','02/05/2017','02/06/2016',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="32" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:89" x14ac:dyDescent="0.3">
       <c r="B32" s="11" t="s">
         <v>36</v>
       </c>
@@ -9092,7 +9027,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000143',NULL,NULL,NULL,NULL,'0','0','0','0','0','0','0','0','0','CEBI','02/05/2017','02/06/2016',300,200,100,50,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="33" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B33" s="11" t="s">
         <v>37</v>
       </c>
@@ -9351,7 +9286,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000144',NULL,NULL,NULL,NULL,'0','0','0','0','0','0','0','0','0','CEBI','02/05/2017','02/06/2016',0,0,0,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="34" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B34" s="11" t="s">
         <v>38</v>
       </c>
@@ -9610,7 +9545,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000145',NULL,NULL,NULL,NULL,'0','0','0','0','0','0','0','0','0','CEBI','02/05/2017','02/06/2016',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="35" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B35" s="11" t="s">
         <v>39</v>
       </c>
@@ -9869,7 +9804,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000146',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'CEBI',NULL,NULL,300,200,100,50,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="36" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B36" s="11" t="s">
         <v>40</v>
       </c>
@@ -10128,7 +10063,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000147',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'CEBI',NULL,NULL,0,0,0,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="37" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B37" s="11" t="s">
         <v>41</v>
       </c>
@@ -10387,7 +10322,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000148',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'CEBI',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="38" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B38" s="11" t="s">
         <v>42</v>
       </c>
@@ -10646,7 +10581,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000149',NULL,NULL,NULL,NULL,'1','0','0','0','0','0','0','0','0','CEBI','02/05/2017','02/06/2016',300,200,100,50,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="39" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B39" s="11" t="s">
         <v>43</v>
       </c>
@@ -10905,7 +10840,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000150',NULL,NULL,NULL,NULL,'1','0','0','0','0','0','0','0','0','CEBI','02/05/2017','02/06/2016',0,0,0,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="40" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B40" s="11" t="s">
         <v>44</v>
       </c>
@@ -11164,7 +11099,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000151',NULL,NULL,NULL,NULL,'1','0','0','0','0','0','0','0','0','CEBI','02/05/2017','02/06/2016',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="41" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B41" s="23" t="s">
         <v>103</v>
       </c>
@@ -11423,7 +11358,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000152',NULL,NULL,NULL,NULL,'1','1','0','0','0','0','0','0','0','CEBI','02/05/2017','02/06/2016',300,200,100,50,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="42" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B42" s="23" t="s">
         <v>104</v>
       </c>
@@ -11682,7 +11617,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000153',NULL,NULL,NULL,NULL,'1','1','0','0','0','0','0','0','0','CEBI','02/05/2017','02/06/2016',0,0,0,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="43" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B43" s="23" t="s">
         <v>105</v>
       </c>
@@ -11941,7 +11876,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000154',NULL,NULL,NULL,NULL,'1','1','0','0','0','0','0','0','0','CEBI','02/05/2017','02/06/2016',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="44" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B44" s="23" t="s">
         <v>106</v>
       </c>
@@ -12199,7 +12134,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000155',NULL,NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',300,200,100,50,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="45" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B45" s="23" t="s">
         <v>107</v>
       </c>
@@ -12458,7 +12393,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000156',NULL,NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',300,0,0,-100,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="46" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B46" s="23" t="s">
         <v>108</v>
       </c>
@@ -12717,7 +12652,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000157',NULL,NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',-100,-100,-200,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="47" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B47" s="23" t="s">
         <v>109</v>
       </c>
@@ -12976,7 +12911,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000158',NULL,NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',-50,-150,0,-100,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="48" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B48" s="23" t="s">
         <v>110</v>
       </c>
@@ -13235,7 +13170,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000159',NULL,NULL,NULL,NULL,'1','1','1','1','1',0','1','1','1','CEBI','02/05/2017','02/06/2016',-300,200,-50,-150,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="49" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B49" s="23" t="s">
         <v>111</v>
       </c>
@@ -13494,7 +13429,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000160',NULL,NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',-50,-150,-50,-150,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="50" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B50" s="23" t="s">
         <v>112</v>
       </c>
@@ -13753,7 +13688,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000161',NULL,NULL,NULL,NULL,'1','1','1','1','1','1','1','1','1','CEBI','02/05/2017','02/06/2016',-10,-10,-50,-150,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="51" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B51" s="23" t="s">
         <v>113</v>
       </c>
@@ -14010,7 +13945,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000162',NULL,NULL,NULL,NULL,'0','0','0','0','0','0',NULL,NULL,NULL,'CEBI','02/05/2017',NULL,NULL,NULL,NULL,NULL,100,50,200,150,20,100,1000,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="52" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B52" s="23" t="s">
         <v>114</v>
       </c>
@@ -14267,7 +14202,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000163',NULL,NULL,NULL,NULL,'0','0','0','0','0','0',NULL,NULL,NULL,'CEBI','02/05/2017',NULL,NULL,NULL,NULL,NULL,0,0,0,0,0,0,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="53" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B53" s="23" t="s">
         <v>115</v>
       </c>
@@ -14524,7 +14459,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000164',NULL,NULL,NULL,NULL,'0','0','0','0','0','0',NULL,NULL,NULL,'CEBI','02/05/2017',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="54" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B54" s="23" t="s">
         <v>116</v>
       </c>
@@ -14781,7 +14716,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000165',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'CEBI',NULL,NULL,NULL,NULL,NULL,NULL,100,50,200,150,20,100,1000,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="55" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B55" s="23" t="s">
         <v>117</v>
       </c>
@@ -15038,7 +14973,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000166',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'CEBI',NULL,NULL,NULL,NULL,NULL,NULL,0,0,0,0,0,0,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="56" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B56" s="23" t="s">
         <v>118</v>
       </c>
@@ -15295,7 +15230,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000167',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'CEBI',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="57" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B57" s="23" t="s">
         <v>119</v>
       </c>
@@ -15552,7 +15487,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000168',NULL,NULL,NULL,NULL,'1','0','0','0','0','0',NULL,NULL,NULL,'CEBI','02/05/2017',NULL,NULL,NULL,NULL,NULL,100,50,200,150,20,100,1000,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="58" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B58" s="23" t="s">
         <v>120</v>
       </c>
@@ -15809,7 +15744,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000169',NULL,NULL,NULL,NULL,'1','0','0','0','0','0',NULL,NULL,NULL,'CEBI','02/05/2017',NULL,NULL,NULL,NULL,NULL,0,0,0,0,0,0,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="59" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B59" s="23" t="s">
         <v>121</v>
       </c>
@@ -16066,7 +16001,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000170',NULL,NULL,NULL,NULL,'1','0','0','0','0','0',NULL,NULL,NULL,'CEBI','02/05/2017',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="60" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B60" s="23" t="s">
         <v>122</v>
       </c>
@@ -16323,7 +16258,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000171',NULL,NULL,NULL,NULL,'1','1','0','0','0','0',NULL,NULL,NULL,'CEBI','02/05/2017',NULL,NULL,NULL,NULL,NULL,100,50,200,150,20,100,1000,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="61" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B61" s="23" t="s">
         <v>123</v>
       </c>
@@ -16580,7 +16515,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000172',NULL,NULL,NULL,NULL,'1','1','0','0','0','0',NULL,NULL,NULL,'CEBI','02/05/2017',NULL,NULL,NULL,NULL,NULL,0,0,0,0,0,0,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="62" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B62" s="23" t="s">
         <v>124</v>
       </c>
@@ -16837,7 +16772,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000173',NULL,NULL,NULL,NULL,'1','1','0','0','0','0',NULL,NULL,NULL,'CEBI','02/05/2017',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="63" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B63" s="23" t="s">
         <v>125</v>
       </c>
@@ -17094,7 +17029,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000174',NULL,NULL,NULL,NULL,'1','1','1','1','1','1',NULL,NULL,NULL,'CEBI','02/05/2017',NULL,NULL,NULL,NULL,NULL,100,50,200,150,20,100,1000,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="64" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B64" s="23" t="s">
         <v>126</v>
       </c>
@@ -17349,7 +17284,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000175',NULL,NULL,NULL,NULL,'1','1','1','1','1','1',NULL,NULL,NULL,'CEBI','02/05/2017',NULL,NULL,NULL,NULL,NULL,0,0,0,0,0,0,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="65" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B65" s="23" t="s">
         <v>127</v>
       </c>
@@ -17606,7 +17541,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000176',NULL,NULL,NULL,NULL,'1','1','1','1','1','1',NULL,NULL,NULL,'CEBI','02/05/2017',NULL,NULL,NULL,NULL,NULL,100,50,200,0,0,0,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="66" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B66" s="23" t="s">
         <v>128</v>
       </c>
@@ -17863,7 +17798,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000177',NULL,NULL,NULL,NULL,'1','1','1','1','1','1',NULL,NULL,NULL,'CEBI','02/05/2017',NULL,NULL,NULL,NULL,NULL,0,0,-200,0,0,0,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="67" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B67" s="23" t="s">
         <v>129</v>
       </c>
@@ -18120,7 +18055,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000178',NULL,NULL,NULL,NULL,'1','1','1','1','1','1',NULL,NULL,NULL,'CEBI','02/05/2017',NULL,NULL,NULL,NULL,NULL,0,0,0,0,0,-100,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="68" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B68" s="23" t="s">
         <v>130</v>
       </c>
@@ -18377,7 +18312,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000179',NULL,NULL,NULL,NULL,'1','1','1','1','1','1',NULL,NULL,NULL,'CEBI','02/05/2017',NULL,NULL,NULL,NULL,NULL,100,50,200,0,0,-100,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="69" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B69" s="23" t="s">
         <v>131</v>
       </c>
@@ -18634,7 +18569,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000180',NULL,NULL,NULL,NULL,'1','1','1','1','1','1',NULL,NULL,NULL,'CEBI','02/05/2017',NULL,NULL,NULL,NULL,NULL,0,0,-200,0,0,-100,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="70" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B70" s="23" t="s">
         <v>132</v>
       </c>
@@ -18873,7 +18808,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000183',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'1',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="71" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B71" s="23" t="s">
         <v>133</v>
       </c>
@@ -19112,7 +19047,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000184',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'1','02/06/2017','02/06/2017','02/06/2017','02/06/2017','02/06/2017',NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="72" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B72" s="23" t="s">
         <v>134</v>
       </c>
@@ -19351,7 +19286,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000185',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'0',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="73" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B73" s="23" t="s">
         <v>135</v>
       </c>
@@ -19590,7 +19525,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000186',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'0','02/06/2017','02/06/2017','02/06/2017','02/06/2017','02/06/2017',NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="74" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B74" s="23" t="s">
         <v>136</v>
       </c>
@@ -19831,7 +19766,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000187',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'1','0',NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="75" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B75" s="23" t="s">
         <v>137</v>
       </c>
@@ -20072,7 +20007,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000188',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'0','0',NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="76" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B76" s="23" t="s">
         <v>138</v>
       </c>
@@ -20313,7 +20248,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000191',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="77" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B77" s="23" t="s">
         <v>139</v>
       </c>
@@ -20554,7 +20489,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000192',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'0','1',NULL,NULL,NULL,NULL,NULL) ;</v>
       </c>
     </row>
-    <row r="78" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B78" s="23" t="s">
         <v>140</v>
       </c>
@@ -20795,7 +20730,7 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000193',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'0','0','02/06/2017','02/06/2017','02/06/2017','02/06/2017','02/06/2017') ;</v>
       </c>
     </row>
-    <row r="79" spans="2:89" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:89" x14ac:dyDescent="0.3">
       <c r="B79" s="23" t="s">
         <v>141</v>
       </c>
@@ -21036,12 +20971,12 @@
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,COD_RATING,FLG_RATING_VALIDITY,EQUITY_T1,EQUITY_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA,FLG_BANKRUP_APPL,BANKRUP_APPL_NO1_CLOS_DT,BANKRUP_APPL_NO2_CLOS_DT,BANKRUP_APPL_NO3_CLOS_DT,BANKRUP_APPL_NO4_CLOS_DT,BANKRUP_APPL_NO5_CLOS_DT,FLG_BANKRUP_APPL_GRP,FLG_BANKRUP_APPL_NO5,BANKRUP_APPL_GRP_NO1_CLOS_DT,BANKRUP_APPL_GRP_NO2_CLOS_DT,BANKRUP_APPL_GRP_NO3_CLOS_DT,BANKRUP_APPL_GRP_NO4_CLOS_DT,BANKRUP_APPL_GRP_NO5_CLOS_DT) VALUES ( '0000000000000194',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,'0','1','02/06/2017','02/06/2017','02/06/2017','02/06/2017','02/06/2017') ;</v>
       </c>
     </row>
-    <row r="81" spans="28:29" x14ac:dyDescent="0.25">
+    <row r="81" spans="28:29" x14ac:dyDescent="0.3">
       <c r="AB81" s="17" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="85" spans="28:29" x14ac:dyDescent="0.25">
+    <row r="85" spans="28:29" x14ac:dyDescent="0.3">
       <c r="AB85" s="22">
         <f>Z65+AA65+AB65+AC65</f>
         <v>350</v>
@@ -21051,7 +20986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="28:29" x14ac:dyDescent="0.25">
+    <row r="86" spans="28:29" x14ac:dyDescent="0.3">
       <c r="AB86" s="22">
         <f>Z66+AA66+AB66+AC66</f>
         <v>-200</v>
@@ -21061,7 +20996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="28:29" x14ac:dyDescent="0.25">
+    <row r="87" spans="28:29" x14ac:dyDescent="0.3">
       <c r="AB87" s="22">
         <f>Z67+AA67+AB67+AC67</f>
         <v>0</v>
@@ -21071,7 +21006,7 @@
         <v>-28.571428571428573</v>
       </c>
     </row>
-    <row r="88" spans="28:29" x14ac:dyDescent="0.25">
+    <row r="88" spans="28:29" x14ac:dyDescent="0.3">
       <c r="AB88" s="22">
         <f>Z68+AA68+AB68+AC68</f>
         <v>350</v>
@@ -21081,7 +21016,7 @@
         <v>-28.571428571428573</v>
       </c>
     </row>
-    <row r="89" spans="28:29" x14ac:dyDescent="0.25">
+    <row r="89" spans="28:29" x14ac:dyDescent="0.3">
       <c r="AB89" s="22">
         <f>Z69+AA69+AB69+AC69</f>
         <v>-200</v>
@@ -21099,31 +21034,55 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:BO112"/>
+  <dimension ref="A2:BO118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="P84" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="AC3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R2" sqref="R2"/>
+      <selection pane="bottomRight" activeCell="AP71" sqref="AP71:AP83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="37" customWidth="1"/>
-    <col min="3" max="5" width="24.28515625" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" style="12" customWidth="1"/>
-    <col min="7" max="15" width="24.28515625" style="12" customWidth="1"/>
-    <col min="16" max="16" width="30" style="12" customWidth="1"/>
-    <col min="17" max="19" width="24.28515625" style="12" customWidth="1"/>
-    <col min="20" max="23" width="38.28515625" customWidth="1"/>
-    <col min="24" max="39" width="24.28515625" customWidth="1"/>
-    <col min="40" max="41" width="24.28515625" style="12" customWidth="1"/>
-    <col min="42" max="42" width="24.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="22" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="16" width="23.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.77734375" style="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="12.44140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="25" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="24.21875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="31" max="37" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="16" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="6" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="43.88671875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="67.109375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="90.21875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="113.44140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="136.6640625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="159.77734375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="183" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="206.109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="229.33203125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="252.44140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="66" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="129.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:66" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:66" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="36" t="s">
         <v>6</v>
       </c>
@@ -21252,7 +21211,7 @@
         <v>IMP_PATRIM_NETTO_T1,IMP_PATRIM_NETTO_T2</v>
       </c>
       <c r="AR2" t="str">
-        <f t="shared" ref="AR2:AY2" si="0">AQ2&amp;","&amp;H2</f>
+        <f t="shared" ref="AR2:BD2" si="0">AQ2&amp;","&amp;H2</f>
         <v>IMP_PATRIM_NETTO_T1,IMP_PATRIM_NETTO_T2,FLG_COND_ELEGIBILITA_1</v>
       </c>
       <c r="AS2" t="str">
@@ -21284,23 +21243,23 @@
         <v>IMP_PATRIM_NETTO_T1,IMP_PATRIM_NETTO_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8</v>
       </c>
       <c r="AZ2" t="str">
-        <f t="shared" ref="AZ2" si="1">AY2&amp;","&amp;P2</f>
+        <f t="shared" si="0"/>
         <v>IMP_PATRIM_NETTO_T1,IMP_PATRIM_NETTO_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9</v>
       </c>
       <c r="BA2" t="str">
-        <f t="shared" ref="BA2" si="2">AZ2&amp;","&amp;Q2</f>
+        <f t="shared" si="0"/>
         <v>IMP_PATRIM_NETTO_T1,IMP_PATRIM_NETTO_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE</v>
       </c>
       <c r="BB2" t="str">
-        <f t="shared" ref="BB2" si="3">BA2&amp;","&amp;R2</f>
+        <f t="shared" si="0"/>
         <v>IMP_PATRIM_NETTO_T1,IMP_PATRIM_NETTO_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1</v>
       </c>
       <c r="BC2" t="str">
-        <f t="shared" ref="BC2" si="4">BB2&amp;","&amp;S2</f>
+        <f t="shared" si="0"/>
         <v>IMP_PATRIM_NETTO_T1,IMP_PATRIM_NETTO_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2</v>
       </c>
       <c r="BD2" t="str">
-        <f t="shared" ref="BD2" si="5">BC2&amp;","&amp;T2</f>
+        <f t="shared" si="0"/>
         <v>IMP_PATRIM_NETTO_T1,IMP_PATRIM_NETTO_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1</v>
       </c>
       <c r="BE2" t="str">
@@ -21312,39 +21271,39 @@
         <v>IMP_PATRIM_NETTO_T1,IMP_PATRIM_NETTO_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1</v>
       </c>
       <c r="BG2" t="str">
-        <f t="shared" ref="BG2" si="6">BF2&amp;","&amp;W2</f>
+        <f t="shared" ref="BG2:BN2" si="1">BF2&amp;","&amp;W2</f>
         <v>IMP_PATRIM_NETTO_T1,IMP_PATRIM_NETTO_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2</v>
       </c>
       <c r="BH2" t="str">
-        <f t="shared" ref="BH2" si="7">BG2&amp;","&amp;X2</f>
+        <f t="shared" si="1"/>
         <v>IMP_PATRIM_NETTO_T1,IMP_PATRIM_NETTO_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE</v>
       </c>
       <c r="BI2" t="str">
-        <f t="shared" ref="BI2:BN2" si="8">BH2&amp;","&amp;Y2</f>
+        <f t="shared" si="1"/>
         <v>IMP_PATRIM_NETTO_T1,IMP_PATRIM_NETTO_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI</v>
       </c>
       <c r="BJ2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>IMP_PATRIM_NETTO_T1,IMP_PATRIM_NETTO_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI</v>
       </c>
       <c r="BK2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>IMP_PATRIM_NETTO_T1,IMP_PATRIM_NETTO_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS</v>
       </c>
       <c r="BL2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>IMP_PATRIM_NETTO_T1,IMP_PATRIM_NETTO_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT</v>
       </c>
       <c r="BM2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>IMP_PATRIM_NETTO_T1,IMP_PATRIM_NETTO_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT</v>
       </c>
       <c r="BN2" s="40" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>IMP_PATRIM_NETTO_T1,IMP_PATRIM_NETTO_T2,FLG_COND_ELEGIBILITA_1,FLG_COND_ELEGIBILITA_2,FLG_COND_ELEGIBILITA_3,FLG_COND_ELEGIBILITA_4,FLG_COND_ELEGIBILITA_5,FLG_COND_ELEGIBILITA_6,FLG_COND_ELEGIBILITA_7,FLG_COND_ELEGIBILITA_8,FLG_COND_ELEGIBILITA_9,FIN_STAT_SOURCE,BIL_DT_T1,BIL_DT_T2,IMP_RICAVI_VEND_PREST_T1,IMP_RICAVI_VEND_PREST_T2,IMP_VAL_PROD_NETTA_T1,IMP_VAL_PROD_NETTA_T2,IMP_UTILE_PERD_CE,IMP_TOT_AMMORTAMENTI,IMP_ACCANTONAMENTI,IMP_INT_PASS_ONERI_ASS,IMP_DEBITI_FIN_BT,IMP_DEBITI_FIN_MLT,IMP_LIQUIDITA</v>
       </c>
     </row>
-    <row r="3" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:66" x14ac:dyDescent="0.3">
       <c r="B3" s="11" t="s">
         <v>16</v>
       </c>
@@ -21420,7 +21379,7 @@
       <c r="AK3" s="6"/>
       <c r="AL3" s="6"/>
       <c r="AM3" s="6"/>
-      <c r="AN3" s="4">
+      <c r="AN3" s="3">
         <v>0.66666666666666663</v>
       </c>
       <c r="AO3" s="4" t="s">
@@ -21430,7 +21389,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:66" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
         <v>17</v>
       </c>
@@ -21505,7 +21464,7 @@
       <c r="AK4" s="6"/>
       <c r="AL4" s="6"/>
       <c r="AM4" s="6"/>
-      <c r="AN4" s="4">
+      <c r="AN4" s="3">
         <v>0</v>
       </c>
       <c r="AO4" s="4" t="s">
@@ -21515,7 +21474,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:66" x14ac:dyDescent="0.3">
       <c r="B5" s="11" t="s">
         <v>18</v>
       </c>
@@ -21591,7 +21550,7 @@
       <c r="AK5" s="6"/>
       <c r="AL5" s="6"/>
       <c r="AM5" s="6"/>
-      <c r="AN5" s="4">
+      <c r="AN5" s="3">
         <v>0</v>
       </c>
       <c r="AO5" s="4" t="s">
@@ -21601,7 +21560,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:66" x14ac:dyDescent="0.3">
       <c r="B6" s="11" t="s">
         <v>19</v>
       </c>
@@ -21677,7 +21636,7 @@
       <c r="AK6" s="6"/>
       <c r="AL6" s="6"/>
       <c r="AM6" s="6"/>
-      <c r="AN6" s="4">
+      <c r="AN6" s="3">
         <v>-0.5</v>
       </c>
       <c r="AO6" s="4" t="s">
@@ -21687,7 +21646,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:66" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
         <v>20</v>
       </c>
@@ -21762,7 +21721,7 @@
       <c r="AK7" s="6"/>
       <c r="AL7" s="6"/>
       <c r="AM7" s="6"/>
-      <c r="AN7" s="4">
+      <c r="AN7" s="3">
         <v>1000000</v>
       </c>
       <c r="AO7" s="4" t="s">
@@ -21772,7 +21731,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:66" x14ac:dyDescent="0.3">
       <c r="B8" s="11" t="s">
         <v>21</v>
       </c>
@@ -21848,7 +21807,7 @@
       <c r="AK8" s="6"/>
       <c r="AL8" s="6"/>
       <c r="AM8" s="6"/>
-      <c r="AN8" s="4">
+      <c r="AN8" s="3">
         <v>2.5</v>
       </c>
       <c r="AO8" s="4" t="s">
@@ -21858,7 +21817,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:66" x14ac:dyDescent="0.3">
       <c r="B9" s="11" t="s">
         <v>22</v>
       </c>
@@ -21933,7 +21892,7 @@
       <c r="AK9" s="6"/>
       <c r="AL9" s="6"/>
       <c r="AM9" s="6"/>
-      <c r="AN9" s="4" t="s">
+      <c r="AN9" s="3" t="s">
         <v>1</v>
       </c>
       <c r="AO9" s="4" t="s">
@@ -21943,7 +21902,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:66" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
         <v>23</v>
       </c>
@@ -22018,7 +21977,7 @@
       <c r="AK10" s="6"/>
       <c r="AL10" s="6"/>
       <c r="AM10" s="6"/>
-      <c r="AN10" s="4">
+      <c r="AN10" s="3">
         <v>-1000000</v>
       </c>
       <c r="AO10" s="4" t="s">
@@ -22028,7 +21987,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:66" x14ac:dyDescent="0.3">
       <c r="B11" s="11" t="s">
         <v>24</v>
       </c>
@@ -22103,7 +22062,7 @@
       <c r="AK11" s="6"/>
       <c r="AL11" s="6"/>
       <c r="AM11" s="6"/>
-      <c r="AN11" s="4" t="s">
+      <c r="AN11" s="3" t="s">
         <v>1</v>
       </c>
       <c r="AO11" s="4" t="s">
@@ -22113,7 +22072,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="12" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:66" x14ac:dyDescent="0.3">
       <c r="B12" s="11" t="s">
         <v>25</v>
       </c>
@@ -22188,7 +22147,7 @@
       <c r="AK12" s="6"/>
       <c r="AL12" s="6"/>
       <c r="AM12" s="6"/>
-      <c r="AN12" s="4" t="s">
+      <c r="AN12" s="3" t="s">
         <v>1</v>
       </c>
       <c r="AO12" s="4" t="s">
@@ -22198,7 +22157,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="13" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:66" x14ac:dyDescent="0.3">
       <c r="B13" s="11" t="s">
         <v>26</v>
       </c>
@@ -22273,7 +22232,7 @@
       <c r="AK13" s="6"/>
       <c r="AL13" s="6"/>
       <c r="AM13" s="6"/>
-      <c r="AN13" s="4" t="s">
+      <c r="AN13" s="3" t="s">
         <v>1</v>
       </c>
       <c r="AO13" s="4" t="s">
@@ -22283,7 +22242,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="14" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:66" x14ac:dyDescent="0.3">
       <c r="B14" s="11" t="s">
         <v>27</v>
       </c>
@@ -22358,7 +22317,7 @@
       <c r="AK14" s="6"/>
       <c r="AL14" s="6"/>
       <c r="AM14" s="6"/>
-      <c r="AN14" s="4" t="s">
+      <c r="AN14" s="3" t="s">
         <v>1</v>
       </c>
       <c r="AO14" s="4" t="s">
@@ -22368,7 +22327,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:66" x14ac:dyDescent="0.3">
       <c r="B15" s="11" t="s">
         <v>28</v>
       </c>
@@ -22443,7 +22402,7 @@
       <c r="AK15" s="7"/>
       <c r="AL15" s="7"/>
       <c r="AM15" s="7"/>
-      <c r="AN15" s="4" t="s">
+      <c r="AN15" s="3" t="s">
         <v>1</v>
       </c>
       <c r="AO15" s="4" t="s">
@@ -22453,7 +22412,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="16" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:66" x14ac:dyDescent="0.3">
       <c r="B16" s="11" t="s">
         <v>29</v>
       </c>
@@ -22528,7 +22487,7 @@
       <c r="AK16" s="7"/>
       <c r="AL16" s="7"/>
       <c r="AM16" s="7"/>
-      <c r="AN16" s="4" t="s">
+      <c r="AN16" s="3" t="s">
         <v>1</v>
       </c>
       <c r="AO16" s="4" t="s">
@@ -22538,7 +22497,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="17" spans="2:67" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:67" x14ac:dyDescent="0.3">
       <c r="B17" s="11" t="s">
         <v>30</v>
       </c>
@@ -22613,7 +22572,7 @@
       <c r="AK17" s="7"/>
       <c r="AL17" s="7"/>
       <c r="AM17" s="7"/>
-      <c r="AN17" s="4" t="s">
+      <c r="AN17" s="3" t="s">
         <v>1</v>
       </c>
       <c r="AO17" s="4" t="s">
@@ -22623,7 +22582,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="18" spans="2:67" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:67" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
         <v>31</v>
       </c>
@@ -22698,7 +22657,7 @@
       <c r="AK18" s="7"/>
       <c r="AL18" s="7"/>
       <c r="AM18" s="7"/>
-      <c r="AN18" s="4" t="s">
+      <c r="AN18" s="3" t="s">
         <v>1</v>
       </c>
       <c r="AO18" s="4" t="s">
@@ -22708,7 +22667,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="2:67" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:67" x14ac:dyDescent="0.3">
       <c r="B19" s="11" t="s">
         <v>32</v>
       </c>
@@ -22783,7 +22742,7 @@
       <c r="AK19" s="7"/>
       <c r="AL19" s="7"/>
       <c r="AM19" s="7"/>
-      <c r="AN19" s="4" t="s">
+      <c r="AN19" s="3" t="s">
         <v>1</v>
       </c>
       <c r="AO19" s="4" t="s">
@@ -22793,7 +22752,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="2:67" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:67" x14ac:dyDescent="0.3">
       <c r="B20" s="11" t="s">
         <v>33</v>
       </c>
@@ -22868,7 +22827,7 @@
       <c r="AK20" s="7"/>
       <c r="AL20" s="7"/>
       <c r="AM20" s="7"/>
-      <c r="AN20" s="4" t="s">
+      <c r="AN20" s="3" t="s">
         <v>1</v>
       </c>
       <c r="AO20" s="4" t="s">
@@ -22878,7 +22837,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="21" spans="2:67" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:67" x14ac:dyDescent="0.3">
       <c r="B21" s="11" t="s">
         <v>34</v>
       </c>
@@ -22953,7 +22912,7 @@
       <c r="AK21" s="7"/>
       <c r="AL21" s="7"/>
       <c r="AM21" s="7"/>
-      <c r="AN21" s="4" t="s">
+      <c r="AN21" s="3" t="s">
         <v>1</v>
       </c>
       <c r="AO21" s="4" t="s">
@@ -22963,7 +22922,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="22" spans="2:67" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:67" x14ac:dyDescent="0.3">
       <c r="B22" s="38" t="s">
         <v>158</v>
       </c>
@@ -23071,95 +23030,95 @@
         <v>500,300</v>
       </c>
       <c r="AR22" t="str">
-        <f t="shared" ref="AR22:BN22" si="9">AQ22&amp;","&amp;H22</f>
+        <f t="shared" ref="AR22:BN31" si="2">AQ22&amp;","&amp;H22</f>
         <v>500,300,'1'</v>
       </c>
       <c r="AS22" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>500,300,'1','1'</v>
       </c>
       <c r="AT22" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>500,300,'1','1',null</v>
       </c>
       <c r="AU22" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>500,300,'1','1',null,null</v>
       </c>
       <c r="AV22" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>500,300,'1','1',null,null,'1'</v>
       </c>
       <c r="AW22" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>500,300,'1','1',null,null,'1','1'</v>
       </c>
       <c r="AX22" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>500,300,'1','1',null,null,'1','1',null</v>
       </c>
       <c r="AY22" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>500,300,'1','1',null,null,'1','1',null,'1'</v>
       </c>
       <c r="AZ22" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>500,300,'1','1',null,null,'1','1',null,'1','1'</v>
       </c>
       <c r="BA22" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>500,300,'1','1',null,null,'1','1',null,'1','1','FIS'</v>
       </c>
       <c r="BB22" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>500,300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017'</v>
       </c>
       <c r="BC22" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>500,300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016'</v>
       </c>
       <c r="BD22" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>500,300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null</v>
       </c>
       <c r="BE22" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>500,300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null</v>
       </c>
       <c r="BF22" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>500,300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null</v>
       </c>
       <c r="BG22" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>500,300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null</v>
       </c>
       <c r="BH22" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>500,300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null</v>
       </c>
       <c r="BI22" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>500,300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null</v>
       </c>
       <c r="BJ22" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>500,300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null</v>
       </c>
       <c r="BK22" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>500,300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null</v>
       </c>
       <c r="BL22" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>500,300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null,null</v>
       </c>
       <c r="BM22" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>500,300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null,null,null</v>
       </c>
       <c r="BN22" s="40" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>500,300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null,null,null,null</v>
       </c>
       <c r="BO22" t="str">
@@ -23167,7 +23126,7 @@
         <v>500,300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null,null,null,null,0,666666666666667</v>
       </c>
     </row>
-    <row r="23" spans="2:67" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:67" x14ac:dyDescent="0.3">
       <c r="B23" s="38" t="s">
         <v>159</v>
       </c>
@@ -23274,11 +23233,11 @@
         <v>152</v>
       </c>
       <c r="AQ23" s="16" t="str">
-        <f t="shared" ref="AQ23:AQ31" si="10">F23&amp;","&amp;G23</f>
+        <f t="shared" ref="AQ23:AQ31" si="3">F23&amp;","&amp;G23</f>
         <v>500,0</v>
       </c>
       <c r="AR23" t="str">
-        <f t="shared" ref="AR23:AR31" si="11">AQ23&amp;","&amp;H23</f>
+        <f t="shared" si="2"/>
         <v>500,0,'1'</v>
       </c>
       <c r="AS23" t="str">
@@ -23290,11 +23249,11 @@
         <v>500,0,'1','1',null</v>
       </c>
       <c r="AU23" t="str">
-        <f t="shared" ref="AU23:AU31" si="12">AT23&amp;","&amp;K23</f>
+        <f t="shared" si="2"/>
         <v>500,0,'1','1',null,null</v>
       </c>
       <c r="AV23" t="str">
-        <f t="shared" ref="AV23:AV31" si="13">AU23&amp;","&amp;L23</f>
+        <f t="shared" si="2"/>
         <v>500,0,'1','1',null,null,'1'</v>
       </c>
       <c r="AW23" t="str">
@@ -23306,71 +23265,71 @@
         <v>500,0,'1','1',null,null,'1','1',null</v>
       </c>
       <c r="AY23" t="str">
-        <f t="shared" ref="AY23:AY31" si="14">AX23&amp;","&amp;O23</f>
+        <f t="shared" si="2"/>
         <v>500,0,'1','1',null,null,'1','1',null,'1'</v>
       </c>
       <c r="AZ23" t="str">
-        <f t="shared" ref="AZ23:AZ31" si="15">AY23&amp;","&amp;P23</f>
+        <f t="shared" si="2"/>
         <v>500,0,'1','1',null,null,'1','1',null,'1','1'</v>
       </c>
       <c r="BA23" t="str">
-        <f t="shared" ref="BA23:BA31" si="16">AZ23&amp;","&amp;Q23</f>
+        <f t="shared" si="2"/>
         <v>500,0,'1','1',null,null,'1','1',null,'1','1','FIS'</v>
       </c>
       <c r="BB23" t="str">
-        <f t="shared" ref="BB23:BB31" si="17">BA23&amp;","&amp;R23</f>
+        <f t="shared" si="2"/>
         <v>500,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017'</v>
       </c>
       <c r="BC23" t="str">
-        <f t="shared" ref="BC23:BC31" si="18">BB23&amp;","&amp;S23</f>
+        <f t="shared" si="2"/>
         <v>500,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016'</v>
       </c>
       <c r="BD23" t="str">
-        <f t="shared" ref="BD23:BD31" si="19">BC23&amp;","&amp;T23</f>
+        <f t="shared" si="2"/>
         <v>500,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null</v>
       </c>
       <c r="BE23" t="str">
-        <f t="shared" ref="BE23:BE31" si="20">BD23&amp;","&amp;U23</f>
+        <f t="shared" si="2"/>
         <v>500,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null</v>
       </c>
       <c r="BF23" t="str">
-        <f t="shared" ref="BF23:BF31" si="21">BE23&amp;","&amp;V23</f>
+        <f t="shared" si="2"/>
         <v>500,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null</v>
       </c>
       <c r="BG23" t="str">
-        <f t="shared" ref="BG23:BG31" si="22">BF23&amp;","&amp;W23</f>
+        <f t="shared" si="2"/>
         <v>500,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null</v>
       </c>
       <c r="BH23" t="str">
-        <f t="shared" ref="BH23:BH31" si="23">BG23&amp;","&amp;X23</f>
+        <f t="shared" si="2"/>
         <v>500,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null</v>
       </c>
       <c r="BI23" t="str">
-        <f t="shared" ref="BI23:BI31" si="24">BH23&amp;","&amp;Y23</f>
+        <f t="shared" si="2"/>
         <v>500,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null</v>
       </c>
       <c r="BJ23" t="str">
-        <f t="shared" ref="BJ23:BJ31" si="25">BI23&amp;","&amp;Z23</f>
+        <f t="shared" si="2"/>
         <v>500,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null</v>
       </c>
       <c r="BK23" t="str">
-        <f t="shared" ref="BK23:BK31" si="26">BJ23&amp;","&amp;AA23</f>
+        <f t="shared" si="2"/>
         <v>500,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null</v>
       </c>
       <c r="BL23" t="str">
-        <f t="shared" ref="BL23:BL31" si="27">BK23&amp;","&amp;AB23</f>
+        <f t="shared" si="2"/>
         <v>500,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null,null</v>
       </c>
       <c r="BM23" t="str">
-        <f t="shared" ref="BM23:BM31" si="28">BL23&amp;","&amp;AC23</f>
+        <f t="shared" si="2"/>
         <v>500,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null,null,null</v>
       </c>
       <c r="BN23" s="40" t="str">
-        <f t="shared" ref="BN23:BN31" si="29">BM23&amp;","&amp;AD23</f>
+        <f t="shared" si="2"/>
         <v>500,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null,null,null,null</v>
       </c>
     </row>
-    <row r="24" spans="2:67" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:67" x14ac:dyDescent="0.3">
       <c r="B24" s="38" t="s">
         <v>160</v>
       </c>
@@ -23477,103 +23436,103 @@
         <v>152</v>
       </c>
       <c r="AQ24" s="16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>0,0</v>
       </c>
       <c r="AR24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="2"/>
         <v>0,0,'1'</v>
       </c>
       <c r="AS24" t="str">
-        <f t="shared" ref="AS24:AS31" si="30">AR24&amp;","&amp;I24</f>
+        <f t="shared" si="2"/>
         <v>0,0,'1','1'</v>
       </c>
       <c r="AT24" t="str">
-        <f t="shared" ref="AT24:AT31" si="31">AS24&amp;","&amp;J24</f>
+        <f t="shared" si="2"/>
         <v>0,0,'1','1',null</v>
       </c>
       <c r="AU24" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>0,0,'1','1',null,null</v>
       </c>
       <c r="AV24" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>0,0,'1','1',null,null,'1'</v>
       </c>
       <c r="AW24" t="str">
-        <f t="shared" ref="AW24:AW31" si="32">AV24&amp;","&amp;M24</f>
+        <f t="shared" si="2"/>
         <v>0,0,'1','1',null,null,'1','1'</v>
       </c>
       <c r="AX24" t="str">
-        <f t="shared" ref="AX24:AX31" si="33">AW24&amp;","&amp;N24</f>
+        <f t="shared" si="2"/>
         <v>0,0,'1','1',null,null,'1','1',null</v>
       </c>
       <c r="AY24" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>0,0,'1','1',null,null,'1','1',null,'1'</v>
       </c>
       <c r="AZ24" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="2"/>
         <v>0,0,'1','1',null,null,'1','1',null,'1','1'</v>
       </c>
       <c r="BA24" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="2"/>
         <v>0,0,'1','1',null,null,'1','1',null,'1','1','FIS'</v>
       </c>
       <c r="BB24" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="2"/>
         <v>0,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017'</v>
       </c>
       <c r="BC24" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>0,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016'</v>
       </c>
       <c r="BD24" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="2"/>
         <v>0,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null</v>
       </c>
       <c r="BE24" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="2"/>
         <v>0,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null</v>
       </c>
       <c r="BF24" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="2"/>
         <v>0,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null</v>
       </c>
       <c r="BG24" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="2"/>
         <v>0,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null</v>
       </c>
       <c r="BH24" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="2"/>
         <v>0,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null</v>
       </c>
       <c r="BI24" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="2"/>
         <v>0,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null</v>
       </c>
       <c r="BJ24" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="2"/>
         <v>0,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null</v>
       </c>
       <c r="BK24" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="2"/>
         <v>0,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null</v>
       </c>
       <c r="BL24" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="2"/>
         <v>0,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null,null</v>
       </c>
       <c r="BM24" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="2"/>
         <v>0,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null,null,null</v>
       </c>
       <c r="BN24" s="40" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="2"/>
         <v>0,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null,null,null,null</v>
       </c>
     </row>
-    <row r="25" spans="2:67" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:67" x14ac:dyDescent="0.3">
       <c r="B25" s="38" t="s">
         <v>161</v>
       </c>
@@ -23680,103 +23639,103 @@
         <v>152</v>
       </c>
       <c r="AQ25" s="16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>-300,0</v>
       </c>
       <c r="AR25" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="2"/>
         <v>-300,0,'1'</v>
       </c>
       <c r="AS25" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="2"/>
         <v>-300,0,'1','1'</v>
       </c>
       <c r="AT25" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="2"/>
         <v>-300,0,'1','1',null</v>
       </c>
       <c r="AU25" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>-300,0,'1','1',null,null</v>
       </c>
       <c r="AV25" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>-300,0,'1','1',null,null,'1'</v>
       </c>
       <c r="AW25" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="2"/>
         <v>-300,0,'1','1',null,null,'1','1'</v>
       </c>
       <c r="AX25" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="2"/>
         <v>-300,0,'1','1',null,null,'1','1',null</v>
       </c>
       <c r="AY25" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>-300,0,'1','1',null,null,'1','1',null,'1'</v>
       </c>
       <c r="AZ25" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="2"/>
         <v>-300,0,'1','1',null,null,'1','1',null,'1','1'</v>
       </c>
       <c r="BA25" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="2"/>
         <v>-300,0,'1','1',null,null,'1','1',null,'1','1','FIS'</v>
       </c>
       <c r="BB25" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="2"/>
         <v>-300,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017'</v>
       </c>
       <c r="BC25" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>-300,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016'</v>
       </c>
       <c r="BD25" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="2"/>
         <v>-300,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null</v>
       </c>
       <c r="BE25" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="2"/>
         <v>-300,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null</v>
       </c>
       <c r="BF25" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="2"/>
         <v>-300,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null</v>
       </c>
       <c r="BG25" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="2"/>
         <v>-300,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null</v>
       </c>
       <c r="BH25" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="2"/>
         <v>-300,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null</v>
       </c>
       <c r="BI25" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="2"/>
         <v>-300,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null</v>
       </c>
       <c r="BJ25" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="2"/>
         <v>-300,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null</v>
       </c>
       <c r="BK25" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="2"/>
         <v>-300,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null</v>
       </c>
       <c r="BL25" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="2"/>
         <v>-300,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null,null</v>
       </c>
       <c r="BM25" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="2"/>
         <v>-300,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null,null,null</v>
       </c>
       <c r="BN25" s="40" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="2"/>
         <v>-300,0,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null,null,null,null</v>
       </c>
     </row>
-    <row r="26" spans="2:67" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:67" x14ac:dyDescent="0.3">
       <c r="B26" s="38" t="s">
         <v>162</v>
       </c>
@@ -23883,103 +23842,103 @@
         <v>152</v>
       </c>
       <c r="AQ26" s="16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>500,300</v>
       </c>
       <c r="AR26" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="2"/>
         <v>500,300,'0'</v>
       </c>
       <c r="AS26" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="2"/>
         <v>500,300,'0','1'</v>
       </c>
       <c r="AT26" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="2"/>
         <v>500,300,'0','1',null</v>
       </c>
       <c r="AU26" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>500,300,'0','1',null,null</v>
       </c>
       <c r="AV26" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>500,300,'0','1',null,null,'1'</v>
       </c>
       <c r="AW26" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="2"/>
         <v>500,300,'0','1',null,null,'1','1'</v>
       </c>
       <c r="AX26" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="2"/>
         <v>500,300,'0','1',null,null,'1','1',null</v>
       </c>
       <c r="AY26" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>500,300,'0','1',null,null,'1','1',null,'1'</v>
       </c>
       <c r="AZ26" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="2"/>
         <v>500,300,'0','1',null,null,'1','1',null,'1','1'</v>
       </c>
       <c r="BA26" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="2"/>
         <v>500,300,'0','1',null,null,'1','1',null,'1','1','FIS'</v>
       </c>
       <c r="BB26" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="2"/>
         <v>500,300,'0','1',null,null,'1','1',null,'1','1','FIS','02/05/2017'</v>
       </c>
       <c r="BC26" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>500,300,'0','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016'</v>
       </c>
       <c r="BD26" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="2"/>
         <v>500,300,'0','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null</v>
       </c>
       <c r="BE26" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="2"/>
         <v>500,300,'0','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null</v>
       </c>
       <c r="BF26" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="2"/>
         <v>500,300,'0','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null</v>
       </c>
       <c r="BG26" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="2"/>
         <v>500,300,'0','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null</v>
       </c>
       <c r="BH26" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="2"/>
         <v>500,300,'0','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null</v>
       </c>
       <c r="BI26" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="2"/>
         <v>500,300,'0','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null</v>
       </c>
       <c r="BJ26" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="2"/>
         <v>500,300,'0','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null</v>
       </c>
       <c r="BK26" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="2"/>
         <v>500,300,'0','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null</v>
       </c>
       <c r="BL26" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="2"/>
         <v>500,300,'0','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null,null</v>
       </c>
       <c r="BM26" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="2"/>
         <v>500,300,'0','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null,null,null</v>
       </c>
       <c r="BN26" s="40" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="2"/>
         <v>500,300,'0','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null,null,null,null</v>
       </c>
     </row>
-    <row r="27" spans="2:67" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:67" x14ac:dyDescent="0.3">
       <c r="B27" s="38" t="s">
         <v>163</v>
       </c>
@@ -24086,103 +24045,103 @@
         <v>152</v>
       </c>
       <c r="AQ27" s="16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>500,300</v>
       </c>
       <c r="AR27" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="2"/>
         <v>500,300,'1'</v>
       </c>
       <c r="AS27" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="2"/>
         <v>500,300,'1','0'</v>
       </c>
       <c r="AT27" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="2"/>
         <v>500,300,'1','0',null</v>
       </c>
       <c r="AU27" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>500,300,'1','0',null,null</v>
       </c>
       <c r="AV27" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>500,300,'1','0',null,null,'1'</v>
       </c>
       <c r="AW27" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="2"/>
         <v>500,300,'1','0',null,null,'1','1'</v>
       </c>
       <c r="AX27" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="2"/>
         <v>500,300,'1','0',null,null,'1','1',null</v>
       </c>
       <c r="AY27" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>500,300,'1','0',null,null,'1','1',null,'1'</v>
       </c>
       <c r="AZ27" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="2"/>
         <v>500,300,'1','0',null,null,'1','1',null,'1','1'</v>
       </c>
       <c r="BA27" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="2"/>
         <v>500,300,'1','0',null,null,'1','1',null,'1','1','FIS'</v>
       </c>
       <c r="BB27" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="2"/>
         <v>500,300,'1','0',null,null,'1','1',null,'1','1','FIS','02/05/2017'</v>
       </c>
       <c r="BC27" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>500,300,'1','0',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016'</v>
       </c>
       <c r="BD27" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="2"/>
         <v>500,300,'1','0',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null</v>
       </c>
       <c r="BE27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="2"/>
         <v>500,300,'1','0',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null</v>
       </c>
       <c r="BF27" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="2"/>
         <v>500,300,'1','0',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null</v>
       </c>
       <c r="BG27" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="2"/>
         <v>500,300,'1','0',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null</v>
       </c>
       <c r="BH27" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="2"/>
         <v>500,300,'1','0',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null</v>
       </c>
       <c r="BI27" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="2"/>
         <v>500,300,'1','0',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null</v>
       </c>
       <c r="BJ27" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="2"/>
         <v>500,300,'1','0',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null</v>
       </c>
       <c r="BK27" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="2"/>
         <v>500,300,'1','0',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null</v>
       </c>
       <c r="BL27" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="2"/>
         <v>500,300,'1','0',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null,null</v>
       </c>
       <c r="BM27" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="2"/>
         <v>500,300,'1','0',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null,null,null</v>
       </c>
       <c r="BN27" s="40" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="2"/>
         <v>500,300,'1','0',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null,null,null,null</v>
       </c>
     </row>
-    <row r="28" spans="2:67" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:67" x14ac:dyDescent="0.3">
       <c r="B28" s="38" t="s">
         <v>164</v>
       </c>
@@ -24289,103 +24248,103 @@
         <v>152</v>
       </c>
       <c r="AQ28" s="16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>null,null</v>
       </c>
       <c r="AR28" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="2"/>
         <v>null,null,null</v>
       </c>
       <c r="AS28" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="2"/>
         <v>null,null,null,null</v>
       </c>
       <c r="AT28" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="2"/>
         <v>null,null,null,null,null</v>
       </c>
       <c r="AU28" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>null,null,null,null,null,null</v>
       </c>
       <c r="AV28" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>null,null,null,null,null,null,null</v>
       </c>
       <c r="AW28" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="2"/>
         <v>null,null,null,null,null,null,null,null</v>
       </c>
       <c r="AX28" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="2"/>
         <v>null,null,null,null,null,null,null,null,null</v>
       </c>
       <c r="AY28" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>null,null,null,null,null,null,null,null,null,?</v>
       </c>
       <c r="AZ28" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="2"/>
         <v>null,null,null,null,null,null,null,null,null,?,?</v>
       </c>
       <c r="BA28" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="2"/>
         <v>null,null,null,null,null,null,null,null,null,?,?,'FIS'</v>
       </c>
       <c r="BB28" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="2"/>
         <v>null,null,null,null,null,null,null,null,null,?,?,'FIS',null</v>
       </c>
       <c r="BC28" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>null,null,null,null,null,null,null,null,null,?,?,'FIS',null,null</v>
       </c>
       <c r="BD28" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="2"/>
         <v>null,null,null,null,null,null,null,null,null,?,?,'FIS',null,null,null</v>
       </c>
       <c r="BE28" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="2"/>
         <v>null,null,null,null,null,null,null,null,null,?,?,'FIS',null,null,null,null</v>
       </c>
       <c r="BF28" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="2"/>
         <v>null,null,null,null,null,null,null,null,null,?,?,'FIS',null,null,null,null,null</v>
       </c>
       <c r="BG28" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="2"/>
         <v>null,null,null,null,null,null,null,null,null,?,?,'FIS',null,null,null,null,null,null</v>
       </c>
       <c r="BH28" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="2"/>
         <v>null,null,null,null,null,null,null,null,null,?,?,'FIS',null,null,null,null,null,null,null</v>
       </c>
       <c r="BI28" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="2"/>
         <v>null,null,null,null,null,null,null,null,null,?,?,'FIS',null,null,null,null,null,null,null,null</v>
       </c>
       <c r="BJ28" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="2"/>
         <v>null,null,null,null,null,null,null,null,null,?,?,'FIS',null,null,null,null,null,null,null,null,null</v>
       </c>
       <c r="BK28" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="2"/>
         <v>null,null,null,null,null,null,null,null,null,?,?,'FIS',null,null,null,null,null,null,null,null,null,null</v>
       </c>
       <c r="BL28" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="2"/>
         <v>null,null,null,null,null,null,null,null,null,?,?,'FIS',null,null,null,null,null,null,null,null,null,null,null</v>
       </c>
       <c r="BM28" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="2"/>
         <v>null,null,null,null,null,null,null,null,null,?,?,'FIS',null,null,null,null,null,null,null,null,null,null,null,null</v>
       </c>
       <c r="BN28" s="40" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="2"/>
         <v>null,null,null,null,null,null,null,null,null,?,?,'FIS',null,null,null,null,null,null,null,null,null,null,null,null,null</v>
       </c>
     </row>
-    <row r="29" spans="2:67" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:67" x14ac:dyDescent="0.3">
       <c r="B29" s="38" t="s">
         <v>165</v>
       </c>
@@ -24489,103 +24448,103 @@
         <v>152</v>
       </c>
       <c r="AQ29" s="16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>500,-300</v>
       </c>
       <c r="AR29" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="2"/>
         <v>500,-300,'1'</v>
       </c>
       <c r="AS29" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="2"/>
         <v>500,-300,'1','1'</v>
       </c>
       <c r="AT29" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="2"/>
         <v>500,-300,'1','1',null</v>
       </c>
       <c r="AU29" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>500,-300,'1','1',null,null</v>
       </c>
       <c r="AV29" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>500,-300,'1','1',null,null,'1'</v>
       </c>
       <c r="AW29" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="2"/>
         <v>500,-300,'1','1',null,null,'1','1'</v>
       </c>
       <c r="AX29" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="2"/>
         <v>500,-300,'1','1',null,null,'1','1',null</v>
       </c>
       <c r="AY29" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>500,-300,'1','1',null,null,'1','1',null,'1'</v>
       </c>
       <c r="AZ29" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="2"/>
         <v>500,-300,'1','1',null,null,'1','1',null,'1','1'</v>
       </c>
       <c r="BA29" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="2"/>
         <v>500,-300,'1','1',null,null,'1','1',null,'1','1','FIS'</v>
       </c>
       <c r="BB29" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="2"/>
         <v>500,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017'</v>
       </c>
       <c r="BC29" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>500,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016'</v>
       </c>
       <c r="BD29" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="2"/>
         <v>500,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null</v>
       </c>
       <c r="BE29" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="2"/>
         <v>500,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null</v>
       </c>
       <c r="BF29" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="2"/>
         <v>500,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null</v>
       </c>
       <c r="BG29" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="2"/>
         <v>500,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null</v>
       </c>
       <c r="BH29" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="2"/>
         <v>500,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null</v>
       </c>
       <c r="BI29" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="2"/>
         <v>500,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null</v>
       </c>
       <c r="BJ29" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="2"/>
         <v>500,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null</v>
       </c>
       <c r="BK29" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="2"/>
         <v>500,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null</v>
       </c>
       <c r="BL29" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="2"/>
         <v>500,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null,null</v>
       </c>
       <c r="BM29" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="2"/>
         <v>500,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null,null,null</v>
       </c>
       <c r="BN29" s="40" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="2"/>
         <v>500,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null,null,null,null</v>
       </c>
     </row>
-    <row r="30" spans="2:67" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:67" x14ac:dyDescent="0.3">
       <c r="B30" s="38" t="s">
         <v>166</v>
       </c>
@@ -24593,7 +24552,7 @@
         <v>3</v>
       </c>
       <c r="D30" s="30">
-        <f t="shared" ref="D30:D31" si="34">(F30-G30)/ABS(G30)</f>
+        <f t="shared" ref="D30:D31" si="4">(F30-G30)/ABS(G30)</f>
         <v>1</v>
       </c>
       <c r="E30" s="30"/>
@@ -24689,103 +24648,103 @@
         <v>152</v>
       </c>
       <c r="AQ30" s="16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>0,-300</v>
       </c>
       <c r="AR30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="2"/>
         <v>0,-300,'1'</v>
       </c>
       <c r="AS30" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="2"/>
         <v>0,-300,'1','1'</v>
       </c>
       <c r="AT30" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="2"/>
         <v>0,-300,'1','1',null</v>
       </c>
       <c r="AU30" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>0,-300,'1','1',null,null</v>
       </c>
       <c r="AV30" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>0,-300,'1','1',null,null,'1'</v>
       </c>
       <c r="AW30" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="2"/>
         <v>0,-300,'1','1',null,null,'1','1'</v>
       </c>
       <c r="AX30" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="2"/>
         <v>0,-300,'1','1',null,null,'1','1',null</v>
       </c>
       <c r="AY30" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>0,-300,'1','1',null,null,'1','1',null,'1'</v>
       </c>
       <c r="AZ30" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="2"/>
         <v>0,-300,'1','1',null,null,'1','1',null,'1','1'</v>
       </c>
       <c r="BA30" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="2"/>
         <v>0,-300,'1','1',null,null,'1','1',null,'1','1','FIS'</v>
       </c>
       <c r="BB30" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="2"/>
         <v>0,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017'</v>
       </c>
       <c r="BC30" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>0,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016'</v>
       </c>
       <c r="BD30" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="2"/>
         <v>0,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null</v>
       </c>
       <c r="BE30" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="2"/>
         <v>0,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null</v>
       </c>
       <c r="BF30" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="2"/>
         <v>0,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null</v>
       </c>
       <c r="BG30" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="2"/>
         <v>0,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null</v>
       </c>
       <c r="BH30" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="2"/>
         <v>0,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null</v>
       </c>
       <c r="BI30" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="2"/>
         <v>0,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null</v>
       </c>
       <c r="BJ30" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="2"/>
         <v>0,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null</v>
       </c>
       <c r="BK30" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="2"/>
         <v>0,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null</v>
       </c>
       <c r="BL30" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="2"/>
         <v>0,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null,null</v>
       </c>
       <c r="BM30" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="2"/>
         <v>0,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null,null,null</v>
       </c>
       <c r="BN30" s="40" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="2"/>
         <v>0,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null,null,null,null</v>
       </c>
     </row>
-    <row r="31" spans="2:67" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:67" x14ac:dyDescent="0.3">
       <c r="B31" s="38" t="s">
         <v>167</v>
       </c>
@@ -24793,7 +24752,7 @@
         <v>3</v>
       </c>
       <c r="D31" s="30">
-        <f t="shared" si="34"/>
+        <f t="shared" si="4"/>
         <v>-0.66666666666666663</v>
       </c>
       <c r="E31" s="30"/>
@@ -24889,103 +24848,103 @@
         <v>152</v>
       </c>
       <c r="AQ31" s="16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>-500,-300</v>
       </c>
       <c r="AR31" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="2"/>
         <v>-500,-300,'1'</v>
       </c>
       <c r="AS31" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="2"/>
         <v>-500,-300,'1','1'</v>
       </c>
       <c r="AT31" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="2"/>
         <v>-500,-300,'1','1',null</v>
       </c>
       <c r="AU31" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>-500,-300,'1','1',null,null</v>
       </c>
       <c r="AV31" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>-500,-300,'1','1',null,null,'1'</v>
       </c>
       <c r="AW31" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="2"/>
         <v>-500,-300,'1','1',null,null,'1','1'</v>
       </c>
       <c r="AX31" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="2"/>
         <v>-500,-300,'1','1',null,null,'1','1',null</v>
       </c>
       <c r="AY31" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>-500,-300,'1','1',null,null,'1','1',null,'1'</v>
       </c>
       <c r="AZ31" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="2"/>
         <v>-500,-300,'1','1',null,null,'1','1',null,'1','1'</v>
       </c>
       <c r="BA31" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="2"/>
         <v>-500,-300,'1','1',null,null,'1','1',null,'1','1','FIS'</v>
       </c>
       <c r="BB31" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="2"/>
         <v>-500,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017'</v>
       </c>
       <c r="BC31" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>-500,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016'</v>
       </c>
       <c r="BD31" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="2"/>
         <v>-500,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null</v>
       </c>
       <c r="BE31" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="2"/>
         <v>-500,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null</v>
       </c>
       <c r="BF31" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="2"/>
         <v>-500,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null</v>
       </c>
       <c r="BG31" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="2"/>
         <v>-500,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null</v>
       </c>
       <c r="BH31" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="2"/>
         <v>-500,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null</v>
       </c>
       <c r="BI31" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="2"/>
         <v>-500,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null</v>
       </c>
       <c r="BJ31" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="2"/>
         <v>-500,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null</v>
       </c>
       <c r="BK31" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="2"/>
         <v>-500,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null</v>
       </c>
       <c r="BL31" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="2"/>
         <v>-500,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null,null</v>
       </c>
       <c r="BM31" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="2"/>
         <v>-500,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null,null,null</v>
       </c>
       <c r="BN31" s="40" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="2"/>
         <v>-500,-300,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',null,null,null,null,null,null,null,null,null,null,null</v>
       </c>
     </row>
-    <row r="32" spans="2:67" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:67" x14ac:dyDescent="0.3">
       <c r="B32" s="11" t="s">
         <v>35</v>
       </c>
@@ -25060,7 +25019,7 @@
       <c r="AK32" s="7"/>
       <c r="AL32" s="7"/>
       <c r="AM32" s="7"/>
-      <c r="AN32" s="4" t="s">
+      <c r="AN32" s="3" t="s">
         <v>1</v>
       </c>
       <c r="AO32" s="4" t="s">
@@ -25071,67 +25030,63 @@
       </c>
       <c r="BN32" s="40"/>
     </row>
-    <row r="33" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B33" s="42" t="s">
+    <row r="33" spans="2:66" x14ac:dyDescent="0.3">
+      <c r="B33" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="C33" s="44">
+      <c r="C33" s="26">
         <v>3</v>
       </c>
-      <c r="D33" s="44">
+      <c r="D33" s="30">
         <f>(F33-G33)/G33</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="E33" s="44"/>
-      <c r="F33" s="29">
+      <c r="E33" s="30"/>
+      <c r="F33" s="6">
         <v>500</v>
       </c>
-      <c r="G33" s="43">
+      <c r="G33" s="7">
         <v>300</v>
       </c>
-      <c r="H33" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="I33" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="J33" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="K33" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="L33" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="M33" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="N33" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="O33" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="P33" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q33" s="44" t="s">
+      <c r="H33" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I33" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J33" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="K33" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="L33" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M33" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N33" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="O33" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="P33" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q33" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="R33" s="45" t="s">
+      <c r="R33" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="S33" s="45" t="s">
+      <c r="S33" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="T33" s="4">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="U33" s="4"/>
-      <c r="V33" s="4" t="s">
-        <v>152</v>
-      </c>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="7"/>
       <c r="W33" s="7"/>
       <c r="X33" s="21"/>
       <c r="Y33" s="21"/>
@@ -25158,67 +25113,63 @@
       </c>
       <c r="BN33" s="40"/>
     </row>
-    <row r="34" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B34" s="42" t="s">
+    <row r="34" spans="2:66" x14ac:dyDescent="0.3">
+      <c r="B34" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="C34" s="44">
+      <c r="C34" s="26">
         <v>3</v>
       </c>
-      <c r="D34" s="44">
+      <c r="D34" s="30">
         <f>(F34-G34)/G34</f>
         <v>0</v>
       </c>
-      <c r="E34" s="44"/>
-      <c r="F34" s="43">
+      <c r="E34" s="30"/>
+      <c r="F34" s="7">
         <v>500</v>
       </c>
-      <c r="G34" s="43">
+      <c r="G34" s="7">
         <v>500</v>
       </c>
-      <c r="H34" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="I34" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="J34" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="K34" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="L34" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="M34" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="N34" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="O34" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="P34" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q34" s="44" t="s">
+      <c r="H34" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I34" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J34" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="K34" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="L34" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M34" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N34" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="O34" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="P34" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q34" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="R34" s="45" t="s">
+      <c r="R34" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="S34" s="45" t="s">
+      <c r="S34" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="T34" s="4">
-        <v>0</v>
-      </c>
-      <c r="U34" s="4"/>
-      <c r="V34" s="4" t="s">
-        <v>152</v>
-      </c>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="7"/>
       <c r="W34" s="7"/>
       <c r="X34" s="21"/>
       <c r="Y34" s="21"/>
@@ -25245,67 +25196,63 @@
       </c>
       <c r="BN34" s="40"/>
     </row>
-    <row r="35" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B35" s="42" t="s">
+    <row r="35" spans="2:66" x14ac:dyDescent="0.3">
+      <c r="B35" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="C35" s="44">
+      <c r="C35" s="26">
         <v>3</v>
       </c>
-      <c r="D35" s="44">
+      <c r="D35" s="30">
         <f>(F35-G35)/G35</f>
-        <v>-0.33333333333333331</v>
-      </c>
-      <c r="E35" s="44"/>
-      <c r="F35" s="43">
+        <v>-0.6</v>
+      </c>
+      <c r="E35" s="30"/>
+      <c r="F35" s="7">
         <v>200</v>
       </c>
-      <c r="G35" s="43">
-        <v>300</v>
-      </c>
-      <c r="H35" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="I35" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="J35" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="K35" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="L35" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="M35" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="N35" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="O35" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="P35" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q35" s="44" t="s">
+      <c r="G35" s="7">
+        <v>500</v>
+      </c>
+      <c r="H35" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I35" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J35" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="K35" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="L35" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M35" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N35" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="O35" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="P35" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q35" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="R35" s="45" t="s">
+      <c r="R35" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="S35" s="45" t="s">
+      <c r="S35" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="T35" s="4">
-        <v>-0.33333333333333331</v>
-      </c>
-      <c r="U35" s="4"/>
-      <c r="V35" s="4" t="s">
-        <v>152</v>
-      </c>
+      <c r="T35" s="7"/>
+      <c r="U35" s="7"/>
+      <c r="V35" s="7"/>
       <c r="W35" s="7"/>
       <c r="X35" s="21"/>
       <c r="Y35" s="21"/>
@@ -25332,70 +25279,64 @@
       </c>
       <c r="BN35" s="40"/>
     </row>
-    <row r="36" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B36" s="42" t="s">
+    <row r="36" spans="2:66" x14ac:dyDescent="0.3">
+      <c r="B36" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="C36" s="44">
+      <c r="C36" s="26">
         <v>3</v>
       </c>
-      <c r="D36" s="44">
+      <c r="D36" s="30">
         <v>1000000</v>
       </c>
-      <c r="E36" s="44" t="s">
+      <c r="E36" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="F36" s="29">
+      <c r="F36" s="6">
         <v>500</v>
       </c>
-      <c r="G36" s="43">
+      <c r="G36" s="7">
         <v>0</v>
       </c>
-      <c r="H36" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="I36" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="J36" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="K36" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="L36" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="M36" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="N36" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="O36" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="P36" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q36" s="44" t="s">
+      <c r="H36" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I36" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J36" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="K36" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="L36" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M36" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N36" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="O36" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="P36" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q36" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="R36" s="45" t="s">
+      <c r="R36" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="S36" s="45" t="s">
+      <c r="S36" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="T36" s="4">
-        <v>1000000</v>
-      </c>
-      <c r="U36" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="V36" s="4" t="s">
-        <v>152</v>
-      </c>
+      <c r="T36" s="7"/>
+      <c r="U36" s="7"/>
+      <c r="V36" s="7"/>
       <c r="W36" s="7"/>
       <c r="X36" s="21"/>
       <c r="Y36" s="21"/>
@@ -25424,70 +25365,64 @@
       </c>
       <c r="BN36" s="40"/>
     </row>
-    <row r="37" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B37" s="42" t="s">
+    <row r="37" spans="2:66" x14ac:dyDescent="0.3">
+      <c r="B37" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="C37" s="44">
+      <c r="C37" s="26">
         <v>3</v>
       </c>
-      <c r="D37" s="44">
+      <c r="D37" s="30">
         <v>0</v>
       </c>
-      <c r="E37" s="44" t="s">
+      <c r="E37" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="F37" s="43">
+      <c r="F37" s="7">
         <v>0</v>
       </c>
-      <c r="G37" s="43">
+      <c r="G37" s="7">
         <v>0</v>
       </c>
-      <c r="H37" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="I37" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="J37" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="K37" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="L37" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="M37" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="N37" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="O37" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="P37" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q37" s="44" t="s">
+      <c r="H37" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I37" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J37" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="K37" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="L37" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M37" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N37" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="O37" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="P37" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q37" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="R37" s="45" t="s">
+      <c r="R37" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="S37" s="45" t="s">
+      <c r="S37" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="T37" s="4">
-        <v>0</v>
-      </c>
-      <c r="U37" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="V37" s="4" t="s">
-        <v>152</v>
-      </c>
+      <c r="T37" s="7"/>
+      <c r="U37" s="7"/>
+      <c r="V37" s="7"/>
       <c r="W37" s="7"/>
       <c r="X37" s="21"/>
       <c r="Y37" s="21"/>
@@ -25516,70 +25451,64 @@
       </c>
       <c r="BN37" s="40"/>
     </row>
-    <row r="38" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B38" s="42" t="s">
+    <row r="38" spans="2:66" x14ac:dyDescent="0.3">
+      <c r="B38" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="C38" s="44">
+      <c r="C38" s="26">
         <v>3</v>
       </c>
-      <c r="D38" s="44">
+      <c r="D38" s="30">
         <v>-1000000</v>
       </c>
-      <c r="E38" s="44" t="s">
+      <c r="E38" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="F38" s="43">
+      <c r="F38" s="7">
         <v>-200</v>
       </c>
-      <c r="G38" s="43">
+      <c r="G38" s="7">
         <v>0</v>
       </c>
-      <c r="H38" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="I38" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="J38" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="K38" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="L38" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="M38" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="N38" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="O38" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="P38" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q38" s="44" t="s">
+      <c r="H38" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I38" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J38" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="K38" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="L38" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M38" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N38" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="O38" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="P38" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q38" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="R38" s="45" t="s">
+      <c r="R38" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="S38" s="45" t="s">
+      <c r="S38" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="T38" s="4">
-        <v>-1000000</v>
-      </c>
-      <c r="U38" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="V38" s="4" t="s">
-        <v>152</v>
-      </c>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
+      <c r="V38" s="7"/>
       <c r="W38" s="7"/>
       <c r="X38" s="21"/>
       <c r="Y38" s="21"/>
@@ -25608,67 +25537,63 @@
       </c>
       <c r="BN38" s="40"/>
     </row>
-    <row r="39" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B39" s="42" t="s">
+    <row r="39" spans="2:66" x14ac:dyDescent="0.3">
+      <c r="B39" s="38" t="s">
         <v>190</v>
       </c>
-      <c r="C39" s="44">
+      <c r="C39" s="26">
         <v>3</v>
       </c>
-      <c r="D39" s="44">
+      <c r="D39" s="30">
         <f>(F39-G39)/ABS(G39)</f>
         <v>3.5</v>
       </c>
-      <c r="E39" s="44"/>
-      <c r="F39" s="43">
+      <c r="E39" s="30"/>
+      <c r="F39" s="7">
         <v>500</v>
       </c>
-      <c r="G39" s="43">
+      <c r="G39" s="7">
         <v>-200</v>
       </c>
-      <c r="H39" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="I39" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="J39" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="K39" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="L39" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="M39" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="N39" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="O39" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="P39" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q39" s="44" t="s">
+      <c r="H39" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I39" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J39" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="K39" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="L39" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M39" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N39" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="O39" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="P39" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q39" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="R39" s="45" t="s">
+      <c r="R39" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="S39" s="45" t="s">
+      <c r="S39" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="T39" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="U39" s="4"/>
-      <c r="V39" s="4" t="s">
-        <v>152</v>
-      </c>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
+      <c r="V39" s="7"/>
       <c r="W39" s="7"/>
       <c r="X39" s="21"/>
       <c r="Y39" s="21"/>
@@ -25695,67 +25620,63 @@
       </c>
       <c r="BN39" s="40"/>
     </row>
-    <row r="40" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B40" s="42" t="s">
+    <row r="40" spans="2:66" x14ac:dyDescent="0.3">
+      <c r="B40" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="C40" s="44">
+      <c r="C40" s="26">
         <v>3</v>
       </c>
-      <c r="D40" s="44">
-        <f t="shared" ref="D40:D41" si="35">(F40-G40)/ABS(G40)</f>
+      <c r="D40" s="30">
+        <f t="shared" ref="D40:D41" si="5">(F40-G40)/ABS(G40)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="44"/>
-      <c r="F40" s="43">
+      <c r="E40" s="30"/>
+      <c r="F40" s="7">
         <v>-200</v>
       </c>
-      <c r="G40" s="43">
+      <c r="G40" s="7">
         <v>-200</v>
       </c>
-      <c r="H40" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="I40" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="J40" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="K40" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="L40" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="M40" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="N40" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="O40" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="P40" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q40" s="44" t="s">
+      <c r="H40" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I40" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J40" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="K40" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="L40" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M40" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N40" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="O40" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="P40" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q40" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="R40" s="45" t="s">
+      <c r="R40" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="S40" s="45" t="s">
+      <c r="S40" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="T40" s="4">
-        <v>0</v>
-      </c>
-      <c r="U40" s="4"/>
-      <c r="V40" s="4" t="s">
-        <v>152</v>
-      </c>
+      <c r="T40" s="7"/>
+      <c r="U40" s="7"/>
+      <c r="V40" s="7"/>
       <c r="W40" s="7"/>
       <c r="X40" s="21"/>
       <c r="Y40" s="21"/>
@@ -25782,67 +25703,63 @@
       </c>
       <c r="BN40" s="40"/>
     </row>
-    <row r="41" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B41" s="42" t="s">
+    <row r="41" spans="2:66" x14ac:dyDescent="0.3">
+      <c r="B41" s="38" t="s">
         <v>192</v>
       </c>
-      <c r="C41" s="44">
+      <c r="C41" s="26">
         <v>3</v>
       </c>
-      <c r="D41" s="44">
-        <f t="shared" si="35"/>
+      <c r="D41" s="30">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E41" s="44"/>
-      <c r="F41" s="43">
+      <c r="E41" s="30"/>
+      <c r="F41" s="7">
         <v>0</v>
       </c>
-      <c r="G41" s="43">
+      <c r="G41" s="7">
         <v>-200</v>
       </c>
-      <c r="H41" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="I41" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="J41" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="K41" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="L41" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="M41" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="N41" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="O41" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="P41" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q41" s="44" t="s">
+      <c r="H41" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I41" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J41" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="K41" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="L41" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M41" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N41" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="O41" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="P41" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q41" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="R41" s="45" t="s">
+      <c r="R41" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="S41" s="45" t="s">
+      <c r="S41" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="T41" s="4">
-        <v>1</v>
-      </c>
-      <c r="U41" s="4"/>
-      <c r="V41" s="4" t="s">
-        <v>152</v>
-      </c>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
+      <c r="V41" s="7"/>
       <c r="W41" s="7"/>
       <c r="X41" s="21"/>
       <c r="Y41" s="21"/>
@@ -25869,70 +25786,64 @@
       </c>
       <c r="BN41" s="40"/>
     </row>
-    <row r="42" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B42" s="42" t="s">
+    <row r="42" spans="2:66" x14ac:dyDescent="0.3">
+      <c r="B42" s="38" t="s">
         <v>193</v>
       </c>
-      <c r="C42" s="44">
+      <c r="C42" s="26">
         <v>3</v>
       </c>
-      <c r="D42" s="44" t="s">
+      <c r="D42" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="E42" s="44" t="s">
+      <c r="E42" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="F42" s="29">
+      <c r="F42" s="6">
         <v>500</v>
       </c>
-      <c r="G42" s="43">
+      <c r="G42" s="7">
         <v>300</v>
       </c>
-      <c r="H42" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="I42" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="J42" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="K42" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="L42" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="M42" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="N42" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="O42" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="P42" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q42" s="44" t="s">
+      <c r="H42" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="I42" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J42" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="K42" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="L42" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M42" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N42" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="O42" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="P42" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q42" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="R42" s="45" t="s">
+      <c r="R42" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="S42" s="45" t="s">
+      <c r="S42" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="T42" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="U42" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="V42" s="4" t="s">
-        <v>152</v>
-      </c>
+      <c r="T42" s="7"/>
+      <c r="U42" s="7"/>
+      <c r="V42" s="7"/>
       <c r="W42" s="7"/>
       <c r="X42" s="21"/>
       <c r="Y42" s="21"/>
@@ -25961,70 +25872,64 @@
       </c>
       <c r="BN42" s="40"/>
     </row>
-    <row r="43" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B43" s="42" t="s">
+    <row r="43" spans="2:66" x14ac:dyDescent="0.3">
+      <c r="B43" s="38" t="s">
         <v>194</v>
       </c>
-      <c r="C43" s="44">
+      <c r="C43" s="26">
         <v>3</v>
       </c>
-      <c r="D43" s="44" t="s">
+      <c r="D43" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="E43" s="44" t="s">
+      <c r="E43" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="F43" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="G43" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="H43" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="I43" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="J43" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="K43" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="L43" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="M43" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="N43" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="O43" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="P43" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q43" s="44" t="s">
+      <c r="F43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="N43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q43" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="R43" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="S43" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="T43" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="U43" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="V43" s="4" t="s">
-        <v>152</v>
-      </c>
+      <c r="R43" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="S43" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="T43" s="7"/>
+      <c r="U43" s="7"/>
+      <c r="V43" s="7"/>
       <c r="W43" s="7"/>
       <c r="X43" s="21"/>
       <c r="Y43" s="21"/>
@@ -26053,70 +25958,64 @@
       </c>
       <c r="BN43" s="40"/>
     </row>
-    <row r="44" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B44" s="42" t="s">
+    <row r="44" spans="2:66" x14ac:dyDescent="0.3">
+      <c r="B44" s="38" t="s">
         <v>195</v>
       </c>
-      <c r="C44" s="44">
+      <c r="C44" s="26">
         <v>3</v>
       </c>
-      <c r="D44" s="44" t="s">
+      <c r="D44" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="E44" s="48" t="s">
+      <c r="E44" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="F44" s="29">
+      <c r="F44" s="6">
         <v>500</v>
       </c>
-      <c r="G44" s="43">
+      <c r="G44" s="7">
         <v>300</v>
       </c>
-      <c r="H44" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="I44" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="J44" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="K44" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="L44" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="M44" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="N44" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="O44" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="P44" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q44" s="44" t="s">
+      <c r="H44" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I44" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J44" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="K44" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="L44" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M44" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N44" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="O44" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="P44" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q44" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="R44" s="45" t="s">
+      <c r="R44" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="S44" s="45" t="s">
+      <c r="S44" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="T44" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="U44" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="V44" s="4" t="s">
-        <v>152</v>
-      </c>
+      <c r="T44" s="7"/>
+      <c r="U44" s="7"/>
+      <c r="V44" s="7"/>
       <c r="W44" s="7"/>
       <c r="X44" s="21"/>
       <c r="Y44" s="21"/>
@@ -26145,57 +26044,57 @@
       </c>
       <c r="BN44" s="40"/>
     </row>
-    <row r="45" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B45" s="42" t="s">
+    <row r="45" spans="2:66" x14ac:dyDescent="0.3">
+      <c r="B45" s="38" t="s">
         <v>197</v>
       </c>
-      <c r="C45" s="48">
+      <c r="C45" s="26">
         <v>3</v>
       </c>
-      <c r="D45" s="48" t="s">
+      <c r="D45" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="E45" s="48"/>
-      <c r="F45" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="G45" s="50">
+      <c r="E45" s="30"/>
+      <c r="F45" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G45" s="7">
         <v>300</v>
       </c>
-      <c r="H45" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="I45" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="J45" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="K45" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="L45" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="M45" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="N45" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="O45" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="P45" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q45" s="48" t="s">
+      <c r="H45" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I45" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J45" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="K45" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="L45" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M45" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N45" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="O45" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="P45" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q45" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="R45" s="51" t="s">
+      <c r="R45" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="S45" s="51" t="s">
+      <c r="S45" s="28" t="s">
         <v>101</v>
       </c>
       <c r="T45" s="7"/>
@@ -26221,13 +26120,13 @@
       <c r="AN45" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AO45" s="55" t="s">
-        <v>222</v>
-      </c>
-      <c r="AP45" s="4"/>
+      <c r="AO45" s="7"/>
+      <c r="AP45" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="BN45" s="40"/>
     </row>
-    <row r="46" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:66" x14ac:dyDescent="0.3">
       <c r="B46" s="11" t="s">
         <v>36</v>
       </c>
@@ -26306,7 +26205,7 @@
       <c r="AK46" s="7"/>
       <c r="AL46" s="7"/>
       <c r="AM46" s="7"/>
-      <c r="AN46" s="4" t="s">
+      <c r="AN46" s="3" t="s">
         <v>1</v>
       </c>
       <c r="AO46" s="4" t="s">
@@ -26317,7 +26216,7 @@
       </c>
       <c r="BN46" s="40"/>
     </row>
-    <row r="47" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:66" x14ac:dyDescent="0.3">
       <c r="B47" s="11" t="s">
         <v>37</v>
       </c>
@@ -26396,7 +26295,7 @@
       <c r="AK47" s="6"/>
       <c r="AL47" s="6"/>
       <c r="AM47" s="6"/>
-      <c r="AN47" s="4" t="s">
+      <c r="AN47" s="3" t="s">
         <v>1</v>
       </c>
       <c r="AO47" s="4" t="s">
@@ -26407,7 +26306,7 @@
       </c>
       <c r="BN47" s="40"/>
     </row>
-    <row r="48" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:66" x14ac:dyDescent="0.3">
       <c r="B48" s="11" t="s">
         <v>38</v>
       </c>
@@ -26486,7 +26385,7 @@
       <c r="AK48" s="6"/>
       <c r="AL48" s="6"/>
       <c r="AM48" s="6"/>
-      <c r="AN48" s="4" t="s">
+      <c r="AN48" s="3" t="s">
         <v>1</v>
       </c>
       <c r="AO48" s="4" t="s">
@@ -26497,7 +26396,7 @@
       </c>
       <c r="BN48" s="40"/>
     </row>
-    <row r="49" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:66" x14ac:dyDescent="0.3">
       <c r="B49" s="11" t="s">
         <v>39</v>
       </c>
@@ -26576,7 +26475,7 @@
       <c r="AK49" s="6"/>
       <c r="AL49" s="6"/>
       <c r="AM49" s="6"/>
-      <c r="AN49" s="4" t="s">
+      <c r="AN49" s="3" t="s">
         <v>1</v>
       </c>
       <c r="AO49" s="4" t="s">
@@ -26587,7 +26486,7 @@
       </c>
       <c r="BN49" s="40"/>
     </row>
-    <row r="50" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:66" x14ac:dyDescent="0.3">
       <c r="B50" s="11" t="s">
         <v>40</v>
       </c>
@@ -26666,7 +26565,7 @@
       <c r="AK50" s="6"/>
       <c r="AL50" s="6"/>
       <c r="AM50" s="6"/>
-      <c r="AN50" s="4" t="s">
+      <c r="AN50" s="3" t="s">
         <v>1</v>
       </c>
       <c r="AO50" s="4" t="s">
@@ -26677,7 +26576,7 @@
       </c>
       <c r="BN50" s="40"/>
     </row>
-    <row r="51" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:66" x14ac:dyDescent="0.3">
       <c r="B51" s="11" t="s">
         <v>41</v>
       </c>
@@ -26756,7 +26655,7 @@
       <c r="AK51" s="6"/>
       <c r="AL51" s="6"/>
       <c r="AM51" s="6"/>
-      <c r="AN51" s="4" t="s">
+      <c r="AN51" s="3" t="s">
         <v>1</v>
       </c>
       <c r="AO51" s="4" t="s">
@@ -26767,7 +26666,7 @@
       </c>
       <c r="BN51" s="40"/>
     </row>
-    <row r="52" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:66" x14ac:dyDescent="0.3">
       <c r="B52" s="11" t="s">
         <v>42</v>
       </c>
@@ -26846,7 +26745,7 @@
       <c r="AK52" s="6"/>
       <c r="AL52" s="6"/>
       <c r="AM52" s="6"/>
-      <c r="AN52" s="4" t="s">
+      <c r="AN52" s="3" t="s">
         <v>1</v>
       </c>
       <c r="AO52" s="4" t="s">
@@ -26857,7 +26756,7 @@
       </c>
       <c r="BN52" s="40"/>
     </row>
-    <row r="53" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:66" x14ac:dyDescent="0.3">
       <c r="B53" s="11" t="s">
         <v>43</v>
       </c>
@@ -26936,7 +26835,7 @@
       <c r="AK53" s="6"/>
       <c r="AL53" s="6"/>
       <c r="AM53" s="6"/>
-      <c r="AN53" s="4" t="s">
+      <c r="AN53" s="3" t="s">
         <v>1</v>
       </c>
       <c r="AO53" s="4" t="s">
@@ -26947,7 +26846,7 @@
       </c>
       <c r="BN53" s="40"/>
     </row>
-    <row r="54" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:66" x14ac:dyDescent="0.3">
       <c r="B54" s="11" t="s">
         <v>44</v>
       </c>
@@ -27026,7 +26925,7 @@
       <c r="AK54" s="6"/>
       <c r="AL54" s="6"/>
       <c r="AM54" s="6"/>
-      <c r="AN54" s="4" t="s">
+      <c r="AN54" s="3" t="s">
         <v>1</v>
       </c>
       <c r="AO54" s="4" t="s">
@@ -27037,7 +26936,7 @@
       </c>
       <c r="BN54" s="40"/>
     </row>
-    <row r="55" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:66" x14ac:dyDescent="0.3">
       <c r="B55" s="11" t="s">
         <v>103</v>
       </c>
@@ -27116,7 +27015,7 @@
       <c r="AK55" s="6"/>
       <c r="AL55" s="6"/>
       <c r="AM55" s="6"/>
-      <c r="AN55" s="4" t="s">
+      <c r="AN55" s="3" t="s">
         <v>1</v>
       </c>
       <c r="AO55" s="4" t="s">
@@ -27127,7 +27026,7 @@
       </c>
       <c r="BN55" s="40"/>
     </row>
-    <row r="56" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:66" x14ac:dyDescent="0.3">
       <c r="B56" s="11" t="s">
         <v>104</v>
       </c>
@@ -27206,7 +27105,7 @@
       <c r="AK56" s="6"/>
       <c r="AL56" s="6"/>
       <c r="AM56" s="6"/>
-      <c r="AN56" s="4" t="s">
+      <c r="AN56" s="3" t="s">
         <v>1</v>
       </c>
       <c r="AO56" s="4" t="s">
@@ -27217,7 +27116,7 @@
       </c>
       <c r="BN56" s="40"/>
     </row>
-    <row r="57" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:66" x14ac:dyDescent="0.3">
       <c r="B57" s="11" t="s">
         <v>105</v>
       </c>
@@ -27296,7 +27195,7 @@
       <c r="AK57" s="6"/>
       <c r="AL57" s="6"/>
       <c r="AM57" s="6"/>
-      <c r="AN57" s="4" t="s">
+      <c r="AN57" s="3" t="s">
         <v>1</v>
       </c>
       <c r="AO57" s="4" t="s">
@@ -27307,7 +27206,7 @@
       </c>
       <c r="BN57" s="40"/>
     </row>
-    <row r="58" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:66" x14ac:dyDescent="0.3">
       <c r="B58" s="11" t="s">
         <v>106</v>
       </c>
@@ -27387,7 +27286,7 @@
       <c r="AK58" s="6"/>
       <c r="AL58" s="6"/>
       <c r="AM58" s="6"/>
-      <c r="AN58" s="7">
+      <c r="AN58" s="14">
         <v>0.5</v>
       </c>
       <c r="AO58" s="7"/>
@@ -27396,7 +27295,7 @@
       </c>
       <c r="BN58" s="40"/>
     </row>
-    <row r="59" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:66" x14ac:dyDescent="0.3">
       <c r="B59" s="11" t="s">
         <v>107</v>
       </c>
@@ -27486,7 +27385,7 @@
       </c>
       <c r="BN59" s="40"/>
     </row>
-    <row r="60" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:66" x14ac:dyDescent="0.3">
       <c r="B60" s="11" t="s">
         <v>108</v>
       </c>
@@ -27576,7 +27475,7 @@
       </c>
       <c r="BN60" s="40"/>
     </row>
-    <row r="61" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:66" x14ac:dyDescent="0.3">
       <c r="B61" s="11" t="s">
         <v>109</v>
       </c>
@@ -27655,7 +27554,7 @@
       <c r="AK61" s="6"/>
       <c r="AL61" s="6"/>
       <c r="AM61" s="6"/>
-      <c r="AN61" s="41">
+      <c r="AN61" s="33">
         <v>-1000000</v>
       </c>
       <c r="AO61" s="7" t="s">
@@ -27666,7 +27565,7 @@
       </c>
       <c r="BN61" s="40"/>
     </row>
-    <row r="62" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:66" x14ac:dyDescent="0.3">
       <c r="B62" s="11" t="s">
         <v>110</v>
       </c>
@@ -27756,7 +27655,7 @@
       </c>
       <c r="BN62" s="40"/>
     </row>
-    <row r="63" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:66" x14ac:dyDescent="0.3">
       <c r="B63" s="11" t="s">
         <v>111</v>
       </c>
@@ -27835,7 +27734,7 @@
       <c r="AK63" s="6"/>
       <c r="AL63" s="6"/>
       <c r="AM63" s="6"/>
-      <c r="AN63" s="41">
+      <c r="AN63" s="33">
         <v>-1000000</v>
       </c>
       <c r="AO63" s="7" t="s">
@@ -27846,7 +27745,7 @@
       </c>
       <c r="BN63" s="40"/>
     </row>
-    <row r="64" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:66" x14ac:dyDescent="0.3">
       <c r="B64" s="11" t="s">
         <v>112</v>
       </c>
@@ -27925,7 +27824,7 @@
       <c r="AK64" s="6"/>
       <c r="AL64" s="6"/>
       <c r="AM64" s="6"/>
-      <c r="AN64" s="41">
+      <c r="AN64" s="33">
         <v>-1000000</v>
       </c>
       <c r="AO64" s="7" t="s">
@@ -27936,7 +27835,7 @@
       </c>
       <c r="BN64" s="40"/>
     </row>
-    <row r="65" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:66" x14ac:dyDescent="0.3">
       <c r="B65" s="38" t="s">
         <v>166</v>
       </c>
@@ -28040,103 +27939,103 @@
         <v>152</v>
       </c>
       <c r="AQ65" t="str">
-        <f t="shared" ref="AQ65:AQ109" si="36">F65&amp;","&amp;G65</f>
+        <f t="shared" ref="AQ65:AQ109" si="6">F65&amp;","&amp;G65</f>
         <v>null,null</v>
       </c>
       <c r="AR65" t="str">
-        <f t="shared" ref="AR65:AR109" si="37">AQ65&amp;","&amp;H65</f>
+        <f t="shared" ref="AR65:BG109" si="7">AQ65&amp;","&amp;H65</f>
         <v>null,null,'1'</v>
       </c>
       <c r="AS65" t="str">
-        <f t="shared" ref="AS65:AS109" si="38">AR65&amp;","&amp;I65</f>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1'</v>
       </c>
       <c r="AT65" t="str">
-        <f t="shared" ref="AT65:AT109" si="39">AS65&amp;","&amp;J65</f>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null</v>
       </c>
       <c r="AU65" t="str">
-        <f t="shared" ref="AU65:AU109" si="40">AT65&amp;","&amp;K65</f>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null</v>
       </c>
       <c r="AV65" t="str">
-        <f t="shared" ref="AV65:AV109" si="41">AU65&amp;","&amp;L65</f>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1'</v>
       </c>
       <c r="AW65" t="str">
-        <f t="shared" ref="AW65:AW109" si="42">AV65&amp;","&amp;M65</f>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1'</v>
       </c>
       <c r="AX65" t="str">
-        <f t="shared" ref="AX65:AX109" si="43">AW65&amp;","&amp;N65</f>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',null</v>
       </c>
       <c r="AY65" t="str">
-        <f t="shared" ref="AY65:AY109" si="44">AX65&amp;","&amp;O65</f>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1'</v>
       </c>
       <c r="AZ65" t="str">
-        <f t="shared" ref="AZ65:AZ109" si="45">AY65&amp;","&amp;P65</f>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1'</v>
       </c>
       <c r="BA65" t="str">
-        <f t="shared" ref="BA65:BA109" si="46">AZ65&amp;","&amp;Q65</f>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS'</v>
       </c>
       <c r="BB65" t="str">
-        <f t="shared" ref="BB65:BB109" si="47">BA65&amp;","&amp;R65</f>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017'</v>
       </c>
       <c r="BC65" t="str">
-        <f t="shared" ref="BC65:BC109" si="48">BB65&amp;","&amp;S65</f>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016'</v>
       </c>
       <c r="BD65" t="str">
-        <f t="shared" ref="BD65:BD109" si="49">BC65&amp;","&amp;T65</f>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',500</v>
       </c>
       <c r="BE65" t="str">
-        <f t="shared" ref="BE65:BE109" si="50">BD65&amp;","&amp;U65</f>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',500,300</v>
       </c>
       <c r="BF65" t="str">
-        <f t="shared" ref="BF65:BF109" si="51">BE65&amp;","&amp;V65</f>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',500,300,100</v>
       </c>
       <c r="BG65" t="str">
-        <f t="shared" ref="BG65:BG109" si="52">BF65&amp;","&amp;W65</f>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',500,300,100,50</v>
       </c>
       <c r="BH65" t="str">
-        <f t="shared" ref="BH65:BH109" si="53">BG65&amp;","&amp;X65</f>
+        <f t="shared" ref="BH65:BN109" si="8">BG65&amp;","&amp;X65</f>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',500,300,100,50,null</v>
       </c>
       <c r="BI65" t="str">
-        <f t="shared" ref="BI65:BI109" si="54">BH65&amp;","&amp;Y65</f>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',500,300,100,50,null,null</v>
       </c>
       <c r="BJ65" t="str">
-        <f t="shared" ref="BJ65:BJ109" si="55">BI65&amp;","&amp;Z65</f>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',500,300,100,50,null,null,null</v>
       </c>
       <c r="BK65" t="str">
-        <f t="shared" ref="BK65:BK109" si="56">BJ65&amp;","&amp;AA65</f>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',500,300,100,50,null,null,null,null</v>
       </c>
       <c r="BL65" t="str">
-        <f t="shared" ref="BL65:BL109" si="57">BK65&amp;","&amp;AB65</f>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',500,300,100,50,null,null,null,null,null</v>
       </c>
       <c r="BM65" t="str">
-        <f t="shared" ref="BM65:BM109" si="58">BL65&amp;","&amp;AC65</f>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',500,300,100,50,null,null,null,null,null,null</v>
       </c>
       <c r="BN65" s="40" t="str">
-        <f t="shared" ref="BN65:BN109" si="59">BM65&amp;","&amp;AD65</f>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',500,300,100,50,null,null,null,null,null,null,null</v>
       </c>
     </row>
-    <row r="66" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A66" s="16"/>
       <c r="B66" s="38" t="s">
         <v>167</v>
@@ -28244,103 +28143,103 @@
         <v>152</v>
       </c>
       <c r="AQ66" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="6"/>
         <v>null,null</v>
       </c>
       <c r="AR66" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1'</v>
       </c>
       <c r="AS66" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1'</v>
       </c>
       <c r="AT66" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null</v>
       </c>
       <c r="AU66" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null</v>
       </c>
       <c r="AV66" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1'</v>
       </c>
       <c r="AW66" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1'</v>
       </c>
       <c r="AX66" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',null</v>
       </c>
       <c r="AY66" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1'</v>
       </c>
       <c r="AZ66" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1'</v>
       </c>
       <c r="BA66" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS'</v>
       </c>
       <c r="BB66" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017'</v>
       </c>
       <c r="BC66" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016'</v>
       </c>
       <c r="BD66" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',0</v>
       </c>
       <c r="BE66" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',0,0</v>
       </c>
       <c r="BF66" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',0,0,0</v>
       </c>
       <c r="BG66" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',0,0,0,0</v>
       </c>
       <c r="BH66" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',0,0,0,0,null</v>
       </c>
       <c r="BI66" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',0,0,0,0,null,null</v>
       </c>
       <c r="BJ66" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',0,0,0,0,null,null,null</v>
       </c>
       <c r="BK66" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',0,0,0,0,null,null,null,null</v>
       </c>
       <c r="BL66" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',0,0,0,0,null,null,null,null,null</v>
       </c>
       <c r="BM66" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',0,0,0,0,null,null,null,null,null,null</v>
       </c>
       <c r="BN66" s="40" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',0,0,0,0,null,null,null,null,null,null,null</v>
       </c>
     </row>
-    <row r="67" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A67" s="16"/>
       <c r="B67" s="38" t="s">
         <v>168</v>
@@ -28448,103 +28347,103 @@
         <v>152</v>
       </c>
       <c r="AQ67" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="6"/>
         <v>null,null</v>
       </c>
       <c r="AR67" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1'</v>
       </c>
       <c r="AS67" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1'</v>
       </c>
       <c r="AT67" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null</v>
       </c>
       <c r="AU67" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null</v>
       </c>
       <c r="AV67" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1'</v>
       </c>
       <c r="AW67" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1'</v>
       </c>
       <c r="AX67" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',null</v>
       </c>
       <c r="AY67" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1'</v>
       </c>
       <c r="AZ67" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1'</v>
       </c>
       <c r="BA67" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS'</v>
       </c>
       <c r="BB67" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017'</v>
       </c>
       <c r="BC67" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016'</v>
       </c>
       <c r="BD67" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',-200</v>
       </c>
       <c r="BE67" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',-200,0</v>
       </c>
       <c r="BF67" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',-200,0,-300</v>
       </c>
       <c r="BG67" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',-200,0,-300,0</v>
       </c>
       <c r="BH67" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',-200,0,-300,0,null</v>
       </c>
       <c r="BI67" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',-200,0,-300,0,null,null</v>
       </c>
       <c r="BJ67" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',-200,0,-300,0,null,null,null</v>
       </c>
       <c r="BK67" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',-200,0,-300,0,null,null,null,null</v>
       </c>
       <c r="BL67" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',-200,0,-300,0,null,null,null,null,null</v>
       </c>
       <c r="BM67" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',-200,0,-300,0,null,null,null,null,null,null</v>
       </c>
       <c r="BN67" s="40" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',-200,0,-300,0,null,null,null,null,null,null,null</v>
       </c>
     </row>
-    <row r="68" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A68" s="16"/>
       <c r="B68" s="38" t="s">
         <v>169</v>
@@ -28652,103 +28551,103 @@
         <v>152</v>
       </c>
       <c r="AQ68" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="6"/>
         <v>null,null</v>
       </c>
       <c r="AR68" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1'</v>
       </c>
       <c r="AS68" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1'</v>
       </c>
       <c r="AT68" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null</v>
       </c>
       <c r="AU68" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null</v>
       </c>
       <c r="AV68" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1'</v>
       </c>
       <c r="AW68" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1'</v>
       </c>
       <c r="AX68" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',null</v>
       </c>
       <c r="AY68" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1'</v>
       </c>
       <c r="AZ68" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1'</v>
       </c>
       <c r="BA68" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS'</v>
       </c>
       <c r="BB68" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017'</v>
       </c>
       <c r="BC68" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016'</v>
       </c>
       <c r="BD68" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',-300</v>
       </c>
       <c r="BE68" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',-300,-100</v>
       </c>
       <c r="BF68" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',-300,-100,-300</v>
       </c>
       <c r="BG68" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',-300,-100,-300,-300</v>
       </c>
       <c r="BH68" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',-300,-100,-300,-300,null</v>
       </c>
       <c r="BI68" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',-300,-100,-300,-300,null,null</v>
       </c>
       <c r="BJ68" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',-300,-100,-300,-300,null,null,null</v>
       </c>
       <c r="BK68" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',-300,-100,-300,-300,null,null,null,null</v>
       </c>
       <c r="BL68" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',-300,-100,-300,-300,null,null,null,null,null</v>
       </c>
       <c r="BM68" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',-300,-100,-300,-300,null,null,null,null,null,null</v>
       </c>
       <c r="BN68" s="40" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','1',null,'1','1','FIS','02/05/2017','02/06/2016',-300,-100,-300,-300,null,null,null,null,null,null,null</v>
       </c>
     </row>
-    <row r="69" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A69" s="16"/>
       <c r="B69" s="38" t="s">
         <v>170</v>
@@ -28856,103 +28755,103 @@
         <v>152</v>
       </c>
       <c r="AQ69" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="6"/>
         <v>null,null</v>
       </c>
       <c r="AR69" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1'</v>
       </c>
       <c r="AS69" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1'</v>
       </c>
       <c r="AT69" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null</v>
       </c>
       <c r="AU69" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null</v>
       </c>
       <c r="AV69" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1'</v>
       </c>
       <c r="AW69" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','0'</v>
       </c>
       <c r="AX69" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','0',null</v>
       </c>
       <c r="AY69" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','0',null,'1'</v>
       </c>
       <c r="AZ69" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','0',null,'1','1'</v>
       </c>
       <c r="BA69" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','0',null,'1','1','FIS'</v>
       </c>
       <c r="BB69" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','0',null,'1','1','FIS','02/05/2017'</v>
       </c>
       <c r="BC69" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','0',null,'1','1','FIS','02/05/2017','02/06/2016'</v>
       </c>
       <c r="BD69" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','0',null,'1','1','FIS','02/05/2017','02/06/2016',500</v>
       </c>
       <c r="BE69" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','0',null,'1','1','FIS','02/05/2017','02/06/2016',500,300</v>
       </c>
       <c r="BF69" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','0',null,'1','1','FIS','02/05/2017','02/06/2016',500,300,100</v>
       </c>
       <c r="BG69" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','0',null,'1','1','FIS','02/05/2017','02/06/2016',500,300,100,50</v>
       </c>
       <c r="BH69" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','0',null,'1','1','FIS','02/05/2017','02/06/2016',500,300,100,50,null</v>
       </c>
       <c r="BI69" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','0',null,'1','1','FIS','02/05/2017','02/06/2016',500,300,100,50,null,null</v>
       </c>
       <c r="BJ69" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','0',null,'1','1','FIS','02/05/2017','02/06/2016',500,300,100,50,null,null,null</v>
       </c>
       <c r="BK69" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','0',null,'1','1','FIS','02/05/2017','02/06/2016',500,300,100,50,null,null,null,null</v>
       </c>
       <c r="BL69" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','0',null,'1','1','FIS','02/05/2017','02/06/2016',500,300,100,50,null,null,null,null,null</v>
       </c>
       <c r="BM69" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','0',null,'1','1','FIS','02/05/2017','02/06/2016',500,300,100,50,null,null,null,null,null,null</v>
       </c>
       <c r="BN69" s="40" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','0',null,'1','1','FIS','02/05/2017','02/06/2016',500,300,100,50,null,null,null,null,null,null,null</v>
       </c>
     </row>
-    <row r="70" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A70" s="16"/>
       <c r="B70" s="38" t="s">
         <v>171</v>
@@ -29060,103 +28959,103 @@
         <v>152</v>
       </c>
       <c r="AQ70" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="6"/>
         <v>null,null</v>
       </c>
       <c r="AR70" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1'</v>
       </c>
       <c r="AS70" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1'</v>
       </c>
       <c r="AT70" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null</v>
       </c>
       <c r="AU70" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null</v>
       </c>
       <c r="AV70" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1'</v>
       </c>
       <c r="AW70" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1'</v>
       </c>
       <c r="AX70" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',null</v>
       </c>
       <c r="AY70" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',null,'0'</v>
       </c>
       <c r="AZ70" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',null,'0','1'</v>
       </c>
       <c r="BA70" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',null,'0','1','FIS'</v>
       </c>
       <c r="BB70" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',null,'0','1','FIS','02/05/2017'</v>
       </c>
       <c r="BC70" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',null,'0','1','FIS','02/05/2017','02/06/2016'</v>
       </c>
       <c r="BD70" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',null,'0','1','FIS','02/05/2017','02/06/2016',500</v>
       </c>
       <c r="BE70" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',null,'0','1','FIS','02/05/2017','02/06/2016',500,300</v>
       </c>
       <c r="BF70" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',null,'0','1','FIS','02/05/2017','02/06/2016',500,300,100</v>
       </c>
       <c r="BG70" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',null,'0','1','FIS','02/05/2017','02/06/2016',500,300,100,50</v>
       </c>
       <c r="BH70" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','1',null,'0','1','FIS','02/05/2017','02/06/2016',500,300,100,50,null</v>
       </c>
       <c r="BI70" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','1',null,'0','1','FIS','02/05/2017','02/06/2016',500,300,100,50,null,null</v>
       </c>
       <c r="BJ70" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','1',null,'0','1','FIS','02/05/2017','02/06/2016',500,300,100,50,null,null,null</v>
       </c>
       <c r="BK70" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','1',null,'0','1','FIS','02/05/2017','02/06/2016',500,300,100,50,null,null,null,null</v>
       </c>
       <c r="BL70" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','1',null,'0','1','FIS','02/05/2017','02/06/2016',500,300,100,50,null,null,null,null,null</v>
       </c>
       <c r="BM70" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','1',null,'0','1','FIS','02/05/2017','02/06/2016',500,300,100,50,null,null,null,null,null,null</v>
       </c>
       <c r="BN70" s="40" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','1',null,'0','1','FIS','02/05/2017','02/06/2016',500,300,100,50,null,null,null,null,null,null,null</v>
       </c>
     </row>
-    <row r="71" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:66" x14ac:dyDescent="0.3">
       <c r="B71" s="38" t="s">
         <v>172</v>
       </c>
@@ -29263,173 +29162,173 @@
         <v>152</v>
       </c>
       <c r="AQ71" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="6"/>
         <v>null,null</v>
       </c>
       <c r="AR71" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="7"/>
         <v>null,null,null</v>
       </c>
       <c r="AS71" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="7"/>
         <v>null,null,null,null</v>
       </c>
       <c r="AT71" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="7"/>
         <v>null,null,null,null,null</v>
       </c>
       <c r="AU71" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="7"/>
         <v>null,null,null,null,null,null</v>
       </c>
       <c r="AV71" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="7"/>
         <v>null,null,null,null,null,null,null</v>
       </c>
       <c r="AW71" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="7"/>
         <v>null,null,null,null,null,null,null,null</v>
       </c>
       <c r="AX71" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="7"/>
         <v>null,null,null,null,null,null,null,null,null</v>
       </c>
       <c r="AY71" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="7"/>
         <v>null,null,null,null,null,null,null,null,null,null</v>
       </c>
       <c r="AZ71" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="7"/>
         <v>null,null,null,null,null,null,null,null,null,null,null</v>
       </c>
       <c r="BA71" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="7"/>
         <v>null,null,null,null,null,null,null,null,null,null,null,'FIS'</v>
       </c>
       <c r="BB71" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="7"/>
         <v>null,null,null,null,null,null,null,null,null,null,null,'FIS',null</v>
       </c>
       <c r="BC71" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="7"/>
         <v>null,null,null,null,null,null,null,null,null,null,null,'FIS',null,null</v>
       </c>
       <c r="BD71" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="7"/>
         <v>null,null,null,null,null,null,null,null,null,null,null,'FIS',null,null,null</v>
       </c>
       <c r="BE71" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="7"/>
         <v>null,null,null,null,null,null,null,null,null,null,null,'FIS',null,null,null,null</v>
       </c>
       <c r="BF71" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="7"/>
         <v>null,null,null,null,null,null,null,null,null,null,null,'FIS',null,null,null,null,null</v>
       </c>
       <c r="BG71" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="7"/>
         <v>null,null,null,null,null,null,null,null,null,null,null,'FIS',null,null,null,null,null,null</v>
       </c>
       <c r="BH71" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="8"/>
         <v>null,null,null,null,null,null,null,null,null,null,null,'FIS',null,null,null,null,null,null,null</v>
       </c>
       <c r="BI71" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="8"/>
         <v>null,null,null,null,null,null,null,null,null,null,null,'FIS',null,null,null,null,null,null,null,null</v>
       </c>
       <c r="BJ71" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="8"/>
         <v>null,null,null,null,null,null,null,null,null,null,null,'FIS',null,null,null,null,null,null,null,null,null</v>
       </c>
       <c r="BK71" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="8"/>
         <v>null,null,null,null,null,null,null,null,null,null,null,'FIS',null,null,null,null,null,null,null,null,null,null</v>
       </c>
       <c r="BL71" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="8"/>
         <v>null,null,null,null,null,null,null,null,null,null,null,'FIS',null,null,null,null,null,null,null,null,null,null,null</v>
       </c>
       <c r="BM71" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="8"/>
         <v>null,null,null,null,null,null,null,null,null,null,null,'FIS',null,null,null,null,null,null,null,null,null,null,null,null</v>
       </c>
       <c r="BN71" s="40" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="8"/>
         <v>null,null,null,null,null,null,null,null,null,null,null,'FIS',null,null,null,null,null,null,null,null,null,null,null,null,null</v>
       </c>
     </row>
-    <row r="72" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="B72" s="42" t="s">
+    <row r="72" spans="1:66" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="38" t="s">
         <v>195</v>
       </c>
       <c r="C72" s="6">
         <v>4</v>
       </c>
-      <c r="D72" s="44">
+      <c r="D72" s="32">
         <f>(MAX(T72,V72)-MAX(U72,W72))/MAX(U72,W72)</f>
         <v>0.5</v>
       </c>
-      <c r="E72" s="42"/>
+      <c r="E72" s="32"/>
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
-      <c r="H72" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="I72" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="J72" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="K72" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="L72" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="M72" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="N72" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="O72" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="P72" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q72" s="44" t="s">
+      <c r="H72" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I72" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J72" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="K72" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="L72" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M72" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N72" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="O72" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="P72" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q72" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="R72" s="44" t="s">
+      <c r="R72" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="S72" s="44" t="s">
+      <c r="S72" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="T72" s="43">
+      <c r="T72" s="7">
         <v>300</v>
       </c>
-      <c r="U72" s="43">
+      <c r="U72" s="7">
         <v>200</v>
       </c>
-      <c r="V72" s="43">
+      <c r="V72" s="7">
         <v>100</v>
       </c>
-      <c r="W72" s="43">
+      <c r="W72" s="7">
         <v>50</v>
       </c>
       <c r="AB72" s="7"/>
       <c r="AC72" s="7"/>
       <c r="AD72" s="7"/>
-      <c r="AE72" s="50">
-        <f t="shared" ref="AE72:AE83" si="60">MAX(T72,V72)</f>
+      <c r="AE72" s="7">
+        <f t="shared" ref="AE72:AF83" si="9">MAX(T72,V72)</f>
         <v>300</v>
       </c>
-      <c r="AF72" s="50">
-        <f t="shared" ref="AF72:AF83" si="61">MAX(U72,W72)</f>
+      <c r="AF72" s="7">
+        <f t="shared" si="9"/>
         <v>200</v>
       </c>
       <c r="AG72" s="7"/>
@@ -29437,98 +29336,97 @@
       <c r="AI72" s="7"/>
       <c r="AJ72" s="7"/>
       <c r="AK72" s="7"/>
-      <c r="AL72" s="43">
-        <f t="shared" ref="AL72:AL83" si="62">AE72-AF72</f>
+      <c r="AL72" s="7">
+        <f t="shared" ref="AL72:AL83" si="10">AE72-AF72</f>
         <v>100</v>
       </c>
-      <c r="AM72" s="43">
-        <f t="shared" ref="AM72:AM83" si="63">AF72</f>
+      <c r="AM72" s="7">
+        <f t="shared" ref="AM72:AM83" si="11">AF72</f>
         <v>200</v>
       </c>
-      <c r="AN72" s="4">
+      <c r="AN72" s="7">
         <v>0.5</v>
       </c>
-      <c r="AO72" s="4"/>
+      <c r="AO72" s="7"/>
       <c r="AP72" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="BN72" s="40"/>
     </row>
-    <row r="73" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="B73" s="42" t="s">
+    <row r="73" spans="1:66" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="38" t="s">
         <v>197</v>
       </c>
       <c r="C73" s="6">
         <v>4</v>
       </c>
-      <c r="D73" s="44">
+      <c r="D73" s="32">
         <f>(MAX(T73,V73)-MAX(U73,W73))/MAX(U73,W73)</f>
         <v>0</v>
       </c>
-      <c r="E73" s="42"/>
+      <c r="E73" s="32"/>
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
-      <c r="H73" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="I73" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="J73" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="K73" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="L73" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="M73" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="N73" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="O73" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="P73" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q73" s="44" t="s">
+      <c r="H73" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I73" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J73" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="K73" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="L73" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M73" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N73" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="O73" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="P73" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q73" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="R73" s="44" t="s">
+      <c r="R73" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="S73" s="44" t="s">
+      <c r="S73" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="T73" s="43">
+      <c r="T73" s="7">
         <v>-200</v>
       </c>
-      <c r="U73" s="43">
+      <c r="U73" s="7">
         <v>200</v>
       </c>
-      <c r="V73" s="43">
+      <c r="V73" s="7">
         <v>200</v>
       </c>
-      <c r="W73" s="43">
+      <c r="W73" s="7">
         <v>50</v>
       </c>
-      <c r="X73" s="3"/>
-      <c r="Y73" s="3"/>
-      <c r="Z73" s="3"/>
-      <c r="AA73" s="3"/>
+      <c r="X73" s="14"/>
+      <c r="Y73" s="14"/>
+      <c r="Z73" s="14"/>
+      <c r="AA73" s="14"/>
       <c r="AB73" s="7"/>
       <c r="AC73" s="7"/>
       <c r="AD73" s="7"/>
-      <c r="AE73" s="50">
-        <f t="shared" si="60"/>
+      <c r="AE73" s="7">
+        <f t="shared" si="9"/>
         <v>200</v>
       </c>
-      <c r="AF73" s="50">
-        <f t="shared" si="61"/>
+      <c r="AF73" s="7">
+        <f t="shared" si="9"/>
         <v>200</v>
       </c>
       <c r="AG73" s="7"/>
@@ -29536,98 +29434,97 @@
       <c r="AI73" s="7"/>
       <c r="AJ73" s="7"/>
       <c r="AK73" s="7"/>
-      <c r="AL73" s="43">
-        <f t="shared" si="62"/>
+      <c r="AL73" s="7">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AM73" s="43">
-        <f t="shared" si="63"/>
+      <c r="AM73" s="7">
+        <f t="shared" si="11"/>
         <v>200</v>
       </c>
-      <c r="AN73" s="4">
+      <c r="AN73" s="7">
         <v>0</v>
       </c>
-      <c r="AO73" s="4"/>
+      <c r="AO73" s="7"/>
       <c r="AP73" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="BN73" s="40"/>
     </row>
-    <row r="74" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="B74" s="42" t="s">
+    <row r="74" spans="1:66" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="38" t="s">
         <v>198</v>
       </c>
       <c r="C74" s="6">
         <v>4</v>
       </c>
-      <c r="D74" s="44">
+      <c r="D74" s="32">
         <f>(MAX(T74,V74)-MAX(U74,W74))/MAX(U74,W74)</f>
         <v>-2</v>
       </c>
-      <c r="E74" s="42"/>
+      <c r="E74" s="32"/>
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
-      <c r="H74" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="I74" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="J74" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="K74" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="L74" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="M74" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="N74" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="O74" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="P74" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q74" s="44" t="s">
+      <c r="H74" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I74" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J74" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="K74" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="L74" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M74" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N74" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="O74" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="P74" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q74" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="R74" s="44" t="s">
+      <c r="R74" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="S74" s="44" t="s">
+      <c r="S74" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="T74" s="43">
+      <c r="T74" s="7">
         <v>-200</v>
       </c>
-      <c r="U74" s="43">
+      <c r="U74" s="7">
         <v>200</v>
       </c>
-      <c r="V74" s="43">
+      <c r="V74" s="7">
         <v>-500</v>
       </c>
-      <c r="W74" s="43">
+      <c r="W74" s="7">
         <v>50</v>
       </c>
-      <c r="X74" s="3"/>
-      <c r="Y74" s="3"/>
-      <c r="Z74" s="3"/>
-      <c r="AA74" s="3"/>
+      <c r="X74" s="14"/>
+      <c r="Y74" s="14"/>
+      <c r="Z74" s="14"/>
+      <c r="AA74" s="14"/>
       <c r="AB74" s="7"/>
       <c r="AC74" s="7"/>
       <c r="AD74" s="7"/>
-      <c r="AE74" s="50">
-        <f t="shared" si="60"/>
+      <c r="AE74" s="7">
+        <f t="shared" si="9"/>
         <v>-200</v>
       </c>
-      <c r="AF74" s="50">
-        <f t="shared" si="61"/>
+      <c r="AF74" s="7">
+        <f t="shared" si="9"/>
         <v>200</v>
       </c>
       <c r="AG74" s="7"/>
@@ -29635,99 +29532,98 @@
       <c r="AI74" s="7"/>
       <c r="AJ74" s="7"/>
       <c r="AK74" s="7"/>
-      <c r="AL74" s="43">
-        <f t="shared" si="62"/>
+      <c r="AL74" s="7">
+        <f t="shared" si="10"/>
         <v>-400</v>
       </c>
-      <c r="AM74" s="43">
-        <f t="shared" si="63"/>
+      <c r="AM74" s="7">
+        <f t="shared" si="11"/>
         <v>200</v>
       </c>
-      <c r="AN74" s="4">
+      <c r="AN74" s="7">
         <v>-2</v>
       </c>
-      <c r="AO74" s="4"/>
+      <c r="AO74" s="7"/>
       <c r="AP74" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="BN74" s="40"/>
     </row>
-    <row r="75" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="B75" s="42" t="s">
+    <row r="75" spans="1:66" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="38" t="s">
         <v>199</v>
       </c>
       <c r="C75" s="6">
         <v>4</v>
       </c>
-      <c r="D75" s="46">
+      <c r="D75" s="32">
         <v>1000000</v>
       </c>
-      <c r="E75" s="52" t="s">
+      <c r="E75" s="32" t="s">
         <v>71</v>
       </c>
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
-      <c r="H75" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="I75" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="J75" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="K75" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="L75" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="M75" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="N75" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="O75" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="P75" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q75" s="44" t="s">
+      <c r="H75" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I75" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J75" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="K75" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="L75" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M75" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N75" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="O75" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="P75" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q75" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="R75" s="44" t="s">
+      <c r="R75" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="S75" s="44" t="s">
+      <c r="S75" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="T75" s="43">
+      <c r="T75" s="7">
         <v>200</v>
       </c>
-      <c r="U75" s="43">
+      <c r="U75" s="7">
         <v>0</v>
       </c>
-      <c r="V75" s="43">
+      <c r="V75" s="7">
         <v>500</v>
       </c>
-      <c r="W75" s="43">
+      <c r="W75" s="7">
         <v>-50</v>
       </c>
-      <c r="X75" s="3"/>
-      <c r="Y75" s="3"/>
-      <c r="Z75" s="3"/>
-      <c r="AA75" s="3"/>
+      <c r="X75" s="14"/>
+      <c r="Y75" s="14"/>
+      <c r="Z75" s="14"/>
+      <c r="AA75" s="14"/>
       <c r="AB75" s="7"/>
       <c r="AC75" s="7"/>
       <c r="AD75" s="7"/>
-      <c r="AE75" s="50">
-        <f t="shared" si="60"/>
+      <c r="AE75" s="7">
+        <f t="shared" si="9"/>
         <v>500</v>
       </c>
-      <c r="AF75" s="50">
-        <f t="shared" si="61"/>
+      <c r="AF75" s="7">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AG75" s="7"/>
@@ -29735,101 +29631,100 @@
       <c r="AI75" s="7"/>
       <c r="AJ75" s="7"/>
       <c r="AK75" s="7"/>
-      <c r="AL75" s="50">
-        <f t="shared" si="62"/>
+      <c r="AL75" s="7">
+        <f t="shared" si="10"/>
         <v>500</v>
       </c>
-      <c r="AM75" s="50">
-        <f t="shared" si="63"/>
+      <c r="AM75" s="7">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AN75" s="4">
+      <c r="AN75" s="7">
         <v>1000000</v>
       </c>
-      <c r="AO75" s="4" t="s">
+      <c r="AO75" s="7" t="s">
         <v>71</v>
       </c>
       <c r="AP75" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="BN75" s="40"/>
     </row>
-    <row r="76" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="B76" s="42" t="s">
+    <row r="76" spans="1:66" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="38" t="s">
         <v>200</v>
       </c>
       <c r="C76" s="6">
         <v>4</v>
       </c>
-      <c r="D76" s="46">
+      <c r="D76" s="32">
         <v>0</v>
       </c>
-      <c r="E76" s="52" t="s">
+      <c r="E76" s="32" t="s">
         <v>71</v>
       </c>
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
-      <c r="H76" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="I76" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="J76" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="K76" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="L76" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="M76" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="N76" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="O76" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="P76" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q76" s="44" t="s">
+      <c r="H76" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I76" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J76" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="K76" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="L76" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M76" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N76" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="O76" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="P76" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q76" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="R76" s="44" t="s">
+      <c r="R76" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="S76" s="44" t="s">
+      <c r="S76" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="T76" s="43">
+      <c r="T76" s="7">
         <v>0</v>
       </c>
-      <c r="U76" s="43">
+      <c r="U76" s="7">
         <v>0</v>
       </c>
-      <c r="V76" s="43">
+      <c r="V76" s="7">
         <v>0</v>
       </c>
-      <c r="W76" s="43">
+      <c r="W76" s="7">
         <v>0</v>
       </c>
-      <c r="X76" s="3"/>
-      <c r="Y76" s="3"/>
-      <c r="Z76" s="3"/>
-      <c r="AA76" s="3"/>
+      <c r="X76" s="14"/>
+      <c r="Y76" s="14"/>
+      <c r="Z76" s="14"/>
+      <c r="AA76" s="14"/>
       <c r="AB76" s="7"/>
       <c r="AC76" s="7"/>
       <c r="AD76" s="7"/>
-      <c r="AE76" s="50">
-        <f t="shared" si="60"/>
+      <c r="AE76" s="7">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AF76" s="50">
-        <f t="shared" si="61"/>
+      <c r="AF76" s="7">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AG76" s="7"/>
@@ -29837,101 +29732,100 @@
       <c r="AI76" s="7"/>
       <c r="AJ76" s="7"/>
       <c r="AK76" s="7"/>
-      <c r="AL76" s="50">
-        <f t="shared" si="62"/>
+      <c r="AL76" s="7">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AM76" s="50">
-        <f t="shared" si="63"/>
+      <c r="AM76" s="7">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AN76" s="4">
+      <c r="AN76" s="7">
         <v>0</v>
       </c>
-      <c r="AO76" s="4" t="s">
+      <c r="AO76" s="7" t="s">
         <v>71</v>
       </c>
       <c r="AP76" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="BN76" s="40"/>
     </row>
-    <row r="77" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="B77" s="42" t="s">
+    <row r="77" spans="1:66" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="38" t="s">
         <v>201</v>
       </c>
       <c r="C77" s="6">
         <v>4</v>
       </c>
-      <c r="D77" s="44">
+      <c r="D77" s="32">
         <v>-1000000</v>
       </c>
-      <c r="E77" s="52" t="s">
+      <c r="E77" s="32" t="s">
         <v>150</v>
       </c>
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
-      <c r="H77" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="I77" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="J77" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="K77" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="L77" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="M77" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="N77" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="O77" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="P77" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q77" s="44" t="s">
+      <c r="H77" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I77" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J77" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="K77" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="L77" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M77" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N77" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="O77" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="P77" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q77" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="R77" s="44" t="s">
+      <c r="R77" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="S77" s="44" t="s">
+      <c r="S77" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="T77" s="43">
+      <c r="T77" s="7">
         <v>-200</v>
       </c>
-      <c r="U77" s="43">
+      <c r="U77" s="7">
         <v>0</v>
       </c>
-      <c r="V77" s="43">
+      <c r="V77" s="7">
         <v>-500</v>
       </c>
-      <c r="W77" s="43">
+      <c r="W77" s="7">
         <v>-50</v>
       </c>
-      <c r="X77" s="3"/>
-      <c r="Y77" s="3"/>
-      <c r="Z77" s="3"/>
-      <c r="AA77" s="3"/>
+      <c r="X77" s="14"/>
+      <c r="Y77" s="14"/>
+      <c r="Z77" s="14"/>
+      <c r="AA77" s="14"/>
       <c r="AB77" s="7"/>
       <c r="AC77" s="7"/>
       <c r="AD77" s="7"/>
-      <c r="AE77" s="50">
-        <f t="shared" si="60"/>
+      <c r="AE77" s="7">
+        <f t="shared" si="9"/>
         <v>-200</v>
       </c>
-      <c r="AF77" s="50">
-        <f t="shared" si="61"/>
+      <c r="AF77" s="7">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AG77" s="7"/>
@@ -29939,101 +29833,100 @@
       <c r="AI77" s="7"/>
       <c r="AJ77" s="7"/>
       <c r="AK77" s="7"/>
-      <c r="AL77" s="50">
-        <f t="shared" si="62"/>
+      <c r="AL77" s="7">
+        <f t="shared" si="10"/>
         <v>-200</v>
       </c>
-      <c r="AM77" s="50">
-        <f t="shared" si="63"/>
+      <c r="AM77" s="7">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AN77" s="4">
+      <c r="AN77" s="7">
         <v>-1000000</v>
       </c>
-      <c r="AO77" s="4" t="s">
+      <c r="AO77" s="7" t="s">
         <v>150</v>
       </c>
       <c r="AP77" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="BN77" s="40"/>
     </row>
-    <row r="78" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="B78" s="42" t="s">
+    <row r="78" spans="1:66" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="38" t="s">
         <v>202</v>
       </c>
       <c r="C78" s="6">
         <v>4</v>
       </c>
-      <c r="D78" s="53" t="s">
-        <v>220</v>
-      </c>
-      <c r="E78" s="52" t="s">
+      <c r="D78" s="32">
+        <v>-1000000</v>
+      </c>
+      <c r="E78" s="32" t="s">
         <v>150</v>
       </c>
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
-      <c r="H78" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="I78" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="J78" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="K78" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="L78" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="M78" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="N78" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="O78" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="P78" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q78" s="44" t="s">
+      <c r="H78" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I78" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J78" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="K78" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="L78" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M78" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N78" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="O78" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="P78" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q78" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="R78" s="44" t="s">
+      <c r="R78" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="S78" s="44" t="s">
+      <c r="S78" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="T78" s="43">
+      <c r="T78" s="7">
         <v>200</v>
       </c>
-      <c r="U78" s="43">
+      <c r="U78" s="7">
         <v>-200</v>
       </c>
-      <c r="V78" s="43">
+      <c r="V78" s="7">
         <v>500</v>
       </c>
-      <c r="W78" s="43">
+      <c r="W78" s="7">
         <v>-50</v>
       </c>
-      <c r="X78" s="3"/>
-      <c r="Y78" s="3"/>
-      <c r="Z78" s="3"/>
-      <c r="AA78" s="3"/>
+      <c r="X78" s="14"/>
+      <c r="Y78" s="14"/>
+      <c r="Z78" s="14"/>
+      <c r="AA78" s="14"/>
       <c r="AB78" s="7"/>
       <c r="AC78" s="7"/>
       <c r="AD78" s="7"/>
-      <c r="AE78" s="50">
-        <f t="shared" si="60"/>
+      <c r="AE78" s="7">
+        <f t="shared" si="9"/>
         <v>500</v>
       </c>
-      <c r="AF78" s="50">
-        <f t="shared" si="61"/>
+      <c r="AF78" s="7">
+        <f t="shared" si="9"/>
         <v>-50</v>
       </c>
       <c r="AG78" s="7"/>
@@ -30041,99 +29934,100 @@
       <c r="AI78" s="7"/>
       <c r="AJ78" s="7"/>
       <c r="AK78" s="7"/>
-      <c r="AL78" s="50">
-        <f t="shared" si="62"/>
+      <c r="AL78" s="7">
+        <f t="shared" si="10"/>
         <v>550</v>
       </c>
-      <c r="AM78" s="50">
-        <f t="shared" si="63"/>
+      <c r="AM78" s="7">
+        <f t="shared" si="11"/>
         <v>-50</v>
       </c>
-      <c r="AN78" s="4">
+      <c r="AN78" s="7">
         <v>-1000000</v>
       </c>
-      <c r="AO78" s="4" t="s">
+      <c r="AO78" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="AP78" s="7"/>
-      <c r="BN78" s="40"/>
+      <c r="AP78" s="7" t="s">
+        <v>152</v>
+      </c>
     </row>
-    <row r="79" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="B79" s="42" t="s">
+    <row r="79" spans="1:66" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="38" t="s">
         <v>203</v>
       </c>
       <c r="C79" s="6">
         <v>4</v>
       </c>
-      <c r="D79" s="53" t="s">
-        <v>220</v>
-      </c>
-      <c r="E79" s="52" t="s">
+      <c r="D79" s="32">
+        <v>-1000000</v>
+      </c>
+      <c r="E79" s="32" t="s">
         <v>150</v>
       </c>
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
-      <c r="H79" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="I79" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="J79" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="K79" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="L79" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="M79" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="N79" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="O79" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="P79" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q79" s="44" t="s">
+      <c r="H79" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I79" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J79" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="K79" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="L79" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M79" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N79" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="O79" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="P79" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q79" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="R79" s="44" t="s">
+      <c r="R79" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="S79" s="44" t="s">
+      <c r="S79" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="T79" s="43">
+      <c r="T79" s="7">
         <v>-200</v>
       </c>
-      <c r="U79" s="43">
+      <c r="U79" s="7">
         <v>-200</v>
       </c>
-      <c r="V79" s="43">
+      <c r="V79" s="7">
         <v>-50</v>
       </c>
-      <c r="W79" s="43">
+      <c r="W79" s="7">
         <v>-50</v>
       </c>
-      <c r="X79" s="3"/>
-      <c r="Y79" s="3"/>
-      <c r="Z79" s="3"/>
-      <c r="AA79" s="3"/>
+      <c r="X79" s="14"/>
+      <c r="Y79" s="14"/>
+      <c r="Z79" s="14"/>
+      <c r="AA79" s="14"/>
       <c r="AB79" s="7"/>
       <c r="AC79" s="7"/>
       <c r="AD79" s="7"/>
-      <c r="AE79" s="50">
-        <f t="shared" si="60"/>
+      <c r="AE79" s="7">
+        <f t="shared" si="9"/>
         <v>-50</v>
       </c>
-      <c r="AF79" s="50">
-        <f t="shared" si="61"/>
+      <c r="AF79" s="7">
+        <f t="shared" si="9"/>
         <v>-50</v>
       </c>
       <c r="AG79" s="7"/>
@@ -30141,99 +30035,100 @@
       <c r="AI79" s="7"/>
       <c r="AJ79" s="7"/>
       <c r="AK79" s="7"/>
-      <c r="AL79" s="50">
-        <f t="shared" si="62"/>
+      <c r="AL79" s="7">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AM79" s="50">
-        <f t="shared" si="63"/>
+      <c r="AM79" s="7">
+        <f t="shared" si="11"/>
         <v>-50</v>
       </c>
-      <c r="AN79" s="4">
+      <c r="AN79" s="7">
         <v>-1000000</v>
       </c>
-      <c r="AO79" s="4" t="s">
+      <c r="AO79" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="AP79" s="7"/>
-      <c r="BN79" s="40"/>
+      <c r="AP79" s="7" t="s">
+        <v>152</v>
+      </c>
     </row>
-    <row r="80" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="B80" s="42" t="s">
+    <row r="80" spans="1:66" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="38" t="s">
         <v>204</v>
       </c>
       <c r="C80" s="6">
         <v>4</v>
       </c>
-      <c r="D80" s="53" t="s">
-        <v>220</v>
-      </c>
-      <c r="E80" s="52" t="s">
+      <c r="D80" s="32">
+        <v>-1000000</v>
+      </c>
+      <c r="E80" s="32" t="s">
         <v>150</v>
       </c>
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
-      <c r="H80" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="I80" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="J80" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="K80" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="L80" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="M80" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="N80" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="O80" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="P80" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q80" s="44" t="s">
+      <c r="H80" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I80" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J80" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="K80" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="L80" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M80" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N80" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="O80" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="P80" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q80" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="R80" s="44" t="s">
+      <c r="R80" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="S80" s="44" t="s">
+      <c r="S80" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="T80" s="43">
+      <c r="T80" s="7">
         <v>-200</v>
       </c>
-      <c r="U80" s="43">
+      <c r="U80" s="7">
         <v>-200</v>
       </c>
-      <c r="V80" s="43">
+      <c r="V80" s="7">
         <v>-500</v>
       </c>
-      <c r="W80" s="43">
+      <c r="W80" s="7">
         <v>-50</v>
       </c>
-      <c r="X80" s="3"/>
-      <c r="Y80" s="3"/>
-      <c r="Z80" s="3"/>
-      <c r="AA80" s="3"/>
+      <c r="X80" s="14"/>
+      <c r="Y80" s="14"/>
+      <c r="Z80" s="14"/>
+      <c r="AA80" s="14"/>
       <c r="AB80" s="7"/>
       <c r="AC80" s="7"/>
       <c r="AD80" s="7"/>
-      <c r="AE80" s="50">
-        <f t="shared" si="60"/>
+      <c r="AE80" s="7">
+        <f t="shared" si="9"/>
         <v>-200</v>
       </c>
-      <c r="AF80" s="50">
-        <f t="shared" si="61"/>
+      <c r="AF80" s="7">
+        <f t="shared" si="9"/>
         <v>-50</v>
       </c>
       <c r="AG80" s="7"/>
@@ -30241,99 +30136,100 @@
       <c r="AI80" s="7"/>
       <c r="AJ80" s="7"/>
       <c r="AK80" s="7"/>
-      <c r="AL80" s="50">
-        <f t="shared" si="62"/>
+      <c r="AL80" s="7">
+        <f t="shared" si="10"/>
         <v>-150</v>
       </c>
-      <c r="AM80" s="50">
-        <f t="shared" si="63"/>
+      <c r="AM80" s="7">
+        <f t="shared" si="11"/>
         <v>-50</v>
       </c>
-      <c r="AN80" s="4">
+      <c r="AN80" s="7">
         <v>-1000000</v>
       </c>
-      <c r="AO80" s="4" t="s">
+      <c r="AO80" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="AP80" s="7"/>
-      <c r="BN80" s="40"/>
+      <c r="AP80" s="7" t="s">
+        <v>152</v>
+      </c>
     </row>
-    <row r="81" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B81" s="47" t="s">
+    <row r="81" spans="2:66" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="38" t="s">
         <v>215</v>
       </c>
       <c r="C81" s="6">
         <v>4</v>
       </c>
-      <c r="D81" s="48" t="s">
+      <c r="D81" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="E81" s="52" t="s">
+      <c r="E81" s="32" t="s">
         <v>205</v>
       </c>
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
-      <c r="H81" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="I81" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="J81" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="K81" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="L81" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="M81" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="N81" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="O81" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="P81" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q81" s="44" t="s">
+      <c r="H81" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I81" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J81" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="K81" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="L81" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M81" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N81" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="O81" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="P81" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q81" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="R81" s="44" t="s">
+      <c r="R81" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="S81" s="44" t="s">
+      <c r="S81" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="T81" s="43">
+      <c r="T81" s="7">
         <v>300</v>
       </c>
-      <c r="U81" s="43">
+      <c r="U81" s="7">
         <v>200</v>
       </c>
-      <c r="V81" s="43">
+      <c r="V81" s="7">
         <v>100</v>
       </c>
-      <c r="W81" s="43">
+      <c r="W81" s="7">
         <v>50</v>
       </c>
-      <c r="X81" s="3"/>
-      <c r="Y81" s="3"/>
-      <c r="Z81" s="3"/>
-      <c r="AA81" s="3"/>
+      <c r="X81" s="14"/>
+      <c r="Y81" s="14"/>
+      <c r="Z81" s="14"/>
+      <c r="AA81" s="14"/>
       <c r="AB81" s="7"/>
       <c r="AC81" s="7"/>
       <c r="AD81" s="7"/>
-      <c r="AE81" s="50">
-        <f t="shared" si="60"/>
+      <c r="AE81" s="7">
+        <f t="shared" si="9"/>
         <v>300</v>
       </c>
-      <c r="AF81" s="50">
-        <f t="shared" si="61"/>
+      <c r="AF81" s="7">
+        <f t="shared" si="9"/>
         <v>200</v>
       </c>
       <c r="AG81" s="7"/>
@@ -30341,12 +30237,12 @@
       <c r="AI81" s="7"/>
       <c r="AJ81" s="7"/>
       <c r="AK81" s="7"/>
-      <c r="AL81" s="50">
-        <f t="shared" si="62"/>
+      <c r="AL81" s="7">
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
-      <c r="AM81" s="50">
-        <f t="shared" si="63"/>
+      <c r="AM81" s="7">
+        <f t="shared" si="11"/>
         <v>200</v>
       </c>
       <c r="AN81" s="26" t="s">
@@ -30355,85 +30251,86 @@
       <c r="AO81" s="34" t="s">
         <v>205</v>
       </c>
-      <c r="AP81" s="7"/>
-      <c r="BN81" s="40"/>
+      <c r="AP81" s="7" t="s">
+        <v>152</v>
+      </c>
     </row>
-    <row r="82" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B82" s="47" t="s">
+    <row r="82" spans="2:66" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="38" t="s">
         <v>216</v>
       </c>
       <c r="C82" s="6">
         <v>4</v>
       </c>
-      <c r="D82" s="48">
+      <c r="D82" s="32">
         <v>-1000000</v>
       </c>
-      <c r="E82" s="52" t="s">
+      <c r="E82" s="32" t="s">
         <v>150</v>
       </c>
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
-      <c r="H82" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="I82" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="J82" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="K82" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="L82" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="M82" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="N82" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="O82" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="P82" s="48" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q82" s="48" t="s">
+      <c r="H82" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I82" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J82" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="K82" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="L82" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M82" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N82" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="O82" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="P82" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q82" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="R82" s="48" t="s">
+      <c r="R82" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="S82" s="48" t="s">
+      <c r="S82" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="T82" s="50">
+      <c r="T82" s="7">
         <v>-300</v>
       </c>
-      <c r="U82" s="50">
+      <c r="U82" s="7">
         <v>0</v>
       </c>
-      <c r="V82" s="50">
+      <c r="V82" s="7">
         <v>-500</v>
       </c>
-      <c r="W82" s="50">
+      <c r="W82" s="7">
         <v>0</v>
       </c>
-      <c r="X82" s="3"/>
-      <c r="Y82" s="3"/>
-      <c r="Z82" s="3"/>
-      <c r="AA82" s="3"/>
+      <c r="X82" s="14"/>
+      <c r="Y82" s="14"/>
+      <c r="Z82" s="14"/>
+      <c r="AA82" s="14"/>
       <c r="AB82" s="7"/>
       <c r="AC82" s="7"/>
       <c r="AD82" s="7"/>
-      <c r="AE82" s="50">
-        <f t="shared" si="60"/>
+      <c r="AE82" s="7">
+        <f t="shared" si="9"/>
         <v>-300</v>
       </c>
-      <c r="AF82" s="50">
-        <f t="shared" si="61"/>
+      <c r="AF82" s="7">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AG82" s="7"/>
@@ -30441,12 +30338,12 @@
       <c r="AI82" s="7"/>
       <c r="AJ82" s="7"/>
       <c r="AK82" s="7"/>
-      <c r="AL82" s="50">
-        <f t="shared" si="62"/>
+      <c r="AL82" s="7">
+        <f t="shared" si="10"/>
         <v>-300</v>
       </c>
-      <c r="AM82" s="50">
-        <f t="shared" si="63"/>
+      <c r="AM82" s="7">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AN82" s="26">
@@ -30455,83 +30352,84 @@
       <c r="AO82" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="AP82" s="7"/>
-      <c r="BN82" s="40"/>
+      <c r="AP82" s="7" t="s">
+        <v>152</v>
+      </c>
     </row>
-    <row r="83" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B83" s="47" t="s">
-        <v>217</v>
+    <row r="83" spans="2:66" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="38" t="s">
+        <v>216</v>
       </c>
       <c r="C83" s="6">
         <v>4</v>
       </c>
-      <c r="D83" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="E83" s="52"/>
+      <c r="D83" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E83" s="32"/>
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
-      <c r="H83" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="I83" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="J83" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="K83" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="L83" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="M83" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="N83" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="O83" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="P83" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q83" s="48" t="s">
+      <c r="H83" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I83" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J83" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="K83" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="L83" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M83" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N83" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="O83" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="P83" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q83" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="R83" s="48" t="s">
+      <c r="R83" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="S83" s="48" t="s">
+      <c r="S83" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="T83" s="48" t="s">
+      <c r="T83" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="U83" s="50">
+      <c r="U83" s="7">
         <v>200</v>
       </c>
-      <c r="V83" s="48" t="s">
+      <c r="V83" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="W83" s="50">
+      <c r="W83" s="7">
         <v>300</v>
       </c>
-      <c r="X83" s="3"/>
-      <c r="Y83" s="3"/>
-      <c r="Z83" s="3"/>
-      <c r="AA83" s="3"/>
+      <c r="X83" s="14"/>
+      <c r="Y83" s="14"/>
+      <c r="Z83" s="14"/>
+      <c r="AA83" s="14"/>
       <c r="AB83" s="7"/>
       <c r="AC83" s="7"/>
       <c r="AD83" s="7"/>
-      <c r="AE83" s="50">
-        <f t="shared" si="60"/>
+      <c r="AE83" s="7">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AF83" s="50">
-        <f t="shared" si="61"/>
+      <c r="AF83" s="7">
+        <f t="shared" si="9"/>
         <v>300</v>
       </c>
       <c r="AG83" s="7"/>
@@ -30539,22 +30437,23 @@
       <c r="AI83" s="7"/>
       <c r="AJ83" s="7"/>
       <c r="AK83" s="7"/>
-      <c r="AL83" s="50">
-        <f t="shared" si="62"/>
+      <c r="AL83" s="7">
+        <f t="shared" si="10"/>
         <v>-300</v>
       </c>
-      <c r="AM83" s="50">
-        <f t="shared" si="63"/>
+      <c r="AM83" s="7">
+        <f t="shared" si="11"/>
         <v>300</v>
       </c>
       <c r="AN83" s="26" t="s">
         <v>49</v>
       </c>
       <c r="AO83" s="34"/>
-      <c r="AP83" s="7"/>
-      <c r="BN83" s="40"/>
+      <c r="AP83" s="7" t="s">
+        <v>152</v>
+      </c>
     </row>
-    <row r="84" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:66" x14ac:dyDescent="0.3">
       <c r="B84" s="11" t="s">
         <v>113</v>
       </c>
@@ -30631,7 +30530,7 @@
       <c r="AK84" s="6"/>
       <c r="AL84" s="6"/>
       <c r="AM84" s="6"/>
-      <c r="AN84" s="7" t="s">
+      <c r="AN84" s="14" t="s">
         <v>1</v>
       </c>
       <c r="AO84" s="7" t="s">
@@ -30642,7 +30541,7 @@
       </c>
       <c r="BN84" s="40"/>
     </row>
-    <row r="85" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:66" x14ac:dyDescent="0.3">
       <c r="B85" s="11" t="s">
         <v>114</v>
       </c>
@@ -30719,7 +30618,7 @@
       <c r="AK85" s="6"/>
       <c r="AL85" s="6"/>
       <c r="AM85" s="6"/>
-      <c r="AN85" s="7" t="s">
+      <c r="AN85" s="14" t="s">
         <v>1</v>
       </c>
       <c r="AO85" s="7" t="s">
@@ -30730,7 +30629,7 @@
       </c>
       <c r="BN85" s="40"/>
     </row>
-    <row r="86" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:66" x14ac:dyDescent="0.3">
       <c r="B86" s="11" t="s">
         <v>115</v>
       </c>
@@ -30807,7 +30706,7 @@
       <c r="AK86" s="6"/>
       <c r="AL86" s="6"/>
       <c r="AM86" s="6"/>
-      <c r="AN86" s="7" t="s">
+      <c r="AN86" s="14" t="s">
         <v>1</v>
       </c>
       <c r="AO86" s="7" t="s">
@@ -30818,7 +30717,7 @@
       </c>
       <c r="BN86" s="40"/>
     </row>
-    <row r="87" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:66" x14ac:dyDescent="0.3">
       <c r="B87" s="11" t="s">
         <v>116</v>
       </c>
@@ -30895,7 +30794,7 @@
       <c r="AK87" s="6"/>
       <c r="AL87" s="6"/>
       <c r="AM87" s="6"/>
-      <c r="AN87" s="7" t="s">
+      <c r="AN87" s="14" t="s">
         <v>1</v>
       </c>
       <c r="AO87" s="7" t="s">
@@ -30906,7 +30805,7 @@
       </c>
       <c r="BN87" s="40"/>
     </row>
-    <row r="88" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:66" x14ac:dyDescent="0.3">
       <c r="B88" s="11" t="s">
         <v>117</v>
       </c>
@@ -30983,7 +30882,7 @@
       <c r="AK88" s="6"/>
       <c r="AL88" s="6"/>
       <c r="AM88" s="6"/>
-      <c r="AN88" s="7" t="s">
+      <c r="AN88" s="14" t="s">
         <v>1</v>
       </c>
       <c r="AO88" s="7" t="s">
@@ -30994,7 +30893,7 @@
       </c>
       <c r="BN88" s="40"/>
     </row>
-    <row r="89" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:66" x14ac:dyDescent="0.3">
       <c r="B89" s="11" t="s">
         <v>118</v>
       </c>
@@ -31071,7 +30970,7 @@
       <c r="AK89" s="6"/>
       <c r="AL89" s="6"/>
       <c r="AM89" s="6"/>
-      <c r="AN89" s="7" t="s">
+      <c r="AN89" s="14" t="s">
         <v>1</v>
       </c>
       <c r="AO89" s="7" t="s">
@@ -31082,7 +30981,7 @@
       </c>
       <c r="BN89" s="40"/>
     </row>
-    <row r="90" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:66" x14ac:dyDescent="0.3">
       <c r="B90" s="11" t="s">
         <v>119</v>
       </c>
@@ -31159,7 +31058,7 @@
       <c r="AK90" s="6"/>
       <c r="AL90" s="6"/>
       <c r="AM90" s="6"/>
-      <c r="AN90" s="7" t="s">
+      <c r="AN90" s="14" t="s">
         <v>1</v>
       </c>
       <c r="AO90" s="7" t="s">
@@ -31170,7 +31069,7 @@
       </c>
       <c r="BN90" s="40"/>
     </row>
-    <row r="91" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:66" x14ac:dyDescent="0.3">
       <c r="B91" s="11" t="s">
         <v>120</v>
       </c>
@@ -31247,7 +31146,7 @@
       <c r="AK91" s="6"/>
       <c r="AL91" s="6"/>
       <c r="AM91" s="6"/>
-      <c r="AN91" s="7" t="s">
+      <c r="AN91" s="14" t="s">
         <v>1</v>
       </c>
       <c r="AO91" s="7" t="s">
@@ -31258,7 +31157,7 @@
       </c>
       <c r="BN91" s="40"/>
     </row>
-    <row r="92" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:66" x14ac:dyDescent="0.3">
       <c r="B92" s="11" t="s">
         <v>121</v>
       </c>
@@ -31335,7 +31234,7 @@
       <c r="AK92" s="6"/>
       <c r="AL92" s="6"/>
       <c r="AM92" s="6"/>
-      <c r="AN92" s="7" t="s">
+      <c r="AN92" s="14" t="s">
         <v>1</v>
       </c>
       <c r="AO92" s="7" t="s">
@@ -31346,7 +31245,7 @@
       </c>
       <c r="BN92" s="40"/>
     </row>
-    <row r="93" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:66" x14ac:dyDescent="0.3">
       <c r="B93" s="11" t="s">
         <v>122</v>
       </c>
@@ -31423,7 +31322,7 @@
       <c r="AK93" s="6"/>
       <c r="AL93" s="6"/>
       <c r="AM93" s="6"/>
-      <c r="AN93" s="7" t="s">
+      <c r="AN93" s="14" t="s">
         <v>1</v>
       </c>
       <c r="AO93" s="7" t="s">
@@ -31434,7 +31333,7 @@
       </c>
       <c r="BN93" s="40"/>
     </row>
-    <row r="94" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:66" x14ac:dyDescent="0.3">
       <c r="B94" s="11" t="s">
         <v>123</v>
       </c>
@@ -31511,7 +31410,7 @@
       <c r="AK94" s="6"/>
       <c r="AL94" s="6"/>
       <c r="AM94" s="6"/>
-      <c r="AN94" s="7" t="s">
+      <c r="AN94" s="14" t="s">
         <v>1</v>
       </c>
       <c r="AO94" s="7" t="s">
@@ -31522,7 +31421,7 @@
       </c>
       <c r="BN94" s="40"/>
     </row>
-    <row r="95" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:66" x14ac:dyDescent="0.3">
       <c r="B95" s="11" t="s">
         <v>124</v>
       </c>
@@ -31599,7 +31498,7 @@
       <c r="AK95" s="6"/>
       <c r="AL95" s="6"/>
       <c r="AM95" s="6"/>
-      <c r="AN95" s="7" t="s">
+      <c r="AN95" s="14" t="s">
         <v>1</v>
       </c>
       <c r="AO95" s="7" t="s">
@@ -31610,7 +31509,7 @@
       </c>
       <c r="BN95" s="40"/>
     </row>
-    <row r="96" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:66" x14ac:dyDescent="0.3">
       <c r="B96" s="11" t="s">
         <v>125</v>
       </c>
@@ -31687,7 +31586,7 @@
       <c r="AK96" s="6"/>
       <c r="AL96" s="6"/>
       <c r="AM96" s="6"/>
-      <c r="AN96" s="41">
+      <c r="AN96" s="33">
         <v>1000000</v>
       </c>
       <c r="AO96" s="7" t="s">
@@ -31698,7 +31597,7 @@
       </c>
       <c r="BN96" s="40"/>
     </row>
-    <row r="97" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:66" x14ac:dyDescent="0.3">
       <c r="B97" s="11" t="s">
         <v>126</v>
       </c>
@@ -31784,7 +31683,7 @@
       <c r="AP97" s="7"/>
       <c r="BN97" s="40"/>
     </row>
-    <row r="98" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:66" x14ac:dyDescent="0.3">
       <c r="B98" s="11" t="s">
         <v>127</v>
       </c>
@@ -31861,7 +31760,7 @@
       <c r="AK98" s="6"/>
       <c r="AL98" s="6"/>
       <c r="AM98" s="6"/>
-      <c r="AN98" s="41">
+      <c r="AN98" s="33">
         <v>1000000</v>
       </c>
       <c r="AO98" s="7" t="s">
@@ -31872,7 +31771,7 @@
       </c>
       <c r="BN98" s="40"/>
     </row>
-    <row r="99" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:66" x14ac:dyDescent="0.3">
       <c r="B99" s="11" t="s">
         <v>128</v>
       </c>
@@ -31949,7 +31848,7 @@
       <c r="AK99" s="6"/>
       <c r="AL99" s="6"/>
       <c r="AM99" s="6"/>
-      <c r="AN99" s="7">
+      <c r="AN99" s="14">
         <v>0.16400000000000001</v>
       </c>
       <c r="AO99" s="7" t="s">
@@ -31960,7 +31859,7 @@
       </c>
       <c r="BN99" s="40"/>
     </row>
-    <row r="100" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:66" x14ac:dyDescent="0.3">
       <c r="B100" s="11" t="s">
         <v>129</v>
       </c>
@@ -32037,7 +31936,7 @@
       <c r="AK100" s="6"/>
       <c r="AL100" s="6"/>
       <c r="AM100" s="6"/>
-      <c r="AN100" s="7">
+      <c r="AN100" s="14">
         <v>0.16400000000000001</v>
       </c>
       <c r="AO100" s="7" t="s">
@@ -32048,7 +31947,7 @@
       </c>
       <c r="BN100" s="40"/>
     </row>
-    <row r="101" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:66" x14ac:dyDescent="0.3">
       <c r="B101" s="11" t="s">
         <v>130</v>
       </c>
@@ -32125,7 +32024,7 @@
       <c r="AK101" s="6"/>
       <c r="AL101" s="6"/>
       <c r="AM101" s="6"/>
-      <c r="AN101" s="41">
+      <c r="AN101" s="33">
         <v>1000000</v>
       </c>
       <c r="AO101" s="7" t="s">
@@ -32136,7 +32035,7 @@
       </c>
       <c r="BN101" s="40"/>
     </row>
-    <row r="102" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:66" x14ac:dyDescent="0.3">
       <c r="B102" s="11" t="s">
         <v>131</v>
       </c>
@@ -32213,7 +32112,7 @@
       <c r="AK102" s="6"/>
       <c r="AL102" s="6"/>
       <c r="AM102" s="6"/>
-      <c r="AN102" s="7">
+      <c r="AN102" s="14">
         <v>0.16400000000000001</v>
       </c>
       <c r="AO102" s="7" t="s">
@@ -32224,7 +32123,7 @@
       </c>
       <c r="BN102" s="40"/>
     </row>
-    <row r="103" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:66" x14ac:dyDescent="0.3">
       <c r="B103" s="39" t="s">
         <v>173</v>
       </c>
@@ -32312,103 +32211,103 @@
         <v>152</v>
       </c>
       <c r="AQ103" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="6"/>
         <v>null,null</v>
       </c>
       <c r="AR103" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1'</v>
       </c>
       <c r="AS103" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1'</v>
       </c>
       <c r="AT103" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null</v>
       </c>
       <c r="AU103" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null</v>
       </c>
       <c r="AV103" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1'</v>
       </c>
       <c r="AW103" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1'</v>
       </c>
       <c r="AX103" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',</v>
       </c>
       <c r="AY103" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',,</v>
       </c>
       <c r="AZ103" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',,,</v>
       </c>
       <c r="BA103" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS'</v>
       </c>
       <c r="BB103" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017'</v>
       </c>
       <c r="BC103" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',</v>
       </c>
       <c r="BD103" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,</v>
       </c>
       <c r="BE103" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,</v>
       </c>
       <c r="BF103" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,</v>
       </c>
       <c r="BG103" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,</v>
       </c>
       <c r="BH103" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,1000</v>
       </c>
       <c r="BI103" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,1000,500</v>
       </c>
       <c r="BJ103" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,1000,500,200</v>
       </c>
       <c r="BK103" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,1000,500,200,150</v>
       </c>
       <c r="BL103" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,1000,500,200,150,500</v>
       </c>
       <c r="BM103" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,1000,500,200,150,500,1000</v>
       </c>
       <c r="BN103" s="40" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,1000,500,200,150,500,1000,500</v>
       </c>
     </row>
-    <row r="104" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:66" x14ac:dyDescent="0.3">
       <c r="B104" s="39" t="s">
         <v>174</v>
       </c>
@@ -32499,103 +32398,103 @@
         <v>152</v>
       </c>
       <c r="AQ104" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="6"/>
         <v>null,null</v>
       </c>
       <c r="AR104" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1'</v>
       </c>
       <c r="AS104" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1'</v>
       </c>
       <c r="AT104" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null</v>
       </c>
       <c r="AU104" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null</v>
       </c>
       <c r="AV104" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1'</v>
       </c>
       <c r="AW104" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1'</v>
       </c>
       <c r="AX104" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',</v>
       </c>
       <c r="AY104" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',,</v>
       </c>
       <c r="AZ104" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',,,</v>
       </c>
       <c r="BA104" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS'</v>
       </c>
       <c r="BB104" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017'</v>
       </c>
       <c r="BC104" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',</v>
       </c>
       <c r="BD104" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,</v>
       </c>
       <c r="BE104" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,</v>
       </c>
       <c r="BF104" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,</v>
       </c>
       <c r="BG104" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,</v>
       </c>
       <c r="BH104" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,100</v>
       </c>
       <c r="BI104" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,100,50</v>
       </c>
       <c r="BJ104" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,100,50,200</v>
       </c>
       <c r="BK104" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,100,50,200,150</v>
       </c>
       <c r="BL104" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,100,50,200,150,20</v>
       </c>
       <c r="BM104" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,100,50,200,150,20,100</v>
       </c>
       <c r="BN104" s="40" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,100,50,200,150,20,100,1000</v>
       </c>
     </row>
-    <row r="105" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:66" x14ac:dyDescent="0.3">
       <c r="B105" s="39" t="s">
         <v>175</v>
       </c>
@@ -32686,103 +32585,103 @@
         <v>152</v>
       </c>
       <c r="AQ105" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="6"/>
         <v>null,null</v>
       </c>
       <c r="AR105" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1'</v>
       </c>
       <c r="AS105" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1'</v>
       </c>
       <c r="AT105" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null</v>
       </c>
       <c r="AU105" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null</v>
       </c>
       <c r="AV105" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1'</v>
       </c>
       <c r="AW105" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1'</v>
       </c>
       <c r="AX105" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',</v>
       </c>
       <c r="AY105" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',,</v>
       </c>
       <c r="AZ105" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',,,</v>
       </c>
       <c r="BA105" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS'</v>
       </c>
       <c r="BB105" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017'</v>
       </c>
       <c r="BC105" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',</v>
       </c>
       <c r="BD105" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,</v>
       </c>
       <c r="BE105" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,</v>
       </c>
       <c r="BF105" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,</v>
       </c>
       <c r="BG105" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,</v>
       </c>
       <c r="BH105" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,100</v>
       </c>
       <c r="BI105" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,100,-100</v>
       </c>
       <c r="BJ105" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,100,-100,200</v>
       </c>
       <c r="BK105" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,100,-100,200,-200</v>
       </c>
       <c r="BL105" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,100,-100,200,-200,20</v>
       </c>
       <c r="BM105" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,100,-100,200,-200,20,100</v>
       </c>
       <c r="BN105" s="40" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,100,-100,200,-200,20,100,1000</v>
       </c>
     </row>
-    <row r="106" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:66" x14ac:dyDescent="0.3">
       <c r="B106" s="39" t="s">
         <v>176</v>
       </c>
@@ -32873,103 +32772,103 @@
         <v>152</v>
       </c>
       <c r="AQ106" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="6"/>
         <v>null,null</v>
       </c>
       <c r="AR106" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1'</v>
       </c>
       <c r="AS106" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1'</v>
       </c>
       <c r="AT106" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null</v>
       </c>
       <c r="AU106" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null</v>
       </c>
       <c r="AV106" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1'</v>
       </c>
       <c r="AW106" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1'</v>
       </c>
       <c r="AX106" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',</v>
       </c>
       <c r="AY106" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',,</v>
       </c>
       <c r="AZ106" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',,,</v>
       </c>
       <c r="BA106" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS'</v>
       </c>
       <c r="BB106" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017'</v>
       </c>
       <c r="BC106" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',</v>
       </c>
       <c r="BD106" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,</v>
       </c>
       <c r="BE106" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,</v>
       </c>
       <c r="BF106" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,</v>
       </c>
       <c r="BG106" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,</v>
       </c>
       <c r="BH106" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,100</v>
       </c>
       <c r="BI106" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,100,-100</v>
       </c>
       <c r="BJ106" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,100,-100,200</v>
       </c>
       <c r="BK106" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,100,-100,200,1000</v>
       </c>
       <c r="BL106" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,100,-100,200,1000,0</v>
       </c>
       <c r="BM106" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,100,-100,200,1000,0,0</v>
       </c>
       <c r="BN106" s="40" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,100,-100,200,1000,0,0,1000</v>
       </c>
     </row>
-    <row r="107" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:66" x14ac:dyDescent="0.3">
       <c r="B107" s="39" t="s">
         <v>177</v>
       </c>
@@ -33060,103 +32959,103 @@
         <v>152</v>
       </c>
       <c r="AQ107" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="6"/>
         <v>null,null</v>
       </c>
       <c r="AR107" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1'</v>
       </c>
       <c r="AS107" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1'</v>
       </c>
       <c r="AT107" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null</v>
       </c>
       <c r="AU107" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null</v>
       </c>
       <c r="AV107" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1'</v>
       </c>
       <c r="AW107" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1'</v>
       </c>
       <c r="AX107" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',</v>
       </c>
       <c r="AY107" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',,</v>
       </c>
       <c r="AZ107" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',,,</v>
       </c>
       <c r="BA107" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS'</v>
       </c>
       <c r="BB107" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017'</v>
       </c>
       <c r="BC107" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',</v>
       </c>
       <c r="BD107" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,</v>
       </c>
       <c r="BE107" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,</v>
       </c>
       <c r="BF107" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,</v>
       </c>
       <c r="BG107" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,</v>
       </c>
       <c r="BH107" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,-100</v>
       </c>
       <c r="BI107" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,-100,-100</v>
       </c>
       <c r="BJ107" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,-100,-100,200</v>
       </c>
       <c r="BK107" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,-100,-100,200,0</v>
       </c>
       <c r="BL107" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,-100,-100,200,0,0</v>
       </c>
       <c r="BM107" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,-100,-100,200,0,0,0</v>
       </c>
       <c r="BN107" s="40" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,-100,-100,200,0,0,0,0</v>
       </c>
     </row>
-    <row r="108" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:66" x14ac:dyDescent="0.3">
       <c r="B108" s="39" t="s">
         <v>178</v>
       </c>
@@ -33247,103 +33146,103 @@
         <v>152</v>
       </c>
       <c r="AQ108" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="6"/>
         <v>null,null</v>
       </c>
       <c r="AR108" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1'</v>
       </c>
       <c r="AS108" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','0'</v>
       </c>
       <c r="AT108" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','0',null</v>
       </c>
       <c r="AU108" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','0',null,null</v>
       </c>
       <c r="AV108" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','0',null,null,'1'</v>
       </c>
       <c r="AW108" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','0',null,null,'1','1'</v>
       </c>
       <c r="AX108" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','0',null,null,'1','1',</v>
       </c>
       <c r="AY108" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','0',null,null,'1','1',,</v>
       </c>
       <c r="AZ108" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','0',null,null,'1','1',,,</v>
       </c>
       <c r="BA108" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','0',null,null,'1','1',,,,'FIS'</v>
       </c>
       <c r="BB108" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','0',null,null,'1','1',,,,'FIS','02/05/2017'</v>
       </c>
       <c r="BC108" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','0',null,null,'1','1',,,,'FIS','02/05/2017',</v>
       </c>
       <c r="BD108" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','0',null,null,'1','1',,,,'FIS','02/05/2017',,</v>
       </c>
       <c r="BE108" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','0',null,null,'1','1',,,,'FIS','02/05/2017',,,</v>
       </c>
       <c r="BF108" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','0',null,null,'1','1',,,,'FIS','02/05/2017',,,,</v>
       </c>
       <c r="BG108" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','0',null,null,'1','1',,,,'FIS','02/05/2017',,,,,</v>
       </c>
       <c r="BH108" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','0',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,1000</v>
       </c>
       <c r="BI108" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','0',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,1000,500</v>
       </c>
       <c r="BJ108" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','0',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,1000,500,200</v>
       </c>
       <c r="BK108" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','0',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,1000,500,200,150</v>
       </c>
       <c r="BL108" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','0',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,1000,500,200,150,500</v>
       </c>
       <c r="BM108" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','0',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,1000,500,200,150,500,1000</v>
       </c>
       <c r="BN108" s="40" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','0',null,null,'1','1',,,,'FIS','02/05/2017',,,,,,1000,500,200,150,500,1000,500</v>
       </c>
     </row>
-    <row r="109" spans="2:66" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:66" x14ac:dyDescent="0.3">
       <c r="B109" s="39" t="s">
         <v>179</v>
       </c>
@@ -33434,437 +33333,441 @@
         <v>152</v>
       </c>
       <c r="AQ109" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="6"/>
         <v>null,null</v>
       </c>
       <c r="AR109" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1'</v>
       </c>
       <c r="AS109" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1'</v>
       </c>
       <c r="AT109" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null</v>
       </c>
       <c r="AU109" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null</v>
       </c>
       <c r="AV109" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1'</v>
       </c>
       <c r="AW109" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','0'</v>
       </c>
       <c r="AX109" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','0',</v>
       </c>
       <c r="AY109" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','0',,</v>
       </c>
       <c r="AZ109" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','0',,,</v>
       </c>
       <c r="BA109" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','0',,,,'FIS'</v>
       </c>
       <c r="BB109" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','0',,,,'FIS','02/05/2017'</v>
       </c>
       <c r="BC109" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','0',,,,'FIS','02/05/2017',</v>
       </c>
       <c r="BD109" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','0',,,,'FIS','02/05/2017',,</v>
       </c>
       <c r="BE109" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','0',,,,'FIS','02/05/2017',,,</v>
       </c>
       <c r="BF109" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','0',,,,'FIS','02/05/2017',,,,</v>
       </c>
       <c r="BG109" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="7"/>
         <v>null,null,'1','1',null,null,'1','0',,,,'FIS','02/05/2017',,,,,</v>
       </c>
       <c r="BH109" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','0',,,,'FIS','02/05/2017',,,,,,1000</v>
       </c>
       <c r="BI109" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','0',,,,'FIS','02/05/2017',,,,,,1000,500</v>
       </c>
       <c r="BJ109" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','0',,,,'FIS','02/05/2017',,,,,,1000,500,200</v>
       </c>
       <c r="BK109" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','0',,,,'FIS','02/05/2017',,,,,,1000,500,200,150</v>
       </c>
       <c r="BL109" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','0',,,,'FIS','02/05/2017',,,,,,1000,500,200,150,500</v>
       </c>
       <c r="BM109" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','0',,,,'FIS','02/05/2017',,,,,,1000,500,200,150,500,1000</v>
       </c>
       <c r="BN109" s="40" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="8"/>
         <v>null,null,'1','1',null,null,'1','0',,,,'FIS','02/05/2017',,,,,,1000,500,200,150,500,1000,500</v>
       </c>
     </row>
-    <row r="110" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B110" s="47" t="s">
-        <v>218</v>
+    <row r="110" spans="2:66" x14ac:dyDescent="0.3">
+      <c r="B110" s="39" t="s">
+        <v>217</v>
       </c>
       <c r="C110" s="7">
         <v>5</v>
       </c>
-      <c r="D110" s="56">
-        <f>AL110/AM110</f>
-        <v>-0.6026476980833827</v>
-      </c>
-      <c r="E110" s="52"/>
+      <c r="D110" s="30">
+        <v>1000000</v>
+      </c>
+      <c r="E110" s="30" t="s">
+        <v>71</v>
+      </c>
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
-      <c r="H110" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="I110" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="J110" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="K110" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="L110" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="M110" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="N110" s="4"/>
-      <c r="O110" s="4"/>
-      <c r="P110" s="4"/>
-      <c r="Q110" s="48" t="s">
+      <c r="H110" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I110" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J110" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="K110" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="L110" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M110" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N110" s="7"/>
+      <c r="O110" s="7"/>
+      <c r="P110" s="7"/>
+      <c r="Q110" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="R110" s="48" t="s">
+      <c r="R110" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="S110" s="4"/>
-      <c r="T110" s="3"/>
-      <c r="U110" s="3"/>
-      <c r="V110" s="3"/>
-      <c r="W110" s="3"/>
-      <c r="X110" s="54">
+      <c r="S110" s="7"/>
+      <c r="T110" s="14"/>
+      <c r="U110" s="14"/>
+      <c r="V110" s="14"/>
+      <c r="W110" s="14"/>
+      <c r="X110" s="20">
         <v>100</v>
       </c>
-      <c r="Y110" s="54">
+      <c r="Y110" s="20">
         <v>50</v>
       </c>
-      <c r="Z110" s="54">
+      <c r="Z110" s="20">
         <v>200</v>
       </c>
-      <c r="AA110" s="54">
+      <c r="AA110" s="20">
         <v>150</v>
       </c>
-      <c r="AB110" s="49">
+      <c r="AB110" s="6">
         <v>20</v>
       </c>
-      <c r="AC110" s="49">
+      <c r="AC110" s="6">
         <v>100</v>
       </c>
-      <c r="AD110" s="49">
+      <c r="AD110" s="6">
         <v>1000</v>
       </c>
-      <c r="AE110" s="49">
+      <c r="AE110" s="6">
         <f>IF(X110="?",0,X110)</f>
         <v>100</v>
       </c>
-      <c r="AF110" s="49">
-        <f t="shared" ref="AF110:AK110" si="64">IF(Y110="?",0,Y110)</f>
+      <c r="AF110" s="6">
+        <f t="shared" ref="AF110:AK112" si="12">IF(Y110="?",0,Y110)</f>
         <v>50</v>
       </c>
-      <c r="AG110" s="49">
-        <f t="shared" si="64"/>
+      <c r="AG110" s="6">
+        <f t="shared" si="12"/>
         <v>200</v>
       </c>
-      <c r="AH110" s="49">
-        <f t="shared" si="64"/>
+      <c r="AH110" s="6">
+        <f t="shared" si="12"/>
         <v>150</v>
       </c>
-      <c r="AI110" s="49">
-        <f t="shared" si="64"/>
+      <c r="AI110" s="6">
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
-      <c r="AJ110" s="49">
-        <f t="shared" si="64"/>
+      <c r="AJ110" s="6">
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
-      <c r="AK110" s="49">
-        <f t="shared" si="64"/>
+      <c r="AK110" s="6">
+        <f t="shared" si="12"/>
         <v>1000</v>
       </c>
-      <c r="AL110" s="49">
+      <c r="AL110" s="6">
         <f>AE110+AF110+AG110+AH110</f>
         <v>500</v>
       </c>
-      <c r="AM110" s="49">
+      <c r="AM110" s="6">
         <f>AH110+(AJ110/305)+AI110-AK110</f>
         <v>-829.67213114754099</v>
       </c>
-      <c r="AN110" s="57">
-        <v>1000000</v>
-      </c>
-      <c r="AO110" s="55" t="s">
-        <v>148</v>
-      </c>
-      <c r="AP110" s="3"/>
+      <c r="AN110" s="3"/>
+      <c r="AO110" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP110" s="7" t="s">
+        <v>152</v>
+      </c>
     </row>
-    <row r="111" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B111" s="47" t="s">
-        <v>219</v>
+    <row r="111" spans="2:66" x14ac:dyDescent="0.3">
+      <c r="B111" s="39" t="s">
+        <v>218</v>
       </c>
       <c r="C111" s="7">
         <v>5</v>
       </c>
-      <c r="D111" s="48" t="s">
+      <c r="D111" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="E111" s="49" t="s">
+      <c r="E111" s="30" t="s">
         <v>70</v>
       </c>
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
-      <c r="H111" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="I111" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="J111" s="48" t="s">
-        <v>98</v>
-      </c>
-      <c r="K111" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="L111" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="M111" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="N111" s="4"/>
-      <c r="O111" s="4"/>
-      <c r="P111" s="4"/>
-      <c r="Q111" s="48" t="s">
+      <c r="H111" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I111" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J111" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="K111" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="L111" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M111" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N111" s="7"/>
+      <c r="O111" s="7"/>
+      <c r="P111" s="7"/>
+      <c r="Q111" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="R111" s="48" t="s">
+      <c r="R111" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="S111" s="4"/>
-      <c r="T111" s="3"/>
-      <c r="U111" s="3"/>
-      <c r="V111" s="3"/>
-      <c r="W111" s="3"/>
-      <c r="X111" s="54">
+      <c r="S111" s="7"/>
+      <c r="T111" s="14"/>
+      <c r="U111" s="14"/>
+      <c r="V111" s="14"/>
+      <c r="W111" s="14"/>
+      <c r="X111" s="20">
         <v>100</v>
       </c>
-      <c r="Y111" s="54">
+      <c r="Y111" s="20">
         <v>50</v>
       </c>
-      <c r="Z111" s="54">
+      <c r="Z111" s="20">
         <v>200</v>
       </c>
-      <c r="AA111" s="54">
+      <c r="AA111" s="20">
         <v>150</v>
       </c>
-      <c r="AB111" s="49">
+      <c r="AB111" s="6">
         <v>20</v>
       </c>
-      <c r="AC111" s="49">
+      <c r="AC111" s="6">
         <v>100</v>
       </c>
-      <c r="AD111" s="49">
+      <c r="AD111" s="6">
         <v>1000</v>
       </c>
-      <c r="AE111" s="49">
+      <c r="AE111" s="6">
         <f>IF(X111="?",0,X111)</f>
         <v>100</v>
       </c>
-      <c r="AF111" s="49">
-        <f t="shared" ref="AF111" si="65">IF(Y111="?",0,Y111)</f>
+      <c r="AF111" s="6">
+        <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="AG111" s="49">
-        <f t="shared" ref="AG111" si="66">IF(Z111="?",0,Z111)</f>
+      <c r="AG111" s="6">
+        <f t="shared" si="12"/>
         <v>200</v>
       </c>
-      <c r="AH111" s="49">
-        <f t="shared" ref="AH111" si="67">IF(AA111="?",0,AA111)</f>
+      <c r="AH111" s="6">
+        <f t="shared" si="12"/>
         <v>150</v>
       </c>
-      <c r="AI111" s="49">
-        <f t="shared" ref="AI111" si="68">IF(AB111="?",0,AB111)</f>
+      <c r="AI111" s="6">
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
-      <c r="AJ111" s="49">
-        <f t="shared" ref="AJ111" si="69">IF(AC111="?",0,AC111)</f>
+      <c r="AJ111" s="6">
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
-      <c r="AK111" s="49">
-        <f t="shared" ref="AK111" si="70">IF(AD111="?",0,AD111)</f>
+      <c r="AK111" s="6">
+        <f t="shared" si="12"/>
         <v>1000</v>
       </c>
-      <c r="AL111" s="49">
+      <c r="AL111" s="6">
         <f>AE111+AF111+AG111+AH111</f>
         <v>500</v>
       </c>
-      <c r="AM111" s="49">
+      <c r="AM111" s="6">
         <f>AH111+(AJ111/305)+AI111-AK111</f>
         <v>-829.67213114754099</v>
       </c>
-      <c r="AN111" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AO111" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="AP111" s="3" t="s">
+      <c r="AN111" s="3"/>
+      <c r="AO111" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP111" s="7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="112" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B112" s="47" t="s">
-        <v>221</v>
+    <row r="112" spans="2:66" x14ac:dyDescent="0.3">
+      <c r="B112" s="39" t="s">
+        <v>219</v>
       </c>
       <c r="C112" s="7">
         <v>5</v>
       </c>
-      <c r="D112" s="49">
+      <c r="D112" s="30">
         <f>AL112/AM112</f>
-        <v>12.298387096774194</v>
-      </c>
-      <c r="E112" s="52"/>
+        <v>5.1470588235294121</v>
+      </c>
+      <c r="E112" s="30"/>
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
-      <c r="H112" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="I112" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="J112" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="K112" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="L112" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="M112" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="N112" s="4"/>
-      <c r="O112" s="4"/>
-      <c r="P112" s="4"/>
-      <c r="Q112" s="48" t="s">
+      <c r="H112" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I112" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J112" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="K112" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="L112" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M112" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N112" s="7"/>
+      <c r="O112" s="7"/>
+      <c r="P112" s="7"/>
+      <c r="Q112" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="R112" s="48" t="s">
+      <c r="R112" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="S112" s="4"/>
-      <c r="T112" s="3"/>
-      <c r="U112" s="3"/>
-      <c r="V112" s="3"/>
-      <c r="W112" s="3"/>
-      <c r="X112" s="48" t="s">
+      <c r="S112" s="7"/>
+      <c r="T112" s="14"/>
+      <c r="U112" s="14"/>
+      <c r="V112" s="14"/>
+      <c r="W112" s="14"/>
+      <c r="X112" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="Y112" s="54">
+      <c r="Y112" s="20">
         <v>50</v>
       </c>
-      <c r="Z112" s="54">
+      <c r="Z112" s="20">
         <v>200</v>
       </c>
-      <c r="AA112" s="48" t="s">
+      <c r="AA112" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="AB112" s="49">
+      <c r="AB112" s="6">
         <v>20</v>
       </c>
-      <c r="AC112" s="49">
+      <c r="AC112" s="6">
         <v>100</v>
       </c>
-      <c r="AD112" s="48" t="s">
+      <c r="AD112" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="AE112" s="49">
+      <c r="AE112" s="6">
         <f>IF(X112="'?'",0,X112)</f>
         <v>0</v>
       </c>
-      <c r="AF112" s="49">
-        <f t="shared" ref="AF112" si="71">IF(Y112="?",0,Y112)</f>
+      <c r="AF112" s="6">
+        <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="AG112" s="49">
-        <f t="shared" ref="AG112" si="72">IF(Z112="?",0,Z112)</f>
+      <c r="AG112" s="6">
+        <f t="shared" si="12"/>
         <v>200</v>
       </c>
-      <c r="AH112" s="49">
+      <c r="AH112" s="6">
         <f>IF(AA112="'?'",0,AA112)</f>
         <v>0</v>
       </c>
-      <c r="AI112" s="49">
-        <f t="shared" ref="AI112" si="73">IF(AB112="?",0,AB112)</f>
+      <c r="AI112" s="6">
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
-      <c r="AJ112" s="49">
-        <f t="shared" ref="AJ112" si="74">IF(AC112="?",0,AC112)</f>
+      <c r="AJ112" s="6">
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
-      <c r="AK112" s="49">
+      <c r="AK112" s="6">
         <f>IF(AD112="'?'",0,AD112)</f>
         <v>0</v>
       </c>
-      <c r="AL112" s="49">
+      <c r="AL112" s="6">
         <f>AE112+AF112+AG112+AH112</f>
         <v>250</v>
       </c>
-      <c r="AM112" s="49">
-        <f>AH112+(AJ112/305)+AI112-AK112</f>
-        <v>20.327868852459016</v>
-      </c>
-      <c r="AN112" s="57">
-        <v>1000000</v>
-      </c>
-      <c r="AO112" s="55" t="s">
-        <v>148</v>
-      </c>
-      <c r="AP112" s="3"/>
+      <c r="AM112" s="6">
+        <f>-AK112+(AJ112/3.5)+AI112+AH112</f>
+        <v>48.571428571428569</v>
+      </c>
+      <c r="AN112" s="42">
+        <v>5.1440330000000003</v>
+      </c>
+      <c r="AO112" s="3"/>
+      <c r="AP112" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="118" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E118" s="43"/>
+      <c r="F118" s="44"/>
+      <c r="G118" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
